--- a/Docs/Preparação para teste de conformidade/Teste de Conformidade.xlsx
+++ b/Docs/Preparação para teste de conformidade/Teste de Conformidade.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lorena\Documents\RGitRep\Docs\Preparação para teste de conformidade\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-9420" yWindow="495" windowWidth="23760" windowHeight="9795"/>
+    <workbookView xWindow="-9420" yWindow="495" windowWidth="23760" windowHeight="9795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -13,11 +18,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Main!$A$1:$I$1</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
+  <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="504">
   <si>
     <t>Obrigatório</t>
   </si>
@@ -1346,12 +1352,396 @@
   <si>
     <t xml:space="preserve">Seguir  planilha de exemplo, aba ID 35, críticas para autorização automática </t>
   </si>
+  <si>
+    <t>Coordenador de área</t>
+  </si>
+  <si>
+    <t>OBS</t>
+  </si>
+  <si>
+    <t>Atenção</t>
+  </si>
+  <si>
+    <t>CTI</t>
+  </si>
+  <si>
+    <t>Att: Confirmação deve ser verificada</t>
+  </si>
+  <si>
+    <t>CRB
+CGPS
+Funserv</t>
+  </si>
+  <si>
+    <t>Att: Aceitação de critério que possa ser relacionado individualmente ao beneficiário</t>
+  </si>
+  <si>
+    <t>CRB</t>
+  </si>
+  <si>
+    <t>Att: Funcionalidade característica do Planserv, desejável</t>
+  </si>
+  <si>
+    <t>CGR</t>
+  </si>
+  <si>
+    <t>Att: Separação de candidatos dos prestadores já cadastrados</t>
+  </si>
+  <si>
+    <t>Att: Funcionalidade bem específica, porém a classificação não torna o item mais complexo, exemplos podem ser fornecidos antecipadamente. Desejável.</t>
+  </si>
+  <si>
+    <t>Att: Avaliar em relação ao item anterior, podendo os mesmos fazerem parte da mesma solução no sistema. Desejável.</t>
+  </si>
+  <si>
+    <t>Att: Item poderá ser apresentado de formas distintas, incluindo relatórios Desejável.</t>
+  </si>
+  <si>
+    <t>Att: Item de alta complexidade e obrigatório</t>
+  </si>
+  <si>
+    <t>Att: Funcionalidade específica, desejável.</t>
+  </si>
+  <si>
+    <t>Att: Controle genérico de anexos pode ser demonstrado</t>
+  </si>
+  <si>
+    <t>CGR
+CTI</t>
+  </si>
+  <si>
+    <t>Att: Verificar qual a solução técnica apresentada pelo prestador</t>
+  </si>
+  <si>
+    <t>Att: Processo de verificação do processamento da fatura pode não ser viável dentro do teste, a depender da complexidade da sua implementação</t>
+  </si>
+  <si>
+    <t>CRB
+CGPS
+CTI</t>
+  </si>
+  <si>
+    <t>CGPS</t>
+  </si>
+  <si>
+    <t>Att: Questionário deverá ter sido aplicado anteriormente, e dados de atendimentos já devem estar disponíveis para algum beneficiário. O mesmo para a mecânica de extratificação.</t>
+  </si>
+  <si>
+    <t>CGPS
+CTI</t>
+  </si>
+  <si>
+    <t>Att: Funcionalidade pode exigir validação de equipe de TI, ou ter sido respondida no item anterior</t>
+  </si>
+  <si>
+    <t>Att: Verificar como é realizada a identificação do beneficiário nos programas pela ferramenta</t>
+  </si>
+  <si>
+    <t>Att: Avaliar como será disparada a recomendação, que vincula a lista cadastrada ao respectivo grupo de beneficiários do nível de programa</t>
+  </si>
+  <si>
+    <t>Att: Para controle de datas aplicada à classificação em cada nível</t>
+  </si>
+  <si>
+    <t>Att: ação muito complexa para cadastramento em tempo de teste, candidato deverá apresentar exemplos já implementados</t>
+  </si>
+  <si>
+    <t>Att: Funcionalidade deverá avaliar identificação do nível de classificação do beneficiário</t>
+  </si>
+  <si>
+    <t>Att: Ferramenta poderá apresentar solução que calcule automaticamente o nível de adessão do beneficiário</t>
+  </si>
+  <si>
+    <t>Att: Solução pode ser apresentada de diversas formas, avaliar presença de dados cl~inicos como critério base</t>
+  </si>
+  <si>
+    <t>Att: Solução pode ser apresentada em relatório ou dentro de módulo de dados gerenciais. Atenção especial para datas de adesão ao programa.</t>
+  </si>
+  <si>
+    <t>Att: Solução pode ser apresentada em relatório ou dentro de módulo de dados gerenciais. Atenção especial visualização do nível do programa, e data do procedimento.</t>
+  </si>
+  <si>
+    <t>CGPS
+CCO</t>
+  </si>
+  <si>
+    <t>Att: Item poderá ser avaliado com críticas similares no sistema do candidato</t>
+  </si>
+  <si>
+    <t>Att: avaliar diferenças na solução apresentada em relação ao TOP</t>
+  </si>
+  <si>
+    <t>Att: Avaliar a partir de exemplos no sistema do Licitante</t>
+  </si>
+  <si>
+    <t>Att: Exemplos podem ser fornecidos pelo Licitante em seu sistema</t>
+  </si>
+  <si>
+    <t>Att: Avaliar a validação da exigência e fluxo de trabalho</t>
+  </si>
+  <si>
+    <t>Att: Avaliar solução de críticas de re-execução em geral</t>
+  </si>
+  <si>
+    <t>Att: Item pode ser complexo devido as opções de cadastro de estados/condições distintas, mesmo sendo desejável.</t>
+  </si>
+  <si>
+    <t>Att: Avaliação do fluxo de analise</t>
+  </si>
+  <si>
+    <t>CGPS
+CCO
+CTI</t>
+  </si>
+  <si>
+    <t>Att: Avalaiação da integração da base de documentos e funções em sistema</t>
+  </si>
+  <si>
+    <t>Att: Item poderá ser avaliado com classificações similares das autorizações</t>
+  </si>
+  <si>
+    <t>CCO</t>
+  </si>
+  <si>
+    <t>Att: Item poderá ser verificado com contas exemplo do candidato</t>
+  </si>
+  <si>
+    <t>CCO
+CTI</t>
+  </si>
+  <si>
+    <t>Att: Funcionalidade pode ser alcançada com algoritimo, ou por meio de analise suportada na ferramenta</t>
+  </si>
+  <si>
+    <t>Att: Solução pode apresentar integração assincrona com base principal</t>
+  </si>
+  <si>
+    <t>Att: Solução pode ser apresentada com acesso ao sistema via browser pelo tablet</t>
+  </si>
+  <si>
+    <t>Att: Deverá ser verificado o processo de recebimento de contas do candidato</t>
+  </si>
+  <si>
+    <t>Att: Processo pode ser validado com exemplos na ferramenta do candidato, desde que possível verificar as interações</t>
+  </si>
+  <si>
+    <t>Att: Processo pode ser validado com exemplos na ferramenta do candidato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCO
+CGPS
+</t>
+  </si>
+  <si>
+    <t>Att: Funcionalidade pode ser apresentada como um fluxo de analise em várias telas distintas, desde que possam ser resumidos de modo consistente em alguma saída consolidada. Deverá ser realizado com dados da ferramenta do candidato</t>
+  </si>
+  <si>
+    <t>Att: Avaliar integração da funcionalidade à ferramenta</t>
+  </si>
+  <si>
+    <t>Att: avaliar tratamento individualizado de uma conta</t>
+  </si>
+  <si>
+    <t>Att: Verificar vinculação restrita ou aberta dos itens na conta</t>
+  </si>
+  <si>
+    <t>Att: Avaliação pode ser feita com base em relatórios ou visões</t>
+  </si>
+  <si>
+    <t>Att: Avaliar o fluxo e ferramenta para interação</t>
+  </si>
+  <si>
+    <t>Att:Avaliação de estados da ferramenta do prestador para os ciclos de vida da regulação</t>
+  </si>
+  <si>
+    <t>CRB
+CGR
+CGPS
+CCO
+CTI</t>
+  </si>
+  <si>
+    <t>Anotações</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>validação por cpf</t>
+  </si>
+  <si>
+    <t>validação de data de nascimento</t>
+  </si>
+  <si>
+    <t>com data de vigência e historico</t>
+  </si>
+  <si>
+    <t>msg no cabeçalho</t>
+  </si>
+  <si>
+    <t>por item, beneficiário</t>
+  </si>
+  <si>
+    <t>calculo proporcional</t>
+  </si>
+  <si>
+    <t>requisito8
+modulo separado</t>
+  </si>
+  <si>
+    <t>mensagem controlada pelo candidato</t>
+  </si>
+  <si>
+    <t>ok, com perfis distintos</t>
+  </si>
+  <si>
+    <t>questionários e avaliação segregados</t>
+  </si>
+  <si>
+    <t>controle por item e feed back</t>
+  </si>
+  <si>
+    <t>apresentado em formato de relatório</t>
+  </si>
+  <si>
+    <t>incluindo edital</t>
+  </si>
+  <si>
+    <t>controle de fluxo manual</t>
+  </si>
+  <si>
+    <t>com inclusão do termo de adesão</t>
+  </si>
+  <si>
+    <t>validação pelo prestador</t>
+  </si>
+  <si>
+    <t>separado por pf e pj</t>
+  </si>
+  <si>
+    <t>Procedimentos em lote, com aceitação dos grupos</t>
+  </si>
+  <si>
+    <t>Processo de apresentado para conta em xml, e 3 condições de suspensão atendidas</t>
+  </si>
+  <si>
+    <t>Guia e senha gerada</t>
+  </si>
+  <si>
+    <t>dados clinicos apresentados (dados familiares)</t>
+  </si>
+  <si>
+    <t>ATT: ac
+mecanica de atendimento IP</t>
+  </si>
+  <si>
+    <t>vincuação de campos aos questionarios, e ferramenta integrada de questionarios</t>
+  </si>
+  <si>
+    <t>atendido pelo BI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">atendido pelo BI sem detalhamento por beneficiario </t>
+  </si>
+  <si>
+    <t>controlado pelos modulos respectivos</t>
+  </si>
+  <si>
+    <t>diferença por cadastro de operadora, não compromete o item</t>
+  </si>
+  <si>
+    <t>atendido por itens individuais na ficha do paciente, com historico</t>
+  </si>
+  <si>
+    <t>gráfico por linha de tendência no tempo, per capita</t>
+  </si>
+  <si>
+    <t>linha do tempo detalhada</t>
+  </si>
+  <si>
+    <t>ok, com geração de senha</t>
+  </si>
+  <si>
+    <t>motivo de negativa</t>
+  </si>
+  <si>
+    <t>dois tipos de historico</t>
+  </si>
+  <si>
+    <t>pesquisa por multiplos campos</t>
+  </si>
+  <si>
+    <t>registro histórico</t>
+  </si>
+  <si>
+    <t>mecânica de mensagens com o prestador</t>
+  </si>
+  <si>
+    <t>registro de motivos de negativa, status de analise</t>
+  </si>
+  <si>
+    <t>atendido de forma completa</t>
+  </si>
+  <si>
+    <t>mecanica de envio por bandejas</t>
+  </si>
+  <si>
+    <t>ATT: mecanica em texto, sem anexos</t>
+  </si>
+  <si>
+    <t>segregação executada até emissão das guias</t>
+  </si>
+  <si>
+    <t>bloqueio efetivado</t>
+  </si>
+  <si>
+    <t>ATT: apresentado conforme esperado</t>
+  </si>
+  <si>
+    <t>aplicativo com funcionalidades exigidas</t>
+  </si>
+  <si>
+    <t>captador integrado</t>
+  </si>
+  <si>
+    <t>critica em mensagens</t>
+  </si>
+  <si>
+    <t>anexos vinculados</t>
+  </si>
+  <si>
+    <t>motor de regras completo, com critica aplicada no momento</t>
+  </si>
+  <si>
+    <t>mecanica completa apresentada</t>
+  </si>
+  <si>
+    <t>apresentação de críticas entre as fases</t>
+  </si>
+  <si>
+    <t>modulo de mensagens integrado</t>
+  </si>
+  <si>
+    <t>segregação de valor glosado</t>
+  </si>
+  <si>
+    <t>comprovação do envio da conta por xml com critica registrada</t>
+  </si>
+  <si>
+    <t>programação de pagamento com demonstrativo enviado individualmente</t>
+  </si>
+  <si>
+    <t>item com efetivo bloqueio</t>
+  </si>
+  <si>
+    <t>dashboard simples no BI</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1394,8 +1784,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1435,6 +1831,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1772,7 +2186,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="204">
+  <cellXfs count="264">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1982,6 +2396,96 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2000,92 +2504,89 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2096,6 +2597,117 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2108,278 +2720,260 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2387,13 +2981,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2431,9 +3033,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2465,9 +3067,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2499,9 +3119,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2674,15 +3312,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I194"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" topLeftCell="A191" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M192" sqref="M192:M194"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30.75" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.28515625" style="21" customWidth="1"/>
     <col min="2" max="4" width="33" customWidth="1"/>
@@ -2690,9 +3328,13 @@
     <col min="6" max="6" width="36" style="14" customWidth="1"/>
     <col min="7" max="7" width="25.7109375" style="14" customWidth="1"/>
     <col min="8" max="9" width="16.140625" style="14" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" style="14" customWidth="1"/>
+    <col min="11" max="11" width="23" style="14" customWidth="1"/>
+    <col min="12" max="12" width="6.42578125" style="14" customWidth="1"/>
+    <col min="13" max="13" width="24.85546875" style="263" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30.75" customHeight="1" thickBot="1">
+    <row r="1" spans="1:13" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -2720,105 +3362,143 @@
       <c r="I1" s="26" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="38.25">
-      <c r="A2" s="167">
+      <c r="J1" s="25" t="s">
+        <v>382</v>
+      </c>
+      <c r="K1" s="25" t="s">
+        <v>383</v>
+      </c>
+      <c r="L1" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="M1" s="26" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="123">
         <v>1</v>
       </c>
-      <c r="B2" s="170" t="s">
+      <c r="B2" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="170" t="s">
+      <c r="C2" s="126" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="173" t="s">
+      <c r="E2" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="100" t="s">
+      <c r="F2" s="89" t="s">
         <v>286</v>
       </c>
-      <c r="G2" s="100" t="s">
+      <c r="G2" s="89" t="s">
         <v>372</v>
       </c>
-      <c r="H2" s="100" t="s">
+      <c r="H2" s="89" t="s">
         <v>356</v>
       </c>
-      <c r="I2" s="100" t="s">
+      <c r="I2" s="89" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="30.75" customHeight="1">
-      <c r="A3" s="168"/>
-      <c r="B3" s="171"/>
-      <c r="C3" s="171"/>
+      <c r="J2" s="89" t="s">
+        <v>385</v>
+      </c>
+      <c r="K2" s="89" t="s">
+        <v>286</v>
+      </c>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="124"/>
+      <c r="B3" s="127"/>
+      <c r="C3" s="127"/>
       <c r="D3" s="13"/>
-      <c r="E3" s="174"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-    </row>
-    <row r="4" spans="1:9" ht="38.25">
-      <c r="A4" s="168"/>
-      <c r="B4" s="171"/>
-      <c r="C4" s="171"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
+    </row>
+    <row r="4" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="124"/>
+      <c r="B4" s="127"/>
+      <c r="C4" s="127"/>
       <c r="D4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="174"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101"/>
-    </row>
-    <row r="5" spans="1:9" ht="30.75" customHeight="1">
-      <c r="A5" s="168"/>
-      <c r="B5" s="171"/>
-      <c r="C5" s="171"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+    </row>
+    <row r="5" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="124"/>
+      <c r="B5" s="127"/>
+      <c r="C5" s="127"/>
       <c r="D5" s="13"/>
-      <c r="E5" s="174"/>
-      <c r="F5" s="101"/>
-      <c r="G5" s="101"/>
-      <c r="H5" s="101"/>
-      <c r="I5" s="101"/>
-    </row>
-    <row r="6" spans="1:9" ht="26.25" thickBot="1">
-      <c r="A6" s="169"/>
-      <c r="B6" s="172"/>
-      <c r="C6" s="172"/>
+      <c r="E5" s="130"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="90"/>
+      <c r="L5" s="90"/>
+      <c r="M5" s="90"/>
+    </row>
+    <row r="6" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="125"/>
+      <c r="B6" s="128"/>
+      <c r="C6" s="128"/>
       <c r="D6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="175"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="102"/>
-    </row>
-    <row r="7" spans="1:9" s="109" customFormat="1" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A7" s="109" t="s">
+      <c r="E6" s="131"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="91"/>
+      <c r="J6" s="91"/>
+      <c r="K6" s="91"/>
+      <c r="L6" s="91"/>
+      <c r="M6" s="91"/>
+    </row>
+    <row r="7" spans="1:13" s="175" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="175" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="110"/>
-      <c r="C7" s="110"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="110"/>
-    </row>
-    <row r="8" spans="1:9" s="113" customFormat="1" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A8" s="111"/>
-      <c r="B8" s="112"/>
-      <c r="C8" s="112"/>
-      <c r="D8" s="112"/>
-      <c r="E8" s="112"/>
-      <c r="F8" s="112"/>
-      <c r="G8" s="112"/>
-    </row>
-    <row r="9" spans="1:9" ht="30.75" customHeight="1" thickBot="1">
+      <c r="B7" s="176"/>
+      <c r="C7" s="176"/>
+      <c r="D7" s="176"/>
+      <c r="E7" s="176"/>
+      <c r="F7" s="176"/>
+      <c r="G7" s="176"/>
+    </row>
+    <row r="8" spans="1:13" s="204" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="177"/>
+      <c r="B8" s="178"/>
+      <c r="C8" s="178"/>
+      <c r="D8" s="178"/>
+      <c r="E8" s="178"/>
+      <c r="F8" s="178"/>
+      <c r="G8" s="178"/>
+    </row>
+    <row r="9" spans="1:13" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
         <v>1</v>
       </c>
@@ -2846,12 +3526,24 @@
       <c r="I9" s="26" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="25.5">
-      <c r="A10" s="197">
+      <c r="J9" s="25" t="s">
+        <v>382</v>
+      </c>
+      <c r="K9" s="25" t="s">
+        <v>383</v>
+      </c>
+      <c r="L9" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="M9" s="26" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="132">
         <v>2</v>
       </c>
-      <c r="B10" s="129" t="s">
+      <c r="B10" s="117" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -2860,53 +3552,71 @@
       <c r="D10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="132" t="s">
+      <c r="E10" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="F10" s="85" t="s">
+      <c r="F10" s="200" t="s">
         <v>307</v>
       </c>
-      <c r="G10" s="85" t="s">
+      <c r="G10" s="200" t="s">
         <v>373</v>
       </c>
-      <c r="H10" s="100" t="s">
+      <c r="H10" s="89" t="s">
         <v>360</v>
       </c>
-      <c r="I10" s="100" t="s">
+      <c r="I10" s="89" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="30.75" customHeight="1">
-      <c r="A11" s="198"/>
-      <c r="B11" s="130"/>
+      <c r="J10" s="200" t="s">
+        <v>286</v>
+      </c>
+      <c r="K10" s="200" t="s">
+        <v>286</v>
+      </c>
+      <c r="L10" s="200"/>
+      <c r="M10" s="89" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="133"/>
+      <c r="B11" s="118"/>
       <c r="C11" s="4"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="133"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="101"/>
-      <c r="I11" s="101"/>
-    </row>
-    <row r="12" spans="1:9" ht="26.25" thickBot="1">
-      <c r="A12" s="199"/>
-      <c r="B12" s="131"/>
+      <c r="E11" s="121"/>
+      <c r="F11" s="107"/>
+      <c r="G11" s="107"/>
+      <c r="H11" s="90"/>
+      <c r="I11" s="90"/>
+      <c r="J11" s="107"/>
+      <c r="K11" s="107"/>
+      <c r="L11" s="107"/>
+      <c r="M11" s="90"/>
+    </row>
+    <row r="12" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="134"/>
+      <c r="B12" s="119"/>
       <c r="C12" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="134"/>
-      <c r="F12" s="84"/>
-      <c r="G12" s="84"/>
-      <c r="H12" s="102"/>
-      <c r="I12" s="102"/>
-    </row>
-    <row r="13" spans="1:9" ht="25.5">
-      <c r="A13" s="197">
+      <c r="E12" s="122"/>
+      <c r="F12" s="108"/>
+      <c r="G12" s="108"/>
+      <c r="H12" s="91"/>
+      <c r="I12" s="91"/>
+      <c r="J12" s="108"/>
+      <c r="K12" s="108"/>
+      <c r="L12" s="108"/>
+      <c r="M12" s="91"/>
+    </row>
+    <row r="13" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="132">
         <v>3</v>
       </c>
-      <c r="B13" s="129" t="s">
+      <c r="B13" s="117" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -2915,127 +3625,171 @@
       <c r="D13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="132" t="s">
+      <c r="E13" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="F13" s="85" t="s">
+      <c r="F13" s="200" t="s">
         <v>306</v>
       </c>
-      <c r="G13" s="85" t="s">
+      <c r="G13" s="200" t="s">
         <v>373</v>
       </c>
-      <c r="H13" s="100" t="s">
+      <c r="H13" s="89" t="s">
         <v>371</v>
       </c>
-      <c r="I13" s="100" t="s">
+      <c r="I13" s="89" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="30.75" customHeight="1">
-      <c r="A14" s="198"/>
-      <c r="B14" s="130"/>
+      <c r="J13" s="200" t="s">
+        <v>286</v>
+      </c>
+      <c r="K13" s="200" t="s">
+        <v>286</v>
+      </c>
+      <c r="L13" s="200"/>
+      <c r="M13" s="89" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="133"/>
+      <c r="B14" s="118"/>
       <c r="C14" s="4"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="133"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="101"/>
-      <c r="I14" s="101"/>
-    </row>
-    <row r="15" spans="1:9" ht="38.25">
-      <c r="A15" s="198"/>
-      <c r="B15" s="130"/>
+      <c r="E14" s="121"/>
+      <c r="F14" s="107"/>
+      <c r="G14" s="107"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="90"/>
+      <c r="J14" s="107"/>
+      <c r="K14" s="107"/>
+      <c r="L14" s="107"/>
+      <c r="M14" s="90"/>
+    </row>
+    <row r="15" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="133"/>
+      <c r="B15" s="118"/>
       <c r="C15" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="133"/>
-      <c r="F15" s="83"/>
-      <c r="G15" s="83"/>
-      <c r="H15" s="101"/>
-      <c r="I15" s="101"/>
-    </row>
-    <row r="16" spans="1:9" ht="30.75" customHeight="1">
-      <c r="A16" s="198"/>
-      <c r="B16" s="130"/>
+      <c r="E15" s="121"/>
+      <c r="F15" s="107"/>
+      <c r="G15" s="107"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="90"/>
+      <c r="J15" s="107"/>
+      <c r="K15" s="107"/>
+      <c r="L15" s="107"/>
+      <c r="M15" s="90"/>
+    </row>
+    <row r="16" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="133"/>
+      <c r="B16" s="118"/>
       <c r="C16" s="4"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="133"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="83"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="101"/>
-    </row>
-    <row r="17" spans="1:9" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A17" s="199"/>
-      <c r="B17" s="131"/>
+      <c r="E16" s="121"/>
+      <c r="F16" s="107"/>
+      <c r="G16" s="107"/>
+      <c r="H16" s="90"/>
+      <c r="I16" s="90"/>
+      <c r="J16" s="107"/>
+      <c r="K16" s="107"/>
+      <c r="L16" s="107"/>
+      <c r="M16" s="90"/>
+    </row>
+    <row r="17" spans="1:13" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="134"/>
+      <c r="B17" s="119"/>
       <c r="C17" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D17" s="7"/>
-      <c r="E17" s="134"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="84"/>
-      <c r="H17" s="102"/>
-      <c r="I17" s="102"/>
-    </row>
-    <row r="18" spans="1:9" ht="30.75" customHeight="1">
-      <c r="A18" s="126">
+      <c r="E17" s="122"/>
+      <c r="F17" s="108"/>
+      <c r="G17" s="108"/>
+      <c r="H17" s="91"/>
+      <c r="I17" s="91"/>
+      <c r="J17" s="108"/>
+      <c r="K17" s="108"/>
+      <c r="L17" s="108"/>
+      <c r="M17" s="91"/>
+    </row>
+    <row r="18" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="172">
         <v>4</v>
       </c>
-      <c r="B18" s="129" t="s">
+      <c r="B18" s="117" t="s">
         <v>23</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="129" t="s">
+      <c r="D18" s="117" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="132" t="s">
+      <c r="E18" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="F18" s="85" t="s">
+      <c r="F18" s="200" t="s">
         <v>287</v>
       </c>
-      <c r="G18" s="85" t="s">
+      <c r="G18" s="200" t="s">
         <v>293</v>
       </c>
-      <c r="H18" s="100" t="s">
+      <c r="H18" s="89" t="s">
         <v>356</v>
       </c>
-      <c r="I18" s="100" t="s">
+      <c r="I18" s="89" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="30.75" customHeight="1">
-      <c r="A19" s="127"/>
-      <c r="B19" s="130"/>
+      <c r="J18" s="200" t="s">
+        <v>286</v>
+      </c>
+      <c r="K18" s="200" t="s">
+        <v>286</v>
+      </c>
+      <c r="L18" s="200"/>
+      <c r="M18" s="89" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="173"/>
+      <c r="B19" s="118"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="130"/>
-      <c r="E19" s="133"/>
-      <c r="F19" s="83"/>
-      <c r="G19" s="83"/>
-      <c r="H19" s="101"/>
-      <c r="I19" s="101"/>
-    </row>
-    <row r="20" spans="1:9" ht="39" thickBot="1">
-      <c r="A20" s="128"/>
-      <c r="B20" s="131"/>
+      <c r="D19" s="118"/>
+      <c r="E19" s="121"/>
+      <c r="F19" s="107"/>
+      <c r="G19" s="107"/>
+      <c r="H19" s="90"/>
+      <c r="I19" s="90"/>
+      <c r="J19" s="107"/>
+      <c r="K19" s="107"/>
+      <c r="L19" s="107"/>
+      <c r="M19" s="90"/>
+    </row>
+    <row r="20" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="174"/>
+      <c r="B20" s="119"/>
       <c r="C20" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="131"/>
-      <c r="E20" s="134"/>
-      <c r="F20" s="84"/>
-      <c r="G20" s="84"/>
-      <c r="H20" s="102"/>
-      <c r="I20" s="102"/>
-    </row>
-    <row r="21" spans="1:9" ht="39" thickBot="1">
-      <c r="A21" s="200">
+      <c r="D20" s="119"/>
+      <c r="E20" s="122"/>
+      <c r="F20" s="108"/>
+      <c r="G20" s="108"/>
+      <c r="H20" s="91"/>
+      <c r="I20" s="91"/>
+      <c r="J20" s="108"/>
+      <c r="K20" s="108"/>
+      <c r="L20" s="108"/>
+      <c r="M20" s="91"/>
+    </row>
+    <row r="21" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="85">
         <v>5</v>
       </c>
       <c r="B21" s="6" t="s">
@@ -3062,8 +3816,18 @@
       <c r="I21" s="58" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="52.5" customHeight="1" thickBot="1">
+      <c r="J21" s="74" t="s">
+        <v>286</v>
+      </c>
+      <c r="K21" s="74" t="s">
+        <v>386</v>
+      </c>
+      <c r="L21" s="218"/>
+      <c r="M21" s="78" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="17">
         <v>6</v>
       </c>
@@ -3091,68 +3855,92 @@
       <c r="I22" s="28" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" ht="48.75" customHeight="1">
-      <c r="A23" s="126">
+      <c r="J22" s="74" t="s">
+        <v>387</v>
+      </c>
+      <c r="K22" s="74" t="s">
+        <v>388</v>
+      </c>
+      <c r="L22" s="219"/>
+      <c r="M22" s="77" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="172">
         <v>7</v>
       </c>
-      <c r="B23" s="129" t="s">
+      <c r="B23" s="117" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="165" t="s">
+      <c r="C23" s="205" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="129" t="s">
+      <c r="D23" s="117" t="s">
         <v>35</v>
       </c>
-      <c r="E23" s="132" t="s">
+      <c r="E23" s="120" t="s">
         <v>36</v>
       </c>
-      <c r="F23" s="85" t="s">
+      <c r="F23" s="200" t="s">
         <v>375</v>
       </c>
-      <c r="G23" s="85" t="s">
+      <c r="G23" s="200" t="s">
         <v>292</v>
       </c>
-      <c r="H23" s="100" t="s">
+      <c r="H23" s="89" t="s">
         <v>356</v>
       </c>
-      <c r="I23" s="100" t="s">
+      <c r="I23" s="89" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" ht="48.75" customHeight="1" thickBot="1">
-      <c r="A24" s="128"/>
-      <c r="B24" s="131"/>
-      <c r="C24" s="166"/>
-      <c r="D24" s="131"/>
-      <c r="E24" s="134"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="84"/>
-      <c r="H24" s="102"/>
-      <c r="I24" s="102"/>
-    </row>
-    <row r="25" spans="1:9" s="109" customFormat="1" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A25" s="109" t="s">
+      <c r="J23" s="200" t="s">
+        <v>389</v>
+      </c>
+      <c r="K23" s="200" t="s">
+        <v>390</v>
+      </c>
+      <c r="L23" s="220"/>
+      <c r="M23" s="89" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="174"/>
+      <c r="B24" s="119"/>
+      <c r="C24" s="206"/>
+      <c r="D24" s="119"/>
+      <c r="E24" s="122"/>
+      <c r="F24" s="108"/>
+      <c r="G24" s="108"/>
+      <c r="H24" s="91"/>
+      <c r="I24" s="91"/>
+      <c r="J24" s="108"/>
+      <c r="K24" s="108"/>
+      <c r="L24" s="113"/>
+      <c r="M24" s="91"/>
+    </row>
+    <row r="25" spans="1:13" s="175" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="175" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="110"/>
-      <c r="C25" s="110"/>
-      <c r="D25" s="110"/>
-      <c r="E25" s="110"/>
-      <c r="F25" s="110"/>
-      <c r="G25" s="110"/>
-    </row>
-    <row r="26" spans="1:9" s="113" customFormat="1" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A26" s="111"/>
-      <c r="B26" s="112"/>
-      <c r="C26" s="112"/>
-      <c r="D26" s="112"/>
-      <c r="E26" s="112"/>
-      <c r="F26" s="112"/>
-      <c r="G26" s="112"/>
-    </row>
-    <row r="27" spans="1:9" ht="30.75" customHeight="1" thickBot="1">
+      <c r="B25" s="176"/>
+      <c r="C25" s="176"/>
+      <c r="D25" s="176"/>
+      <c r="E25" s="176"/>
+      <c r="F25" s="176"/>
+      <c r="G25" s="176"/>
+    </row>
+    <row r="26" spans="1:13" s="204" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="177"/>
+      <c r="B26" s="178"/>
+      <c r="C26" s="178"/>
+      <c r="D26" s="178"/>
+      <c r="E26" s="178"/>
+      <c r="F26" s="178"/>
+      <c r="G26" s="178"/>
+    </row>
+    <row r="27" spans="1:13" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="27" t="s">
         <v>1</v>
       </c>
@@ -3180,502 +3968,676 @@
       <c r="I27" s="26" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" s="29" customFormat="1" ht="54.75" customHeight="1">
-      <c r="A28" s="201">
+      <c r="J27" s="25" t="s">
+        <v>382</v>
+      </c>
+      <c r="K27" s="25" t="s">
+        <v>383</v>
+      </c>
+      <c r="L27" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="M27" s="26" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" s="29" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="147">
         <v>8</v>
       </c>
-      <c r="B28" s="117" t="s">
+      <c r="B28" s="138" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="92" t="s">
+      <c r="C28" s="150" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="92" t="s">
+      <c r="D28" s="150" t="s">
         <v>41</v>
       </c>
-      <c r="E28" s="106" t="s">
+      <c r="E28" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="F28" s="103" t="s">
+      <c r="F28" s="201" t="s">
         <v>364</v>
       </c>
-      <c r="G28" s="86" t="s">
+      <c r="G28" s="207" t="s">
         <v>289</v>
       </c>
-      <c r="H28" s="180" t="s">
+      <c r="H28" s="86" t="s">
         <v>361</v>
       </c>
-      <c r="I28" s="180" t="s">
+      <c r="I28" s="86" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" s="29" customFormat="1" ht="54.75" customHeight="1">
-      <c r="A29" s="202"/>
-      <c r="B29" s="118"/>
-      <c r="C29" s="93"/>
-      <c r="D29" s="93"/>
-      <c r="E29" s="107"/>
-      <c r="F29" s="104"/>
-      <c r="G29" s="87"/>
-      <c r="H29" s="181"/>
-      <c r="I29" s="181"/>
-    </row>
-    <row r="30" spans="1:9" s="29" customFormat="1" ht="54.75" customHeight="1">
-      <c r="A30" s="202"/>
-      <c r="B30" s="118"/>
-      <c r="C30" s="93" t="s">
+      <c r="J28" s="207" t="s">
+        <v>391</v>
+      </c>
+      <c r="K28" s="207" t="s">
+        <v>392</v>
+      </c>
+      <c r="L28" s="114"/>
+      <c r="M28" s="86" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" s="29" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="148"/>
+      <c r="B29" s="139"/>
+      <c r="C29" s="151"/>
+      <c r="D29" s="151"/>
+      <c r="E29" s="136"/>
+      <c r="F29" s="202"/>
+      <c r="G29" s="208"/>
+      <c r="H29" s="87"/>
+      <c r="I29" s="87"/>
+      <c r="J29" s="208"/>
+      <c r="K29" s="208"/>
+      <c r="L29" s="115"/>
+      <c r="M29" s="87"/>
+    </row>
+    <row r="30" spans="1:13" s="29" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="148"/>
+      <c r="B30" s="139"/>
+      <c r="C30" s="151" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="93" t="s">
+      <c r="D30" s="151" t="s">
         <v>42</v>
       </c>
-      <c r="E30" s="107"/>
-      <c r="F30" s="104"/>
-      <c r="G30" s="87"/>
-      <c r="H30" s="181"/>
-      <c r="I30" s="181"/>
-    </row>
-    <row r="31" spans="1:9" s="29" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A31" s="202"/>
-      <c r="B31" s="118"/>
-      <c r="C31" s="93"/>
-      <c r="D31" s="93"/>
-      <c r="E31" s="107"/>
-      <c r="F31" s="104"/>
-      <c r="G31" s="87"/>
-      <c r="H31" s="181"/>
-      <c r="I31" s="181"/>
-    </row>
-    <row r="32" spans="1:9" s="29" customFormat="1" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A32" s="203"/>
-      <c r="B32" s="119"/>
-      <c r="C32" s="94"/>
+      <c r="E30" s="136"/>
+      <c r="F30" s="202"/>
+      <c r="G30" s="208"/>
+      <c r="H30" s="87"/>
+      <c r="I30" s="87"/>
+      <c r="J30" s="208"/>
+      <c r="K30" s="208"/>
+      <c r="L30" s="115"/>
+      <c r="M30" s="87"/>
+    </row>
+    <row r="31" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="148"/>
+      <c r="B31" s="139"/>
+      <c r="C31" s="151"/>
+      <c r="D31" s="151"/>
+      <c r="E31" s="136"/>
+      <c r="F31" s="202"/>
+      <c r="G31" s="208"/>
+      <c r="H31" s="87"/>
+      <c r="I31" s="87"/>
+      <c r="J31" s="208"/>
+      <c r="K31" s="208"/>
+      <c r="L31" s="115"/>
+      <c r="M31" s="87"/>
+    </row>
+    <row r="32" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="149"/>
+      <c r="B32" s="140"/>
+      <c r="C32" s="152"/>
       <c r="D32" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="E32" s="108"/>
-      <c r="F32" s="105"/>
-      <c r="G32" s="88"/>
-      <c r="H32" s="182"/>
-      <c r="I32" s="182"/>
-    </row>
-    <row r="33" spans="1:9" s="29" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A33" s="114">
+      <c r="E32" s="137"/>
+      <c r="F32" s="203"/>
+      <c r="G32" s="209"/>
+      <c r="H32" s="88"/>
+      <c r="I32" s="88"/>
+      <c r="J32" s="209"/>
+      <c r="K32" s="209"/>
+      <c r="L32" s="116"/>
+      <c r="M32" s="88"/>
+    </row>
+    <row r="33" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="144">
         <v>9</v>
       </c>
-      <c r="B33" s="117" t="s">
+      <c r="B33" s="138" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="92" t="s">
+      <c r="C33" s="150" t="s">
         <v>45</v>
       </c>
-      <c r="D33" s="92" t="s">
+      <c r="D33" s="150" t="s">
         <v>48</v>
       </c>
-      <c r="E33" s="106" t="s">
+      <c r="E33" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="F33" s="103" t="s">
+      <c r="F33" s="201" t="s">
         <v>290</v>
       </c>
-      <c r="G33" s="86" t="s">
+      <c r="G33" s="207" t="s">
         <v>291</v>
       </c>
-      <c r="H33" s="180" t="s">
+      <c r="H33" s="86" t="s">
         <v>361</v>
       </c>
-      <c r="I33" s="180" t="s">
+      <c r="I33" s="86" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" s="29" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A34" s="115"/>
-      <c r="B34" s="118"/>
-      <c r="C34" s="93"/>
-      <c r="D34" s="93"/>
-      <c r="E34" s="107"/>
-      <c r="F34" s="104"/>
-      <c r="G34" s="87"/>
-      <c r="H34" s="181"/>
-      <c r="I34" s="181"/>
-    </row>
-    <row r="35" spans="1:9" s="29" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A35" s="115"/>
-      <c r="B35" s="118"/>
-      <c r="C35" s="93" t="s">
+      <c r="J33" s="207" t="s">
+        <v>391</v>
+      </c>
+      <c r="K33" s="207" t="s">
+        <v>392</v>
+      </c>
+      <c r="L33" s="114"/>
+      <c r="M33" s="86" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="145"/>
+      <c r="B34" s="139"/>
+      <c r="C34" s="151"/>
+      <c r="D34" s="151"/>
+      <c r="E34" s="136"/>
+      <c r="F34" s="202"/>
+      <c r="G34" s="208"/>
+      <c r="H34" s="87"/>
+      <c r="I34" s="87"/>
+      <c r="J34" s="208"/>
+      <c r="K34" s="208"/>
+      <c r="L34" s="115"/>
+      <c r="M34" s="87"/>
+    </row>
+    <row r="35" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="145"/>
+      <c r="B35" s="139"/>
+      <c r="C35" s="151" t="s">
         <v>46</v>
       </c>
-      <c r="D35" s="93" t="s">
+      <c r="D35" s="151" t="s">
         <v>49</v>
       </c>
-      <c r="E35" s="107"/>
-      <c r="F35" s="104"/>
-      <c r="G35" s="87"/>
-      <c r="H35" s="181"/>
-      <c r="I35" s="181"/>
-    </row>
-    <row r="36" spans="1:9" s="29" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A36" s="115"/>
-      <c r="B36" s="118"/>
-      <c r="C36" s="93"/>
-      <c r="D36" s="93"/>
-      <c r="E36" s="107"/>
-      <c r="F36" s="104"/>
-      <c r="G36" s="87"/>
-      <c r="H36" s="181"/>
-      <c r="I36" s="181"/>
-    </row>
-    <row r="37" spans="1:9" s="29" customFormat="1" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A37" s="116"/>
-      <c r="B37" s="119"/>
+      <c r="E35" s="136"/>
+      <c r="F35" s="202"/>
+      <c r="G35" s="208"/>
+      <c r="H35" s="87"/>
+      <c r="I35" s="87"/>
+      <c r="J35" s="208"/>
+      <c r="K35" s="208"/>
+      <c r="L35" s="115"/>
+      <c r="M35" s="87"/>
+    </row>
+    <row r="36" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="145"/>
+      <c r="B36" s="139"/>
+      <c r="C36" s="151"/>
+      <c r="D36" s="151"/>
+      <c r="E36" s="136"/>
+      <c r="F36" s="202"/>
+      <c r="G36" s="208"/>
+      <c r="H36" s="87"/>
+      <c r="I36" s="87"/>
+      <c r="J36" s="208"/>
+      <c r="K36" s="208"/>
+      <c r="L36" s="115"/>
+      <c r="M36" s="87"/>
+    </row>
+    <row r="37" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="146"/>
+      <c r="B37" s="140"/>
       <c r="C37" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="D37" s="94"/>
-      <c r="E37" s="108"/>
-      <c r="F37" s="105"/>
-      <c r="G37" s="88"/>
-      <c r="H37" s="182"/>
-      <c r="I37" s="182"/>
-    </row>
-    <row r="38" spans="1:9" s="29" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A38" s="114">
+      <c r="D37" s="152"/>
+      <c r="E37" s="137"/>
+      <c r="F37" s="203"/>
+      <c r="G37" s="209"/>
+      <c r="H37" s="88"/>
+      <c r="I37" s="88"/>
+      <c r="J37" s="209"/>
+      <c r="K37" s="209"/>
+      <c r="L37" s="116"/>
+      <c r="M37" s="88"/>
+    </row>
+    <row r="38" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="144">
         <v>10</v>
       </c>
-      <c r="B38" s="117" t="s">
+      <c r="B38" s="138" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="92" t="s">
+      <c r="C38" s="150" t="s">
         <v>51</v>
       </c>
-      <c r="D38" s="92" t="s">
+      <c r="D38" s="150" t="s">
         <v>54</v>
       </c>
-      <c r="E38" s="106" t="s">
+      <c r="E38" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="F38" s="103" t="s">
+      <c r="F38" s="201" t="s">
         <v>294</v>
       </c>
-      <c r="G38" s="86" t="s">
+      <c r="G38" s="207" t="s">
         <v>295</v>
       </c>
-      <c r="H38" s="180" t="s">
+      <c r="H38" s="86" t="s">
         <v>361</v>
       </c>
-      <c r="I38" s="180" t="s">
+      <c r="I38" s="86" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" s="29" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A39" s="115"/>
-      <c r="B39" s="118"/>
-      <c r="C39" s="93"/>
-      <c r="D39" s="93"/>
-      <c r="E39" s="107"/>
-      <c r="F39" s="104"/>
-      <c r="G39" s="87"/>
-      <c r="H39" s="181"/>
-      <c r="I39" s="181"/>
-    </row>
-    <row r="40" spans="1:9" s="29" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A40" s="115"/>
-      <c r="B40" s="118"/>
-      <c r="C40" s="93" t="s">
+      <c r="J38" s="207" t="s">
+        <v>286</v>
+      </c>
+      <c r="K38" s="207"/>
+      <c r="L38" s="207"/>
+      <c r="M38" s="86" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="145"/>
+      <c r="B39" s="139"/>
+      <c r="C39" s="151"/>
+      <c r="D39" s="151"/>
+      <c r="E39" s="136"/>
+      <c r="F39" s="202"/>
+      <c r="G39" s="208"/>
+      <c r="H39" s="87"/>
+      <c r="I39" s="87"/>
+      <c r="J39" s="208"/>
+      <c r="K39" s="208"/>
+      <c r="L39" s="208"/>
+      <c r="M39" s="87"/>
+    </row>
+    <row r="40" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="145"/>
+      <c r="B40" s="139"/>
+      <c r="C40" s="151" t="s">
         <v>52</v>
       </c>
-      <c r="D40" s="93" t="s">
+      <c r="D40" s="151" t="s">
         <v>55</v>
       </c>
-      <c r="E40" s="107"/>
-      <c r="F40" s="104"/>
-      <c r="G40" s="87"/>
-      <c r="H40" s="181"/>
-      <c r="I40" s="181"/>
-    </row>
-    <row r="41" spans="1:9" s="29" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A41" s="115"/>
-      <c r="B41" s="118"/>
-      <c r="C41" s="93"/>
-      <c r="D41" s="93"/>
-      <c r="E41" s="107"/>
-      <c r="F41" s="104"/>
-      <c r="G41" s="87"/>
-      <c r="H41" s="181"/>
-      <c r="I41" s="181"/>
-    </row>
-    <row r="42" spans="1:9" s="29" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A42" s="115"/>
-      <c r="B42" s="118"/>
-      <c r="C42" s="93" t="s">
+      <c r="E40" s="136"/>
+      <c r="F40" s="202"/>
+      <c r="G40" s="208"/>
+      <c r="H40" s="87"/>
+      <c r="I40" s="87"/>
+      <c r="J40" s="208"/>
+      <c r="K40" s="208"/>
+      <c r="L40" s="208"/>
+      <c r="M40" s="87"/>
+    </row>
+    <row r="41" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="145"/>
+      <c r="B41" s="139"/>
+      <c r="C41" s="151"/>
+      <c r="D41" s="151"/>
+      <c r="E41" s="136"/>
+      <c r="F41" s="202"/>
+      <c r="G41" s="208"/>
+      <c r="H41" s="87"/>
+      <c r="I41" s="87"/>
+      <c r="J41" s="208"/>
+      <c r="K41" s="208"/>
+      <c r="L41" s="208"/>
+      <c r="M41" s="87"/>
+    </row>
+    <row r="42" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="145"/>
+      <c r="B42" s="139"/>
+      <c r="C42" s="151" t="s">
         <v>53</v>
       </c>
-      <c r="D42" s="93" t="s">
+      <c r="D42" s="151" t="s">
         <v>56</v>
       </c>
-      <c r="E42" s="107"/>
-      <c r="F42" s="104"/>
-      <c r="G42" s="87"/>
-      <c r="H42" s="181"/>
-      <c r="I42" s="181"/>
-    </row>
-    <row r="43" spans="1:9" s="29" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A43" s="115"/>
-      <c r="B43" s="118"/>
-      <c r="C43" s="93"/>
-      <c r="D43" s="93"/>
-      <c r="E43" s="107"/>
-      <c r="F43" s="104"/>
-      <c r="G43" s="87"/>
-      <c r="H43" s="181"/>
-      <c r="I43" s="181"/>
-    </row>
-    <row r="44" spans="1:9" s="29" customFormat="1" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A44" s="116"/>
-      <c r="B44" s="119"/>
-      <c r="C44" s="94"/>
+      <c r="E42" s="136"/>
+      <c r="F42" s="202"/>
+      <c r="G42" s="208"/>
+      <c r="H42" s="87"/>
+      <c r="I42" s="87"/>
+      <c r="J42" s="208"/>
+      <c r="K42" s="208"/>
+      <c r="L42" s="208"/>
+      <c r="M42" s="87"/>
+    </row>
+    <row r="43" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="145"/>
+      <c r="B43" s="139"/>
+      <c r="C43" s="151"/>
+      <c r="D43" s="151"/>
+      <c r="E43" s="136"/>
+      <c r="F43" s="202"/>
+      <c r="G43" s="208"/>
+      <c r="H43" s="87"/>
+      <c r="I43" s="87"/>
+      <c r="J43" s="208"/>
+      <c r="K43" s="208"/>
+      <c r="L43" s="208"/>
+      <c r="M43" s="87"/>
+    </row>
+    <row r="44" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="146"/>
+      <c r="B44" s="140"/>
+      <c r="C44" s="152"/>
       <c r="D44" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="E44" s="108"/>
-      <c r="F44" s="105"/>
-      <c r="G44" s="88"/>
-      <c r="H44" s="182"/>
-      <c r="I44" s="182"/>
-    </row>
-    <row r="45" spans="1:9" s="29" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A45" s="201">
+      <c r="E44" s="137"/>
+      <c r="F44" s="203"/>
+      <c r="G44" s="209"/>
+      <c r="H44" s="88"/>
+      <c r="I44" s="88"/>
+      <c r="J44" s="209"/>
+      <c r="K44" s="209"/>
+      <c r="L44" s="209"/>
+      <c r="M44" s="88"/>
+    </row>
+    <row r="45" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="147">
         <v>11</v>
       </c>
-      <c r="B45" s="123" t="s">
+      <c r="B45" s="197" t="s">
         <v>58</v>
       </c>
-      <c r="C45" s="92" t="s">
+      <c r="C45" s="150" t="s">
         <v>60</v>
       </c>
-      <c r="D45" s="92" t="s">
+      <c r="D45" s="150" t="s">
         <v>62</v>
       </c>
-      <c r="E45" s="106" t="s">
+      <c r="E45" s="135" t="s">
         <v>36</v>
       </c>
-      <c r="F45" s="103" t="s">
+      <c r="F45" s="201" t="s">
         <v>377</v>
       </c>
-      <c r="G45" s="86" t="s">
+      <c r="G45" s="207" t="s">
         <v>291</v>
       </c>
-      <c r="H45" s="183" t="s">
+      <c r="H45" s="114" t="s">
         <v>378</v>
       </c>
-      <c r="I45" s="180" t="s">
+      <c r="I45" s="86" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" s="29" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A46" s="202"/>
-      <c r="B46" s="124"/>
-      <c r="C46" s="93"/>
-      <c r="D46" s="93"/>
-      <c r="E46" s="107"/>
-      <c r="F46" s="104"/>
-      <c r="G46" s="87"/>
-      <c r="H46" s="184"/>
-      <c r="I46" s="181"/>
-    </row>
-    <row r="47" spans="1:9" s="29" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A47" s="202"/>
-      <c r="B47" s="124" t="s">
+      <c r="J45" s="207" t="s">
+        <v>391</v>
+      </c>
+      <c r="K45" s="207" t="s">
+        <v>393</v>
+      </c>
+      <c r="L45" s="114"/>
+      <c r="M45" s="86" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="148"/>
+      <c r="B46" s="198"/>
+      <c r="C46" s="151"/>
+      <c r="D46" s="151"/>
+      <c r="E46" s="136"/>
+      <c r="F46" s="202"/>
+      <c r="G46" s="208"/>
+      <c r="H46" s="115"/>
+      <c r="I46" s="87"/>
+      <c r="J46" s="208"/>
+      <c r="K46" s="208"/>
+      <c r="L46" s="115"/>
+      <c r="M46" s="87"/>
+    </row>
+    <row r="47" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="148"/>
+      <c r="B47" s="198" t="s">
         <v>59</v>
       </c>
-      <c r="C47" s="93" t="s">
+      <c r="C47" s="151" t="s">
         <v>61</v>
       </c>
-      <c r="D47" s="93" t="s">
+      <c r="D47" s="151" t="s">
         <v>63</v>
       </c>
-      <c r="E47" s="107"/>
-      <c r="F47" s="104"/>
-      <c r="G47" s="87"/>
-      <c r="H47" s="184"/>
-      <c r="I47" s="181"/>
-    </row>
-    <row r="48" spans="1:9" s="29" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A48" s="202"/>
-      <c r="B48" s="124"/>
-      <c r="C48" s="93"/>
-      <c r="D48" s="93"/>
-      <c r="E48" s="107"/>
-      <c r="F48" s="104"/>
-      <c r="G48" s="87"/>
-      <c r="H48" s="184"/>
-      <c r="I48" s="181"/>
-    </row>
-    <row r="49" spans="1:9" s="29" customFormat="1" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A49" s="203"/>
-      <c r="B49" s="125"/>
-      <c r="C49" s="94"/>
-      <c r="D49" s="94"/>
-      <c r="E49" s="108"/>
-      <c r="F49" s="105"/>
-      <c r="G49" s="88"/>
-      <c r="H49" s="185"/>
-      <c r="I49" s="182"/>
-    </row>
-    <row r="50" spans="1:9" s="29" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A50" s="201">
+      <c r="E47" s="136"/>
+      <c r="F47" s="202"/>
+      <c r="G47" s="208"/>
+      <c r="H47" s="115"/>
+      <c r="I47" s="87"/>
+      <c r="J47" s="208"/>
+      <c r="K47" s="208"/>
+      <c r="L47" s="115"/>
+      <c r="M47" s="87"/>
+    </row>
+    <row r="48" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="148"/>
+      <c r="B48" s="198"/>
+      <c r="C48" s="151"/>
+      <c r="D48" s="151"/>
+      <c r="E48" s="136"/>
+      <c r="F48" s="202"/>
+      <c r="G48" s="208"/>
+      <c r="H48" s="115"/>
+      <c r="I48" s="87"/>
+      <c r="J48" s="208"/>
+      <c r="K48" s="208"/>
+      <c r="L48" s="115"/>
+      <c r="M48" s="87"/>
+    </row>
+    <row r="49" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="149"/>
+      <c r="B49" s="199"/>
+      <c r="C49" s="152"/>
+      <c r="D49" s="152"/>
+      <c r="E49" s="137"/>
+      <c r="F49" s="203"/>
+      <c r="G49" s="209"/>
+      <c r="H49" s="116"/>
+      <c r="I49" s="88"/>
+      <c r="J49" s="209"/>
+      <c r="K49" s="209"/>
+      <c r="L49" s="116"/>
+      <c r="M49" s="88"/>
+    </row>
+    <row r="50" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="147">
         <v>12</v>
       </c>
-      <c r="B50" s="117" t="s">
+      <c r="B50" s="138" t="s">
         <v>64</v>
       </c>
-      <c r="C50" s="120" t="s">
+      <c r="C50" s="141" t="s">
         <v>65</v>
       </c>
-      <c r="D50" s="92" t="s">
+      <c r="D50" s="150" t="s">
         <v>66</v>
       </c>
-      <c r="E50" s="106" t="s">
+      <c r="E50" s="135" t="s">
         <v>36</v>
       </c>
-      <c r="F50" s="103" t="s">
+      <c r="F50" s="201" t="s">
         <v>365</v>
       </c>
-      <c r="G50" s="86" t="s">
+      <c r="G50" s="207" t="s">
         <v>296</v>
       </c>
-      <c r="H50" s="180" t="s">
+      <c r="H50" s="86" t="s">
         <v>361</v>
       </c>
-      <c r="I50" s="180" t="s">
+      <c r="I50" s="86" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" s="29" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A51" s="202"/>
-      <c r="B51" s="118"/>
-      <c r="C51" s="121"/>
-      <c r="D51" s="93"/>
-      <c r="E51" s="107"/>
-      <c r="F51" s="104"/>
-      <c r="G51" s="87"/>
-      <c r="H51" s="181"/>
-      <c r="I51" s="181"/>
-    </row>
-    <row r="52" spans="1:9" s="29" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A52" s="202"/>
-      <c r="B52" s="118"/>
-      <c r="C52" s="121"/>
-      <c r="D52" s="93" t="s">
+      <c r="J50" s="207" t="s">
+        <v>391</v>
+      </c>
+      <c r="K50" s="207" t="s">
+        <v>394</v>
+      </c>
+      <c r="L50" s="114"/>
+      <c r="M50" s="86" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="148"/>
+      <c r="B51" s="139"/>
+      <c r="C51" s="142"/>
+      <c r="D51" s="151"/>
+      <c r="E51" s="136"/>
+      <c r="F51" s="202"/>
+      <c r="G51" s="208"/>
+      <c r="H51" s="87"/>
+      <c r="I51" s="87"/>
+      <c r="J51" s="208"/>
+      <c r="K51" s="208"/>
+      <c r="L51" s="115"/>
+      <c r="M51" s="87"/>
+    </row>
+    <row r="52" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="148"/>
+      <c r="B52" s="139"/>
+      <c r="C52" s="142"/>
+      <c r="D52" s="151" t="s">
         <v>67</v>
       </c>
-      <c r="E52" s="107"/>
-      <c r="F52" s="104"/>
-      <c r="G52" s="87"/>
-      <c r="H52" s="181"/>
-      <c r="I52" s="181"/>
-    </row>
-    <row r="53" spans="1:9" s="29" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A53" s="202"/>
-      <c r="B53" s="118"/>
-      <c r="C53" s="121"/>
-      <c r="D53" s="93"/>
-      <c r="E53" s="107"/>
-      <c r="F53" s="104"/>
-      <c r="G53" s="87"/>
-      <c r="H53" s="181"/>
-      <c r="I53" s="181"/>
-    </row>
-    <row r="54" spans="1:9" s="29" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A54" s="202"/>
-      <c r="B54" s="118"/>
-      <c r="C54" s="121"/>
-      <c r="D54" s="93" t="s">
+      <c r="E52" s="136"/>
+      <c r="F52" s="202"/>
+      <c r="G52" s="208"/>
+      <c r="H52" s="87"/>
+      <c r="I52" s="87"/>
+      <c r="J52" s="208"/>
+      <c r="K52" s="208"/>
+      <c r="L52" s="115"/>
+      <c r="M52" s="87"/>
+    </row>
+    <row r="53" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="148"/>
+      <c r="B53" s="139"/>
+      <c r="C53" s="142"/>
+      <c r="D53" s="151"/>
+      <c r="E53" s="136"/>
+      <c r="F53" s="202"/>
+      <c r="G53" s="208"/>
+      <c r="H53" s="87"/>
+      <c r="I53" s="87"/>
+      <c r="J53" s="208"/>
+      <c r="K53" s="208"/>
+      <c r="L53" s="115"/>
+      <c r="M53" s="87"/>
+    </row>
+    <row r="54" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="148"/>
+      <c r="B54" s="139"/>
+      <c r="C54" s="142"/>
+      <c r="D54" s="151" t="s">
         <v>68</v>
       </c>
-      <c r="E54" s="107"/>
-      <c r="F54" s="104"/>
-      <c r="G54" s="87"/>
-      <c r="H54" s="181"/>
-      <c r="I54" s="181"/>
-    </row>
-    <row r="55" spans="1:9" s="29" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A55" s="202"/>
-      <c r="B55" s="118"/>
-      <c r="C55" s="121"/>
-      <c r="D55" s="93"/>
-      <c r="E55" s="107"/>
-      <c r="F55" s="104"/>
-      <c r="G55" s="87"/>
-      <c r="H55" s="181"/>
-      <c r="I55" s="181"/>
-    </row>
-    <row r="56" spans="1:9" s="29" customFormat="1" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A56" s="203"/>
-      <c r="B56" s="119"/>
-      <c r="C56" s="122"/>
-      <c r="D56" s="94"/>
-      <c r="E56" s="108"/>
-      <c r="F56" s="105"/>
-      <c r="G56" s="88"/>
-      <c r="H56" s="182"/>
-      <c r="I56" s="182"/>
-    </row>
-    <row r="57" spans="1:9" s="29" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A57" s="114">
+      <c r="E54" s="136"/>
+      <c r="F54" s="202"/>
+      <c r="G54" s="208"/>
+      <c r="H54" s="87"/>
+      <c r="I54" s="87"/>
+      <c r="J54" s="208"/>
+      <c r="K54" s="208"/>
+      <c r="L54" s="115"/>
+      <c r="M54" s="87"/>
+    </row>
+    <row r="55" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="148"/>
+      <c r="B55" s="139"/>
+      <c r="C55" s="142"/>
+      <c r="D55" s="151"/>
+      <c r="E55" s="136"/>
+      <c r="F55" s="202"/>
+      <c r="G55" s="208"/>
+      <c r="H55" s="87"/>
+      <c r="I55" s="87"/>
+      <c r="J55" s="208"/>
+      <c r="K55" s="208"/>
+      <c r="L55" s="115"/>
+      <c r="M55" s="87"/>
+    </row>
+    <row r="56" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="149"/>
+      <c r="B56" s="140"/>
+      <c r="C56" s="143"/>
+      <c r="D56" s="152"/>
+      <c r="E56" s="137"/>
+      <c r="F56" s="203"/>
+      <c r="G56" s="209"/>
+      <c r="H56" s="88"/>
+      <c r="I56" s="88"/>
+      <c r="J56" s="209"/>
+      <c r="K56" s="209"/>
+      <c r="L56" s="116"/>
+      <c r="M56" s="88"/>
+    </row>
+    <row r="57" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="144">
         <v>13</v>
       </c>
-      <c r="B57" s="117" t="s">
+      <c r="B57" s="138" t="s">
         <v>69</v>
       </c>
-      <c r="C57" s="120" t="s">
+      <c r="C57" s="141" t="s">
         <v>70</v>
       </c>
-      <c r="D57" s="92" t="s">
+      <c r="D57" s="150" t="s">
         <v>71</v>
       </c>
-      <c r="E57" s="106" t="s">
+      <c r="E57" s="135" t="s">
         <v>36</v>
       </c>
-      <c r="F57" s="103" t="s">
+      <c r="F57" s="201" t="s">
         <v>286</v>
       </c>
-      <c r="G57" s="86" t="s">
+      <c r="G57" s="207" t="s">
         <v>297</v>
       </c>
-      <c r="H57" s="180" t="s">
+      <c r="H57" s="86" t="s">
         <v>356</v>
       </c>
-      <c r="I57" s="180" t="s">
+      <c r="I57" s="86" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" s="29" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A58" s="115"/>
-      <c r="B58" s="118"/>
-      <c r="C58" s="121"/>
-      <c r="D58" s="93"/>
-      <c r="E58" s="107"/>
-      <c r="F58" s="104"/>
-      <c r="G58" s="87"/>
-      <c r="H58" s="181"/>
-      <c r="I58" s="181"/>
-    </row>
-    <row r="59" spans="1:9" s="29" customFormat="1" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A59" s="116"/>
-      <c r="B59" s="119"/>
-      <c r="C59" s="122"/>
+      <c r="J57" s="207" t="s">
+        <v>391</v>
+      </c>
+      <c r="K57" s="207" t="s">
+        <v>395</v>
+      </c>
+      <c r="L57" s="114"/>
+      <c r="M57" s="86" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="145"/>
+      <c r="B58" s="139"/>
+      <c r="C58" s="142"/>
+      <c r="D58" s="151"/>
+      <c r="E58" s="136"/>
+      <c r="F58" s="202"/>
+      <c r="G58" s="208"/>
+      <c r="H58" s="87"/>
+      <c r="I58" s="87"/>
+      <c r="J58" s="208"/>
+      <c r="K58" s="208"/>
+      <c r="L58" s="115"/>
+      <c r="M58" s="87"/>
+    </row>
+    <row r="59" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="146"/>
+      <c r="B59" s="140"/>
+      <c r="C59" s="143"/>
       <c r="D59" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="E59" s="108"/>
-      <c r="F59" s="105"/>
-      <c r="G59" s="88"/>
-      <c r="H59" s="182"/>
-      <c r="I59" s="182"/>
-    </row>
-    <row r="60" spans="1:9" s="29" customFormat="1" ht="64.5" thickBot="1">
+      <c r="E59" s="137"/>
+      <c r="F59" s="203"/>
+      <c r="G59" s="209"/>
+      <c r="H59" s="88"/>
+      <c r="I59" s="88"/>
+      <c r="J59" s="209"/>
+      <c r="K59" s="209"/>
+      <c r="L59" s="116"/>
+      <c r="M59" s="88"/>
+    </row>
+    <row r="60" spans="1:13" s="29" customFormat="1" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="32">
         <v>14</v>
       </c>
@@ -3703,8 +4665,18 @@
       <c r="I60" s="61" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" s="29" customFormat="1" ht="51.75" thickBot="1">
+      <c r="J60" s="64" t="s">
+        <v>391</v>
+      </c>
+      <c r="K60" s="64" t="s">
+        <v>396</v>
+      </c>
+      <c r="L60" s="221"/>
+      <c r="M60" s="61" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" s="29" customFormat="1" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="32">
         <v>15</v>
       </c>
@@ -3732,171 +4704,231 @@
       <c r="I61" s="61" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" s="29" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A62" s="114">
+      <c r="J61" s="64" t="s">
+        <v>391</v>
+      </c>
+      <c r="K61" s="64"/>
+      <c r="L61" s="64"/>
+      <c r="M61" s="61" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="144">
         <v>16</v>
       </c>
-      <c r="B62" s="117" t="s">
+      <c r="B62" s="138" t="s">
         <v>79</v>
       </c>
-      <c r="C62" s="92" t="s">
+      <c r="C62" s="150" t="s">
         <v>80</v>
       </c>
-      <c r="D62" s="92" t="s">
+      <c r="D62" s="150" t="s">
         <v>82</v>
       </c>
-      <c r="E62" s="106" t="s">
+      <c r="E62" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="F62" s="103" t="s">
+      <c r="F62" s="201" t="s">
         <v>286</v>
       </c>
-      <c r="G62" s="86" t="s">
+      <c r="G62" s="207" t="s">
         <v>299</v>
       </c>
-      <c r="H62" s="180" t="s">
+      <c r="H62" s="86" t="s">
         <v>356</v>
       </c>
-      <c r="I62" s="180" t="s">
+      <c r="I62" s="86" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" s="29" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A63" s="115"/>
-      <c r="B63" s="118"/>
-      <c r="C63" s="93"/>
-      <c r="D63" s="93"/>
-      <c r="E63" s="107"/>
-      <c r="F63" s="104"/>
-      <c r="G63" s="87"/>
-      <c r="H63" s="181"/>
-      <c r="I63" s="181"/>
-    </row>
-    <row r="64" spans="1:9" s="29" customFormat="1" ht="39" thickBot="1">
-      <c r="A64" s="116"/>
-      <c r="B64" s="119"/>
+      <c r="J62" s="207" t="s">
+        <v>391</v>
+      </c>
+      <c r="K62" s="207"/>
+      <c r="L62" s="207"/>
+      <c r="M62" s="86" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="145"/>
+      <c r="B63" s="139"/>
+      <c r="C63" s="151"/>
+      <c r="D63" s="151"/>
+      <c r="E63" s="136"/>
+      <c r="F63" s="202"/>
+      <c r="G63" s="208"/>
+      <c r="H63" s="87"/>
+      <c r="I63" s="87"/>
+      <c r="J63" s="208"/>
+      <c r="K63" s="208"/>
+      <c r="L63" s="208"/>
+      <c r="M63" s="87"/>
+    </row>
+    <row r="64" spans="1:13" s="29" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="146"/>
+      <c r="B64" s="140"/>
       <c r="C64" s="30" t="s">
         <v>81</v>
       </c>
       <c r="D64" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="E64" s="108"/>
-      <c r="F64" s="105"/>
-      <c r="G64" s="88"/>
-      <c r="H64" s="182"/>
-      <c r="I64" s="182"/>
-    </row>
-    <row r="65" spans="1:9" s="29" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A65" s="114">
+      <c r="E64" s="137"/>
+      <c r="F64" s="203"/>
+      <c r="G64" s="209"/>
+      <c r="H64" s="88"/>
+      <c r="I64" s="88"/>
+      <c r="J64" s="209"/>
+      <c r="K64" s="209"/>
+      <c r="L64" s="209"/>
+      <c r="M64" s="88"/>
+    </row>
+    <row r="65" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="144">
         <v>17</v>
       </c>
-      <c r="B65" s="117" t="s">
+      <c r="B65" s="138" t="s">
         <v>84</v>
       </c>
-      <c r="C65" s="92" t="s">
+      <c r="C65" s="150" t="s">
         <v>85</v>
       </c>
-      <c r="D65" s="92" t="s">
+      <c r="D65" s="150" t="s">
         <v>87</v>
       </c>
-      <c r="E65" s="106" t="s">
+      <c r="E65" s="135" t="s">
         <v>36</v>
       </c>
-      <c r="F65" s="103" t="s">
+      <c r="F65" s="201" t="s">
         <v>300</v>
       </c>
-      <c r="G65" s="86" t="s">
+      <c r="G65" s="207" t="s">
         <v>299</v>
       </c>
-      <c r="H65" s="180" t="s">
+      <c r="H65" s="86" t="s">
         <v>356</v>
       </c>
-      <c r="I65" s="180" t="s">
+      <c r="I65" s="86" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" s="29" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A66" s="115"/>
-      <c r="B66" s="118"/>
-      <c r="C66" s="93"/>
-      <c r="D66" s="93"/>
-      <c r="E66" s="107"/>
-      <c r="F66" s="104"/>
-      <c r="G66" s="87"/>
-      <c r="H66" s="181"/>
-      <c r="I66" s="181"/>
-    </row>
-    <row r="67" spans="1:9" s="29" customFormat="1" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A67" s="116"/>
-      <c r="B67" s="119"/>
+      <c r="J65" s="207" t="s">
+        <v>391</v>
+      </c>
+      <c r="K65" s="207" t="s">
+        <v>397</v>
+      </c>
+      <c r="L65" s="114"/>
+      <c r="M65" s="86" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="145"/>
+      <c r="B66" s="139"/>
+      <c r="C66" s="151"/>
+      <c r="D66" s="151"/>
+      <c r="E66" s="136"/>
+      <c r="F66" s="202"/>
+      <c r="G66" s="208"/>
+      <c r="H66" s="87"/>
+      <c r="I66" s="87"/>
+      <c r="J66" s="208"/>
+      <c r="K66" s="208"/>
+      <c r="L66" s="115"/>
+      <c r="M66" s="87"/>
+    </row>
+    <row r="67" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="146"/>
+      <c r="B67" s="140"/>
       <c r="C67" s="30" t="s">
         <v>86</v>
       </c>
       <c r="D67" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="E67" s="108"/>
-      <c r="F67" s="105"/>
-      <c r="G67" s="88"/>
-      <c r="H67" s="182"/>
-      <c r="I67" s="182"/>
-    </row>
-    <row r="68" spans="1:9" s="29" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A68" s="114">
+      <c r="E67" s="137"/>
+      <c r="F67" s="203"/>
+      <c r="G67" s="209"/>
+      <c r="H67" s="88"/>
+      <c r="I67" s="88"/>
+      <c r="J67" s="209"/>
+      <c r="K67" s="209"/>
+      <c r="L67" s="116"/>
+      <c r="M67" s="88"/>
+    </row>
+    <row r="68" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="144">
         <v>18</v>
       </c>
-      <c r="B68" s="117" t="s">
+      <c r="B68" s="138" t="s">
         <v>89</v>
       </c>
-      <c r="C68" s="120" t="s">
+      <c r="C68" s="141" t="s">
         <v>90</v>
       </c>
-      <c r="D68" s="92" t="s">
+      <c r="D68" s="150" t="s">
         <v>91</v>
       </c>
-      <c r="E68" s="106" t="s">
+      <c r="E68" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="F68" s="103" t="s">
+      <c r="F68" s="201" t="s">
         <v>286</v>
       </c>
-      <c r="G68" s="86" t="s">
+      <c r="G68" s="207" t="s">
         <v>301</v>
       </c>
-      <c r="H68" s="180" t="s">
+      <c r="H68" s="86" t="s">
         <v>356</v>
       </c>
-      <c r="I68" s="180" t="s">
+      <c r="I68" s="86" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" s="29" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A69" s="115"/>
-      <c r="B69" s="118"/>
-      <c r="C69" s="121"/>
-      <c r="D69" s="93"/>
-      <c r="E69" s="107"/>
-      <c r="F69" s="104"/>
-      <c r="G69" s="87"/>
-      <c r="H69" s="181"/>
-      <c r="I69" s="181"/>
-    </row>
-    <row r="70" spans="1:9" s="29" customFormat="1" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A70" s="116"/>
-      <c r="B70" s="119"/>
-      <c r="C70" s="122"/>
+      <c r="J68" s="207" t="s">
+        <v>391</v>
+      </c>
+      <c r="K68" s="207" t="s">
+        <v>398</v>
+      </c>
+      <c r="L68" s="222"/>
+      <c r="M68" s="86" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="145"/>
+      <c r="B69" s="139"/>
+      <c r="C69" s="142"/>
+      <c r="D69" s="151"/>
+      <c r="E69" s="136"/>
+      <c r="F69" s="202"/>
+      <c r="G69" s="208"/>
+      <c r="H69" s="87"/>
+      <c r="I69" s="87"/>
+      <c r="J69" s="208"/>
+      <c r="K69" s="208"/>
+      <c r="L69" s="223"/>
+      <c r="M69" s="87"/>
+    </row>
+    <row r="70" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="146"/>
+      <c r="B70" s="140"/>
+      <c r="C70" s="143"/>
       <c r="D70" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="E70" s="108"/>
-      <c r="F70" s="105"/>
-      <c r="G70" s="88"/>
-      <c r="H70" s="182"/>
-      <c r="I70" s="182"/>
-    </row>
-    <row r="71" spans="1:9" s="29" customFormat="1" ht="64.5" thickBot="1">
+      <c r="E70" s="137"/>
+      <c r="F70" s="203"/>
+      <c r="G70" s="209"/>
+      <c r="H70" s="88"/>
+      <c r="I70" s="88"/>
+      <c r="J70" s="209"/>
+      <c r="K70" s="209"/>
+      <c r="L70" s="224"/>
+      <c r="M70" s="88"/>
+    </row>
+    <row r="71" spans="1:13" s="29" customFormat="1" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="32">
         <v>19</v>
       </c>
@@ -3924,8 +4956,18 @@
       <c r="I71" s="61" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" s="29" customFormat="1" ht="77.25" thickBot="1">
+      <c r="J71" s="64" t="s">
+        <v>391</v>
+      </c>
+      <c r="K71" s="64" t="s">
+        <v>398</v>
+      </c>
+      <c r="L71" s="221"/>
+      <c r="M71" s="61" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" s="29" customFormat="1" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="32">
         <v>20</v>
       </c>
@@ -3953,63 +4995,91 @@
       <c r="I72" s="61" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" s="29" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A73" s="114">
+      <c r="J72" s="64" t="s">
+        <v>399</v>
+      </c>
+      <c r="K72" s="64" t="s">
+        <v>400</v>
+      </c>
+      <c r="L72" s="225"/>
+      <c r="M72" s="61" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="144">
         <v>21</v>
       </c>
-      <c r="B73" s="117" t="s">
+      <c r="B73" s="138" t="s">
         <v>99</v>
       </c>
-      <c r="C73" s="92" t="s">
+      <c r="C73" s="150" t="s">
         <v>100</v>
       </c>
-      <c r="D73" s="92" t="s">
+      <c r="D73" s="150" t="s">
         <v>102</v>
       </c>
-      <c r="E73" s="106" t="s">
+      <c r="E73" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="F73" s="103" t="s">
+      <c r="F73" s="201" t="s">
         <v>304</v>
       </c>
-      <c r="G73" s="86" t="s">
+      <c r="G73" s="207" t="s">
         <v>295</v>
       </c>
-      <c r="H73" s="180" t="s">
+      <c r="H73" s="86" t="s">
         <v>361</v>
       </c>
-      <c r="I73" s="180" t="s">
+      <c r="I73" s="86" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" s="29" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A74" s="115"/>
-      <c r="B74" s="118"/>
-      <c r="C74" s="93"/>
-      <c r="D74" s="93"/>
-      <c r="E74" s="107"/>
-      <c r="F74" s="104"/>
-      <c r="G74" s="87"/>
-      <c r="H74" s="181"/>
-      <c r="I74" s="181"/>
-    </row>
-    <row r="75" spans="1:9" s="29" customFormat="1" ht="51.75" thickBot="1">
-      <c r="A75" s="116"/>
-      <c r="B75" s="119"/>
+      <c r="J73" s="207" t="s">
+        <v>391</v>
+      </c>
+      <c r="K73" s="207" t="s">
+        <v>401</v>
+      </c>
+      <c r="L73" s="226"/>
+      <c r="M73" s="86" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="145"/>
+      <c r="B74" s="139"/>
+      <c r="C74" s="151"/>
+      <c r="D74" s="151"/>
+      <c r="E74" s="136"/>
+      <c r="F74" s="202"/>
+      <c r="G74" s="208"/>
+      <c r="H74" s="87"/>
+      <c r="I74" s="87"/>
+      <c r="J74" s="208"/>
+      <c r="K74" s="208"/>
+      <c r="L74" s="227"/>
+      <c r="M74" s="87"/>
+    </row>
+    <row r="75" spans="1:13" s="29" customFormat="1" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="146"/>
+      <c r="B75" s="140"/>
       <c r="C75" s="30" t="s">
         <v>101</v>
       </c>
       <c r="D75" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="E75" s="108"/>
-      <c r="F75" s="105"/>
-      <c r="G75" s="88"/>
-      <c r="H75" s="182"/>
-      <c r="I75" s="182"/>
-    </row>
-    <row r="76" spans="1:9" s="29" customFormat="1" ht="64.5" thickBot="1">
+      <c r="E75" s="137"/>
+      <c r="F75" s="203"/>
+      <c r="G75" s="209"/>
+      <c r="H75" s="88"/>
+      <c r="I75" s="88"/>
+      <c r="J75" s="209"/>
+      <c r="K75" s="209"/>
+      <c r="L75" s="228"/>
+      <c r="M75" s="88"/>
+    </row>
+    <row r="76" spans="1:13" s="29" customFormat="1" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="35">
         <v>22</v>
       </c>
@@ -4037,27 +5107,35 @@
       <c r="I76" s="62" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" s="176" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A77" s="176" t="s">
+      <c r="J76" s="75" t="s">
+        <v>402</v>
+      </c>
+      <c r="K76" s="75"/>
+      <c r="L76" s="75"/>
+      <c r="M76" s="79" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" s="162" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="162" t="s">
         <v>107</v>
       </c>
-      <c r="B77" s="177"/>
-      <c r="C77" s="177"/>
-      <c r="D77" s="177"/>
-      <c r="E77" s="177"/>
-      <c r="F77" s="177"/>
-      <c r="G77" s="177"/>
-    </row>
-    <row r="78" spans="1:9" s="178" customFormat="1" ht="30.75" customHeight="1" thickBot="1">
-      <c r="B78" s="179"/>
-      <c r="C78" s="179"/>
-      <c r="D78" s="179"/>
-      <c r="E78" s="179"/>
-      <c r="F78" s="179"/>
-      <c r="G78" s="179"/>
-    </row>
-    <row r="79" spans="1:9" s="29" customFormat="1" ht="30.75" customHeight="1" thickBot="1">
+      <c r="B77" s="163"/>
+      <c r="C77" s="163"/>
+      <c r="D77" s="163"/>
+      <c r="E77" s="163"/>
+      <c r="F77" s="163"/>
+      <c r="G77" s="163"/>
+    </row>
+    <row r="78" spans="1:13" s="164" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="165"/>
+      <c r="C78" s="165"/>
+      <c r="D78" s="165"/>
+      <c r="E78" s="165"/>
+      <c r="F78" s="165"/>
+      <c r="G78" s="165"/>
+    </row>
+    <row r="79" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="38" t="s">
         <v>1</v>
       </c>
@@ -4085,8 +5163,20 @@
       <c r="I79" s="26" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" s="29" customFormat="1" ht="38.25">
+      <c r="J79" s="66" t="s">
+        <v>382</v>
+      </c>
+      <c r="K79" s="66" t="s">
+        <v>383</v>
+      </c>
+      <c r="L79" s="229" t="s">
+        <v>384</v>
+      </c>
+      <c r="M79" s="229" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" s="29" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A80" s="153">
         <v>23</v>
       </c>
@@ -4102,31 +5192,45 @@
       <c r="E80" s="159" t="s">
         <v>0</v>
       </c>
-      <c r="F80" s="95" t="s">
+      <c r="F80" s="210" t="s">
         <v>367</v>
       </c>
-      <c r="G80" s="77" t="s">
+      <c r="G80" s="213" t="s">
         <v>308</v>
       </c>
-      <c r="H80" s="180" t="s">
+      <c r="H80" s="86" t="s">
         <v>361</v>
       </c>
-      <c r="I80" s="180" t="s">
+      <c r="I80" s="86" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" s="29" customFormat="1" ht="30.75" customHeight="1">
+      <c r="J80" s="213" t="s">
+        <v>403</v>
+      </c>
+      <c r="K80" s="213" t="s">
+        <v>404</v>
+      </c>
+      <c r="L80" s="114"/>
+      <c r="M80" s="86" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="154"/>
       <c r="B81" s="157"/>
       <c r="C81" s="41"/>
       <c r="D81" s="41"/>
       <c r="E81" s="160"/>
-      <c r="F81" s="96"/>
-      <c r="G81" s="78"/>
-      <c r="H81" s="181"/>
-      <c r="I81" s="181"/>
-    </row>
-    <row r="82" spans="1:9" s="29" customFormat="1" ht="39" thickBot="1">
+      <c r="F81" s="211"/>
+      <c r="G81" s="214"/>
+      <c r="H81" s="87"/>
+      <c r="I81" s="87"/>
+      <c r="J81" s="214"/>
+      <c r="K81" s="214"/>
+      <c r="L81" s="115"/>
+      <c r="M81" s="87"/>
+    </row>
+    <row r="82" spans="1:13" s="29" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="155"/>
       <c r="B82" s="158"/>
       <c r="C82" s="42" t="s">
@@ -4136,12 +5240,16 @@
         <v>112</v>
       </c>
       <c r="E82" s="161"/>
-      <c r="F82" s="97"/>
-      <c r="G82" s="79"/>
-      <c r="H82" s="182"/>
-      <c r="I82" s="182"/>
-    </row>
-    <row r="83" spans="1:9" s="29" customFormat="1" ht="63.75">
+      <c r="F82" s="212"/>
+      <c r="G82" s="215"/>
+      <c r="H82" s="88"/>
+      <c r="I82" s="88"/>
+      <c r="J82" s="215"/>
+      <c r="K82" s="215"/>
+      <c r="L82" s="116"/>
+      <c r="M82" s="88"/>
+    </row>
+    <row r="83" spans="1:13" s="29" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A83" s="153">
         <v>24</v>
       </c>
@@ -4157,31 +5265,43 @@
       <c r="E83" s="159" t="s">
         <v>0</v>
       </c>
-      <c r="F83" s="95" t="s">
+      <c r="F83" s="210" t="s">
         <v>368</v>
       </c>
-      <c r="G83" s="77" t="s">
+      <c r="G83" s="213" t="s">
         <v>286</v>
       </c>
-      <c r="H83" s="180" t="s">
+      <c r="H83" s="86" t="s">
         <v>356</v>
       </c>
-      <c r="I83" s="180" t="s">
+      <c r="I83" s="86" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" s="29" customFormat="1" ht="30.75" customHeight="1">
+      <c r="J83" s="213" t="s">
+        <v>403</v>
+      </c>
+      <c r="K83" s="213"/>
+      <c r="L83" s="213"/>
+      <c r="M83" s="86" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="154"/>
       <c r="B84" s="157"/>
       <c r="C84" s="41"/>
       <c r="D84" s="41"/>
       <c r="E84" s="160"/>
-      <c r="F84" s="96"/>
-      <c r="G84" s="78"/>
-      <c r="H84" s="181"/>
-      <c r="I84" s="181"/>
-    </row>
-    <row r="85" spans="1:9" s="29" customFormat="1" ht="30.75" customHeight="1" thickBot="1">
+      <c r="F84" s="211"/>
+      <c r="G84" s="214"/>
+      <c r="H84" s="87"/>
+      <c r="I84" s="87"/>
+      <c r="J84" s="214"/>
+      <c r="K84" s="214"/>
+      <c r="L84" s="214"/>
+      <c r="M84" s="87"/>
+    </row>
+    <row r="85" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="155"/>
       <c r="B85" s="158"/>
       <c r="C85" s="42" t="s">
@@ -4191,12 +5311,16 @@
         <v>117</v>
       </c>
       <c r="E85" s="161"/>
-      <c r="F85" s="97"/>
-      <c r="G85" s="79"/>
-      <c r="H85" s="182"/>
-      <c r="I85" s="182"/>
-    </row>
-    <row r="86" spans="1:9" s="29" customFormat="1" ht="63.75">
+      <c r="F85" s="212"/>
+      <c r="G85" s="215"/>
+      <c r="H85" s="88"/>
+      <c r="I85" s="88"/>
+      <c r="J85" s="215"/>
+      <c r="K85" s="215"/>
+      <c r="L85" s="215"/>
+      <c r="M85" s="88"/>
+    </row>
+    <row r="86" spans="1:13" s="29" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A86" s="153">
         <v>25</v>
       </c>
@@ -4212,31 +5336,45 @@
       <c r="E86" s="159" t="s">
         <v>36</v>
       </c>
-      <c r="F86" s="95" t="s">
+      <c r="F86" s="210" t="s">
         <v>309</v>
       </c>
-      <c r="G86" s="77" t="s">
+      <c r="G86" s="213" t="s">
         <v>286</v>
       </c>
-      <c r="H86" s="180" t="s">
+      <c r="H86" s="86" t="s">
         <v>356</v>
       </c>
-      <c r="I86" s="180" t="s">
+      <c r="I86" s="86" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" s="29" customFormat="1" ht="30.75" customHeight="1">
+      <c r="J86" s="213" t="s">
+        <v>405</v>
+      </c>
+      <c r="K86" s="213" t="s">
+        <v>406</v>
+      </c>
+      <c r="L86" s="230"/>
+      <c r="M86" s="257" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="154"/>
       <c r="B87" s="41"/>
       <c r="C87" s="41"/>
       <c r="D87" s="41"/>
       <c r="E87" s="160"/>
-      <c r="F87" s="96"/>
-      <c r="G87" s="78"/>
-      <c r="H87" s="181"/>
-      <c r="I87" s="181"/>
-    </row>
-    <row r="88" spans="1:9" s="29" customFormat="1" ht="51.75" thickBot="1">
+      <c r="F87" s="211"/>
+      <c r="G87" s="214"/>
+      <c r="H87" s="87"/>
+      <c r="I87" s="87"/>
+      <c r="J87" s="214"/>
+      <c r="K87" s="214"/>
+      <c r="L87" s="231"/>
+      <c r="M87" s="258"/>
+    </row>
+    <row r="88" spans="1:13" s="29" customFormat="1" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="155"/>
       <c r="B88" s="42" t="s">
         <v>119</v>
@@ -4248,12 +5386,16 @@
         <v>123</v>
       </c>
       <c r="E88" s="161"/>
-      <c r="F88" s="97"/>
-      <c r="G88" s="79"/>
-      <c r="H88" s="182"/>
-      <c r="I88" s="182"/>
-    </row>
-    <row r="89" spans="1:9" s="29" customFormat="1" ht="90" thickBot="1">
+      <c r="F88" s="212"/>
+      <c r="G88" s="215"/>
+      <c r="H88" s="88"/>
+      <c r="I88" s="88"/>
+      <c r="J88" s="215"/>
+      <c r="K88" s="215"/>
+      <c r="L88" s="232"/>
+      <c r="M88" s="259"/>
+    </row>
+    <row r="89" spans="1:13" s="29" customFormat="1" ht="90" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="43">
         <v>26</v>
       </c>
@@ -4281,8 +5423,18 @@
       <c r="I89" s="59" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" s="29" customFormat="1" ht="51">
+      <c r="J89" s="72" t="s">
+        <v>403</v>
+      </c>
+      <c r="K89" s="72" t="s">
+        <v>407</v>
+      </c>
+      <c r="L89" s="82"/>
+      <c r="M89" s="81" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" s="29" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A90" s="153">
         <v>27</v>
       </c>
@@ -4295,34 +5447,46 @@
       <c r="D90" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E90" s="162" t="s">
+      <c r="E90" s="166" t="s">
         <v>36</v>
       </c>
-      <c r="F90" s="95" t="s">
+      <c r="F90" s="210" t="s">
         <v>369</v>
       </c>
-      <c r="G90" s="77" t="s">
+      <c r="G90" s="213" t="s">
         <v>312</v>
       </c>
-      <c r="H90" s="180" t="s">
+      <c r="H90" s="86" t="s">
         <v>361</v>
       </c>
-      <c r="I90" s="180" t="s">
+      <c r="I90" s="86" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" s="29" customFormat="1" ht="30.75" customHeight="1">
+      <c r="J90" s="213" t="s">
+        <v>403</v>
+      </c>
+      <c r="K90" s="213" t="s">
+        <v>408</v>
+      </c>
+      <c r="L90" s="233"/>
+      <c r="M90" s="79"/>
+    </row>
+    <row r="91" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="154"/>
       <c r="B91" s="157"/>
       <c r="C91" s="41"/>
       <c r="D91" s="41"/>
-      <c r="E91" s="163"/>
-      <c r="F91" s="96"/>
-      <c r="G91" s="78"/>
-      <c r="H91" s="181"/>
-      <c r="I91" s="181"/>
-    </row>
-    <row r="92" spans="1:9" s="29" customFormat="1" ht="38.25">
+      <c r="E91" s="167"/>
+      <c r="F91" s="211"/>
+      <c r="G91" s="214"/>
+      <c r="H91" s="87"/>
+      <c r="I91" s="87"/>
+      <c r="J91" s="214"/>
+      <c r="K91" s="214"/>
+      <c r="L91" s="234"/>
+      <c r="M91" s="80"/>
+    </row>
+    <row r="92" spans="1:13" s="29" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A92" s="154"/>
       <c r="B92" s="157"/>
       <c r="C92" s="41" t="s">
@@ -4331,50 +5495,66 @@
       <c r="D92" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E92" s="163"/>
-      <c r="F92" s="96"/>
-      <c r="G92" s="78"/>
-      <c r="H92" s="181"/>
-      <c r="I92" s="181"/>
-    </row>
-    <row r="93" spans="1:9" s="29" customFormat="1" ht="30.75" customHeight="1">
+      <c r="E92" s="167"/>
+      <c r="F92" s="211"/>
+      <c r="G92" s="214"/>
+      <c r="H92" s="87"/>
+      <c r="I92" s="87"/>
+      <c r="J92" s="214"/>
+      <c r="K92" s="214"/>
+      <c r="L92" s="234"/>
+      <c r="M92" s="80"/>
+    </row>
+    <row r="93" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="154"/>
       <c r="B93" s="157"/>
       <c r="C93" s="41"/>
       <c r="D93" s="41"/>
-      <c r="E93" s="163"/>
-      <c r="F93" s="96"/>
-      <c r="G93" s="78"/>
-      <c r="H93" s="181"/>
-      <c r="I93" s="181"/>
-    </row>
-    <row r="94" spans="1:9" s="29" customFormat="1" ht="38.25">
+      <c r="E93" s="167"/>
+      <c r="F93" s="211"/>
+      <c r="G93" s="214"/>
+      <c r="H93" s="87"/>
+      <c r="I93" s="87"/>
+      <c r="J93" s="214"/>
+      <c r="K93" s="214"/>
+      <c r="L93" s="234"/>
+      <c r="M93" s="80"/>
+    </row>
+    <row r="94" spans="1:13" s="29" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A94" s="154"/>
       <c r="B94" s="157"/>
       <c r="C94" s="41" t="s">
         <v>130</v>
       </c>
       <c r="D94" s="41"/>
-      <c r="E94" s="163"/>
-      <c r="F94" s="96"/>
-      <c r="G94" s="78"/>
-      <c r="H94" s="181"/>
-      <c r="I94" s="181"/>
-    </row>
-    <row r="95" spans="1:9" s="29" customFormat="1" ht="39" thickBot="1">
+      <c r="E94" s="167"/>
+      <c r="F94" s="211"/>
+      <c r="G94" s="214"/>
+      <c r="H94" s="87"/>
+      <c r="I94" s="87"/>
+      <c r="J94" s="214"/>
+      <c r="K94" s="214"/>
+      <c r="L94" s="234"/>
+      <c r="M94" s="80"/>
+    </row>
+    <row r="95" spans="1:13" s="29" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="155"/>
       <c r="B95" s="158"/>
       <c r="C95" s="45"/>
       <c r="D95" s="42" t="s">
         <v>133</v>
       </c>
-      <c r="E95" s="164"/>
-      <c r="F95" s="97"/>
-      <c r="G95" s="79"/>
-      <c r="H95" s="182"/>
-      <c r="I95" s="182"/>
-    </row>
-    <row r="96" spans="1:9" s="29" customFormat="1" ht="90" thickBot="1">
+      <c r="E95" s="168"/>
+      <c r="F95" s="212"/>
+      <c r="G95" s="215"/>
+      <c r="H95" s="88"/>
+      <c r="I95" s="88"/>
+      <c r="J95" s="215"/>
+      <c r="K95" s="215"/>
+      <c r="L95" s="235"/>
+      <c r="M95" s="81"/>
+    </row>
+    <row r="96" spans="1:13" s="29" customFormat="1" ht="90" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="46">
         <v>28</v>
       </c>
@@ -4402,8 +5582,18 @@
       <c r="I96" s="63" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" s="29" customFormat="1" ht="30.75" customHeight="1">
+      <c r="J96" s="76" t="s">
+        <v>403</v>
+      </c>
+      <c r="K96" s="76" t="s">
+        <v>409</v>
+      </c>
+      <c r="L96" s="82"/>
+      <c r="M96" s="81" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="153">
         <v>29</v>
       </c>
@@ -4419,42 +5609,60 @@
       <c r="E97" s="159" t="s">
         <v>0</v>
       </c>
-      <c r="F97" s="95" t="s">
+      <c r="F97" s="210" t="s">
         <v>316</v>
       </c>
-      <c r="G97" s="77" t="s">
+      <c r="G97" s="213" t="s">
         <v>315</v>
       </c>
-      <c r="H97" s="180" t="s">
+      <c r="H97" s="86" t="s">
         <v>356</v>
       </c>
-      <c r="I97" s="180" t="s">
+      <c r="I97" s="86" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" s="29" customFormat="1" ht="30.75" customHeight="1">
+      <c r="J97" s="213" t="s">
+        <v>403</v>
+      </c>
+      <c r="K97" s="213" t="s">
+        <v>410</v>
+      </c>
+      <c r="L97" s="226"/>
+      <c r="M97" s="86" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="154"/>
       <c r="B98" s="157"/>
       <c r="C98" s="157"/>
       <c r="D98" s="157"/>
       <c r="E98" s="160"/>
-      <c r="F98" s="96"/>
-      <c r="G98" s="78"/>
-      <c r="H98" s="181"/>
-      <c r="I98" s="181"/>
-    </row>
-    <row r="99" spans="1:9" s="29" customFormat="1" ht="30.75" customHeight="1" thickBot="1">
+      <c r="F98" s="211"/>
+      <c r="G98" s="214"/>
+      <c r="H98" s="87"/>
+      <c r="I98" s="87"/>
+      <c r="J98" s="214"/>
+      <c r="K98" s="214"/>
+      <c r="L98" s="227"/>
+      <c r="M98" s="87"/>
+    </row>
+    <row r="99" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="155"/>
       <c r="B99" s="158"/>
       <c r="C99" s="158"/>
       <c r="D99" s="158"/>
       <c r="E99" s="161"/>
-      <c r="F99" s="97"/>
-      <c r="G99" s="79"/>
-      <c r="H99" s="182"/>
-      <c r="I99" s="182"/>
-    </row>
-    <row r="100" spans="1:9" s="29" customFormat="1" ht="38.25">
+      <c r="F99" s="212"/>
+      <c r="G99" s="215"/>
+      <c r="H99" s="88"/>
+      <c r="I99" s="88"/>
+      <c r="J99" s="215"/>
+      <c r="K99" s="215"/>
+      <c r="L99" s="228"/>
+      <c r="M99" s="88"/>
+    </row>
+    <row r="100" spans="1:13" s="29" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A100" s="153">
         <v>30</v>
       </c>
@@ -4470,31 +5678,45 @@
       <c r="E100" s="159" t="s">
         <v>0</v>
       </c>
-      <c r="F100" s="95" t="s">
+      <c r="F100" s="210" t="s">
         <v>286</v>
       </c>
-      <c r="G100" s="77" t="s">
+      <c r="G100" s="213" t="s">
         <v>317</v>
       </c>
-      <c r="H100" s="180" t="s">
+      <c r="H100" s="86" t="s">
         <v>356</v>
       </c>
-      <c r="I100" s="180" t="s">
+      <c r="I100" s="86" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" s="29" customFormat="1" ht="30.75" customHeight="1">
+      <c r="J100" s="213" t="s">
+        <v>403</v>
+      </c>
+      <c r="K100" s="213" t="s">
+        <v>411</v>
+      </c>
+      <c r="L100" s="114"/>
+      <c r="M100" s="86" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="154"/>
       <c r="B101" s="157"/>
       <c r="C101" s="41"/>
       <c r="D101" s="41"/>
       <c r="E101" s="160"/>
-      <c r="F101" s="96"/>
-      <c r="G101" s="78"/>
-      <c r="H101" s="181"/>
-      <c r="I101" s="181"/>
-    </row>
-    <row r="102" spans="1:9" s="29" customFormat="1" ht="30.75" customHeight="1" thickBot="1">
+      <c r="F101" s="211"/>
+      <c r="G101" s="214"/>
+      <c r="H101" s="87"/>
+      <c r="I101" s="87"/>
+      <c r="J101" s="214"/>
+      <c r="K101" s="214"/>
+      <c r="L101" s="115"/>
+      <c r="M101" s="87"/>
+    </row>
+    <row r="102" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="155"/>
       <c r="B102" s="158"/>
       <c r="C102" s="42" t="s">
@@ -4504,12 +5726,16 @@
         <v>144</v>
       </c>
       <c r="E102" s="161"/>
-      <c r="F102" s="97"/>
-      <c r="G102" s="79"/>
-      <c r="H102" s="182"/>
-      <c r="I102" s="182"/>
-    </row>
-    <row r="103" spans="1:9" s="29" customFormat="1" ht="51">
+      <c r="F102" s="212"/>
+      <c r="G102" s="215"/>
+      <c r="H102" s="88"/>
+      <c r="I102" s="88"/>
+      <c r="J102" s="215"/>
+      <c r="K102" s="215"/>
+      <c r="L102" s="116"/>
+      <c r="M102" s="88"/>
+    </row>
+    <row r="103" spans="1:13" s="29" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A103" s="153">
         <v>31</v>
       </c>
@@ -4525,31 +5751,45 @@
       <c r="E103" s="159" t="s">
         <v>0</v>
       </c>
-      <c r="F103" s="95" t="s">
+      <c r="F103" s="210" t="s">
         <v>318</v>
       </c>
-      <c r="G103" s="77" t="s">
+      <c r="G103" s="213" t="s">
         <v>317</v>
       </c>
-      <c r="H103" s="180" t="s">
+      <c r="H103" s="86" t="s">
         <v>356</v>
       </c>
-      <c r="I103" s="180" t="s">
+      <c r="I103" s="86" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" s="29" customFormat="1" ht="30.75" customHeight="1">
+      <c r="J103" s="213" t="s">
+        <v>403</v>
+      </c>
+      <c r="K103" s="213" t="s">
+        <v>412</v>
+      </c>
+      <c r="L103" s="114"/>
+      <c r="M103" s="86" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="154"/>
       <c r="B104" s="157"/>
       <c r="C104" s="41"/>
       <c r="D104" s="41"/>
       <c r="E104" s="160"/>
-      <c r="F104" s="96"/>
-      <c r="G104" s="78"/>
-      <c r="H104" s="181"/>
-      <c r="I104" s="181"/>
-    </row>
-    <row r="105" spans="1:9" s="29" customFormat="1" ht="30.75" customHeight="1" thickBot="1">
+      <c r="F104" s="211"/>
+      <c r="G104" s="214"/>
+      <c r="H104" s="87"/>
+      <c r="I104" s="87"/>
+      <c r="J104" s="214"/>
+      <c r="K104" s="214"/>
+      <c r="L104" s="115"/>
+      <c r="M104" s="87"/>
+    </row>
+    <row r="105" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="155"/>
       <c r="B105" s="158"/>
       <c r="C105" s="42" t="s">
@@ -4559,12 +5799,16 @@
         <v>149</v>
       </c>
       <c r="E105" s="161"/>
-      <c r="F105" s="97"/>
-      <c r="G105" s="79"/>
-      <c r="H105" s="182"/>
-      <c r="I105" s="182"/>
-    </row>
-    <row r="106" spans="1:9" s="29" customFormat="1" ht="77.25" thickBot="1">
+      <c r="F105" s="212"/>
+      <c r="G105" s="215"/>
+      <c r="H105" s="88"/>
+      <c r="I105" s="88"/>
+      <c r="J105" s="215"/>
+      <c r="K105" s="215"/>
+      <c r="L105" s="116"/>
+      <c r="M105" s="88"/>
+    </row>
+    <row r="106" spans="1:13" s="29" customFormat="1" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="43">
         <v>32</v>
       </c>
@@ -4592,8 +5836,18 @@
       <c r="I106" s="63" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" s="29" customFormat="1" ht="90" thickBot="1">
+      <c r="J106" s="72" t="s">
+        <v>403</v>
+      </c>
+      <c r="K106" s="72" t="s">
+        <v>413</v>
+      </c>
+      <c r="L106" s="82"/>
+      <c r="M106" s="81" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" s="29" customFormat="1" ht="90" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="43">
         <v>33</v>
       </c>
@@ -4621,8 +5875,18 @@
       <c r="I107" s="63" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" s="29" customFormat="1" ht="102">
+      <c r="J107" s="72" t="s">
+        <v>403</v>
+      </c>
+      <c r="K107" s="72" t="s">
+        <v>414</v>
+      </c>
+      <c r="L107" s="82"/>
+      <c r="M107" s="81" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" s="29" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A108" s="153">
         <v>34</v>
       </c>
@@ -4638,31 +5902,45 @@
       <c r="E108" s="159" t="s">
         <v>36</v>
       </c>
-      <c r="F108" s="95" t="s">
+      <c r="F108" s="210" t="s">
         <v>321</v>
       </c>
-      <c r="G108" s="77" t="s">
+      <c r="G108" s="213" t="s">
         <v>322</v>
       </c>
-      <c r="H108" s="186" t="s">
+      <c r="H108" s="109" t="s">
         <v>356</v>
       </c>
-      <c r="I108" s="194" t="s">
+      <c r="I108" s="98" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" s="29" customFormat="1" ht="30.75" customHeight="1">
+      <c r="J108" s="213" t="s">
+        <v>403</v>
+      </c>
+      <c r="K108" s="213" t="s">
+        <v>415</v>
+      </c>
+      <c r="L108" s="230"/>
+      <c r="M108" s="257" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="154"/>
       <c r="B109" s="157"/>
       <c r="C109" s="41"/>
       <c r="D109" s="157"/>
       <c r="E109" s="160"/>
-      <c r="F109" s="96"/>
-      <c r="G109" s="78"/>
-      <c r="H109" s="187"/>
-      <c r="I109" s="195"/>
-    </row>
-    <row r="110" spans="1:9" s="29" customFormat="1" ht="30.75" customHeight="1" thickBot="1">
+      <c r="F109" s="211"/>
+      <c r="G109" s="214"/>
+      <c r="H109" s="110"/>
+      <c r="I109" s="99"/>
+      <c r="J109" s="214"/>
+      <c r="K109" s="214"/>
+      <c r="L109" s="231"/>
+      <c r="M109" s="258"/>
+    </row>
+    <row r="110" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="155"/>
       <c r="B110" s="158"/>
       <c r="C110" s="42" t="s">
@@ -4670,31 +5948,35 @@
       </c>
       <c r="D110" s="158"/>
       <c r="E110" s="161"/>
-      <c r="F110" s="97"/>
-      <c r="G110" s="79"/>
-      <c r="H110" s="188"/>
-      <c r="I110" s="196"/>
-    </row>
-    <row r="111" spans="1:9" s="109" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A111" s="109" t="s">
+      <c r="F110" s="212"/>
+      <c r="G110" s="215"/>
+      <c r="H110" s="111"/>
+      <c r="I110" s="100"/>
+      <c r="J110" s="215"/>
+      <c r="K110" s="215"/>
+      <c r="L110" s="232"/>
+      <c r="M110" s="259"/>
+    </row>
+    <row r="111" spans="1:13" s="175" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="175" t="s">
         <v>160</v>
       </c>
-      <c r="B111" s="110"/>
-      <c r="C111" s="110"/>
-      <c r="D111" s="110"/>
-      <c r="E111" s="110"/>
-      <c r="F111" s="110"/>
-      <c r="G111" s="110"/>
-    </row>
-    <row r="112" spans="1:9" s="111" customFormat="1" ht="30.75" customHeight="1" thickBot="1">
-      <c r="B112" s="112"/>
-      <c r="C112" s="112"/>
-      <c r="D112" s="112"/>
-      <c r="E112" s="112"/>
-      <c r="F112" s="112"/>
-      <c r="G112" s="112"/>
-    </row>
-    <row r="113" spans="1:9" ht="30.75" customHeight="1" thickBot="1">
+      <c r="B111" s="176"/>
+      <c r="C111" s="176"/>
+      <c r="D111" s="176"/>
+      <c r="E111" s="176"/>
+      <c r="F111" s="176"/>
+      <c r="G111" s="176"/>
+    </row>
+    <row r="112" spans="1:13" s="177" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B112" s="178"/>
+      <c r="C112" s="178"/>
+      <c r="D112" s="178"/>
+      <c r="E112" s="178"/>
+      <c r="F112" s="178"/>
+      <c r="G112" s="178"/>
+    </row>
+    <row r="113" spans="1:13" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="18" t="s">
         <v>1</v>
       </c>
@@ -4722,114 +6004,162 @@
       <c r="I113" s="26" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" ht="38.25">
-      <c r="A114" s="150">
+      <c r="J113" s="25" t="s">
+        <v>382</v>
+      </c>
+      <c r="K113" s="25" t="s">
+        <v>383</v>
+      </c>
+      <c r="L113" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="M113" s="26" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A114" s="169">
         <v>35</v>
       </c>
-      <c r="B114" s="129" t="s">
+      <c r="B114" s="117" t="s">
         <v>161</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="D114" s="129" t="s">
+      <c r="D114" s="117" t="s">
         <v>164</v>
       </c>
-      <c r="E114" s="132" t="s">
+      <c r="E114" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="F114" s="98" t="s">
+      <c r="F114" s="216" t="s">
         <v>323</v>
       </c>
-      <c r="G114" s="83" t="s">
+      <c r="G114" s="107" t="s">
         <v>324</v>
       </c>
-      <c r="H114" s="189" t="s">
+      <c r="H114" s="112" t="s">
         <v>381</v>
       </c>
-      <c r="I114" s="101" t="s">
+      <c r="I114" s="90" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" ht="30.75" customHeight="1">
-      <c r="A115" s="151"/>
-      <c r="B115" s="130"/>
+      <c r="J114" s="107" t="s">
+        <v>416</v>
+      </c>
+      <c r="K114" s="107" t="s">
+        <v>417</v>
+      </c>
+      <c r="L114" s="112"/>
+      <c r="M114" s="90" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="170"/>
+      <c r="B115" s="118"/>
       <c r="C115" s="3"/>
-      <c r="D115" s="130"/>
-      <c r="E115" s="133"/>
-      <c r="F115" s="98"/>
-      <c r="G115" s="83"/>
-      <c r="H115" s="189"/>
-      <c r="I115" s="101"/>
-    </row>
-    <row r="116" spans="1:9" ht="39" thickBot="1">
-      <c r="A116" s="152"/>
-      <c r="B116" s="131"/>
+      <c r="D115" s="118"/>
+      <c r="E115" s="121"/>
+      <c r="F115" s="216"/>
+      <c r="G115" s="107"/>
+      <c r="H115" s="112"/>
+      <c r="I115" s="90"/>
+      <c r="J115" s="107"/>
+      <c r="K115" s="107"/>
+      <c r="L115" s="112"/>
+      <c r="M115" s="90"/>
+    </row>
+    <row r="116" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="171"/>
+      <c r="B116" s="119"/>
       <c r="C116" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="D116" s="131"/>
-      <c r="E116" s="134"/>
-      <c r="F116" s="99"/>
-      <c r="G116" s="84"/>
-      <c r="H116" s="190"/>
-      <c r="I116" s="102"/>
-    </row>
-    <row r="117" spans="1:9" ht="30.75" customHeight="1">
-      <c r="A117" s="150">
+      <c r="D116" s="119"/>
+      <c r="E116" s="122"/>
+      <c r="F116" s="217"/>
+      <c r="G116" s="108"/>
+      <c r="H116" s="113"/>
+      <c r="I116" s="91"/>
+      <c r="J116" s="108"/>
+      <c r="K116" s="108"/>
+      <c r="L116" s="113"/>
+      <c r="M116" s="91"/>
+    </row>
+    <row r="117" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="169">
         <v>36</v>
       </c>
-      <c r="B117" s="129" t="s">
+      <c r="B117" s="117" t="s">
         <v>165</v>
       </c>
-      <c r="C117" s="129" t="s">
+      <c r="C117" s="117" t="s">
         <v>166</v>
       </c>
       <c r="D117" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="E117" s="132" t="s">
+      <c r="E117" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="F117" s="92" t="s">
+      <c r="F117" s="150" t="s">
         <v>370</v>
       </c>
-      <c r="G117" s="85" t="s">
+      <c r="G117" s="200" t="s">
         <v>325</v>
       </c>
-      <c r="H117" s="189" t="s">
+      <c r="H117" s="112" t="s">
         <v>380</v>
       </c>
-      <c r="I117" s="100" t="s">
+      <c r="I117" s="89" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" ht="30.75" customHeight="1">
-      <c r="A118" s="151"/>
-      <c r="B118" s="130"/>
-      <c r="C118" s="130"/>
+      <c r="J117" s="200" t="s">
+        <v>416</v>
+      </c>
+      <c r="K117" s="200" t="s">
+        <v>418</v>
+      </c>
+      <c r="L117" s="236"/>
+      <c r="M117" s="89" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="170"/>
+      <c r="B118" s="118"/>
+      <c r="C118" s="118"/>
       <c r="D118" s="3"/>
-      <c r="E118" s="133"/>
-      <c r="F118" s="93"/>
-      <c r="G118" s="83"/>
-      <c r="H118" s="189"/>
-      <c r="I118" s="101"/>
-    </row>
-    <row r="119" spans="1:9" ht="26.25" thickBot="1">
-      <c r="A119" s="152"/>
-      <c r="B119" s="131"/>
-      <c r="C119" s="131"/>
+      <c r="E118" s="121"/>
+      <c r="F118" s="151"/>
+      <c r="G118" s="107"/>
+      <c r="H118" s="112"/>
+      <c r="I118" s="90"/>
+      <c r="J118" s="107"/>
+      <c r="K118" s="107"/>
+      <c r="L118" s="237"/>
+      <c r="M118" s="90"/>
+    </row>
+    <row r="119" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="171"/>
+      <c r="B119" s="119"/>
+      <c r="C119" s="119"/>
       <c r="D119" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="E119" s="134"/>
-      <c r="F119" s="94"/>
-      <c r="G119" s="84"/>
-      <c r="H119" s="190"/>
-      <c r="I119" s="102"/>
-    </row>
-    <row r="120" spans="1:9" ht="64.5" thickBot="1">
+      <c r="E119" s="122"/>
+      <c r="F119" s="152"/>
+      <c r="G119" s="108"/>
+      <c r="H119" s="113"/>
+      <c r="I119" s="91"/>
+      <c r="J119" s="108"/>
+      <c r="K119" s="108"/>
+      <c r="L119" s="238"/>
+      <c r="M119" s="91"/>
+    </row>
+    <row r="120" spans="1:13" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="17">
         <v>37</v>
       </c>
@@ -4857,8 +6187,18 @@
       <c r="I120" s="58" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" ht="102.75" thickBot="1">
+      <c r="J120" s="74" t="s">
+        <v>416</v>
+      </c>
+      <c r="K120" s="74" t="s">
+        <v>419</v>
+      </c>
+      <c r="L120" s="218"/>
+      <c r="M120" s="78" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" ht="102.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="17">
         <v>38</v>
       </c>
@@ -4886,12 +6226,22 @@
       <c r="I121" s="58" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" ht="38.25">
-      <c r="A122" s="126">
+      <c r="J121" s="74" t="s">
+        <v>416</v>
+      </c>
+      <c r="K121" s="74" t="s">
+        <v>420</v>
+      </c>
+      <c r="L121" s="218"/>
+      <c r="M121" s="78" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A122" s="172">
         <v>39</v>
       </c>
-      <c r="B122" s="129" t="s">
+      <c r="B122" s="117" t="s">
         <v>175</v>
       </c>
       <c r="C122" s="3" t="s">
@@ -4900,53 +6250,69 @@
       <c r="D122" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="E122" s="132" t="s">
+      <c r="E122" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="F122" s="92" t="s">
+      <c r="F122" s="150" t="s">
         <v>286</v>
       </c>
-      <c r="G122" s="85" t="s">
+      <c r="G122" s="200" t="s">
         <v>328</v>
       </c>
-      <c r="H122" s="100" t="s">
+      <c r="H122" s="89" t="s">
         <v>356</v>
       </c>
-      <c r="I122" s="100" t="s">
+      <c r="I122" s="89" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" ht="30.75" customHeight="1">
-      <c r="A123" s="127"/>
-      <c r="B123" s="130"/>
+      <c r="J122" s="200" t="s">
+        <v>385</v>
+      </c>
+      <c r="K122" s="200"/>
+      <c r="L122" s="200"/>
+      <c r="M122" s="89" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="173"/>
+      <c r="B123" s="118"/>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
-      <c r="E123" s="133"/>
-      <c r="F123" s="93"/>
-      <c r="G123" s="83"/>
-      <c r="H123" s="101"/>
-      <c r="I123" s="101"/>
-    </row>
-    <row r="124" spans="1:9" ht="39" thickBot="1">
-      <c r="A124" s="128"/>
-      <c r="B124" s="131"/>
+      <c r="E123" s="121"/>
+      <c r="F123" s="151"/>
+      <c r="G123" s="107"/>
+      <c r="H123" s="90"/>
+      <c r="I123" s="90"/>
+      <c r="J123" s="107"/>
+      <c r="K123" s="107"/>
+      <c r="L123" s="107"/>
+      <c r="M123" s="90"/>
+    </row>
+    <row r="124" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="174"/>
+      <c r="B124" s="119"/>
       <c r="C124" s="6" t="s">
         <v>177</v>
       </c>
       <c r="D124" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="E124" s="134"/>
-      <c r="F124" s="94"/>
-      <c r="G124" s="84"/>
-      <c r="H124" s="102"/>
-      <c r="I124" s="102"/>
-    </row>
-    <row r="125" spans="1:9" ht="38.25">
-      <c r="A125" s="126">
+      <c r="E124" s="122"/>
+      <c r="F124" s="152"/>
+      <c r="G124" s="108"/>
+      <c r="H124" s="91"/>
+      <c r="I124" s="91"/>
+      <c r="J124" s="108"/>
+      <c r="K124" s="108"/>
+      <c r="L124" s="108"/>
+      <c r="M124" s="91"/>
+    </row>
+    <row r="125" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A125" s="172">
         <v>40</v>
       </c>
-      <c r="B125" s="129" t="s">
+      <c r="B125" s="117" t="s">
         <v>180</v>
       </c>
       <c r="C125" s="3" t="s">
@@ -4955,81 +6321,107 @@
       <c r="D125" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="E125" s="132" t="s">
+      <c r="E125" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="F125" s="92" t="s">
+      <c r="F125" s="150" t="s">
         <v>329</v>
       </c>
-      <c r="G125" s="85" t="s">
+      <c r="G125" s="200" t="s">
         <v>330</v>
       </c>
-      <c r="H125" s="100" t="s">
+      <c r="H125" s="89" t="s">
         <v>361</v>
       </c>
-      <c r="I125" s="100" t="s">
+      <c r="I125" s="89" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" ht="25.5">
-      <c r="A126" s="127"/>
-      <c r="B126" s="130"/>
+      <c r="J125" s="200" t="s">
+        <v>416</v>
+      </c>
+      <c r="K125" s="200" t="s">
+        <v>421</v>
+      </c>
+      <c r="L125" s="220"/>
+      <c r="M125" s="89" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A126" s="173"/>
+      <c r="B126" s="118"/>
       <c r="C126" s="3" t="s">
         <v>182</v>
       </c>
       <c r="D126" s="3"/>
-      <c r="E126" s="133"/>
-      <c r="F126" s="93"/>
-      <c r="G126" s="83"/>
-      <c r="H126" s="101"/>
-      <c r="I126" s="101"/>
-    </row>
-    <row r="127" spans="1:9" ht="38.25">
-      <c r="A127" s="127"/>
-      <c r="B127" s="130"/>
+      <c r="E126" s="121"/>
+      <c r="F126" s="151"/>
+      <c r="G126" s="107"/>
+      <c r="H126" s="90"/>
+      <c r="I126" s="90"/>
+      <c r="J126" s="107"/>
+      <c r="K126" s="107"/>
+      <c r="L126" s="112"/>
+      <c r="M126" s="90"/>
+    </row>
+    <row r="127" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A127" s="173"/>
+      <c r="B127" s="118"/>
       <c r="C127" s="3" t="s">
         <v>183</v>
       </c>
       <c r="D127" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="E127" s="133"/>
-      <c r="F127" s="93"/>
-      <c r="G127" s="83"/>
-      <c r="H127" s="101"/>
-      <c r="I127" s="101"/>
-    </row>
-    <row r="128" spans="1:9" ht="25.5">
-      <c r="A128" s="127"/>
-      <c r="B128" s="130"/>
+      <c r="E127" s="121"/>
+      <c r="F127" s="151"/>
+      <c r="G127" s="107"/>
+      <c r="H127" s="90"/>
+      <c r="I127" s="90"/>
+      <c r="J127" s="107"/>
+      <c r="K127" s="107"/>
+      <c r="L127" s="112"/>
+      <c r="M127" s="90"/>
+    </row>
+    <row r="128" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A128" s="173"/>
+      <c r="B128" s="118"/>
       <c r="C128" s="3" t="s">
         <v>184</v>
       </c>
       <c r="D128" s="3"/>
-      <c r="E128" s="133"/>
-      <c r="F128" s="93"/>
-      <c r="G128" s="83"/>
-      <c r="H128" s="101"/>
-      <c r="I128" s="101"/>
-    </row>
-    <row r="129" spans="1:9" ht="39" thickBot="1">
-      <c r="A129" s="128"/>
-      <c r="B129" s="131"/>
+      <c r="E128" s="121"/>
+      <c r="F128" s="151"/>
+      <c r="G128" s="107"/>
+      <c r="H128" s="90"/>
+      <c r="I128" s="90"/>
+      <c r="J128" s="107"/>
+      <c r="K128" s="107"/>
+      <c r="L128" s="112"/>
+      <c r="M128" s="90"/>
+    </row>
+    <row r="129" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="174"/>
+      <c r="B129" s="119"/>
       <c r="C129" s="7"/>
       <c r="D129" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E129" s="134"/>
-      <c r="F129" s="94"/>
-      <c r="G129" s="84"/>
-      <c r="H129" s="102"/>
-      <c r="I129" s="102"/>
-    </row>
-    <row r="130" spans="1:9" ht="30.75" customHeight="1">
-      <c r="A130" s="126">
+      <c r="E129" s="122"/>
+      <c r="F129" s="152"/>
+      <c r="G129" s="108"/>
+      <c r="H129" s="91"/>
+      <c r="I129" s="91"/>
+      <c r="J129" s="108"/>
+      <c r="K129" s="108"/>
+      <c r="L129" s="113"/>
+      <c r="M129" s="91"/>
+    </row>
+    <row r="130" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="172">
         <v>41</v>
       </c>
-      <c r="B130" s="129" t="s">
+      <c r="B130" s="117" t="s">
         <v>188</v>
       </c>
       <c r="C130" s="3" t="s">
@@ -5038,53 +6430,71 @@
       <c r="D130" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="E130" s="132" t="s">
+      <c r="E130" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="F130" s="92" t="s">
+      <c r="F130" s="150" t="s">
         <v>331</v>
       </c>
-      <c r="G130" s="85" t="s">
+      <c r="G130" s="200" t="s">
         <v>324</v>
       </c>
-      <c r="H130" s="100" t="s">
+      <c r="H130" s="89" t="s">
         <v>361</v>
       </c>
-      <c r="I130" s="100" t="s">
+      <c r="I130" s="89" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" ht="30.75" customHeight="1">
-      <c r="A131" s="127"/>
-      <c r="B131" s="130"/>
+      <c r="J130" s="200" t="s">
+        <v>416</v>
+      </c>
+      <c r="K130" s="200" t="s">
+        <v>422</v>
+      </c>
+      <c r="L130" s="236"/>
+      <c r="M130" s="89" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="173"/>
+      <c r="B131" s="118"/>
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
-      <c r="E131" s="133"/>
-      <c r="F131" s="93"/>
-      <c r="G131" s="83"/>
-      <c r="H131" s="101"/>
-      <c r="I131" s="101"/>
-    </row>
-    <row r="132" spans="1:9" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A132" s="128"/>
-      <c r="B132" s="131"/>
+      <c r="E131" s="121"/>
+      <c r="F131" s="151"/>
+      <c r="G131" s="107"/>
+      <c r="H131" s="90"/>
+      <c r="I131" s="90"/>
+      <c r="J131" s="107"/>
+      <c r="K131" s="107"/>
+      <c r="L131" s="237"/>
+      <c r="M131" s="90"/>
+    </row>
+    <row r="132" spans="1:13" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="174"/>
+      <c r="B132" s="119"/>
       <c r="C132" s="6" t="s">
         <v>190</v>
       </c>
       <c r="D132" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="E132" s="134"/>
-      <c r="F132" s="94"/>
-      <c r="G132" s="84"/>
-      <c r="H132" s="102"/>
-      <c r="I132" s="102"/>
-    </row>
-    <row r="133" spans="1:9" ht="51">
-      <c r="A133" s="147">
+      <c r="E132" s="122"/>
+      <c r="F132" s="152"/>
+      <c r="G132" s="108"/>
+      <c r="H132" s="91"/>
+      <c r="I132" s="91"/>
+      <c r="J132" s="108"/>
+      <c r="K132" s="108"/>
+      <c r="L132" s="238"/>
+      <c r="M132" s="91"/>
+    </row>
+    <row r="133" spans="1:13" ht="51" x14ac:dyDescent="0.25">
+      <c r="A133" s="179">
         <v>42</v>
       </c>
-      <c r="B133" s="129" t="s">
+      <c r="B133" s="117" t="s">
         <v>193</v>
       </c>
       <c r="C133" s="3" t="s">
@@ -5093,106 +6503,142 @@
       <c r="D133" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="E133" s="132" t="s">
+      <c r="E133" s="120" t="s">
         <v>36</v>
       </c>
-      <c r="F133" s="92" t="s">
+      <c r="F133" s="150" t="s">
         <v>332</v>
       </c>
-      <c r="G133" s="71" t="s">
+      <c r="G133" s="101" t="s">
         <v>333</v>
       </c>
-      <c r="H133" s="100" t="s">
+      <c r="H133" s="89" t="s">
         <v>361</v>
       </c>
-      <c r="I133" s="100" t="s">
+      <c r="I133" s="89" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="134" spans="1:9" ht="30.75" customHeight="1">
-      <c r="A134" s="148"/>
-      <c r="B134" s="130"/>
+      <c r="J133" s="101" t="s">
+        <v>416</v>
+      </c>
+      <c r="K133" s="101" t="s">
+        <v>423</v>
+      </c>
+      <c r="L133" s="239"/>
+      <c r="M133" s="89" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="180"/>
+      <c r="B134" s="118"/>
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
-      <c r="E134" s="133"/>
-      <c r="F134" s="93"/>
-      <c r="G134" s="72"/>
-      <c r="H134" s="101"/>
-      <c r="I134" s="101"/>
-    </row>
-    <row r="135" spans="1:9" ht="51.75" thickBot="1">
-      <c r="A135" s="149"/>
-      <c r="B135" s="131"/>
+      <c r="E134" s="121"/>
+      <c r="F134" s="151"/>
+      <c r="G134" s="102"/>
+      <c r="H134" s="90"/>
+      <c r="I134" s="90"/>
+      <c r="J134" s="102"/>
+      <c r="K134" s="102"/>
+      <c r="L134" s="240"/>
+      <c r="M134" s="90"/>
+    </row>
+    <row r="135" spans="1:13" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="181"/>
+      <c r="B135" s="119"/>
       <c r="C135" s="6" t="s">
         <v>195</v>
       </c>
       <c r="D135" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="E135" s="134"/>
-      <c r="F135" s="94"/>
-      <c r="G135" s="73"/>
-      <c r="H135" s="102"/>
-      <c r="I135" s="102"/>
-    </row>
-    <row r="136" spans="1:9" ht="30.75" customHeight="1">
-      <c r="A136" s="147">
+      <c r="E135" s="122"/>
+      <c r="F135" s="152"/>
+      <c r="G135" s="103"/>
+      <c r="H135" s="91"/>
+      <c r="I135" s="91"/>
+      <c r="J135" s="103"/>
+      <c r="K135" s="103"/>
+      <c r="L135" s="241"/>
+      <c r="M135" s="91"/>
+    </row>
+    <row r="136" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="179">
         <v>43</v>
       </c>
-      <c r="B136" s="129" t="s">
+      <c r="B136" s="117" t="s">
         <v>198</v>
       </c>
-      <c r="C136" s="129" t="s">
+      <c r="C136" s="117" t="s">
         <v>199</v>
       </c>
       <c r="D136" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="E136" s="132" t="s">
+      <c r="E136" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="F136" s="89" t="s">
+      <c r="F136" s="194" t="s">
         <v>286</v>
       </c>
-      <c r="G136" s="71" t="s">
+      <c r="G136" s="101" t="s">
         <v>326</v>
       </c>
-      <c r="H136" s="100" t="s">
+      <c r="H136" s="89" t="s">
         <v>361</v>
       </c>
-      <c r="I136" s="100" t="s">
+      <c r="I136" s="89" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="137" spans="1:9" ht="30.75" customHeight="1">
-      <c r="A137" s="148"/>
-      <c r="B137" s="130"/>
-      <c r="C137" s="130"/>
+      <c r="J136" s="101" t="s">
+        <v>416</v>
+      </c>
+      <c r="K136" s="101" t="s">
+        <v>424</v>
+      </c>
+      <c r="L136" s="236"/>
+      <c r="M136" s="89" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="180"/>
+      <c r="B137" s="118"/>
+      <c r="C137" s="118"/>
       <c r="D137" s="3"/>
-      <c r="E137" s="133"/>
-      <c r="F137" s="90"/>
-      <c r="G137" s="72"/>
-      <c r="H137" s="101"/>
-      <c r="I137" s="101"/>
-    </row>
-    <row r="138" spans="1:9" ht="39" thickBot="1">
-      <c r="A138" s="149"/>
-      <c r="B138" s="131"/>
-      <c r="C138" s="131"/>
+      <c r="E137" s="121"/>
+      <c r="F137" s="195"/>
+      <c r="G137" s="102"/>
+      <c r="H137" s="90"/>
+      <c r="I137" s="90"/>
+      <c r="J137" s="102"/>
+      <c r="K137" s="102"/>
+      <c r="L137" s="237"/>
+      <c r="M137" s="90"/>
+    </row>
+    <row r="138" spans="1:13" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="181"/>
+      <c r="B138" s="119"/>
+      <c r="C138" s="119"/>
       <c r="D138" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="E138" s="134"/>
-      <c r="F138" s="91"/>
-      <c r="G138" s="73"/>
-      <c r="H138" s="102"/>
-      <c r="I138" s="102"/>
-    </row>
-    <row r="139" spans="1:9" ht="38.25">
-      <c r="A139" s="147">
+      <c r="E138" s="122"/>
+      <c r="F138" s="196"/>
+      <c r="G138" s="103"/>
+      <c r="H138" s="91"/>
+      <c r="I138" s="91"/>
+      <c r="J138" s="103"/>
+      <c r="K138" s="103"/>
+      <c r="L138" s="238"/>
+      <c r="M138" s="91"/>
+    </row>
+    <row r="139" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A139" s="179">
         <v>44</v>
       </c>
-      <c r="B139" s="129" t="s">
+      <c r="B139" s="117" t="s">
         <v>202</v>
       </c>
       <c r="C139" s="3" t="s">
@@ -5201,77 +6647,103 @@
       <c r="D139" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="E139" s="132" t="s">
+      <c r="E139" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="F139" s="89" t="s">
+      <c r="F139" s="194" t="s">
         <v>334</v>
       </c>
-      <c r="G139" s="71" t="s">
+      <c r="G139" s="101" t="s">
         <v>286</v>
       </c>
-      <c r="H139" s="100" t="s">
+      <c r="H139" s="89" t="s">
         <v>361</v>
       </c>
-      <c r="I139" s="100" t="s">
+      <c r="I139" s="89" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="140" spans="1:9" ht="30.75" customHeight="1">
-      <c r="A140" s="148"/>
-      <c r="B140" s="130"/>
+      <c r="J139" s="101" t="s">
+        <v>425</v>
+      </c>
+      <c r="K139" s="101" t="s">
+        <v>426</v>
+      </c>
+      <c r="L139" s="236"/>
+      <c r="M139" s="89" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="180"/>
+      <c r="B140" s="118"/>
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
-      <c r="E140" s="133"/>
-      <c r="F140" s="90"/>
-      <c r="G140" s="72"/>
-      <c r="H140" s="101"/>
-      <c r="I140" s="101"/>
-    </row>
-    <row r="141" spans="1:9" ht="38.25">
-      <c r="A141" s="148"/>
-      <c r="B141" s="130"/>
+      <c r="E140" s="121"/>
+      <c r="F140" s="195"/>
+      <c r="G140" s="102"/>
+      <c r="H140" s="90"/>
+      <c r="I140" s="90"/>
+      <c r="J140" s="102"/>
+      <c r="K140" s="102"/>
+      <c r="L140" s="237"/>
+      <c r="M140" s="90"/>
+    </row>
+    <row r="141" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A141" s="180"/>
+      <c r="B141" s="118"/>
       <c r="C141" s="3" t="s">
         <v>204</v>
       </c>
       <c r="D141" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="E141" s="133"/>
-      <c r="F141" s="90"/>
-      <c r="G141" s="72"/>
-      <c r="H141" s="101"/>
-      <c r="I141" s="101"/>
-    </row>
-    <row r="142" spans="1:9" ht="30.75" customHeight="1">
-      <c r="A142" s="148"/>
-      <c r="B142" s="130"/>
+      <c r="E141" s="121"/>
+      <c r="F141" s="195"/>
+      <c r="G141" s="102"/>
+      <c r="H141" s="90"/>
+      <c r="I141" s="90"/>
+      <c r="J141" s="102"/>
+      <c r="K141" s="102"/>
+      <c r="L141" s="237"/>
+      <c r="M141" s="90"/>
+    </row>
+    <row r="142" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="180"/>
+      <c r="B142" s="118"/>
       <c r="C142" s="3"/>
       <c r="D142" s="9"/>
-      <c r="E142" s="133"/>
-      <c r="F142" s="90"/>
-      <c r="G142" s="72"/>
-      <c r="H142" s="101"/>
-      <c r="I142" s="101"/>
-    </row>
-    <row r="143" spans="1:9" ht="39" thickBot="1">
-      <c r="A143" s="149"/>
-      <c r="B143" s="131"/>
+      <c r="E142" s="121"/>
+      <c r="F142" s="195"/>
+      <c r="G142" s="102"/>
+      <c r="H142" s="90"/>
+      <c r="I142" s="90"/>
+      <c r="J142" s="102"/>
+      <c r="K142" s="102"/>
+      <c r="L142" s="237"/>
+      <c r="M142" s="90"/>
+    </row>
+    <row r="143" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="181"/>
+      <c r="B143" s="119"/>
       <c r="C143" s="6" t="s">
         <v>205</v>
       </c>
       <c r="D143" s="7"/>
-      <c r="E143" s="134"/>
-      <c r="F143" s="91"/>
-      <c r="G143" s="73"/>
-      <c r="H143" s="102"/>
-      <c r="I143" s="102"/>
-    </row>
-    <row r="144" spans="1:9" ht="51">
-      <c r="A144" s="147">
+      <c r="E143" s="122"/>
+      <c r="F143" s="196"/>
+      <c r="G143" s="103"/>
+      <c r="H143" s="91"/>
+      <c r="I143" s="91"/>
+      <c r="J143" s="103"/>
+      <c r="K143" s="103"/>
+      <c r="L143" s="238"/>
+      <c r="M143" s="91"/>
+    </row>
+    <row r="144" spans="1:13" ht="51" x14ac:dyDescent="0.25">
+      <c r="A144" s="179">
         <v>45</v>
       </c>
-      <c r="B144" s="129" t="s">
+      <c r="B144" s="117" t="s">
         <v>208</v>
       </c>
       <c r="C144" s="3" t="s">
@@ -5280,104 +6752,140 @@
       <c r="D144" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="E144" s="132" t="s">
+      <c r="E144" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="F144" s="89" t="s">
+      <c r="F144" s="194" t="s">
         <v>335</v>
       </c>
-      <c r="G144" s="71" t="s">
+      <c r="G144" s="101" t="s">
         <v>326</v>
       </c>
-      <c r="H144" s="100" t="s">
+      <c r="H144" s="89" t="s">
         <v>361</v>
       </c>
-      <c r="I144" s="100" t="s">
+      <c r="I144" s="89" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="145" spans="1:9" ht="30.75" customHeight="1">
-      <c r="A145" s="148"/>
-      <c r="B145" s="130"/>
+      <c r="J144" s="101" t="s">
+        <v>416</v>
+      </c>
+      <c r="K144" s="101" t="s">
+        <v>427</v>
+      </c>
+      <c r="L144" s="220"/>
+      <c r="M144" s="89" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="180"/>
+      <c r="B145" s="118"/>
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
-      <c r="E145" s="133"/>
-      <c r="F145" s="90"/>
-      <c r="G145" s="72"/>
-      <c r="H145" s="101"/>
-      <c r="I145" s="101"/>
-    </row>
-    <row r="146" spans="1:9" ht="51.75" thickBot="1">
-      <c r="A146" s="149"/>
-      <c r="B146" s="131"/>
+      <c r="E145" s="121"/>
+      <c r="F145" s="195"/>
+      <c r="G145" s="102"/>
+      <c r="H145" s="90"/>
+      <c r="I145" s="90"/>
+      <c r="J145" s="102"/>
+      <c r="K145" s="102"/>
+      <c r="L145" s="112"/>
+      <c r="M145" s="90"/>
+    </row>
+    <row r="146" spans="1:13" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="181"/>
+      <c r="B146" s="119"/>
       <c r="C146" s="6" t="s">
         <v>210</v>
       </c>
       <c r="D146" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="E146" s="134"/>
-      <c r="F146" s="91"/>
-      <c r="G146" s="73"/>
-      <c r="H146" s="102"/>
-      <c r="I146" s="102"/>
-    </row>
-    <row r="147" spans="1:9" ht="51">
-      <c r="A147" s="147">
+      <c r="E146" s="122"/>
+      <c r="F146" s="196"/>
+      <c r="G146" s="103"/>
+      <c r="H146" s="91"/>
+      <c r="I146" s="91"/>
+      <c r="J146" s="103"/>
+      <c r="K146" s="103"/>
+      <c r="L146" s="113"/>
+      <c r="M146" s="91"/>
+    </row>
+    <row r="147" spans="1:13" ht="51" x14ac:dyDescent="0.25">
+      <c r="A147" s="179">
         <v>46</v>
       </c>
-      <c r="B147" s="129" t="s">
+      <c r="B147" s="117" t="s">
         <v>213</v>
       </c>
       <c r="C147" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="D147" s="141" t="s">
+      <c r="D147" s="182" t="s">
         <v>216</v>
       </c>
-      <c r="E147" s="144" t="s">
+      <c r="E147" s="185" t="s">
         <v>0</v>
       </c>
-      <c r="F147" s="89" t="s">
+      <c r="F147" s="194" t="s">
         <v>336</v>
       </c>
-      <c r="G147" s="71" t="s">
+      <c r="G147" s="101" t="s">
         <v>286</v>
       </c>
-      <c r="H147" s="100" t="s">
+      <c r="H147" s="89" t="s">
         <v>361</v>
       </c>
-      <c r="I147" s="100" t="s">
+      <c r="I147" s="89" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="148" spans="1:9" ht="30.75" customHeight="1">
-      <c r="A148" s="148"/>
-      <c r="B148" s="130"/>
+      <c r="J147" s="101" t="s">
+        <v>428</v>
+      </c>
+      <c r="K147" s="101" t="s">
+        <v>429</v>
+      </c>
+      <c r="L147" s="236"/>
+      <c r="M147" s="89" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="180"/>
+      <c r="B148" s="118"/>
       <c r="C148" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="D148" s="142"/>
-      <c r="E148" s="145"/>
-      <c r="F148" s="90"/>
-      <c r="G148" s="72"/>
-      <c r="H148" s="101"/>
-      <c r="I148" s="101"/>
-    </row>
-    <row r="149" spans="1:9" ht="26.25" thickBot="1">
-      <c r="A149" s="149"/>
-      <c r="B149" s="131"/>
+      <c r="D148" s="183"/>
+      <c r="E148" s="186"/>
+      <c r="F148" s="195"/>
+      <c r="G148" s="102"/>
+      <c r="H148" s="90"/>
+      <c r="I148" s="90"/>
+      <c r="J148" s="102"/>
+      <c r="K148" s="102"/>
+      <c r="L148" s="237"/>
+      <c r="M148" s="90"/>
+    </row>
+    <row r="149" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="181"/>
+      <c r="B149" s="119"/>
       <c r="C149" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="D149" s="143"/>
-      <c r="E149" s="146"/>
-      <c r="F149" s="91"/>
-      <c r="G149" s="73"/>
-      <c r="H149" s="102"/>
-      <c r="I149" s="102"/>
-    </row>
-    <row r="150" spans="1:9" ht="64.5" thickBot="1">
+      <c r="D149" s="184"/>
+      <c r="E149" s="187"/>
+      <c r="F149" s="196"/>
+      <c r="G149" s="103"/>
+      <c r="H149" s="91"/>
+      <c r="I149" s="91"/>
+      <c r="J149" s="103"/>
+      <c r="K149" s="103"/>
+      <c r="L149" s="238"/>
+      <c r="M149" s="91"/>
+    </row>
+    <row r="150" spans="1:13" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="19">
         <v>47</v>
       </c>
@@ -5405,8 +6913,18 @@
       <c r="I150" s="58" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="151" spans="1:9" ht="115.5" thickBot="1">
+      <c r="J150" s="71" t="s">
+        <v>430</v>
+      </c>
+      <c r="K150" s="71" t="s">
+        <v>431</v>
+      </c>
+      <c r="L150" s="242"/>
+      <c r="M150" s="78" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" ht="115.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="19">
         <v>48</v>
       </c>
@@ -5434,8 +6952,18 @@
       <c r="I151" s="58" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="152" spans="1:9" ht="102.75" thickBot="1">
+      <c r="J151" s="71" t="s">
+        <v>430</v>
+      </c>
+      <c r="K151" s="71" t="s">
+        <v>432</v>
+      </c>
+      <c r="L151" s="242"/>
+      <c r="M151" s="78" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" ht="102.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="20">
         <v>49</v>
       </c>
@@ -5463,65 +6991,93 @@
       <c r="I152" s="60" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="153" spans="1:9" ht="30.75" customHeight="1">
-      <c r="A153" s="138">
+      <c r="J152" s="73" t="s">
+        <v>430</v>
+      </c>
+      <c r="K152" s="73" t="s">
+        <v>433</v>
+      </c>
+      <c r="L152" s="243"/>
+      <c r="M152" s="84" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="188">
         <v>50</v>
       </c>
-      <c r="B153" s="129" t="s">
+      <c r="B153" s="117" t="s">
         <v>227</v>
       </c>
-      <c r="C153" s="129" t="s">
+      <c r="C153" s="117" t="s">
         <v>228</v>
       </c>
       <c r="D153" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="E153" s="144" t="s">
+      <c r="E153" s="185" t="s">
         <v>0</v>
       </c>
-      <c r="F153" s="89" t="s">
+      <c r="F153" s="194" t="s">
         <v>339</v>
       </c>
-      <c r="G153" s="80" t="s">
+      <c r="G153" s="95" t="s">
         <v>340</v>
       </c>
-      <c r="H153" s="191" t="s">
+      <c r="H153" s="92" t="s">
         <v>361</v>
       </c>
-      <c r="I153" s="191" t="s">
+      <c r="I153" s="92" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="154" spans="1:9" ht="30.75" customHeight="1">
-      <c r="A154" s="139"/>
-      <c r="B154" s="130"/>
-      <c r="C154" s="130"/>
+      <c r="J153" s="95" t="s">
+        <v>430</v>
+      </c>
+      <c r="K153" s="95" t="s">
+        <v>434</v>
+      </c>
+      <c r="L153" s="244"/>
+      <c r="M153" s="92" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="189"/>
+      <c r="B154" s="118"/>
+      <c r="C154" s="118"/>
       <c r="D154" s="11"/>
-      <c r="E154" s="145"/>
-      <c r="F154" s="90"/>
-      <c r="G154" s="81"/>
-      <c r="H154" s="192"/>
-      <c r="I154" s="192"/>
-    </row>
-    <row r="155" spans="1:9" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A155" s="140"/>
-      <c r="B155" s="131"/>
-      <c r="C155" s="131"/>
+      <c r="E154" s="186"/>
+      <c r="F154" s="195"/>
+      <c r="G154" s="96"/>
+      <c r="H154" s="93"/>
+      <c r="I154" s="93"/>
+      <c r="J154" s="96"/>
+      <c r="K154" s="96"/>
+      <c r="L154" s="245"/>
+      <c r="M154" s="93"/>
+    </row>
+    <row r="155" spans="1:13" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="190"/>
+      <c r="B155" s="119"/>
+      <c r="C155" s="119"/>
       <c r="D155" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="E155" s="146"/>
-      <c r="F155" s="91"/>
-      <c r="G155" s="82"/>
-      <c r="H155" s="193"/>
-      <c r="I155" s="193"/>
-    </row>
-    <row r="156" spans="1:9" ht="51">
-      <c r="A156" s="138">
+      <c r="E155" s="187"/>
+      <c r="F155" s="196"/>
+      <c r="G155" s="97"/>
+      <c r="H155" s="94"/>
+      <c r="I155" s="94"/>
+      <c r="J155" s="97"/>
+      <c r="K155" s="97"/>
+      <c r="L155" s="246"/>
+      <c r="M155" s="94"/>
+    </row>
+    <row r="156" spans="1:13" ht="51" x14ac:dyDescent="0.25">
+      <c r="A156" s="188">
         <v>51</v>
       </c>
-      <c r="B156" s="129" t="s">
+      <c r="B156" s="117" t="s">
         <v>231</v>
       </c>
       <c r="C156" s="3" t="s">
@@ -5530,104 +7086,136 @@
       <c r="D156" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="E156" s="144" t="s">
+      <c r="E156" s="185" t="s">
         <v>0</v>
       </c>
-      <c r="F156" s="89" t="s">
+      <c r="F156" s="194" t="s">
         <v>341</v>
       </c>
-      <c r="G156" s="80" t="s">
+      <c r="G156" s="95" t="s">
         <v>286</v>
       </c>
-      <c r="H156" s="80" t="s">
+      <c r="H156" s="95" t="s">
         <v>361</v>
       </c>
-      <c r="I156" s="80" t="s">
+      <c r="I156" s="95" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="157" spans="1:9" ht="30.75" customHeight="1">
-      <c r="A157" s="139"/>
-      <c r="B157" s="130"/>
+      <c r="J156" s="95" t="s">
+        <v>428</v>
+      </c>
+      <c r="K156" s="95"/>
+      <c r="L156" s="95"/>
+      <c r="M156" s="92" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="189"/>
+      <c r="B157" s="118"/>
       <c r="C157" s="11" t="s">
         <v>158</v>
       </c>
       <c r="D157" s="11"/>
-      <c r="E157" s="145"/>
-      <c r="F157" s="90"/>
-      <c r="G157" s="81"/>
-      <c r="H157" s="81"/>
-      <c r="I157" s="81"/>
-    </row>
-    <row r="158" spans="1:9" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A158" s="140"/>
-      <c r="B158" s="131"/>
+      <c r="E157" s="186"/>
+      <c r="F157" s="195"/>
+      <c r="G157" s="96"/>
+      <c r="H157" s="96"/>
+      <c r="I157" s="96"/>
+      <c r="J157" s="96"/>
+      <c r="K157" s="96"/>
+      <c r="L157" s="96"/>
+      <c r="M157" s="93"/>
+    </row>
+    <row r="158" spans="1:13" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="190"/>
+      <c r="B158" s="119"/>
       <c r="C158" s="7"/>
       <c r="D158" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="E158" s="146"/>
-      <c r="F158" s="91"/>
-      <c r="G158" s="82"/>
-      <c r="H158" s="82"/>
-      <c r="I158" s="82"/>
-    </row>
-    <row r="159" spans="1:9" ht="30.75" customHeight="1">
-      <c r="A159" s="147">
+      <c r="E158" s="187"/>
+      <c r="F158" s="196"/>
+      <c r="G158" s="97"/>
+      <c r="H158" s="97"/>
+      <c r="I158" s="97"/>
+      <c r="J158" s="97"/>
+      <c r="K158" s="97"/>
+      <c r="L158" s="97"/>
+      <c r="M158" s="94"/>
+    </row>
+    <row r="159" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="179">
         <v>52</v>
       </c>
-      <c r="B159" s="129" t="s">
+      <c r="B159" s="117" t="s">
         <v>234</v>
       </c>
-      <c r="C159" s="129" t="s">
+      <c r="C159" s="117" t="s">
         <v>235</v>
       </c>
-      <c r="D159" s="129" t="s">
+      <c r="D159" s="117" t="s">
         <v>236</v>
       </c>
-      <c r="E159" s="132" t="s">
+      <c r="E159" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="F159" s="89" t="s">
+      <c r="F159" s="194" t="s">
         <v>286</v>
       </c>
-      <c r="G159" s="71" t="s">
+      <c r="G159" s="101" t="s">
         <v>342</v>
       </c>
-      <c r="H159" s="71" t="s">
+      <c r="H159" s="101" t="s">
         <v>361</v>
       </c>
-      <c r="I159" s="71" t="s">
+      <c r="I159" s="101" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="160" spans="1:9" ht="30.75" customHeight="1">
-      <c r="A160" s="148"/>
-      <c r="B160" s="130"/>
-      <c r="C160" s="130"/>
-      <c r="D160" s="130"/>
-      <c r="E160" s="133"/>
-      <c r="F160" s="90"/>
-      <c r="G160" s="72"/>
-      <c r="H160" s="72"/>
-      <c r="I160" s="72"/>
-    </row>
-    <row r="161" spans="1:9" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A161" s="149"/>
-      <c r="B161" s="131"/>
-      <c r="C161" s="131"/>
-      <c r="D161" s="131"/>
-      <c r="E161" s="134"/>
-      <c r="F161" s="91"/>
-      <c r="G161" s="73"/>
-      <c r="H161" s="73"/>
-      <c r="I161" s="73"/>
-    </row>
-    <row r="162" spans="1:9" ht="30.75" customHeight="1">
-      <c r="A162" s="147">
+      <c r="J159" s="101" t="s">
+        <v>428</v>
+      </c>
+      <c r="K159" s="101"/>
+      <c r="L159" s="101"/>
+      <c r="M159" s="89" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="180"/>
+      <c r="B160" s="118"/>
+      <c r="C160" s="118"/>
+      <c r="D160" s="118"/>
+      <c r="E160" s="121"/>
+      <c r="F160" s="195"/>
+      <c r="G160" s="102"/>
+      <c r="H160" s="102"/>
+      <c r="I160" s="102"/>
+      <c r="J160" s="102"/>
+      <c r="K160" s="102"/>
+      <c r="L160" s="102"/>
+      <c r="M160" s="90"/>
+    </row>
+    <row r="161" spans="1:13" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="181"/>
+      <c r="B161" s="119"/>
+      <c r="C161" s="119"/>
+      <c r="D161" s="119"/>
+      <c r="E161" s="122"/>
+      <c r="F161" s="196"/>
+      <c r="G161" s="103"/>
+      <c r="H161" s="103"/>
+      <c r="I161" s="103"/>
+      <c r="J161" s="103"/>
+      <c r="K161" s="103"/>
+      <c r="L161" s="103"/>
+      <c r="M161" s="91"/>
+    </row>
+    <row r="162" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="179">
         <v>53</v>
       </c>
-      <c r="B162" s="129" t="s">
+      <c r="B162" s="117" t="s">
         <v>237</v>
       </c>
       <c r="C162" s="3" t="s">
@@ -5636,53 +7224,69 @@
       <c r="D162" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="E162" s="132" t="s">
+      <c r="E162" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="F162" s="89" t="s">
+      <c r="F162" s="194" t="s">
         <v>343</v>
       </c>
-      <c r="G162" s="71" t="s">
+      <c r="G162" s="101" t="s">
         <v>286</v>
       </c>
-      <c r="H162" s="100" t="s">
+      <c r="H162" s="89" t="s">
         <v>357</v>
       </c>
-      <c r="I162" s="100" t="s">
+      <c r="I162" s="89" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="163" spans="1:9" ht="30.75" customHeight="1">
-      <c r="A163" s="148"/>
-      <c r="B163" s="130"/>
+      <c r="J162" s="101" t="s">
+        <v>428</v>
+      </c>
+      <c r="K162" s="101"/>
+      <c r="L162" s="101"/>
+      <c r="M162" s="89" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="180"/>
+      <c r="B163" s="118"/>
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
-      <c r="E163" s="133"/>
-      <c r="F163" s="90"/>
-      <c r="G163" s="72"/>
-      <c r="H163" s="101"/>
-      <c r="I163" s="101"/>
-    </row>
-    <row r="164" spans="1:9" ht="39" thickBot="1">
-      <c r="A164" s="149"/>
-      <c r="B164" s="131"/>
+      <c r="E163" s="121"/>
+      <c r="F163" s="195"/>
+      <c r="G163" s="102"/>
+      <c r="H163" s="90"/>
+      <c r="I163" s="90"/>
+      <c r="J163" s="102"/>
+      <c r="K163" s="102"/>
+      <c r="L163" s="102"/>
+      <c r="M163" s="90"/>
+    </row>
+    <row r="164" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="181"/>
+      <c r="B164" s="119"/>
       <c r="C164" s="6" t="s">
         <v>239</v>
       </c>
       <c r="D164" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="E164" s="134"/>
-      <c r="F164" s="91"/>
-      <c r="G164" s="73"/>
-      <c r="H164" s="102"/>
-      <c r="I164" s="102"/>
-    </row>
-    <row r="165" spans="1:9" ht="51">
-      <c r="A165" s="138">
+      <c r="E164" s="122"/>
+      <c r="F164" s="196"/>
+      <c r="G164" s="103"/>
+      <c r="H164" s="91"/>
+      <c r="I164" s="91"/>
+      <c r="J164" s="103"/>
+      <c r="K164" s="103"/>
+      <c r="L164" s="103"/>
+      <c r="M164" s="91"/>
+    </row>
+    <row r="165" spans="1:13" ht="51" x14ac:dyDescent="0.25">
+      <c r="A165" s="188">
         <v>54</v>
       </c>
-      <c r="B165" s="129" t="s">
+      <c r="B165" s="117" t="s">
         <v>242</v>
       </c>
       <c r="C165" s="3" t="s">
@@ -5691,93 +7295,123 @@
       <c r="D165" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="E165" s="144" t="s">
+      <c r="E165" s="185" t="s">
         <v>0</v>
       </c>
-      <c r="F165" s="89" t="s">
+      <c r="F165" s="194" t="s">
         <v>286</v>
       </c>
-      <c r="G165" s="80" t="s">
+      <c r="G165" s="95" t="s">
         <v>344</v>
       </c>
-      <c r="H165" s="191" t="s">
+      <c r="H165" s="92" t="s">
         <v>361</v>
       </c>
-      <c r="I165" s="191" t="s">
+      <c r="I165" s="92" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="166" spans="1:9" ht="30.75" customHeight="1">
-      <c r="A166" s="139"/>
-      <c r="B166" s="130"/>
+      <c r="J165" s="95" t="s">
+        <v>428</v>
+      </c>
+      <c r="K165" s="95" t="s">
+        <v>435</v>
+      </c>
+      <c r="L165" s="247"/>
+      <c r="M165" s="92" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="189"/>
+      <c r="B166" s="118"/>
       <c r="C166" s="3"/>
       <c r="D166" s="11"/>
-      <c r="E166" s="145"/>
-      <c r="F166" s="90"/>
-      <c r="G166" s="81"/>
-      <c r="H166" s="192"/>
-      <c r="I166" s="192"/>
-    </row>
-    <row r="167" spans="1:9" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A167" s="140"/>
-      <c r="B167" s="131"/>
+      <c r="E166" s="186"/>
+      <c r="F166" s="195"/>
+      <c r="G166" s="96"/>
+      <c r="H166" s="93"/>
+      <c r="I166" s="93"/>
+      <c r="J166" s="96"/>
+      <c r="K166" s="96"/>
+      <c r="L166" s="248"/>
+      <c r="M166" s="93"/>
+    </row>
+    <row r="167" spans="1:13" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="190"/>
+      <c r="B167" s="119"/>
       <c r="C167" s="6" t="s">
         <v>244</v>
       </c>
       <c r="D167" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="E167" s="146"/>
-      <c r="F167" s="91"/>
-      <c r="G167" s="82"/>
-      <c r="H167" s="193"/>
-      <c r="I167" s="193"/>
-    </row>
-    <row r="168" spans="1:9" ht="30.75" customHeight="1">
-      <c r="A168" s="147">
+      <c r="E167" s="187"/>
+      <c r="F167" s="196"/>
+      <c r="G167" s="97"/>
+      <c r="H167" s="94"/>
+      <c r="I167" s="94"/>
+      <c r="J167" s="97"/>
+      <c r="K167" s="97"/>
+      <c r="L167" s="249"/>
+      <c r="M167" s="94"/>
+    </row>
+    <row r="168" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="179">
         <v>55</v>
       </c>
-      <c r="B168" s="129" t="s">
+      <c r="B168" s="117" t="s">
         <v>247</v>
       </c>
-      <c r="C168" s="129" t="s">
+      <c r="C168" s="117" t="s">
         <v>248</v>
       </c>
-      <c r="D168" s="129" t="s">
+      <c r="D168" s="117" t="s">
         <v>249</v>
       </c>
-      <c r="E168" s="132" t="s">
+      <c r="E168" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="F168" s="89" t="s">
+      <c r="F168" s="194" t="s">
         <v>286</v>
       </c>
-      <c r="G168" s="71" t="s">
+      <c r="G168" s="101" t="s">
         <v>346</v>
       </c>
-      <c r="H168" s="100" t="s">
+      <c r="H168" s="89" t="s">
         <v>361</v>
       </c>
-      <c r="I168" s="100" t="s">
+      <c r="I168" s="89" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="169" spans="1:9" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A169" s="149"/>
-      <c r="B169" s="131"/>
-      <c r="C169" s="131"/>
-      <c r="D169" s="131"/>
-      <c r="E169" s="134"/>
-      <c r="F169" s="91"/>
-      <c r="G169" s="73"/>
-      <c r="H169" s="102"/>
-      <c r="I169" s="102"/>
-    </row>
-    <row r="170" spans="1:9" ht="38.25">
-      <c r="A170" s="138">
+      <c r="J168" s="101" t="s">
+        <v>428</v>
+      </c>
+      <c r="K168" s="101" t="s">
+        <v>436</v>
+      </c>
+      <c r="L168" s="236"/>
+      <c r="M168" s="89"/>
+    </row>
+    <row r="169" spans="1:13" ht="76.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="181"/>
+      <c r="B169" s="119"/>
+      <c r="C169" s="119"/>
+      <c r="D169" s="119"/>
+      <c r="E169" s="122"/>
+      <c r="F169" s="196"/>
+      <c r="G169" s="103"/>
+      <c r="H169" s="91"/>
+      <c r="I169" s="91"/>
+      <c r="J169" s="103"/>
+      <c r="K169" s="103"/>
+      <c r="L169" s="238"/>
+      <c r="M169" s="91"/>
+    </row>
+    <row r="170" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A170" s="188">
         <v>56</v>
       </c>
-      <c r="B170" s="141" t="s">
+      <c r="B170" s="182" t="s">
         <v>250</v>
       </c>
       <c r="C170" s="11" t="s">
@@ -5786,130 +7420,174 @@
       <c r="D170" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="E170" s="144" t="s">
+      <c r="E170" s="185" t="s">
         <v>0</v>
       </c>
-      <c r="F170" s="89" t="s">
+      <c r="F170" s="194" t="s">
         <v>286</v>
       </c>
-      <c r="G170" s="80" t="s">
+      <c r="G170" s="95" t="s">
         <v>347</v>
       </c>
-      <c r="H170" s="191" t="s">
+      <c r="H170" s="92" t="s">
         <v>361</v>
       </c>
-      <c r="I170" s="191" t="s">
+      <c r="I170" s="92" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="171" spans="1:9" ht="30.75" customHeight="1">
-      <c r="A171" s="139"/>
-      <c r="B171" s="142"/>
+      <c r="J170" s="95" t="s">
+        <v>437</v>
+      </c>
+      <c r="K170" s="95" t="s">
+        <v>438</v>
+      </c>
+      <c r="L170" s="244"/>
+      <c r="M170" s="92" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="189"/>
+      <c r="B171" s="183"/>
       <c r="C171" s="11"/>
       <c r="D171" s="11"/>
-      <c r="E171" s="145"/>
-      <c r="F171" s="90"/>
-      <c r="G171" s="81"/>
-      <c r="H171" s="192"/>
-      <c r="I171" s="192"/>
-    </row>
-    <row r="172" spans="1:9" ht="38.25">
-      <c r="A172" s="139"/>
-      <c r="B172" s="142"/>
+      <c r="E171" s="186"/>
+      <c r="F171" s="195"/>
+      <c r="G171" s="96"/>
+      <c r="H171" s="93"/>
+      <c r="I171" s="93"/>
+      <c r="J171" s="96"/>
+      <c r="K171" s="96"/>
+      <c r="L171" s="245"/>
+      <c r="M171" s="93"/>
+    </row>
+    <row r="172" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A172" s="189"/>
+      <c r="B172" s="183"/>
       <c r="C172" s="11" t="s">
         <v>252</v>
       </c>
       <c r="D172" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="E172" s="145"/>
-      <c r="F172" s="90"/>
-      <c r="G172" s="81"/>
-      <c r="H172" s="192"/>
-      <c r="I172" s="192"/>
-    </row>
-    <row r="173" spans="1:9" ht="30.75" customHeight="1">
-      <c r="A173" s="139"/>
-      <c r="B173" s="142"/>
+      <c r="E172" s="186"/>
+      <c r="F172" s="195"/>
+      <c r="G172" s="96"/>
+      <c r="H172" s="93"/>
+      <c r="I172" s="93"/>
+      <c r="J172" s="96"/>
+      <c r="K172" s="96"/>
+      <c r="L172" s="245"/>
+      <c r="M172" s="93"/>
+    </row>
+    <row r="173" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="189"/>
+      <c r="B173" s="183"/>
       <c r="C173" s="11"/>
       <c r="D173" s="11"/>
-      <c r="E173" s="145"/>
-      <c r="F173" s="90"/>
-      <c r="G173" s="81"/>
-      <c r="H173" s="192"/>
-      <c r="I173" s="192"/>
-    </row>
-    <row r="174" spans="1:9" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A174" s="140"/>
-      <c r="B174" s="143"/>
+      <c r="E173" s="186"/>
+      <c r="F173" s="195"/>
+      <c r="G173" s="96"/>
+      <c r="H173" s="93"/>
+      <c r="I173" s="93"/>
+      <c r="J173" s="96"/>
+      <c r="K173" s="96"/>
+      <c r="L173" s="245"/>
+      <c r="M173" s="93"/>
+    </row>
+    <row r="174" spans="1:13" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="190"/>
+      <c r="B174" s="184"/>
       <c r="C174" s="12" t="s">
         <v>253</v>
       </c>
       <c r="D174" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="E174" s="146"/>
-      <c r="F174" s="91"/>
-      <c r="G174" s="82"/>
-      <c r="H174" s="193"/>
-      <c r="I174" s="193"/>
-    </row>
-    <row r="175" spans="1:9" ht="25.5">
-      <c r="A175" s="138">
+      <c r="E174" s="187"/>
+      <c r="F174" s="196"/>
+      <c r="G174" s="97"/>
+      <c r="H174" s="94"/>
+      <c r="I174" s="94"/>
+      <c r="J174" s="97"/>
+      <c r="K174" s="97"/>
+      <c r="L174" s="246"/>
+      <c r="M174" s="94"/>
+    </row>
+    <row r="175" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A175" s="188">
         <v>57</v>
       </c>
-      <c r="B175" s="141" t="s">
+      <c r="B175" s="182" t="s">
         <v>257</v>
       </c>
       <c r="C175" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="D175" s="141" t="s">
+      <c r="D175" s="182" t="s">
         <v>260</v>
       </c>
-      <c r="E175" s="144" t="s">
+      <c r="E175" s="185" t="s">
         <v>0</v>
       </c>
-      <c r="F175" s="89" t="s">
+      <c r="F175" s="194" t="s">
         <v>286</v>
       </c>
-      <c r="G175" s="80" t="s">
+      <c r="G175" s="95" t="s">
         <v>348</v>
       </c>
-      <c r="H175" s="191" t="s">
+      <c r="H175" s="92" t="s">
         <v>361</v>
       </c>
-      <c r="I175" s="191" t="s">
+      <c r="I175" s="92" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="176" spans="1:9" ht="30.75" customHeight="1">
-      <c r="A176" s="139"/>
-      <c r="B176" s="142"/>
+      <c r="J175" s="95" t="s">
+        <v>428</v>
+      </c>
+      <c r="K175" s="95" t="s">
+        <v>439</v>
+      </c>
+      <c r="L175" s="250"/>
+      <c r="M175" s="92" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="189"/>
+      <c r="B176" s="183"/>
       <c r="C176" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="D176" s="142"/>
-      <c r="E176" s="145"/>
-      <c r="F176" s="90"/>
-      <c r="G176" s="81"/>
-      <c r="H176" s="192"/>
-      <c r="I176" s="192"/>
-    </row>
-    <row r="177" spans="1:9" ht="39" thickBot="1">
-      <c r="A177" s="140"/>
-      <c r="B177" s="143"/>
+      <c r="D176" s="183"/>
+      <c r="E176" s="186"/>
+      <c r="F176" s="195"/>
+      <c r="G176" s="96"/>
+      <c r="H176" s="93"/>
+      <c r="I176" s="93"/>
+      <c r="J176" s="96"/>
+      <c r="K176" s="96"/>
+      <c r="L176" s="251"/>
+      <c r="M176" s="93"/>
+    </row>
+    <row r="177" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="190"/>
+      <c r="B177" s="184"/>
       <c r="C177" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="D177" s="143"/>
-      <c r="E177" s="146"/>
-      <c r="F177" s="91"/>
-      <c r="G177" s="82"/>
-      <c r="H177" s="193"/>
-      <c r="I177" s="193"/>
-    </row>
-    <row r="178" spans="1:9" ht="77.25" thickBot="1">
+      <c r="D177" s="184"/>
+      <c r="E177" s="187"/>
+      <c r="F177" s="196"/>
+      <c r="G177" s="97"/>
+      <c r="H177" s="94"/>
+      <c r="I177" s="94"/>
+      <c r="J177" s="97"/>
+      <c r="K177" s="97"/>
+      <c r="L177" s="252"/>
+      <c r="M177" s="94"/>
+    </row>
+    <row r="178" spans="1:13" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="20">
         <v>58</v>
       </c>
@@ -5937,8 +7615,18 @@
       <c r="I178" s="52" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="179" spans="1:9" ht="73.5" customHeight="1" thickBot="1">
+      <c r="J178" s="73" t="s">
+        <v>428</v>
+      </c>
+      <c r="K178" s="73" t="s">
+        <v>440</v>
+      </c>
+      <c r="L178" s="253"/>
+      <c r="M178" s="84" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="69">
         <v>59</v>
       </c>
@@ -5966,65 +7654,93 @@
       <c r="I179" s="51" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="180" spans="1:9" ht="30.75" customHeight="1">
-      <c r="A180" s="147">
+      <c r="J179" s="71" t="s">
+        <v>428</v>
+      </c>
+      <c r="K179" s="71" t="s">
+        <v>441</v>
+      </c>
+      <c r="L179" s="83"/>
+      <c r="M179" s="78" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="179">
         <v>60</v>
       </c>
-      <c r="B180" s="141" t="s">
+      <c r="B180" s="182" t="s">
         <v>267</v>
       </c>
-      <c r="C180" s="141" t="s">
+      <c r="C180" s="182" t="s">
         <v>268</v>
       </c>
       <c r="D180" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="E180" s="144" t="s">
+      <c r="E180" s="185" t="s">
         <v>0</v>
       </c>
-      <c r="F180" s="89" t="s">
+      <c r="F180" s="194" t="s">
         <v>286</v>
       </c>
-      <c r="G180" s="71" t="s">
+      <c r="G180" s="101" t="s">
         <v>351</v>
       </c>
-      <c r="H180" s="71" t="s">
+      <c r="H180" s="101" t="s">
         <v>361</v>
       </c>
-      <c r="I180" s="71" t="s">
+      <c r="I180" s="101" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="181" spans="1:9" ht="30.75" customHeight="1">
-      <c r="A181" s="148"/>
-      <c r="B181" s="142"/>
-      <c r="C181" s="142"/>
+      <c r="J180" s="101" t="s">
+        <v>428</v>
+      </c>
+      <c r="K180" s="101" t="s">
+        <v>442</v>
+      </c>
+      <c r="L180" s="220"/>
+      <c r="M180" s="89" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="180"/>
+      <c r="B181" s="183"/>
+      <c r="C181" s="183"/>
       <c r="D181" s="11"/>
-      <c r="E181" s="145"/>
-      <c r="F181" s="90"/>
-      <c r="G181" s="72"/>
-      <c r="H181" s="72"/>
-      <c r="I181" s="72"/>
-    </row>
-    <row r="182" spans="1:9" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A182" s="149"/>
-      <c r="B182" s="143"/>
-      <c r="C182" s="143"/>
+      <c r="E181" s="186"/>
+      <c r="F181" s="195"/>
+      <c r="G181" s="102"/>
+      <c r="H181" s="102"/>
+      <c r="I181" s="102"/>
+      <c r="J181" s="102"/>
+      <c r="K181" s="102"/>
+      <c r="L181" s="112"/>
+      <c r="M181" s="90"/>
+    </row>
+    <row r="182" spans="1:13" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="181"/>
+      <c r="B182" s="184"/>
+      <c r="C182" s="184"/>
       <c r="D182" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="E182" s="146"/>
-      <c r="F182" s="91"/>
-      <c r="G182" s="73"/>
-      <c r="H182" s="73"/>
-      <c r="I182" s="73"/>
-    </row>
-    <row r="183" spans="1:9" ht="38.25">
-      <c r="A183" s="135">
+      <c r="E182" s="187"/>
+      <c r="F182" s="196"/>
+      <c r="G182" s="103"/>
+      <c r="H182" s="103"/>
+      <c r="I182" s="103"/>
+      <c r="J182" s="103"/>
+      <c r="K182" s="103"/>
+      <c r="L182" s="113"/>
+      <c r="M182" s="91"/>
+    </row>
+    <row r="183" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A183" s="191">
         <v>61</v>
       </c>
-      <c r="B183" s="129" t="s">
+      <c r="B183" s="117" t="s">
         <v>271</v>
       </c>
       <c r="C183" s="3" t="s">
@@ -6033,121 +7749,157 @@
       <c r="D183" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="E183" s="132" t="s">
+      <c r="E183" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="F183" s="89" t="s">
+      <c r="F183" s="194" t="s">
         <v>286</v>
       </c>
-      <c r="G183" s="74" t="s">
+      <c r="G183" s="104" t="s">
         <v>352</v>
       </c>
-      <c r="H183" s="74" t="s">
+      <c r="H183" s="104" t="s">
         <v>361</v>
       </c>
-      <c r="I183" s="74" t="s">
+      <c r="I183" s="104" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="184" spans="1:9" ht="30.75" customHeight="1">
-      <c r="A184" s="136"/>
-      <c r="B184" s="130"/>
+      <c r="J183" s="104" t="s">
+        <v>430</v>
+      </c>
+      <c r="K183" s="104" t="s">
+        <v>443</v>
+      </c>
+      <c r="L183" s="254"/>
+      <c r="M183" s="260" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="192"/>
+      <c r="B184" s="118"/>
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
-      <c r="E184" s="133"/>
-      <c r="F184" s="90"/>
-      <c r="G184" s="75"/>
-      <c r="H184" s="75"/>
-      <c r="I184" s="75"/>
-    </row>
-    <row r="185" spans="1:9" ht="39" thickBot="1">
-      <c r="A185" s="137"/>
-      <c r="B185" s="131"/>
+      <c r="E184" s="121"/>
+      <c r="F184" s="195"/>
+      <c r="G184" s="105"/>
+      <c r="H184" s="105"/>
+      <c r="I184" s="105"/>
+      <c r="J184" s="105"/>
+      <c r="K184" s="105"/>
+      <c r="L184" s="255"/>
+      <c r="M184" s="261"/>
+    </row>
+    <row r="185" spans="1:13" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="193"/>
+      <c r="B185" s="119"/>
       <c r="C185" s="6" t="s">
         <v>273</v>
       </c>
       <c r="D185" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="E185" s="134"/>
-      <c r="F185" s="91"/>
-      <c r="G185" s="76"/>
-      <c r="H185" s="76"/>
-      <c r="I185" s="76"/>
-    </row>
-    <row r="186" spans="1:9" ht="38.25">
-      <c r="A186" s="135">
+      <c r="E185" s="122"/>
+      <c r="F185" s="196"/>
+      <c r="G185" s="106"/>
+      <c r="H185" s="106"/>
+      <c r="I185" s="106"/>
+      <c r="J185" s="106"/>
+      <c r="K185" s="106"/>
+      <c r="L185" s="256"/>
+      <c r="M185" s="262"/>
+    </row>
+    <row r="186" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A186" s="191">
         <v>62</v>
       </c>
-      <c r="B186" s="129" t="s">
+      <c r="B186" s="117" t="s">
         <v>276</v>
       </c>
-      <c r="C186" s="129" t="s">
+      <c r="C186" s="117" t="s">
         <v>277</v>
       </c>
       <c r="D186" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="E186" s="132" t="s">
+      <c r="E186" s="120" t="s">
         <v>36</v>
       </c>
-      <c r="F186" s="89" t="s">
+      <c r="F186" s="194" t="s">
         <v>286</v>
       </c>
-      <c r="G186" s="74" t="s">
+      <c r="G186" s="104" t="s">
         <v>353</v>
       </c>
-      <c r="H186" s="74" t="s">
+      <c r="H186" s="104" t="s">
         <v>361</v>
       </c>
-      <c r="I186" s="74" t="s">
+      <c r="I186" s="104" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="187" spans="1:9" ht="30.75" customHeight="1">
-      <c r="A187" s="136"/>
-      <c r="B187" s="130"/>
-      <c r="C187" s="130"/>
+      <c r="J186" s="104" t="s">
+        <v>428</v>
+      </c>
+      <c r="K186" s="104" t="s">
+        <v>444</v>
+      </c>
+      <c r="L186" s="254"/>
+      <c r="M186" s="260" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="192"/>
+      <c r="B187" s="118"/>
+      <c r="C187" s="118"/>
       <c r="D187" s="3"/>
-      <c r="E187" s="133"/>
-      <c r="F187" s="90"/>
-      <c r="G187" s="75"/>
-      <c r="H187" s="75"/>
-      <c r="I187" s="75"/>
-    </row>
-    <row r="188" spans="1:9" ht="26.25" thickBot="1">
-      <c r="A188" s="137"/>
-      <c r="B188" s="131"/>
-      <c r="C188" s="131"/>
+      <c r="E187" s="121"/>
+      <c r="F187" s="195"/>
+      <c r="G187" s="105"/>
+      <c r="H187" s="105"/>
+      <c r="I187" s="105"/>
+      <c r="J187" s="105"/>
+      <c r="K187" s="105"/>
+      <c r="L187" s="255"/>
+      <c r="M187" s="261"/>
+    </row>
+    <row r="188" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="193"/>
+      <c r="B188" s="119"/>
+      <c r="C188" s="119"/>
       <c r="D188" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="E188" s="134"/>
-      <c r="F188" s="91"/>
-      <c r="G188" s="76"/>
-      <c r="H188" s="76"/>
-      <c r="I188" s="76"/>
-    </row>
-    <row r="189" spans="1:9" s="109" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A189" s="109" t="s">
+      <c r="E188" s="122"/>
+      <c r="F188" s="196"/>
+      <c r="G188" s="106"/>
+      <c r="H188" s="106"/>
+      <c r="I188" s="106"/>
+      <c r="J188" s="106"/>
+      <c r="K188" s="106"/>
+      <c r="L188" s="256"/>
+      <c r="M188" s="262"/>
+    </row>
+    <row r="189" spans="1:13" s="175" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="175" t="s">
         <v>280</v>
       </c>
-      <c r="B189" s="110"/>
-      <c r="C189" s="110"/>
-      <c r="D189" s="110"/>
-      <c r="E189" s="110"/>
-      <c r="F189" s="110"/>
-      <c r="G189" s="110"/>
-    </row>
-    <row r="190" spans="1:9" s="111" customFormat="1" ht="30.75" customHeight="1" thickBot="1">
-      <c r="B190" s="112"/>
-      <c r="C190" s="112"/>
-      <c r="D190" s="112"/>
-      <c r="E190" s="112"/>
-      <c r="F190" s="112"/>
-      <c r="G190" s="112"/>
-    </row>
-    <row r="191" spans="1:9" ht="30.75" customHeight="1" thickBot="1">
+      <c r="B189" s="176"/>
+      <c r="C189" s="176"/>
+      <c r="D189" s="176"/>
+      <c r="E189" s="176"/>
+      <c r="F189" s="176"/>
+      <c r="G189" s="176"/>
+    </row>
+    <row r="190" spans="1:13" s="177" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B190" s="178"/>
+      <c r="C190" s="178"/>
+      <c r="D190" s="178"/>
+      <c r="E190" s="178"/>
+      <c r="F190" s="178"/>
+      <c r="G190" s="178"/>
+    </row>
+    <row r="191" spans="1:13" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="18" t="s">
         <v>1</v>
       </c>
@@ -6175,88 +7927,583 @@
       <c r="I191" s="26" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="192" spans="1:9" ht="63.75">
-      <c r="A192" s="126">
+      <c r="J191" s="25" t="s">
+        <v>382</v>
+      </c>
+      <c r="K191" s="25" t="s">
+        <v>383</v>
+      </c>
+      <c r="L191" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="M191" s="26" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A192" s="172">
         <v>63</v>
       </c>
-      <c r="B192" s="129" t="s">
+      <c r="B192" s="117" t="s">
         <v>281</v>
       </c>
       <c r="C192" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="D192" s="129" t="s">
+      <c r="D192" s="117" t="s">
         <v>284</v>
       </c>
-      <c r="E192" s="132" t="s">
+      <c r="E192" s="120" t="s">
         <v>36</v>
       </c>
-      <c r="F192" s="83" t="s">
+      <c r="F192" s="107" t="s">
         <v>286</v>
       </c>
-      <c r="G192" s="83" t="s">
+      <c r="G192" s="107" t="s">
         <v>286</v>
       </c>
-      <c r="H192" s="83" t="s">
+      <c r="H192" s="107" t="s">
         <v>356</v>
       </c>
-      <c r="I192" s="83" t="s">
+      <c r="I192" s="107" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="193" spans="1:9" ht="30.75" customHeight="1">
-      <c r="A193" s="127"/>
-      <c r="B193" s="130"/>
+      <c r="J192" s="107" t="s">
+        <v>445</v>
+      </c>
+      <c r="K192" s="107"/>
+      <c r="L192" s="107"/>
+      <c r="M192" s="90"/>
+    </row>
+    <row r="193" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="173"/>
+      <c r="B193" s="118"/>
       <c r="C193" s="3"/>
-      <c r="D193" s="130"/>
-      <c r="E193" s="133"/>
-      <c r="F193" s="83"/>
-      <c r="G193" s="83"/>
-      <c r="H193" s="83"/>
-      <c r="I193" s="83"/>
-    </row>
-    <row r="194" spans="1:9" ht="64.5" thickBot="1">
-      <c r="A194" s="128"/>
-      <c r="B194" s="131"/>
+      <c r="D193" s="118"/>
+      <c r="E193" s="121"/>
+      <c r="F193" s="107"/>
+      <c r="G193" s="107"/>
+      <c r="H193" s="107"/>
+      <c r="I193" s="107"/>
+      <c r="J193" s="107"/>
+      <c r="K193" s="107"/>
+      <c r="L193" s="107"/>
+      <c r="M193" s="90"/>
+    </row>
+    <row r="194" spans="1:13" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="174"/>
+      <c r="B194" s="119"/>
       <c r="C194" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="D194" s="131"/>
-      <c r="E194" s="134"/>
-      <c r="F194" s="84"/>
-      <c r="G194" s="84"/>
-      <c r="H194" s="84"/>
-      <c r="I194" s="84"/>
+      <c r="D194" s="119"/>
+      <c r="E194" s="122"/>
+      <c r="F194" s="108"/>
+      <c r="G194" s="108"/>
+      <c r="H194" s="108"/>
+      <c r="I194" s="108"/>
+      <c r="J194" s="108"/>
+      <c r="K194" s="108"/>
+      <c r="L194" s="108"/>
+      <c r="M194" s="91"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I1"/>
-  <mergeCells count="372">
-    <mergeCell ref="H90:H95"/>
-    <mergeCell ref="I90:I95"/>
-    <mergeCell ref="I133:I135"/>
-    <mergeCell ref="I136:I138"/>
-    <mergeCell ref="I139:I143"/>
-    <mergeCell ref="I144:I146"/>
-    <mergeCell ref="I147:I149"/>
-    <mergeCell ref="I153:I155"/>
-    <mergeCell ref="I156:I158"/>
-    <mergeCell ref="I97:I99"/>
-    <mergeCell ref="I100:I102"/>
-    <mergeCell ref="I103:I105"/>
-    <mergeCell ref="I108:I110"/>
-    <mergeCell ref="I114:I116"/>
-    <mergeCell ref="I86:I88"/>
-    <mergeCell ref="I165:I167"/>
-    <mergeCell ref="I168:I169"/>
-    <mergeCell ref="I170:I174"/>
-    <mergeCell ref="I175:I177"/>
-    <mergeCell ref="I180:I182"/>
-    <mergeCell ref="I183:I185"/>
-    <mergeCell ref="I186:I188"/>
-    <mergeCell ref="I192:I194"/>
-    <mergeCell ref="I159:I161"/>
-    <mergeCell ref="I162:I164"/>
+  <autoFilter ref="A1:I1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <mergeCells count="550">
+    <mergeCell ref="M165:M167"/>
+    <mergeCell ref="M168:M169"/>
+    <mergeCell ref="M170:M174"/>
+    <mergeCell ref="M175:M177"/>
+    <mergeCell ref="M180:M182"/>
+    <mergeCell ref="M183:M185"/>
+    <mergeCell ref="M186:M188"/>
+    <mergeCell ref="M192:M194"/>
+    <mergeCell ref="M133:M135"/>
+    <mergeCell ref="M136:M138"/>
+    <mergeCell ref="M139:M143"/>
+    <mergeCell ref="M144:M146"/>
+    <mergeCell ref="M147:M149"/>
+    <mergeCell ref="M153:M155"/>
+    <mergeCell ref="M156:M158"/>
+    <mergeCell ref="M159:M161"/>
+    <mergeCell ref="M162:M164"/>
+    <mergeCell ref="M97:M99"/>
+    <mergeCell ref="M100:M102"/>
+    <mergeCell ref="M103:M105"/>
+    <mergeCell ref="M108:M110"/>
+    <mergeCell ref="M114:M116"/>
+    <mergeCell ref="M117:M119"/>
+    <mergeCell ref="M122:M124"/>
+    <mergeCell ref="M125:M129"/>
+    <mergeCell ref="M130:M132"/>
+    <mergeCell ref="M50:M56"/>
+    <mergeCell ref="M57:M59"/>
+    <mergeCell ref="M62:M64"/>
+    <mergeCell ref="M65:M67"/>
+    <mergeCell ref="M68:M70"/>
+    <mergeCell ref="M73:M75"/>
+    <mergeCell ref="M80:M82"/>
+    <mergeCell ref="M83:M85"/>
+    <mergeCell ref="M86:M88"/>
+    <mergeCell ref="M2:M6"/>
+    <mergeCell ref="M10:M12"/>
+    <mergeCell ref="M13:M17"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="M28:M32"/>
+    <mergeCell ref="M33:M37"/>
+    <mergeCell ref="M38:M44"/>
+    <mergeCell ref="M45:M49"/>
+    <mergeCell ref="J180:J182"/>
+    <mergeCell ref="K180:K182"/>
+    <mergeCell ref="L180:L182"/>
+    <mergeCell ref="J183:J185"/>
+    <mergeCell ref="K183:K185"/>
+    <mergeCell ref="L183:L185"/>
+    <mergeCell ref="J186:J188"/>
+    <mergeCell ref="K186:K188"/>
+    <mergeCell ref="L186:L188"/>
+    <mergeCell ref="J168:J169"/>
+    <mergeCell ref="K168:K169"/>
+    <mergeCell ref="L168:L169"/>
+    <mergeCell ref="J170:J174"/>
+    <mergeCell ref="K170:K174"/>
+    <mergeCell ref="L170:L174"/>
+    <mergeCell ref="J175:J177"/>
+    <mergeCell ref="K175:K177"/>
+    <mergeCell ref="L175:L177"/>
+    <mergeCell ref="J159:J161"/>
+    <mergeCell ref="K159:K161"/>
+    <mergeCell ref="L159:L161"/>
+    <mergeCell ref="J162:J164"/>
+    <mergeCell ref="K162:K164"/>
+    <mergeCell ref="L162:L164"/>
+    <mergeCell ref="J165:J167"/>
+    <mergeCell ref="K165:K167"/>
+    <mergeCell ref="L165:L167"/>
+    <mergeCell ref="J147:J149"/>
+    <mergeCell ref="K147:K149"/>
+    <mergeCell ref="L147:L149"/>
+    <mergeCell ref="J153:J155"/>
+    <mergeCell ref="K153:K155"/>
+    <mergeCell ref="L153:L155"/>
+    <mergeCell ref="J156:J158"/>
+    <mergeCell ref="K156:K158"/>
+    <mergeCell ref="L156:L158"/>
+    <mergeCell ref="J136:J138"/>
+    <mergeCell ref="K136:K138"/>
+    <mergeCell ref="L136:L138"/>
+    <mergeCell ref="J139:J143"/>
+    <mergeCell ref="K139:K143"/>
+    <mergeCell ref="L139:L143"/>
+    <mergeCell ref="J144:J146"/>
+    <mergeCell ref="K144:K146"/>
+    <mergeCell ref="L144:L146"/>
+    <mergeCell ref="J125:J129"/>
+    <mergeCell ref="K125:K129"/>
+    <mergeCell ref="L125:L129"/>
+    <mergeCell ref="J130:J132"/>
+    <mergeCell ref="K130:K132"/>
+    <mergeCell ref="L130:L132"/>
+    <mergeCell ref="J133:J135"/>
+    <mergeCell ref="K133:K135"/>
+    <mergeCell ref="L133:L135"/>
+    <mergeCell ref="J103:J105"/>
+    <mergeCell ref="K103:K105"/>
+    <mergeCell ref="L103:L105"/>
+    <mergeCell ref="J108:J110"/>
+    <mergeCell ref="K108:K110"/>
+    <mergeCell ref="L108:L110"/>
+    <mergeCell ref="J114:J116"/>
+    <mergeCell ref="K114:K116"/>
+    <mergeCell ref="L114:L116"/>
+    <mergeCell ref="J86:J88"/>
+    <mergeCell ref="K86:K88"/>
+    <mergeCell ref="L86:L88"/>
+    <mergeCell ref="J90:J95"/>
+    <mergeCell ref="K90:K95"/>
+    <mergeCell ref="J97:J99"/>
+    <mergeCell ref="K97:K99"/>
+    <mergeCell ref="L97:L99"/>
+    <mergeCell ref="J100:J102"/>
+    <mergeCell ref="K100:K102"/>
+    <mergeCell ref="L100:L102"/>
+    <mergeCell ref="J65:J67"/>
+    <mergeCell ref="K65:K67"/>
+    <mergeCell ref="L65:L67"/>
+    <mergeCell ref="J68:J70"/>
+    <mergeCell ref="K68:K70"/>
+    <mergeCell ref="L68:L70"/>
+    <mergeCell ref="J73:J75"/>
+    <mergeCell ref="K73:K75"/>
+    <mergeCell ref="L73:L75"/>
+    <mergeCell ref="J50:J56"/>
+    <mergeCell ref="K50:K56"/>
+    <mergeCell ref="L50:L56"/>
+    <mergeCell ref="J57:J59"/>
+    <mergeCell ref="K57:K59"/>
+    <mergeCell ref="L57:L59"/>
+    <mergeCell ref="J62:J64"/>
+    <mergeCell ref="K62:K64"/>
+    <mergeCell ref="L62:L64"/>
+    <mergeCell ref="J33:J37"/>
+    <mergeCell ref="K33:K37"/>
+    <mergeCell ref="L33:L37"/>
+    <mergeCell ref="J38:J44"/>
+    <mergeCell ref="K38:K44"/>
+    <mergeCell ref="L38:L44"/>
+    <mergeCell ref="J45:J49"/>
+    <mergeCell ref="K45:K49"/>
+    <mergeCell ref="L45:L49"/>
+    <mergeCell ref="G156:G158"/>
+    <mergeCell ref="G159:G161"/>
+    <mergeCell ref="G162:G164"/>
+    <mergeCell ref="G165:G167"/>
+    <mergeCell ref="G114:G116"/>
+    <mergeCell ref="G117:G119"/>
+    <mergeCell ref="J2:J6"/>
+    <mergeCell ref="K2:K6"/>
+    <mergeCell ref="L2:L6"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="K10:K12"/>
+    <mergeCell ref="L10:L12"/>
+    <mergeCell ref="J13:J17"/>
+    <mergeCell ref="K13:K17"/>
+    <mergeCell ref="L13:L17"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="J28:J32"/>
+    <mergeCell ref="K28:K32"/>
+    <mergeCell ref="L28:L32"/>
+    <mergeCell ref="G125:G129"/>
+    <mergeCell ref="G130:G132"/>
+    <mergeCell ref="G62:G64"/>
+    <mergeCell ref="G65:G67"/>
+    <mergeCell ref="G68:G70"/>
+    <mergeCell ref="G73:G75"/>
+    <mergeCell ref="G83:G85"/>
+    <mergeCell ref="F175:F177"/>
+    <mergeCell ref="G180:G182"/>
+    <mergeCell ref="G133:G135"/>
+    <mergeCell ref="G86:G88"/>
+    <mergeCell ref="G90:G95"/>
+    <mergeCell ref="G97:G99"/>
+    <mergeCell ref="G100:G102"/>
+    <mergeCell ref="G103:G105"/>
+    <mergeCell ref="G108:G110"/>
+    <mergeCell ref="G168:G169"/>
+    <mergeCell ref="G170:G174"/>
+    <mergeCell ref="G175:G177"/>
+    <mergeCell ref="G136:G138"/>
+    <mergeCell ref="G139:G143"/>
+    <mergeCell ref="G144:G146"/>
+    <mergeCell ref="G147:G149"/>
+    <mergeCell ref="G153:G155"/>
+    <mergeCell ref="F180:F182"/>
+    <mergeCell ref="F183:F185"/>
+    <mergeCell ref="F130:F132"/>
+    <mergeCell ref="F83:F85"/>
+    <mergeCell ref="F86:F88"/>
+    <mergeCell ref="F90:F95"/>
+    <mergeCell ref="F97:F99"/>
+    <mergeCell ref="F100:F102"/>
+    <mergeCell ref="F103:F105"/>
+    <mergeCell ref="F168:F169"/>
+    <mergeCell ref="F170:F174"/>
+    <mergeCell ref="F133:F135"/>
+    <mergeCell ref="F136:F138"/>
+    <mergeCell ref="F139:F143"/>
+    <mergeCell ref="F144:F146"/>
+    <mergeCell ref="F147:F149"/>
+    <mergeCell ref="F153:F155"/>
+    <mergeCell ref="F108:F110"/>
+    <mergeCell ref="F114:F116"/>
+    <mergeCell ref="F117:F119"/>
+    <mergeCell ref="F122:F124"/>
+    <mergeCell ref="F125:F129"/>
+    <mergeCell ref="G2:G6"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="G13:G17"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="F156:F158"/>
+    <mergeCell ref="F159:F161"/>
+    <mergeCell ref="F162:F164"/>
+    <mergeCell ref="F165:F167"/>
+    <mergeCell ref="G28:G32"/>
+    <mergeCell ref="G33:G37"/>
+    <mergeCell ref="G38:G44"/>
+    <mergeCell ref="G45:G49"/>
+    <mergeCell ref="G50:G56"/>
+    <mergeCell ref="G57:G59"/>
+    <mergeCell ref="F45:F49"/>
+    <mergeCell ref="F50:F56"/>
+    <mergeCell ref="F57:F59"/>
+    <mergeCell ref="F62:F64"/>
+    <mergeCell ref="F65:F67"/>
+    <mergeCell ref="F68:F70"/>
+    <mergeCell ref="F73:F75"/>
+    <mergeCell ref="F80:F82"/>
+    <mergeCell ref="G80:G82"/>
+    <mergeCell ref="F2:F6"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="F13:F17"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="F28:F32"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E38:E44"/>
+    <mergeCell ref="F33:F37"/>
+    <mergeCell ref="F38:F44"/>
+    <mergeCell ref="A25:XFD26"/>
+    <mergeCell ref="A7:XFD8"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="E13:E17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="B38:B44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="D47:D49"/>
+    <mergeCell ref="A192:A194"/>
+    <mergeCell ref="B192:B194"/>
+    <mergeCell ref="D192:D194"/>
+    <mergeCell ref="E192:E194"/>
+    <mergeCell ref="A183:A185"/>
+    <mergeCell ref="B183:B185"/>
+    <mergeCell ref="E183:E185"/>
+    <mergeCell ref="A186:A188"/>
+    <mergeCell ref="B186:B188"/>
+    <mergeCell ref="C186:C188"/>
+    <mergeCell ref="E186:E188"/>
+    <mergeCell ref="A189:XFD190"/>
+    <mergeCell ref="H186:H188"/>
+    <mergeCell ref="H192:H194"/>
+    <mergeCell ref="F186:F188"/>
+    <mergeCell ref="F192:F194"/>
+    <mergeCell ref="G192:G194"/>
+    <mergeCell ref="G183:G185"/>
+    <mergeCell ref="G186:G188"/>
+    <mergeCell ref="J192:J194"/>
+    <mergeCell ref="K192:K194"/>
+    <mergeCell ref="L192:L194"/>
+    <mergeCell ref="A175:A177"/>
+    <mergeCell ref="B175:B177"/>
+    <mergeCell ref="D175:D177"/>
+    <mergeCell ref="E175:E177"/>
+    <mergeCell ref="A180:A182"/>
+    <mergeCell ref="B180:B182"/>
+    <mergeCell ref="C180:C182"/>
+    <mergeCell ref="E180:E182"/>
+    <mergeCell ref="A168:A169"/>
+    <mergeCell ref="B168:B169"/>
+    <mergeCell ref="C168:C169"/>
+    <mergeCell ref="D168:D169"/>
+    <mergeCell ref="E168:E169"/>
+    <mergeCell ref="A170:A174"/>
+    <mergeCell ref="B170:B174"/>
+    <mergeCell ref="E170:E174"/>
+    <mergeCell ref="A162:A164"/>
+    <mergeCell ref="B162:B164"/>
+    <mergeCell ref="E162:E164"/>
+    <mergeCell ref="A165:A167"/>
+    <mergeCell ref="B165:B167"/>
+    <mergeCell ref="E165:E167"/>
+    <mergeCell ref="A156:A158"/>
+    <mergeCell ref="B156:B158"/>
+    <mergeCell ref="E156:E158"/>
+    <mergeCell ref="A159:A161"/>
+    <mergeCell ref="B159:B161"/>
+    <mergeCell ref="C159:C161"/>
+    <mergeCell ref="D159:D161"/>
+    <mergeCell ref="E159:E161"/>
+    <mergeCell ref="A147:A149"/>
+    <mergeCell ref="B147:B149"/>
+    <mergeCell ref="D147:D149"/>
+    <mergeCell ref="E147:E149"/>
+    <mergeCell ref="A153:A155"/>
+    <mergeCell ref="B153:B155"/>
+    <mergeCell ref="C153:C155"/>
+    <mergeCell ref="E153:E155"/>
+    <mergeCell ref="A139:A143"/>
+    <mergeCell ref="B139:B143"/>
+    <mergeCell ref="E139:E143"/>
+    <mergeCell ref="A144:A146"/>
+    <mergeCell ref="B144:B146"/>
+    <mergeCell ref="E144:E146"/>
+    <mergeCell ref="A133:A135"/>
+    <mergeCell ref="B133:B135"/>
+    <mergeCell ref="E133:E135"/>
+    <mergeCell ref="A136:A138"/>
+    <mergeCell ref="B136:B138"/>
+    <mergeCell ref="C136:C138"/>
+    <mergeCell ref="E136:E138"/>
+    <mergeCell ref="A125:A129"/>
+    <mergeCell ref="B125:B129"/>
+    <mergeCell ref="E125:E129"/>
+    <mergeCell ref="A130:A132"/>
+    <mergeCell ref="B130:B132"/>
+    <mergeCell ref="E130:E132"/>
+    <mergeCell ref="A117:A119"/>
+    <mergeCell ref="B117:B119"/>
+    <mergeCell ref="C117:C119"/>
+    <mergeCell ref="E117:E119"/>
+    <mergeCell ref="A122:A124"/>
+    <mergeCell ref="B122:B124"/>
+    <mergeCell ref="E122:E124"/>
+    <mergeCell ref="A108:A110"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="D108:D110"/>
+    <mergeCell ref="E108:E110"/>
+    <mergeCell ref="A114:A116"/>
+    <mergeCell ref="B114:B116"/>
+    <mergeCell ref="D114:D116"/>
+    <mergeCell ref="E114:E116"/>
+    <mergeCell ref="A111:XFD112"/>
+    <mergeCell ref="G122:G124"/>
+    <mergeCell ref="J117:J119"/>
+    <mergeCell ref="K117:K119"/>
+    <mergeCell ref="L117:L119"/>
+    <mergeCell ref="J122:J124"/>
+    <mergeCell ref="K122:K124"/>
+    <mergeCell ref="L122:L124"/>
+    <mergeCell ref="A100:A102"/>
+    <mergeCell ref="B100:B102"/>
+    <mergeCell ref="E100:E102"/>
+    <mergeCell ref="A103:A105"/>
+    <mergeCell ref="B103:B105"/>
+    <mergeCell ref="E103:E105"/>
+    <mergeCell ref="A86:A88"/>
+    <mergeCell ref="E86:E88"/>
+    <mergeCell ref="A90:A95"/>
+    <mergeCell ref="B90:B95"/>
+    <mergeCell ref="E90:E95"/>
+    <mergeCell ref="A97:A99"/>
+    <mergeCell ref="B97:B99"/>
+    <mergeCell ref="C97:C99"/>
+    <mergeCell ref="D97:D99"/>
+    <mergeCell ref="E97:E99"/>
+    <mergeCell ref="A80:A82"/>
+    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="E80:E82"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="E83:E85"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="E73:E75"/>
+    <mergeCell ref="A73:A75"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="A77:XFD78"/>
+    <mergeCell ref="I73:I75"/>
+    <mergeCell ref="I80:I82"/>
+    <mergeCell ref="I83:I85"/>
+    <mergeCell ref="J80:J82"/>
+    <mergeCell ref="K80:K82"/>
+    <mergeCell ref="L80:L82"/>
+    <mergeCell ref="J83:J85"/>
+    <mergeCell ref="K83:K85"/>
+    <mergeCell ref="L83:L85"/>
+    <mergeCell ref="E68:E70"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="E62:E64"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="E65:E67"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="E45:E49"/>
+    <mergeCell ref="B50:B56"/>
+    <mergeCell ref="C50:C56"/>
+    <mergeCell ref="E50:E56"/>
+    <mergeCell ref="A38:A44"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="E28:E32"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="E33:E37"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="A50:A56"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="E2:E6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="H2:H6"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="H13:H17"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="H28:H32"/>
+    <mergeCell ref="H33:H37"/>
+    <mergeCell ref="H38:H44"/>
+    <mergeCell ref="H45:H49"/>
+    <mergeCell ref="H50:H56"/>
+    <mergeCell ref="H57:H59"/>
+    <mergeCell ref="H62:H64"/>
+    <mergeCell ref="H65:H67"/>
+    <mergeCell ref="H68:H70"/>
+    <mergeCell ref="H73:H75"/>
+    <mergeCell ref="H80:H82"/>
+    <mergeCell ref="H83:H85"/>
+    <mergeCell ref="H86:H88"/>
+    <mergeCell ref="H159:H161"/>
+    <mergeCell ref="H162:H164"/>
+    <mergeCell ref="H97:H99"/>
+    <mergeCell ref="H100:H102"/>
+    <mergeCell ref="H103:H105"/>
+    <mergeCell ref="H108:H110"/>
+    <mergeCell ref="H114:H116"/>
+    <mergeCell ref="H117:H119"/>
+    <mergeCell ref="H122:H124"/>
+    <mergeCell ref="H125:H129"/>
+    <mergeCell ref="H130:H132"/>
     <mergeCell ref="H165:H167"/>
     <mergeCell ref="H168:H169"/>
     <mergeCell ref="H170:H174"/>
@@ -6281,6 +8528,31 @@
     <mergeCell ref="I62:I64"/>
     <mergeCell ref="I65:I67"/>
     <mergeCell ref="I68:I70"/>
+    <mergeCell ref="I86:I88"/>
+    <mergeCell ref="I165:I167"/>
+    <mergeCell ref="I168:I169"/>
+    <mergeCell ref="I170:I174"/>
+    <mergeCell ref="I175:I177"/>
+    <mergeCell ref="I180:I182"/>
+    <mergeCell ref="I183:I185"/>
+    <mergeCell ref="I186:I188"/>
+    <mergeCell ref="I192:I194"/>
+    <mergeCell ref="I159:I161"/>
+    <mergeCell ref="I162:I164"/>
+    <mergeCell ref="H90:H95"/>
+    <mergeCell ref="I90:I95"/>
+    <mergeCell ref="I133:I135"/>
+    <mergeCell ref="I136:I138"/>
+    <mergeCell ref="I139:I143"/>
+    <mergeCell ref="I144:I146"/>
+    <mergeCell ref="I147:I149"/>
+    <mergeCell ref="I153:I155"/>
+    <mergeCell ref="I156:I158"/>
+    <mergeCell ref="I97:I99"/>
+    <mergeCell ref="I100:I102"/>
+    <mergeCell ref="I103:I105"/>
+    <mergeCell ref="I108:I110"/>
+    <mergeCell ref="I114:I116"/>
     <mergeCell ref="H133:H135"/>
     <mergeCell ref="H136:H138"/>
     <mergeCell ref="H139:H143"/>
@@ -6288,322 +8560,6 @@
     <mergeCell ref="H147:H149"/>
     <mergeCell ref="H153:H155"/>
     <mergeCell ref="H156:H158"/>
-    <mergeCell ref="H159:H161"/>
-    <mergeCell ref="H162:H164"/>
-    <mergeCell ref="H97:H99"/>
-    <mergeCell ref="H100:H102"/>
-    <mergeCell ref="H103:H105"/>
-    <mergeCell ref="H108:H110"/>
-    <mergeCell ref="H114:H116"/>
-    <mergeCell ref="H117:H119"/>
-    <mergeCell ref="H122:H124"/>
-    <mergeCell ref="H125:H129"/>
-    <mergeCell ref="H130:H132"/>
-    <mergeCell ref="H50:H56"/>
-    <mergeCell ref="H57:H59"/>
-    <mergeCell ref="H62:H64"/>
-    <mergeCell ref="H65:H67"/>
-    <mergeCell ref="H68:H70"/>
-    <mergeCell ref="H73:H75"/>
-    <mergeCell ref="H80:H82"/>
-    <mergeCell ref="H83:H85"/>
-    <mergeCell ref="H86:H88"/>
-    <mergeCell ref="H2:H6"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="H13:H17"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="H28:H32"/>
-    <mergeCell ref="H33:H37"/>
-    <mergeCell ref="H38:H44"/>
-    <mergeCell ref="H45:H49"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="E2:E6"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="E45:E49"/>
-    <mergeCell ref="B50:B56"/>
-    <mergeCell ref="C50:C56"/>
-    <mergeCell ref="E50:E56"/>
-    <mergeCell ref="A38:A44"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="E28:E32"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="E33:E37"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="A50:A56"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="D54:D56"/>
-    <mergeCell ref="E68:E70"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="E62:E64"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="E65:E67"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="A80:A82"/>
-    <mergeCell ref="B80:B82"/>
-    <mergeCell ref="E80:E82"/>
-    <mergeCell ref="A83:A85"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="E83:E85"/>
-    <mergeCell ref="B73:B75"/>
-    <mergeCell ref="E73:E75"/>
-    <mergeCell ref="A73:A75"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="A77:XFD78"/>
-    <mergeCell ref="I73:I75"/>
-    <mergeCell ref="I80:I82"/>
-    <mergeCell ref="I83:I85"/>
-    <mergeCell ref="A100:A102"/>
-    <mergeCell ref="B100:B102"/>
-    <mergeCell ref="E100:E102"/>
-    <mergeCell ref="A103:A105"/>
-    <mergeCell ref="B103:B105"/>
-    <mergeCell ref="E103:E105"/>
-    <mergeCell ref="A86:A88"/>
-    <mergeCell ref="E86:E88"/>
-    <mergeCell ref="A90:A95"/>
-    <mergeCell ref="B90:B95"/>
-    <mergeCell ref="E90:E95"/>
-    <mergeCell ref="A97:A99"/>
-    <mergeCell ref="B97:B99"/>
-    <mergeCell ref="C97:C99"/>
-    <mergeCell ref="D97:D99"/>
-    <mergeCell ref="E97:E99"/>
-    <mergeCell ref="A117:A119"/>
-    <mergeCell ref="B117:B119"/>
-    <mergeCell ref="C117:C119"/>
-    <mergeCell ref="E117:E119"/>
-    <mergeCell ref="A122:A124"/>
-    <mergeCell ref="B122:B124"/>
-    <mergeCell ref="E122:E124"/>
-    <mergeCell ref="A108:A110"/>
-    <mergeCell ref="B108:B110"/>
-    <mergeCell ref="D108:D110"/>
-    <mergeCell ref="E108:E110"/>
-    <mergeCell ref="A114:A116"/>
-    <mergeCell ref="B114:B116"/>
-    <mergeCell ref="D114:D116"/>
-    <mergeCell ref="E114:E116"/>
-    <mergeCell ref="A111:XFD112"/>
-    <mergeCell ref="A133:A135"/>
-    <mergeCell ref="B133:B135"/>
-    <mergeCell ref="E133:E135"/>
-    <mergeCell ref="A136:A138"/>
-    <mergeCell ref="B136:B138"/>
-    <mergeCell ref="C136:C138"/>
-    <mergeCell ref="E136:E138"/>
-    <mergeCell ref="A125:A129"/>
-    <mergeCell ref="B125:B129"/>
-    <mergeCell ref="E125:E129"/>
-    <mergeCell ref="A130:A132"/>
-    <mergeCell ref="B130:B132"/>
-    <mergeCell ref="E130:E132"/>
-    <mergeCell ref="A147:A149"/>
-    <mergeCell ref="B147:B149"/>
-    <mergeCell ref="D147:D149"/>
-    <mergeCell ref="E147:E149"/>
-    <mergeCell ref="A153:A155"/>
-    <mergeCell ref="B153:B155"/>
-    <mergeCell ref="C153:C155"/>
-    <mergeCell ref="E153:E155"/>
-    <mergeCell ref="A139:A143"/>
-    <mergeCell ref="B139:B143"/>
-    <mergeCell ref="E139:E143"/>
-    <mergeCell ref="A144:A146"/>
-    <mergeCell ref="B144:B146"/>
-    <mergeCell ref="E144:E146"/>
-    <mergeCell ref="A162:A164"/>
-    <mergeCell ref="B162:B164"/>
-    <mergeCell ref="E162:E164"/>
-    <mergeCell ref="A165:A167"/>
-    <mergeCell ref="B165:B167"/>
-    <mergeCell ref="E165:E167"/>
-    <mergeCell ref="A156:A158"/>
-    <mergeCell ref="B156:B158"/>
-    <mergeCell ref="E156:E158"/>
-    <mergeCell ref="A159:A161"/>
-    <mergeCell ref="B159:B161"/>
-    <mergeCell ref="C159:C161"/>
-    <mergeCell ref="D159:D161"/>
-    <mergeCell ref="E159:E161"/>
-    <mergeCell ref="A175:A177"/>
-    <mergeCell ref="B175:B177"/>
-    <mergeCell ref="D175:D177"/>
-    <mergeCell ref="E175:E177"/>
-    <mergeCell ref="A180:A182"/>
-    <mergeCell ref="B180:B182"/>
-    <mergeCell ref="C180:C182"/>
-    <mergeCell ref="E180:E182"/>
-    <mergeCell ref="A168:A169"/>
-    <mergeCell ref="B168:B169"/>
-    <mergeCell ref="C168:C169"/>
-    <mergeCell ref="D168:D169"/>
-    <mergeCell ref="E168:E169"/>
-    <mergeCell ref="A170:A174"/>
-    <mergeCell ref="B170:B174"/>
-    <mergeCell ref="E170:E174"/>
-    <mergeCell ref="A192:A194"/>
-    <mergeCell ref="B192:B194"/>
-    <mergeCell ref="D192:D194"/>
-    <mergeCell ref="E192:E194"/>
-    <mergeCell ref="A183:A185"/>
-    <mergeCell ref="B183:B185"/>
-    <mergeCell ref="E183:E185"/>
-    <mergeCell ref="A186:A188"/>
-    <mergeCell ref="B186:B188"/>
-    <mergeCell ref="C186:C188"/>
-    <mergeCell ref="E186:E188"/>
-    <mergeCell ref="A189:XFD190"/>
-    <mergeCell ref="H186:H188"/>
-    <mergeCell ref="H192:H194"/>
-    <mergeCell ref="F186:F188"/>
-    <mergeCell ref="F192:F194"/>
-    <mergeCell ref="G192:G194"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="A62:A64"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="B38:B44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="D47:D49"/>
-    <mergeCell ref="F2:F6"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="F13:F17"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="F28:F32"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E38:E44"/>
-    <mergeCell ref="F33:F37"/>
-    <mergeCell ref="F38:F44"/>
-    <mergeCell ref="A25:XFD26"/>
-    <mergeCell ref="A7:XFD8"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="E13:E17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="G2:G6"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="G13:G17"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="F156:F158"/>
-    <mergeCell ref="F159:F161"/>
-    <mergeCell ref="F162:F164"/>
-    <mergeCell ref="F165:F167"/>
-    <mergeCell ref="G28:G32"/>
-    <mergeCell ref="G33:G37"/>
-    <mergeCell ref="G38:G44"/>
-    <mergeCell ref="G45:G49"/>
-    <mergeCell ref="G50:G56"/>
-    <mergeCell ref="G57:G59"/>
-    <mergeCell ref="F45:F49"/>
-    <mergeCell ref="F50:F56"/>
-    <mergeCell ref="F57:F59"/>
-    <mergeCell ref="F62:F64"/>
-    <mergeCell ref="F65:F67"/>
-    <mergeCell ref="F68:F70"/>
-    <mergeCell ref="F73:F75"/>
-    <mergeCell ref="F80:F82"/>
-    <mergeCell ref="G80:G82"/>
-    <mergeCell ref="F180:F182"/>
-    <mergeCell ref="F183:F185"/>
-    <mergeCell ref="F130:F132"/>
-    <mergeCell ref="F83:F85"/>
-    <mergeCell ref="F86:F88"/>
-    <mergeCell ref="F90:F95"/>
-    <mergeCell ref="F97:F99"/>
-    <mergeCell ref="F100:F102"/>
-    <mergeCell ref="F103:F105"/>
-    <mergeCell ref="F168:F169"/>
-    <mergeCell ref="F170:F174"/>
-    <mergeCell ref="F133:F135"/>
-    <mergeCell ref="F136:F138"/>
-    <mergeCell ref="F139:F143"/>
-    <mergeCell ref="F144:F146"/>
-    <mergeCell ref="F147:F149"/>
-    <mergeCell ref="F153:F155"/>
-    <mergeCell ref="F108:F110"/>
-    <mergeCell ref="F114:F116"/>
-    <mergeCell ref="F117:F119"/>
-    <mergeCell ref="F122:F124"/>
-    <mergeCell ref="F125:F129"/>
-    <mergeCell ref="G122:G124"/>
-    <mergeCell ref="G125:G129"/>
-    <mergeCell ref="G130:G132"/>
-    <mergeCell ref="G62:G64"/>
-    <mergeCell ref="G65:G67"/>
-    <mergeCell ref="G68:G70"/>
-    <mergeCell ref="G73:G75"/>
-    <mergeCell ref="G83:G85"/>
-    <mergeCell ref="F175:F177"/>
-    <mergeCell ref="G180:G182"/>
-    <mergeCell ref="G183:G185"/>
-    <mergeCell ref="G186:G188"/>
-    <mergeCell ref="G133:G135"/>
-    <mergeCell ref="G86:G88"/>
-    <mergeCell ref="G90:G95"/>
-    <mergeCell ref="G97:G99"/>
-    <mergeCell ref="G100:G102"/>
-    <mergeCell ref="G103:G105"/>
-    <mergeCell ref="G108:G110"/>
-    <mergeCell ref="G168:G169"/>
-    <mergeCell ref="G170:G174"/>
-    <mergeCell ref="G175:G177"/>
-    <mergeCell ref="G136:G138"/>
-    <mergeCell ref="G139:G143"/>
-    <mergeCell ref="G144:G146"/>
-    <mergeCell ref="G147:G149"/>
-    <mergeCell ref="G153:G155"/>
-    <mergeCell ref="G156:G158"/>
-    <mergeCell ref="G159:G161"/>
-    <mergeCell ref="G162:G164"/>
-    <mergeCell ref="G165:G167"/>
-    <mergeCell ref="G114:G116"/>
-    <mergeCell ref="G117:G119"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Docs/Preparação para teste de conformidade/Teste de Conformidade.xlsx
+++ b/Docs/Preparação para teste de conformidade/Teste de Conformidade.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-9420" yWindow="495" windowWidth="23760" windowHeight="9795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-9423" yWindow="495" windowWidth="23766" windowHeight="9792" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="505">
   <si>
     <t>Obrigatório</t>
   </si>
@@ -1735,6 +1735,9 @@
   </si>
   <si>
     <t>dashboard simples no BI</t>
+  </si>
+  <si>
+    <t>encaminhamento pelo modulo de mensagens</t>
   </si>
 </sst>
 </file>
@@ -2186,7 +2189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="264">
+  <cellXfs count="265">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2441,6 +2444,69 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2450,22 +2516,46 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2477,31 +2567,37 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2510,19 +2606,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2533,24 +2632,297 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2579,401 +2951,35 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3315,26 +3321,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A191" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="4" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M192" sqref="M192:M194"/>
+      <selection pane="topRight" activeCell="M86" sqref="M86:M88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="30.85" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" style="21" customWidth="1"/>
+    <col min="1" max="1" width="7.296875" style="21" customWidth="1"/>
     <col min="2" max="4" width="33" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="24" customWidth="1"/>
+    <col min="5" max="5" width="12.3984375" style="24" customWidth="1"/>
     <col min="6" max="6" width="36" style="14" customWidth="1"/>
-    <col min="7" max="7" width="25.7109375" style="14" customWidth="1"/>
-    <col min="8" max="9" width="16.140625" style="14" customWidth="1"/>
-    <col min="10" max="10" width="22.42578125" style="14" customWidth="1"/>
+    <col min="7" max="7" width="25.69921875" style="14" customWidth="1"/>
+    <col min="8" max="9" width="16.09765625" style="14" customWidth="1"/>
+    <col min="10" max="10" width="22.3984375" style="14" customWidth="1"/>
     <col min="11" max="11" width="23" style="14" customWidth="1"/>
-    <col min="12" max="12" width="6.42578125" style="14" customWidth="1"/>
-    <col min="13" max="13" width="24.85546875" style="263" customWidth="1"/>
+    <col min="12" max="12" width="6.3984375" style="14" customWidth="1"/>
+    <col min="13" max="13" width="24.8984375" style="97" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="30.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -3375,130 +3381,130 @@
         <v>446</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="123">
+    <row r="2" spans="1:13" ht="39.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="246">
         <v>1</v>
       </c>
-      <c r="B2" s="126" t="s">
+      <c r="B2" s="249" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="126" t="s">
+      <c r="C2" s="249" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="129" t="s">
+      <c r="E2" s="252" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="89" t="s">
+      <c r="F2" s="101" t="s">
         <v>286</v>
       </c>
-      <c r="G2" s="89" t="s">
+      <c r="G2" s="101" t="s">
         <v>372</v>
       </c>
-      <c r="H2" s="89" t="s">
+      <c r="H2" s="101" t="s">
         <v>356</v>
       </c>
-      <c r="I2" s="89" t="s">
+      <c r="I2" s="101" t="s">
         <v>354</v>
       </c>
-      <c r="J2" s="89" t="s">
+      <c r="J2" s="101" t="s">
         <v>385</v>
       </c>
-      <c r="K2" s="89" t="s">
+      <c r="K2" s="101" t="s">
         <v>286</v>
       </c>
-      <c r="L2" s="89"/>
-      <c r="M2" s="89" t="s">
+      <c r="L2" s="101"/>
+      <c r="M2" s="101" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="124"/>
-      <c r="B3" s="127"/>
-      <c r="C3" s="127"/>
+    <row r="3" spans="1:13" ht="30.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="247"/>
+      <c r="B3" s="250"/>
+      <c r="C3" s="250"/>
       <c r="D3" s="13"/>
-      <c r="E3" s="130"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="90"/>
-    </row>
-    <row r="4" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="124"/>
-      <c r="B4" s="127"/>
-      <c r="C4" s="127"/>
+      <c r="E3" s="253"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="103"/>
+      <c r="L3" s="103"/>
+      <c r="M3" s="103"/>
+    </row>
+    <row r="4" spans="1:13" ht="39.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="247"/>
+      <c r="B4" s="250"/>
+      <c r="C4" s="250"/>
       <c r="D4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="130"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
-    </row>
-    <row r="5" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="124"/>
-      <c r="B5" s="127"/>
-      <c r="C5" s="127"/>
+      <c r="E4" s="253"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="103"/>
+      <c r="J4" s="103"/>
+      <c r="K4" s="103"/>
+      <c r="L4" s="103"/>
+      <c r="M4" s="103"/>
+    </row>
+    <row r="5" spans="1:13" ht="30.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="247"/>
+      <c r="B5" s="250"/>
+      <c r="C5" s="250"/>
       <c r="D5" s="13"/>
-      <c r="E5" s="130"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="90"/>
-      <c r="I5" s="90"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="90"/>
-      <c r="L5" s="90"/>
-      <c r="M5" s="90"/>
-    </row>
-    <row r="6" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="125"/>
-      <c r="B6" s="128"/>
-      <c r="C6" s="128"/>
+      <c r="E5" s="253"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="103"/>
+      <c r="J5" s="103"/>
+      <c r="K5" s="103"/>
+      <c r="L5" s="103"/>
+      <c r="M5" s="103"/>
+    </row>
+    <row r="6" spans="1:13" ht="27.1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="248"/>
+      <c r="B6" s="251"/>
+      <c r="C6" s="251"/>
       <c r="D6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="131"/>
-      <c r="F6" s="91"/>
-      <c r="G6" s="91"/>
-      <c r="H6" s="91"/>
-      <c r="I6" s="91"/>
-      <c r="J6" s="91"/>
-      <c r="K6" s="91"/>
-      <c r="L6" s="91"/>
-      <c r="M6" s="91"/>
-    </row>
-    <row r="7" spans="1:13" s="175" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="175" t="s">
+      <c r="E6" s="254"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="102"/>
+    </row>
+    <row r="7" spans="1:13" s="178" customFormat="1" ht="30.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="178" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="176"/>
-      <c r="C7" s="176"/>
-      <c r="D7" s="176"/>
-      <c r="E7" s="176"/>
-      <c r="F7" s="176"/>
-      <c r="G7" s="176"/>
-    </row>
-    <row r="8" spans="1:13" s="204" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="177"/>
-      <c r="B8" s="178"/>
-      <c r="C8" s="178"/>
-      <c r="D8" s="178"/>
-      <c r="E8" s="178"/>
-      <c r="F8" s="178"/>
-      <c r="G8" s="178"/>
-    </row>
-    <row r="9" spans="1:13" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+    </row>
+    <row r="8" spans="1:13" s="182" customFormat="1" ht="30.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="180"/>
+      <c r="B8" s="181"/>
+      <c r="C8" s="181"/>
+      <c r="D8" s="181"/>
+      <c r="E8" s="181"/>
+      <c r="F8" s="181"/>
+      <c r="G8" s="181"/>
+    </row>
+    <row r="9" spans="1:13" ht="30.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="16" t="s">
         <v>1</v>
       </c>
@@ -3539,11 +3545,11 @@
         <v>446</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="132">
+    <row r="10" spans="1:13" ht="26.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="191">
         <v>2</v>
       </c>
-      <c r="B10" s="117" t="s">
+      <c r="B10" s="185" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -3552,71 +3558,71 @@
       <c r="D10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="120" t="s">
+      <c r="E10" s="189" t="s">
         <v>0</v>
       </c>
-      <c r="F10" s="200" t="s">
+      <c r="F10" s="137" t="s">
         <v>307</v>
       </c>
-      <c r="G10" s="200" t="s">
+      <c r="G10" s="137" t="s">
         <v>373</v>
       </c>
-      <c r="H10" s="89" t="s">
+      <c r="H10" s="101" t="s">
         <v>360</v>
       </c>
-      <c r="I10" s="89" t="s">
+      <c r="I10" s="101" t="s">
         <v>359</v>
       </c>
-      <c r="J10" s="200" t="s">
+      <c r="J10" s="137" t="s">
         <v>286</v>
       </c>
-      <c r="K10" s="200" t="s">
+      <c r="K10" s="137" t="s">
         <v>286</v>
       </c>
-      <c r="L10" s="200"/>
-      <c r="M10" s="89" t="s">
+      <c r="L10" s="137"/>
+      <c r="M10" s="101" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="133"/>
-      <c r="B11" s="118"/>
+    <row r="11" spans="1:13" ht="30.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="192"/>
+      <c r="B11" s="194"/>
       <c r="C11" s="4"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="121"/>
-      <c r="F11" s="107"/>
-      <c r="G11" s="107"/>
-      <c r="H11" s="90"/>
-      <c r="I11" s="90"/>
-      <c r="J11" s="107"/>
-      <c r="K11" s="107"/>
-      <c r="L11" s="107"/>
-      <c r="M11" s="90"/>
-    </row>
-    <row r="12" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="134"/>
-      <c r="B12" s="119"/>
+      <c r="E11" s="195"/>
+      <c r="F11" s="138"/>
+      <c r="G11" s="138"/>
+      <c r="H11" s="103"/>
+      <c r="I11" s="103"/>
+      <c r="J11" s="138"/>
+      <c r="K11" s="138"/>
+      <c r="L11" s="138"/>
+      <c r="M11" s="103"/>
+    </row>
+    <row r="12" spans="1:13" ht="27.1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="193"/>
+      <c r="B12" s="186"/>
       <c r="C12" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="122"/>
-      <c r="F12" s="108"/>
-      <c r="G12" s="108"/>
-      <c r="H12" s="91"/>
-      <c r="I12" s="91"/>
-      <c r="J12" s="108"/>
-      <c r="K12" s="108"/>
-      <c r="L12" s="108"/>
-      <c r="M12" s="91"/>
-    </row>
-    <row r="13" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="132">
+      <c r="E12" s="190"/>
+      <c r="F12" s="139"/>
+      <c r="G12" s="139"/>
+      <c r="H12" s="102"/>
+      <c r="I12" s="102"/>
+      <c r="J12" s="139"/>
+      <c r="K12" s="139"/>
+      <c r="L12" s="139"/>
+      <c r="M12" s="102"/>
+    </row>
+    <row r="13" spans="1:13" ht="26.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="191">
         <v>3</v>
       </c>
-      <c r="B13" s="117" t="s">
+      <c r="B13" s="185" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -3625,170 +3631,170 @@
       <c r="D13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="120" t="s">
+      <c r="E13" s="189" t="s">
         <v>0</v>
       </c>
-      <c r="F13" s="200" t="s">
+      <c r="F13" s="137" t="s">
         <v>306</v>
       </c>
-      <c r="G13" s="200" t="s">
+      <c r="G13" s="137" t="s">
         <v>373</v>
       </c>
-      <c r="H13" s="89" t="s">
+      <c r="H13" s="101" t="s">
         <v>371</v>
       </c>
-      <c r="I13" s="89" t="s">
+      <c r="I13" s="101" t="s">
         <v>359</v>
       </c>
-      <c r="J13" s="200" t="s">
+      <c r="J13" s="137" t="s">
         <v>286</v>
       </c>
-      <c r="K13" s="200" t="s">
+      <c r="K13" s="137" t="s">
         <v>286</v>
       </c>
-      <c r="L13" s="200"/>
-      <c r="M13" s="89" t="s">
+      <c r="L13" s="137"/>
+      <c r="M13" s="101" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="133"/>
-      <c r="B14" s="118"/>
+    <row r="14" spans="1:13" ht="30.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="192"/>
+      <c r="B14" s="194"/>
       <c r="C14" s="4"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="121"/>
-      <c r="F14" s="107"/>
-      <c r="G14" s="107"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="90"/>
-      <c r="J14" s="107"/>
-      <c r="K14" s="107"/>
-      <c r="L14" s="107"/>
-      <c r="M14" s="90"/>
-    </row>
-    <row r="15" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="133"/>
-      <c r="B15" s="118"/>
+      <c r="E14" s="195"/>
+      <c r="F14" s="138"/>
+      <c r="G14" s="138"/>
+      <c r="H14" s="103"/>
+      <c r="I14" s="103"/>
+      <c r="J14" s="138"/>
+      <c r="K14" s="138"/>
+      <c r="L14" s="138"/>
+      <c r="M14" s="103"/>
+    </row>
+    <row r="15" spans="1:13" ht="26.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="192"/>
+      <c r="B15" s="194"/>
       <c r="C15" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="121"/>
-      <c r="F15" s="107"/>
-      <c r="G15" s="107"/>
-      <c r="H15" s="90"/>
-      <c r="I15" s="90"/>
-      <c r="J15" s="107"/>
-      <c r="K15" s="107"/>
-      <c r="L15" s="107"/>
-      <c r="M15" s="90"/>
-    </row>
-    <row r="16" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="133"/>
-      <c r="B16" s="118"/>
+      <c r="E15" s="195"/>
+      <c r="F15" s="138"/>
+      <c r="G15" s="138"/>
+      <c r="H15" s="103"/>
+      <c r="I15" s="103"/>
+      <c r="J15" s="138"/>
+      <c r="K15" s="138"/>
+      <c r="L15" s="138"/>
+      <c r="M15" s="103"/>
+    </row>
+    <row r="16" spans="1:13" ht="30.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="192"/>
+      <c r="B16" s="194"/>
       <c r="C16" s="4"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="121"/>
-      <c r="F16" s="107"/>
-      <c r="G16" s="107"/>
-      <c r="H16" s="90"/>
-      <c r="I16" s="90"/>
-      <c r="J16" s="107"/>
-      <c r="K16" s="107"/>
-      <c r="L16" s="107"/>
-      <c r="M16" s="90"/>
-    </row>
-    <row r="17" spans="1:13" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="134"/>
-      <c r="B17" s="119"/>
+      <c r="E16" s="195"/>
+      <c r="F16" s="138"/>
+      <c r="G16" s="138"/>
+      <c r="H16" s="103"/>
+      <c r="I16" s="103"/>
+      <c r="J16" s="138"/>
+      <c r="K16" s="138"/>
+      <c r="L16" s="138"/>
+      <c r="M16" s="103"/>
+    </row>
+    <row r="17" spans="1:13" ht="30.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="193"/>
+      <c r="B17" s="186"/>
       <c r="C17" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D17" s="7"/>
-      <c r="E17" s="122"/>
-      <c r="F17" s="108"/>
-      <c r="G17" s="108"/>
-      <c r="H17" s="91"/>
-      <c r="I17" s="91"/>
-      <c r="J17" s="108"/>
-      <c r="K17" s="108"/>
-      <c r="L17" s="108"/>
-      <c r="M17" s="91"/>
-    </row>
-    <row r="18" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="172">
+      <c r="E17" s="190"/>
+      <c r="F17" s="139"/>
+      <c r="G17" s="139"/>
+      <c r="H17" s="102"/>
+      <c r="I17" s="102"/>
+      <c r="J17" s="139"/>
+      <c r="K17" s="139"/>
+      <c r="L17" s="139"/>
+      <c r="M17" s="102"/>
+    </row>
+    <row r="18" spans="1:13" ht="30.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="183">
         <v>4</v>
       </c>
-      <c r="B18" s="117" t="s">
+      <c r="B18" s="185" t="s">
         <v>23</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="117" t="s">
+      <c r="D18" s="185" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="120" t="s">
+      <c r="E18" s="189" t="s">
         <v>0</v>
       </c>
-      <c r="F18" s="200" t="s">
+      <c r="F18" s="137" t="s">
         <v>287</v>
       </c>
-      <c r="G18" s="200" t="s">
+      <c r="G18" s="137" t="s">
         <v>293</v>
       </c>
-      <c r="H18" s="89" t="s">
+      <c r="H18" s="101" t="s">
         <v>356</v>
       </c>
-      <c r="I18" s="89" t="s">
+      <c r="I18" s="101" t="s">
         <v>356</v>
       </c>
-      <c r="J18" s="200" t="s">
+      <c r="J18" s="137" t="s">
         <v>286</v>
       </c>
-      <c r="K18" s="200" t="s">
+      <c r="K18" s="137" t="s">
         <v>286</v>
       </c>
-      <c r="L18" s="200"/>
-      <c r="M18" s="89" t="s">
+      <c r="L18" s="137"/>
+      <c r="M18" s="101" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="173"/>
-      <c r="B19" s="118"/>
+    <row r="19" spans="1:13" ht="30.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="196"/>
+      <c r="B19" s="194"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="118"/>
-      <c r="E19" s="121"/>
-      <c r="F19" s="107"/>
-      <c r="G19" s="107"/>
-      <c r="H19" s="90"/>
-      <c r="I19" s="90"/>
-      <c r="J19" s="107"/>
-      <c r="K19" s="107"/>
-      <c r="L19" s="107"/>
-      <c r="M19" s="90"/>
-    </row>
-    <row r="20" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="174"/>
-      <c r="B20" s="119"/>
+      <c r="D19" s="194"/>
+      <c r="E19" s="195"/>
+      <c r="F19" s="138"/>
+      <c r="G19" s="138"/>
+      <c r="H19" s="103"/>
+      <c r="I19" s="103"/>
+      <c r="J19" s="138"/>
+      <c r="K19" s="138"/>
+      <c r="L19" s="138"/>
+      <c r="M19" s="103"/>
+    </row>
+    <row r="20" spans="1:13" ht="27.1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="184"/>
+      <c r="B20" s="186"/>
       <c r="C20" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="119"/>
-      <c r="E20" s="122"/>
-      <c r="F20" s="108"/>
-      <c r="G20" s="108"/>
-      <c r="H20" s="91"/>
-      <c r="I20" s="91"/>
-      <c r="J20" s="108"/>
-      <c r="K20" s="108"/>
-      <c r="L20" s="108"/>
-      <c r="M20" s="91"/>
-    </row>
-    <row r="21" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="186"/>
+      <c r="E20" s="190"/>
+      <c r="F20" s="139"/>
+      <c r="G20" s="139"/>
+      <c r="H20" s="102"/>
+      <c r="I20" s="102"/>
+      <c r="J20" s="139"/>
+      <c r="K20" s="139"/>
+      <c r="L20" s="139"/>
+      <c r="M20" s="102"/>
+    </row>
+    <row r="21" spans="1:13" ht="40.35" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="85">
         <v>5</v>
       </c>
@@ -3822,12 +3828,12 @@
       <c r="K21" s="74" t="s">
         <v>386</v>
       </c>
-      <c r="L21" s="218"/>
+      <c r="L21" s="86"/>
       <c r="M21" s="78" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" ht="52.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="17">
         <v>6</v>
       </c>
@@ -3861,86 +3867,86 @@
       <c r="K22" s="74" t="s">
         <v>388</v>
       </c>
-      <c r="L22" s="219"/>
+      <c r="L22" s="87"/>
       <c r="M22" s="77" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="172">
+    <row r="23" spans="1:13" ht="48.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="183">
         <v>7</v>
       </c>
-      <c r="B23" s="117" t="s">
+      <c r="B23" s="185" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="205" t="s">
+      <c r="C23" s="187" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="117" t="s">
+      <c r="D23" s="185" t="s">
         <v>35</v>
       </c>
-      <c r="E23" s="120" t="s">
+      <c r="E23" s="189" t="s">
         <v>36</v>
       </c>
-      <c r="F23" s="200" t="s">
+      <c r="F23" s="137" t="s">
         <v>375</v>
       </c>
-      <c r="G23" s="200" t="s">
+      <c r="G23" s="137" t="s">
         <v>292</v>
       </c>
-      <c r="H23" s="89" t="s">
+      <c r="H23" s="101" t="s">
         <v>356</v>
       </c>
-      <c r="I23" s="89" t="s">
+      <c r="I23" s="101" t="s">
         <v>354</v>
       </c>
-      <c r="J23" s="200" t="s">
+      <c r="J23" s="137" t="s">
         <v>389</v>
       </c>
-      <c r="K23" s="200" t="s">
+      <c r="K23" s="137" t="s">
         <v>390</v>
       </c>
-      <c r="L23" s="220"/>
-      <c r="M23" s="89" t="s">
+      <c r="L23" s="113"/>
+      <c r="M23" s="101" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="174"/>
-      <c r="B24" s="119"/>
-      <c r="C24" s="206"/>
-      <c r="D24" s="119"/>
-      <c r="E24" s="122"/>
-      <c r="F24" s="108"/>
-      <c r="G24" s="108"/>
-      <c r="H24" s="91"/>
-      <c r="I24" s="91"/>
-      <c r="J24" s="108"/>
-      <c r="K24" s="108"/>
-      <c r="L24" s="113"/>
-      <c r="M24" s="91"/>
-    </row>
-    <row r="25" spans="1:13" s="175" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="175" t="s">
+    <row r="24" spans="1:13" ht="48.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="184"/>
+      <c r="B24" s="186"/>
+      <c r="C24" s="188"/>
+      <c r="D24" s="186"/>
+      <c r="E24" s="190"/>
+      <c r="F24" s="139"/>
+      <c r="G24" s="139"/>
+      <c r="H24" s="102"/>
+      <c r="I24" s="102"/>
+      <c r="J24" s="139"/>
+      <c r="K24" s="139"/>
+      <c r="L24" s="115"/>
+      <c r="M24" s="102"/>
+    </row>
+    <row r="25" spans="1:13" s="178" customFormat="1" ht="30.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="178" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="176"/>
-      <c r="C25" s="176"/>
-      <c r="D25" s="176"/>
-      <c r="E25" s="176"/>
-      <c r="F25" s="176"/>
-      <c r="G25" s="176"/>
-    </row>
-    <row r="26" spans="1:13" s="204" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="177"/>
-      <c r="B26" s="178"/>
-      <c r="C26" s="178"/>
-      <c r="D26" s="178"/>
-      <c r="E26" s="178"/>
-      <c r="F26" s="178"/>
-      <c r="G26" s="178"/>
-    </row>
-    <row r="27" spans="1:13" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="179"/>
+      <c r="C25" s="179"/>
+      <c r="D25" s="179"/>
+      <c r="E25" s="179"/>
+      <c r="F25" s="179"/>
+      <c r="G25" s="179"/>
+    </row>
+    <row r="26" spans="1:13" s="182" customFormat="1" ht="30.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="180"/>
+      <c r="B26" s="181"/>
+      <c r="C26" s="181"/>
+      <c r="D26" s="181"/>
+      <c r="E26" s="181"/>
+      <c r="F26" s="181"/>
+      <c r="G26" s="181"/>
+    </row>
+    <row r="27" spans="1:13" ht="30.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="27" t="s">
         <v>1</v>
       </c>
@@ -3981,663 +3987,663 @@
         <v>446</v>
       </c>
     </row>
-    <row r="28" spans="1:13" s="29" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="147">
+    <row r="28" spans="1:13" s="29" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="200">
         <v>8</v>
       </c>
-      <c r="B28" s="138" t="s">
+      <c r="B28" s="203" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="150" t="s">
+      <c r="C28" s="164" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="150" t="s">
+      <c r="D28" s="164" t="s">
         <v>41</v>
       </c>
-      <c r="E28" s="135" t="s">
+      <c r="E28" s="175" t="s">
         <v>0</v>
       </c>
-      <c r="F28" s="201" t="s">
+      <c r="F28" s="172" t="s">
         <v>364</v>
       </c>
-      <c r="G28" s="207" t="s">
+      <c r="G28" s="155" t="s">
         <v>289</v>
       </c>
-      <c r="H28" s="86" t="s">
+      <c r="H28" s="107" t="s">
         <v>361</v>
       </c>
-      <c r="I28" s="86" t="s">
+      <c r="I28" s="107" t="s">
         <v>362</v>
       </c>
-      <c r="J28" s="207" t="s">
+      <c r="J28" s="155" t="s">
         <v>391</v>
       </c>
-      <c r="K28" s="207" t="s">
+      <c r="K28" s="155" t="s">
         <v>392</v>
       </c>
-      <c r="L28" s="114"/>
-      <c r="M28" s="86" t="s">
+      <c r="L28" s="146"/>
+      <c r="M28" s="107" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="29" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="148"/>
-      <c r="B29" s="139"/>
-      <c r="C29" s="151"/>
-      <c r="D29" s="151"/>
-      <c r="E29" s="136"/>
-      <c r="F29" s="202"/>
-      <c r="G29" s="208"/>
-      <c r="H29" s="87"/>
-      <c r="I29" s="87"/>
-      <c r="J29" s="208"/>
-      <c r="K29" s="208"/>
-      <c r="L29" s="115"/>
-      <c r="M29" s="87"/>
-    </row>
-    <row r="30" spans="1:13" s="29" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="148"/>
-      <c r="B30" s="139"/>
-      <c r="C30" s="151" t="s">
+    <row r="29" spans="1:13" s="29" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="201"/>
+      <c r="B29" s="204"/>
+      <c r="C29" s="165"/>
+      <c r="D29" s="165"/>
+      <c r="E29" s="176"/>
+      <c r="F29" s="173"/>
+      <c r="G29" s="156"/>
+      <c r="H29" s="108"/>
+      <c r="I29" s="108"/>
+      <c r="J29" s="156"/>
+      <c r="K29" s="156"/>
+      <c r="L29" s="147"/>
+      <c r="M29" s="108"/>
+    </row>
+    <row r="30" spans="1:13" s="29" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="201"/>
+      <c r="B30" s="204"/>
+      <c r="C30" s="165" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="151" t="s">
+      <c r="D30" s="165" t="s">
         <v>42</v>
       </c>
-      <c r="E30" s="136"/>
-      <c r="F30" s="202"/>
-      <c r="G30" s="208"/>
-      <c r="H30" s="87"/>
-      <c r="I30" s="87"/>
-      <c r="J30" s="208"/>
-      <c r="K30" s="208"/>
-      <c r="L30" s="115"/>
-      <c r="M30" s="87"/>
-    </row>
-    <row r="31" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="148"/>
-      <c r="B31" s="139"/>
-      <c r="C31" s="151"/>
-      <c r="D31" s="151"/>
-      <c r="E31" s="136"/>
-      <c r="F31" s="202"/>
-      <c r="G31" s="208"/>
-      <c r="H31" s="87"/>
-      <c r="I31" s="87"/>
-      <c r="J31" s="208"/>
-      <c r="K31" s="208"/>
-      <c r="L31" s="115"/>
-      <c r="M31" s="87"/>
-    </row>
-    <row r="32" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="149"/>
-      <c r="B32" s="140"/>
-      <c r="C32" s="152"/>
+      <c r="E30" s="176"/>
+      <c r="F30" s="173"/>
+      <c r="G30" s="156"/>
+      <c r="H30" s="108"/>
+      <c r="I30" s="108"/>
+      <c r="J30" s="156"/>
+      <c r="K30" s="156"/>
+      <c r="L30" s="147"/>
+      <c r="M30" s="108"/>
+    </row>
+    <row r="31" spans="1:13" s="29" customFormat="1" ht="30.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="201"/>
+      <c r="B31" s="204"/>
+      <c r="C31" s="165"/>
+      <c r="D31" s="165"/>
+      <c r="E31" s="176"/>
+      <c r="F31" s="173"/>
+      <c r="G31" s="156"/>
+      <c r="H31" s="108"/>
+      <c r="I31" s="108"/>
+      <c r="J31" s="156"/>
+      <c r="K31" s="156"/>
+      <c r="L31" s="147"/>
+      <c r="M31" s="108"/>
+    </row>
+    <row r="32" spans="1:13" s="29" customFormat="1" ht="30.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="202"/>
+      <c r="B32" s="205"/>
+      <c r="C32" s="166"/>
       <c r="D32" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="E32" s="137"/>
-      <c r="F32" s="203"/>
-      <c r="G32" s="209"/>
-      <c r="H32" s="88"/>
-      <c r="I32" s="88"/>
-      <c r="J32" s="209"/>
-      <c r="K32" s="209"/>
-      <c r="L32" s="116"/>
-      <c r="M32" s="88"/>
-    </row>
-    <row r="33" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="144">
+      <c r="E32" s="177"/>
+      <c r="F32" s="174"/>
+      <c r="G32" s="157"/>
+      <c r="H32" s="109"/>
+      <c r="I32" s="109"/>
+      <c r="J32" s="157"/>
+      <c r="K32" s="157"/>
+      <c r="L32" s="148"/>
+      <c r="M32" s="109"/>
+    </row>
+    <row r="33" spans="1:13" s="29" customFormat="1" ht="30.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="197">
         <v>9</v>
       </c>
-      <c r="B33" s="138" t="s">
+      <c r="B33" s="203" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="150" t="s">
+      <c r="C33" s="164" t="s">
         <v>45</v>
       </c>
-      <c r="D33" s="150" t="s">
+      <c r="D33" s="164" t="s">
         <v>48</v>
       </c>
-      <c r="E33" s="135" t="s">
+      <c r="E33" s="175" t="s">
         <v>0</v>
       </c>
-      <c r="F33" s="201" t="s">
+      <c r="F33" s="172" t="s">
         <v>290</v>
       </c>
-      <c r="G33" s="207" t="s">
+      <c r="G33" s="155" t="s">
         <v>291</v>
       </c>
-      <c r="H33" s="86" t="s">
+      <c r="H33" s="107" t="s">
         <v>361</v>
       </c>
-      <c r="I33" s="86" t="s">
+      <c r="I33" s="107" t="s">
         <v>362</v>
       </c>
-      <c r="J33" s="207" t="s">
+      <c r="J33" s="155" t="s">
         <v>391</v>
       </c>
-      <c r="K33" s="207" t="s">
+      <c r="K33" s="155" t="s">
         <v>392</v>
       </c>
-      <c r="L33" s="114"/>
-      <c r="M33" s="86" t="s">
+      <c r="L33" s="146"/>
+      <c r="M33" s="107" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="34" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="145"/>
-      <c r="B34" s="139"/>
-      <c r="C34" s="151"/>
-      <c r="D34" s="151"/>
-      <c r="E34" s="136"/>
-      <c r="F34" s="202"/>
-      <c r="G34" s="208"/>
-      <c r="H34" s="87"/>
-      <c r="I34" s="87"/>
-      <c r="J34" s="208"/>
-      <c r="K34" s="208"/>
-      <c r="L34" s="115"/>
-      <c r="M34" s="87"/>
-    </row>
-    <row r="35" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="145"/>
-      <c r="B35" s="139"/>
-      <c r="C35" s="151" t="s">
+    <row r="34" spans="1:13" s="29" customFormat="1" ht="30.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="198"/>
+      <c r="B34" s="204"/>
+      <c r="C34" s="165"/>
+      <c r="D34" s="165"/>
+      <c r="E34" s="176"/>
+      <c r="F34" s="173"/>
+      <c r="G34" s="156"/>
+      <c r="H34" s="108"/>
+      <c r="I34" s="108"/>
+      <c r="J34" s="156"/>
+      <c r="K34" s="156"/>
+      <c r="L34" s="147"/>
+      <c r="M34" s="108"/>
+    </row>
+    <row r="35" spans="1:13" s="29" customFormat="1" ht="30.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="198"/>
+      <c r="B35" s="204"/>
+      <c r="C35" s="165" t="s">
         <v>46</v>
       </c>
-      <c r="D35" s="151" t="s">
+      <c r="D35" s="165" t="s">
         <v>49</v>
       </c>
-      <c r="E35" s="136"/>
-      <c r="F35" s="202"/>
-      <c r="G35" s="208"/>
-      <c r="H35" s="87"/>
-      <c r="I35" s="87"/>
-      <c r="J35" s="208"/>
-      <c r="K35" s="208"/>
-      <c r="L35" s="115"/>
-      <c r="M35" s="87"/>
-    </row>
-    <row r="36" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="145"/>
-      <c r="B36" s="139"/>
-      <c r="C36" s="151"/>
-      <c r="D36" s="151"/>
-      <c r="E36" s="136"/>
-      <c r="F36" s="202"/>
-      <c r="G36" s="208"/>
-      <c r="H36" s="87"/>
-      <c r="I36" s="87"/>
-      <c r="J36" s="208"/>
-      <c r="K36" s="208"/>
-      <c r="L36" s="115"/>
-      <c r="M36" s="87"/>
-    </row>
-    <row r="37" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="146"/>
-      <c r="B37" s="140"/>
+      <c r="E35" s="176"/>
+      <c r="F35" s="173"/>
+      <c r="G35" s="156"/>
+      <c r="H35" s="108"/>
+      <c r="I35" s="108"/>
+      <c r="J35" s="156"/>
+      <c r="K35" s="156"/>
+      <c r="L35" s="147"/>
+      <c r="M35" s="108"/>
+    </row>
+    <row r="36" spans="1:13" s="29" customFormat="1" ht="30.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="198"/>
+      <c r="B36" s="204"/>
+      <c r="C36" s="165"/>
+      <c r="D36" s="165"/>
+      <c r="E36" s="176"/>
+      <c r="F36" s="173"/>
+      <c r="G36" s="156"/>
+      <c r="H36" s="108"/>
+      <c r="I36" s="108"/>
+      <c r="J36" s="156"/>
+      <c r="K36" s="156"/>
+      <c r="L36" s="147"/>
+      <c r="M36" s="108"/>
+    </row>
+    <row r="37" spans="1:13" s="29" customFormat="1" ht="30.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="199"/>
+      <c r="B37" s="205"/>
       <c r="C37" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="D37" s="152"/>
-      <c r="E37" s="137"/>
-      <c r="F37" s="203"/>
-      <c r="G37" s="209"/>
-      <c r="H37" s="88"/>
-      <c r="I37" s="88"/>
-      <c r="J37" s="209"/>
-      <c r="K37" s="209"/>
-      <c r="L37" s="116"/>
-      <c r="M37" s="88"/>
-    </row>
-    <row r="38" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="144">
+      <c r="D37" s="166"/>
+      <c r="E37" s="177"/>
+      <c r="F37" s="174"/>
+      <c r="G37" s="157"/>
+      <c r="H37" s="109"/>
+      <c r="I37" s="109"/>
+      <c r="J37" s="157"/>
+      <c r="K37" s="157"/>
+      <c r="L37" s="148"/>
+      <c r="M37" s="109"/>
+    </row>
+    <row r="38" spans="1:13" s="29" customFormat="1" ht="30.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="197">
         <v>10</v>
       </c>
-      <c r="B38" s="138" t="s">
+      <c r="B38" s="203" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="150" t="s">
+      <c r="C38" s="164" t="s">
         <v>51</v>
       </c>
-      <c r="D38" s="150" t="s">
+      <c r="D38" s="164" t="s">
         <v>54</v>
       </c>
-      <c r="E38" s="135" t="s">
+      <c r="E38" s="175" t="s">
         <v>0</v>
       </c>
-      <c r="F38" s="201" t="s">
+      <c r="F38" s="172" t="s">
         <v>294</v>
       </c>
-      <c r="G38" s="207" t="s">
+      <c r="G38" s="155" t="s">
         <v>295</v>
       </c>
-      <c r="H38" s="86" t="s">
+      <c r="H38" s="107" t="s">
         <v>361</v>
       </c>
-      <c r="I38" s="86" t="s">
+      <c r="I38" s="107" t="s">
         <v>355</v>
       </c>
-      <c r="J38" s="207" t="s">
+      <c r="J38" s="155" t="s">
         <v>286</v>
       </c>
-      <c r="K38" s="207"/>
-      <c r="L38" s="207"/>
-      <c r="M38" s="86" t="s">
+      <c r="K38" s="155"/>
+      <c r="L38" s="155"/>
+      <c r="M38" s="107" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="39" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="145"/>
-      <c r="B39" s="139"/>
-      <c r="C39" s="151"/>
-      <c r="D39" s="151"/>
-      <c r="E39" s="136"/>
-      <c r="F39" s="202"/>
-      <c r="G39" s="208"/>
-      <c r="H39" s="87"/>
-      <c r="I39" s="87"/>
-      <c r="J39" s="208"/>
-      <c r="K39" s="208"/>
-      <c r="L39" s="208"/>
-      <c r="M39" s="87"/>
-    </row>
-    <row r="40" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="145"/>
-      <c r="B40" s="139"/>
-      <c r="C40" s="151" t="s">
+    <row r="39" spans="1:13" s="29" customFormat="1" ht="30.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="198"/>
+      <c r="B39" s="204"/>
+      <c r="C39" s="165"/>
+      <c r="D39" s="165"/>
+      <c r="E39" s="176"/>
+      <c r="F39" s="173"/>
+      <c r="G39" s="156"/>
+      <c r="H39" s="108"/>
+      <c r="I39" s="108"/>
+      <c r="J39" s="156"/>
+      <c r="K39" s="156"/>
+      <c r="L39" s="156"/>
+      <c r="M39" s="108"/>
+    </row>
+    <row r="40" spans="1:13" s="29" customFormat="1" ht="30.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="198"/>
+      <c r="B40" s="204"/>
+      <c r="C40" s="165" t="s">
         <v>52</v>
       </c>
-      <c r="D40" s="151" t="s">
+      <c r="D40" s="165" t="s">
         <v>55</v>
       </c>
-      <c r="E40" s="136"/>
-      <c r="F40" s="202"/>
-      <c r="G40" s="208"/>
-      <c r="H40" s="87"/>
-      <c r="I40" s="87"/>
-      <c r="J40" s="208"/>
-      <c r="K40" s="208"/>
-      <c r="L40" s="208"/>
-      <c r="M40" s="87"/>
-    </row>
-    <row r="41" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="145"/>
-      <c r="B41" s="139"/>
-      <c r="C41" s="151"/>
-      <c r="D41" s="151"/>
-      <c r="E41" s="136"/>
-      <c r="F41" s="202"/>
-      <c r="G41" s="208"/>
-      <c r="H41" s="87"/>
-      <c r="I41" s="87"/>
-      <c r="J41" s="208"/>
-      <c r="K41" s="208"/>
-      <c r="L41" s="208"/>
-      <c r="M41" s="87"/>
-    </row>
-    <row r="42" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="145"/>
-      <c r="B42" s="139"/>
-      <c r="C42" s="151" t="s">
+      <c r="E40" s="176"/>
+      <c r="F40" s="173"/>
+      <c r="G40" s="156"/>
+      <c r="H40" s="108"/>
+      <c r="I40" s="108"/>
+      <c r="J40" s="156"/>
+      <c r="K40" s="156"/>
+      <c r="L40" s="156"/>
+      <c r="M40" s="108"/>
+    </row>
+    <row r="41" spans="1:13" s="29" customFormat="1" ht="30.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="198"/>
+      <c r="B41" s="204"/>
+      <c r="C41" s="165"/>
+      <c r="D41" s="165"/>
+      <c r="E41" s="176"/>
+      <c r="F41" s="173"/>
+      <c r="G41" s="156"/>
+      <c r="H41" s="108"/>
+      <c r="I41" s="108"/>
+      <c r="J41" s="156"/>
+      <c r="K41" s="156"/>
+      <c r="L41" s="156"/>
+      <c r="M41" s="108"/>
+    </row>
+    <row r="42" spans="1:13" s="29" customFormat="1" ht="30.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="198"/>
+      <c r="B42" s="204"/>
+      <c r="C42" s="165" t="s">
         <v>53</v>
       </c>
-      <c r="D42" s="151" t="s">
+      <c r="D42" s="165" t="s">
         <v>56</v>
       </c>
-      <c r="E42" s="136"/>
-      <c r="F42" s="202"/>
-      <c r="G42" s="208"/>
-      <c r="H42" s="87"/>
-      <c r="I42" s="87"/>
-      <c r="J42" s="208"/>
-      <c r="K42" s="208"/>
-      <c r="L42" s="208"/>
-      <c r="M42" s="87"/>
-    </row>
-    <row r="43" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="145"/>
-      <c r="B43" s="139"/>
-      <c r="C43" s="151"/>
-      <c r="D43" s="151"/>
-      <c r="E43" s="136"/>
-      <c r="F43" s="202"/>
-      <c r="G43" s="208"/>
-      <c r="H43" s="87"/>
-      <c r="I43" s="87"/>
-      <c r="J43" s="208"/>
-      <c r="K43" s="208"/>
-      <c r="L43" s="208"/>
-      <c r="M43" s="87"/>
-    </row>
-    <row r="44" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="146"/>
-      <c r="B44" s="140"/>
-      <c r="C44" s="152"/>
+      <c r="E42" s="176"/>
+      <c r="F42" s="173"/>
+      <c r="G42" s="156"/>
+      <c r="H42" s="108"/>
+      <c r="I42" s="108"/>
+      <c r="J42" s="156"/>
+      <c r="K42" s="156"/>
+      <c r="L42" s="156"/>
+      <c r="M42" s="108"/>
+    </row>
+    <row r="43" spans="1:13" s="29" customFormat="1" ht="30.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="198"/>
+      <c r="B43" s="204"/>
+      <c r="C43" s="165"/>
+      <c r="D43" s="165"/>
+      <c r="E43" s="176"/>
+      <c r="F43" s="173"/>
+      <c r="G43" s="156"/>
+      <c r="H43" s="108"/>
+      <c r="I43" s="108"/>
+      <c r="J43" s="156"/>
+      <c r="K43" s="156"/>
+      <c r="L43" s="156"/>
+      <c r="M43" s="108"/>
+    </row>
+    <row r="44" spans="1:13" s="29" customFormat="1" ht="30.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="199"/>
+      <c r="B44" s="205"/>
+      <c r="C44" s="166"/>
       <c r="D44" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="E44" s="137"/>
-      <c r="F44" s="203"/>
-      <c r="G44" s="209"/>
-      <c r="H44" s="88"/>
-      <c r="I44" s="88"/>
-      <c r="J44" s="209"/>
-      <c r="K44" s="209"/>
-      <c r="L44" s="209"/>
-      <c r="M44" s="88"/>
-    </row>
-    <row r="45" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="147">
+      <c r="E44" s="177"/>
+      <c r="F44" s="174"/>
+      <c r="G44" s="157"/>
+      <c r="H44" s="109"/>
+      <c r="I44" s="109"/>
+      <c r="J44" s="157"/>
+      <c r="K44" s="157"/>
+      <c r="L44" s="157"/>
+      <c r="M44" s="109"/>
+    </row>
+    <row r="45" spans="1:13" s="29" customFormat="1" ht="30.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="200">
         <v>11</v>
       </c>
-      <c r="B45" s="197" t="s">
+      <c r="B45" s="209" t="s">
         <v>58</v>
       </c>
-      <c r="C45" s="150" t="s">
+      <c r="C45" s="164" t="s">
         <v>60</v>
       </c>
-      <c r="D45" s="150" t="s">
+      <c r="D45" s="164" t="s">
         <v>62</v>
       </c>
-      <c r="E45" s="135" t="s">
+      <c r="E45" s="175" t="s">
         <v>36</v>
       </c>
-      <c r="F45" s="201" t="s">
+      <c r="F45" s="172" t="s">
         <v>377</v>
       </c>
-      <c r="G45" s="207" t="s">
+      <c r="G45" s="155" t="s">
         <v>291</v>
       </c>
-      <c r="H45" s="114" t="s">
+      <c r="H45" s="146" t="s">
         <v>378</v>
       </c>
-      <c r="I45" s="86" t="s">
+      <c r="I45" s="107" t="s">
         <v>362</v>
       </c>
-      <c r="J45" s="207" t="s">
+      <c r="J45" s="155" t="s">
         <v>391</v>
       </c>
-      <c r="K45" s="207" t="s">
+      <c r="K45" s="155" t="s">
         <v>393</v>
       </c>
-      <c r="L45" s="114"/>
-      <c r="M45" s="86" t="s">
+      <c r="L45" s="146"/>
+      <c r="M45" s="107" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="46" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="148"/>
-      <c r="B46" s="198"/>
-      <c r="C46" s="151"/>
-      <c r="D46" s="151"/>
-      <c r="E46" s="136"/>
-      <c r="F46" s="202"/>
-      <c r="G46" s="208"/>
-      <c r="H46" s="115"/>
-      <c r="I46" s="87"/>
-      <c r="J46" s="208"/>
-      <c r="K46" s="208"/>
-      <c r="L46" s="115"/>
-      <c r="M46" s="87"/>
-    </row>
-    <row r="47" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="148"/>
-      <c r="B47" s="198" t="s">
+    <row r="46" spans="1:13" s="29" customFormat="1" ht="30.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="201"/>
+      <c r="B46" s="210"/>
+      <c r="C46" s="165"/>
+      <c r="D46" s="165"/>
+      <c r="E46" s="176"/>
+      <c r="F46" s="173"/>
+      <c r="G46" s="156"/>
+      <c r="H46" s="147"/>
+      <c r="I46" s="108"/>
+      <c r="J46" s="156"/>
+      <c r="K46" s="156"/>
+      <c r="L46" s="147"/>
+      <c r="M46" s="108"/>
+    </row>
+    <row r="47" spans="1:13" s="29" customFormat="1" ht="30.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="201"/>
+      <c r="B47" s="210" t="s">
         <v>59</v>
       </c>
-      <c r="C47" s="151" t="s">
+      <c r="C47" s="165" t="s">
         <v>61</v>
       </c>
-      <c r="D47" s="151" t="s">
+      <c r="D47" s="165" t="s">
         <v>63</v>
       </c>
-      <c r="E47" s="136"/>
-      <c r="F47" s="202"/>
-      <c r="G47" s="208"/>
-      <c r="H47" s="115"/>
-      <c r="I47" s="87"/>
-      <c r="J47" s="208"/>
-      <c r="K47" s="208"/>
-      <c r="L47" s="115"/>
-      <c r="M47" s="87"/>
-    </row>
-    <row r="48" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="148"/>
-      <c r="B48" s="198"/>
-      <c r="C48" s="151"/>
-      <c r="D48" s="151"/>
-      <c r="E48" s="136"/>
-      <c r="F48" s="202"/>
-      <c r="G48" s="208"/>
-      <c r="H48" s="115"/>
-      <c r="I48" s="87"/>
-      <c r="J48" s="208"/>
-      <c r="K48" s="208"/>
-      <c r="L48" s="115"/>
-      <c r="M48" s="87"/>
-    </row>
-    <row r="49" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="149"/>
-      <c r="B49" s="199"/>
-      <c r="C49" s="152"/>
-      <c r="D49" s="152"/>
-      <c r="E49" s="137"/>
-      <c r="F49" s="203"/>
-      <c r="G49" s="209"/>
-      <c r="H49" s="116"/>
-      <c r="I49" s="88"/>
-      <c r="J49" s="209"/>
-      <c r="K49" s="209"/>
-      <c r="L49" s="116"/>
-      <c r="M49" s="88"/>
-    </row>
-    <row r="50" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="147">
+      <c r="E47" s="176"/>
+      <c r="F47" s="173"/>
+      <c r="G47" s="156"/>
+      <c r="H47" s="147"/>
+      <c r="I47" s="108"/>
+      <c r="J47" s="156"/>
+      <c r="K47" s="156"/>
+      <c r="L47" s="147"/>
+      <c r="M47" s="108"/>
+    </row>
+    <row r="48" spans="1:13" s="29" customFormat="1" ht="30.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="201"/>
+      <c r="B48" s="210"/>
+      <c r="C48" s="165"/>
+      <c r="D48" s="165"/>
+      <c r="E48" s="176"/>
+      <c r="F48" s="173"/>
+      <c r="G48" s="156"/>
+      <c r="H48" s="147"/>
+      <c r="I48" s="108"/>
+      <c r="J48" s="156"/>
+      <c r="K48" s="156"/>
+      <c r="L48" s="147"/>
+      <c r="M48" s="108"/>
+    </row>
+    <row r="49" spans="1:13" s="29" customFormat="1" ht="30.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="202"/>
+      <c r="B49" s="211"/>
+      <c r="C49" s="166"/>
+      <c r="D49" s="166"/>
+      <c r="E49" s="177"/>
+      <c r="F49" s="174"/>
+      <c r="G49" s="157"/>
+      <c r="H49" s="148"/>
+      <c r="I49" s="109"/>
+      <c r="J49" s="157"/>
+      <c r="K49" s="157"/>
+      <c r="L49" s="148"/>
+      <c r="M49" s="109"/>
+    </row>
+    <row r="50" spans="1:13" s="29" customFormat="1" ht="30.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="200">
         <v>12</v>
       </c>
-      <c r="B50" s="138" t="s">
+      <c r="B50" s="203" t="s">
         <v>64</v>
       </c>
-      <c r="C50" s="141" t="s">
+      <c r="C50" s="206" t="s">
         <v>65</v>
       </c>
-      <c r="D50" s="150" t="s">
+      <c r="D50" s="164" t="s">
         <v>66</v>
       </c>
-      <c r="E50" s="135" t="s">
+      <c r="E50" s="175" t="s">
         <v>36</v>
       </c>
-      <c r="F50" s="201" t="s">
+      <c r="F50" s="172" t="s">
         <v>365</v>
       </c>
-      <c r="G50" s="207" t="s">
+      <c r="G50" s="155" t="s">
         <v>296</v>
       </c>
-      <c r="H50" s="86" t="s">
+      <c r="H50" s="107" t="s">
         <v>361</v>
       </c>
-      <c r="I50" s="86" t="s">
+      <c r="I50" s="107" t="s">
         <v>362</v>
       </c>
-      <c r="J50" s="207" t="s">
+      <c r="J50" s="155" t="s">
         <v>391</v>
       </c>
-      <c r="K50" s="207" t="s">
+      <c r="K50" s="155" t="s">
         <v>394</v>
       </c>
-      <c r="L50" s="114"/>
-      <c r="M50" s="86" t="s">
+      <c r="L50" s="146"/>
+      <c r="M50" s="107" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="51" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="148"/>
-      <c r="B51" s="139"/>
-      <c r="C51" s="142"/>
-      <c r="D51" s="151"/>
-      <c r="E51" s="136"/>
-      <c r="F51" s="202"/>
-      <c r="G51" s="208"/>
-      <c r="H51" s="87"/>
-      <c r="I51" s="87"/>
-      <c r="J51" s="208"/>
-      <c r="K51" s="208"/>
-      <c r="L51" s="115"/>
-      <c r="M51" s="87"/>
-    </row>
-    <row r="52" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="148"/>
-      <c r="B52" s="139"/>
-      <c r="C52" s="142"/>
-      <c r="D52" s="151" t="s">
+    <row r="51" spans="1:13" s="29" customFormat="1" ht="30.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="201"/>
+      <c r="B51" s="204"/>
+      <c r="C51" s="207"/>
+      <c r="D51" s="165"/>
+      <c r="E51" s="176"/>
+      <c r="F51" s="173"/>
+      <c r="G51" s="156"/>
+      <c r="H51" s="108"/>
+      <c r="I51" s="108"/>
+      <c r="J51" s="156"/>
+      <c r="K51" s="156"/>
+      <c r="L51" s="147"/>
+      <c r="M51" s="108"/>
+    </row>
+    <row r="52" spans="1:13" s="29" customFormat="1" ht="30.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="201"/>
+      <c r="B52" s="204"/>
+      <c r="C52" s="207"/>
+      <c r="D52" s="165" t="s">
         <v>67</v>
       </c>
-      <c r="E52" s="136"/>
-      <c r="F52" s="202"/>
-      <c r="G52" s="208"/>
-      <c r="H52" s="87"/>
-      <c r="I52" s="87"/>
-      <c r="J52" s="208"/>
-      <c r="K52" s="208"/>
-      <c r="L52" s="115"/>
-      <c r="M52" s="87"/>
-    </row>
-    <row r="53" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="148"/>
-      <c r="B53" s="139"/>
-      <c r="C53" s="142"/>
-      <c r="D53" s="151"/>
-      <c r="E53" s="136"/>
-      <c r="F53" s="202"/>
-      <c r="G53" s="208"/>
-      <c r="H53" s="87"/>
-      <c r="I53" s="87"/>
-      <c r="J53" s="208"/>
-      <c r="K53" s="208"/>
-      <c r="L53" s="115"/>
-      <c r="M53" s="87"/>
-    </row>
-    <row r="54" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="148"/>
-      <c r="B54" s="139"/>
-      <c r="C54" s="142"/>
-      <c r="D54" s="151" t="s">
+      <c r="E52" s="176"/>
+      <c r="F52" s="173"/>
+      <c r="G52" s="156"/>
+      <c r="H52" s="108"/>
+      <c r="I52" s="108"/>
+      <c r="J52" s="156"/>
+      <c r="K52" s="156"/>
+      <c r="L52" s="147"/>
+      <c r="M52" s="108"/>
+    </row>
+    <row r="53" spans="1:13" s="29" customFormat="1" ht="30.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="201"/>
+      <c r="B53" s="204"/>
+      <c r="C53" s="207"/>
+      <c r="D53" s="165"/>
+      <c r="E53" s="176"/>
+      <c r="F53" s="173"/>
+      <c r="G53" s="156"/>
+      <c r="H53" s="108"/>
+      <c r="I53" s="108"/>
+      <c r="J53" s="156"/>
+      <c r="K53" s="156"/>
+      <c r="L53" s="147"/>
+      <c r="M53" s="108"/>
+    </row>
+    <row r="54" spans="1:13" s="29" customFormat="1" ht="30.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="201"/>
+      <c r="B54" s="204"/>
+      <c r="C54" s="207"/>
+      <c r="D54" s="165" t="s">
         <v>68</v>
       </c>
-      <c r="E54" s="136"/>
-      <c r="F54" s="202"/>
-      <c r="G54" s="208"/>
-      <c r="H54" s="87"/>
-      <c r="I54" s="87"/>
-      <c r="J54" s="208"/>
-      <c r="K54" s="208"/>
-      <c r="L54" s="115"/>
-      <c r="M54" s="87"/>
-    </row>
-    <row r="55" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="148"/>
-      <c r="B55" s="139"/>
-      <c r="C55" s="142"/>
-      <c r="D55" s="151"/>
-      <c r="E55" s="136"/>
-      <c r="F55" s="202"/>
-      <c r="G55" s="208"/>
-      <c r="H55" s="87"/>
-      <c r="I55" s="87"/>
-      <c r="J55" s="208"/>
-      <c r="K55" s="208"/>
-      <c r="L55" s="115"/>
-      <c r="M55" s="87"/>
-    </row>
-    <row r="56" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="149"/>
-      <c r="B56" s="140"/>
-      <c r="C56" s="143"/>
-      <c r="D56" s="152"/>
-      <c r="E56" s="137"/>
-      <c r="F56" s="203"/>
-      <c r="G56" s="209"/>
-      <c r="H56" s="88"/>
-      <c r="I56" s="88"/>
-      <c r="J56" s="209"/>
-      <c r="K56" s="209"/>
-      <c r="L56" s="116"/>
-      <c r="M56" s="88"/>
-    </row>
-    <row r="57" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="144">
+      <c r="E54" s="176"/>
+      <c r="F54" s="173"/>
+      <c r="G54" s="156"/>
+      <c r="H54" s="108"/>
+      <c r="I54" s="108"/>
+      <c r="J54" s="156"/>
+      <c r="K54" s="156"/>
+      <c r="L54" s="147"/>
+      <c r="M54" s="108"/>
+    </row>
+    <row r="55" spans="1:13" s="29" customFormat="1" ht="30.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="201"/>
+      <c r="B55" s="204"/>
+      <c r="C55" s="207"/>
+      <c r="D55" s="165"/>
+      <c r="E55" s="176"/>
+      <c r="F55" s="173"/>
+      <c r="G55" s="156"/>
+      <c r="H55" s="108"/>
+      <c r="I55" s="108"/>
+      <c r="J55" s="156"/>
+      <c r="K55" s="156"/>
+      <c r="L55" s="147"/>
+      <c r="M55" s="108"/>
+    </row>
+    <row r="56" spans="1:13" s="29" customFormat="1" ht="30.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="202"/>
+      <c r="B56" s="205"/>
+      <c r="C56" s="208"/>
+      <c r="D56" s="166"/>
+      <c r="E56" s="177"/>
+      <c r="F56" s="174"/>
+      <c r="G56" s="157"/>
+      <c r="H56" s="109"/>
+      <c r="I56" s="109"/>
+      <c r="J56" s="157"/>
+      <c r="K56" s="157"/>
+      <c r="L56" s="148"/>
+      <c r="M56" s="109"/>
+    </row>
+    <row r="57" spans="1:13" s="29" customFormat="1" ht="30.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="197">
         <v>13</v>
       </c>
-      <c r="B57" s="138" t="s">
+      <c r="B57" s="203" t="s">
         <v>69</v>
       </c>
-      <c r="C57" s="141" t="s">
+      <c r="C57" s="206" t="s">
         <v>70</v>
       </c>
-      <c r="D57" s="150" t="s">
+      <c r="D57" s="164" t="s">
         <v>71</v>
       </c>
-      <c r="E57" s="135" t="s">
+      <c r="E57" s="175" t="s">
         <v>36</v>
       </c>
-      <c r="F57" s="201" t="s">
+      <c r="F57" s="172" t="s">
         <v>286</v>
       </c>
-      <c r="G57" s="207" t="s">
+      <c r="G57" s="155" t="s">
         <v>297</v>
       </c>
-      <c r="H57" s="86" t="s">
+      <c r="H57" s="107" t="s">
         <v>356</v>
       </c>
-      <c r="I57" s="86" t="s">
+      <c r="I57" s="107" t="s">
         <v>356</v>
       </c>
-      <c r="J57" s="207" t="s">
+      <c r="J57" s="155" t="s">
         <v>391</v>
       </c>
-      <c r="K57" s="207" t="s">
+      <c r="K57" s="155" t="s">
         <v>395</v>
       </c>
-      <c r="L57" s="114"/>
-      <c r="M57" s="86" t="s">
+      <c r="L57" s="146"/>
+      <c r="M57" s="107" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="58" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="145"/>
-      <c r="B58" s="139"/>
-      <c r="C58" s="142"/>
-      <c r="D58" s="151"/>
-      <c r="E58" s="136"/>
-      <c r="F58" s="202"/>
-      <c r="G58" s="208"/>
-      <c r="H58" s="87"/>
-      <c r="I58" s="87"/>
-      <c r="J58" s="208"/>
-      <c r="K58" s="208"/>
-      <c r="L58" s="115"/>
-      <c r="M58" s="87"/>
-    </row>
-    <row r="59" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="146"/>
-      <c r="B59" s="140"/>
-      <c r="C59" s="143"/>
+    <row r="58" spans="1:13" s="29" customFormat="1" ht="30.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="198"/>
+      <c r="B58" s="204"/>
+      <c r="C58" s="207"/>
+      <c r="D58" s="165"/>
+      <c r="E58" s="176"/>
+      <c r="F58" s="173"/>
+      <c r="G58" s="156"/>
+      <c r="H58" s="108"/>
+      <c r="I58" s="108"/>
+      <c r="J58" s="156"/>
+      <c r="K58" s="156"/>
+      <c r="L58" s="147"/>
+      <c r="M58" s="108"/>
+    </row>
+    <row r="59" spans="1:13" s="29" customFormat="1" ht="30.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="199"/>
+      <c r="B59" s="205"/>
+      <c r="C59" s="208"/>
       <c r="D59" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="E59" s="137"/>
-      <c r="F59" s="203"/>
-      <c r="G59" s="209"/>
-      <c r="H59" s="88"/>
-      <c r="I59" s="88"/>
-      <c r="J59" s="209"/>
-      <c r="K59" s="209"/>
-      <c r="L59" s="116"/>
-      <c r="M59" s="88"/>
-    </row>
-    <row r="60" spans="1:13" s="29" customFormat="1" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E59" s="177"/>
+      <c r="F59" s="174"/>
+      <c r="G59" s="157"/>
+      <c r="H59" s="109"/>
+      <c r="I59" s="109"/>
+      <c r="J59" s="157"/>
+      <c r="K59" s="157"/>
+      <c r="L59" s="148"/>
+      <c r="M59" s="109"/>
+    </row>
+    <row r="60" spans="1:13" s="29" customFormat="1" ht="66.849999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="32">
         <v>14</v>
       </c>
@@ -4671,12 +4677,12 @@
       <c r="K60" s="64" t="s">
         <v>396</v>
       </c>
-      <c r="L60" s="221"/>
+      <c r="L60" s="88"/>
       <c r="M60" s="61" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="61" spans="1:13" s="29" customFormat="1" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" s="29" customFormat="1" ht="53.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="32">
         <v>15</v>
       </c>
@@ -4713,222 +4719,222 @@
         <v>462</v>
       </c>
     </row>
-    <row r="62" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="144">
+    <row r="62" spans="1:13" s="29" customFormat="1" ht="30.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="197">
         <v>16</v>
       </c>
-      <c r="B62" s="138" t="s">
+      <c r="B62" s="203" t="s">
         <v>79</v>
       </c>
-      <c r="C62" s="150" t="s">
+      <c r="C62" s="164" t="s">
         <v>80</v>
       </c>
-      <c r="D62" s="150" t="s">
+      <c r="D62" s="164" t="s">
         <v>82</v>
       </c>
-      <c r="E62" s="135" t="s">
+      <c r="E62" s="175" t="s">
         <v>0</v>
       </c>
-      <c r="F62" s="201" t="s">
+      <c r="F62" s="172" t="s">
         <v>286</v>
       </c>
-      <c r="G62" s="207" t="s">
+      <c r="G62" s="155" t="s">
         <v>299</v>
       </c>
-      <c r="H62" s="86" t="s">
+      <c r="H62" s="107" t="s">
         <v>356</v>
       </c>
-      <c r="I62" s="86" t="s">
+      <c r="I62" s="107" t="s">
         <v>356</v>
       </c>
-      <c r="J62" s="207" t="s">
+      <c r="J62" s="155" t="s">
         <v>391</v>
       </c>
-      <c r="K62" s="207"/>
-      <c r="L62" s="207"/>
-      <c r="M62" s="86" t="s">
+      <c r="K62" s="155"/>
+      <c r="L62" s="155"/>
+      <c r="M62" s="107" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="63" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="145"/>
-      <c r="B63" s="139"/>
-      <c r="C63" s="151"/>
-      <c r="D63" s="151"/>
-      <c r="E63" s="136"/>
-      <c r="F63" s="202"/>
-      <c r="G63" s="208"/>
-      <c r="H63" s="87"/>
-      <c r="I63" s="87"/>
-      <c r="J63" s="208"/>
-      <c r="K63" s="208"/>
-      <c r="L63" s="208"/>
-      <c r="M63" s="87"/>
-    </row>
-    <row r="64" spans="1:13" s="29" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="146"/>
-      <c r="B64" s="140"/>
+    <row r="63" spans="1:13" s="29" customFormat="1" ht="30.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="198"/>
+      <c r="B63" s="204"/>
+      <c r="C63" s="165"/>
+      <c r="D63" s="165"/>
+      <c r="E63" s="176"/>
+      <c r="F63" s="173"/>
+      <c r="G63" s="156"/>
+      <c r="H63" s="108"/>
+      <c r="I63" s="108"/>
+      <c r="J63" s="156"/>
+      <c r="K63" s="156"/>
+      <c r="L63" s="156"/>
+      <c r="M63" s="108"/>
+    </row>
+    <row r="64" spans="1:13" s="29" customFormat="1" ht="27.1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="199"/>
+      <c r="B64" s="205"/>
       <c r="C64" s="30" t="s">
         <v>81</v>
       </c>
       <c r="D64" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="E64" s="137"/>
-      <c r="F64" s="203"/>
-      <c r="G64" s="209"/>
-      <c r="H64" s="88"/>
-      <c r="I64" s="88"/>
-      <c r="J64" s="209"/>
-      <c r="K64" s="209"/>
-      <c r="L64" s="209"/>
-      <c r="M64" s="88"/>
-    </row>
-    <row r="65" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="144">
+      <c r="E64" s="177"/>
+      <c r="F64" s="174"/>
+      <c r="G64" s="157"/>
+      <c r="H64" s="109"/>
+      <c r="I64" s="109"/>
+      <c r="J64" s="157"/>
+      <c r="K64" s="157"/>
+      <c r="L64" s="157"/>
+      <c r="M64" s="109"/>
+    </row>
+    <row r="65" spans="1:13" s="29" customFormat="1" ht="30.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="197">
         <v>17</v>
       </c>
-      <c r="B65" s="138" t="s">
+      <c r="B65" s="203" t="s">
         <v>84</v>
       </c>
-      <c r="C65" s="150" t="s">
+      <c r="C65" s="164" t="s">
         <v>85</v>
       </c>
-      <c r="D65" s="150" t="s">
+      <c r="D65" s="164" t="s">
         <v>87</v>
       </c>
-      <c r="E65" s="135" t="s">
+      <c r="E65" s="175" t="s">
         <v>36</v>
       </c>
-      <c r="F65" s="201" t="s">
+      <c r="F65" s="172" t="s">
         <v>300</v>
       </c>
-      <c r="G65" s="207" t="s">
+      <c r="G65" s="155" t="s">
         <v>299</v>
       </c>
-      <c r="H65" s="86" t="s">
+      <c r="H65" s="107" t="s">
         <v>356</v>
       </c>
-      <c r="I65" s="86" t="s">
+      <c r="I65" s="107" t="s">
         <v>354</v>
       </c>
-      <c r="J65" s="207" t="s">
+      <c r="J65" s="155" t="s">
         <v>391</v>
       </c>
-      <c r="K65" s="207" t="s">
+      <c r="K65" s="155" t="s">
         <v>397</v>
       </c>
-      <c r="L65" s="114"/>
-      <c r="M65" s="86" t="s">
+      <c r="L65" s="146"/>
+      <c r="M65" s="107" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="66" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="145"/>
-      <c r="B66" s="139"/>
-      <c r="C66" s="151"/>
-      <c r="D66" s="151"/>
-      <c r="E66" s="136"/>
-      <c r="F66" s="202"/>
-      <c r="G66" s="208"/>
-      <c r="H66" s="87"/>
-      <c r="I66" s="87"/>
-      <c r="J66" s="208"/>
-      <c r="K66" s="208"/>
-      <c r="L66" s="115"/>
-      <c r="M66" s="87"/>
-    </row>
-    <row r="67" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="146"/>
-      <c r="B67" s="140"/>
+    <row r="66" spans="1:13" s="29" customFormat="1" ht="30.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="198"/>
+      <c r="B66" s="204"/>
+      <c r="C66" s="165"/>
+      <c r="D66" s="165"/>
+      <c r="E66" s="176"/>
+      <c r="F66" s="173"/>
+      <c r="G66" s="156"/>
+      <c r="H66" s="108"/>
+      <c r="I66" s="108"/>
+      <c r="J66" s="156"/>
+      <c r="K66" s="156"/>
+      <c r="L66" s="147"/>
+      <c r="M66" s="108"/>
+    </row>
+    <row r="67" spans="1:13" s="29" customFormat="1" ht="30.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="199"/>
+      <c r="B67" s="205"/>
       <c r="C67" s="30" t="s">
         <v>86</v>
       </c>
       <c r="D67" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="E67" s="137"/>
-      <c r="F67" s="203"/>
-      <c r="G67" s="209"/>
-      <c r="H67" s="88"/>
-      <c r="I67" s="88"/>
-      <c r="J67" s="209"/>
-      <c r="K67" s="209"/>
-      <c r="L67" s="116"/>
-      <c r="M67" s="88"/>
-    </row>
-    <row r="68" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="144">
+      <c r="E67" s="177"/>
+      <c r="F67" s="174"/>
+      <c r="G67" s="157"/>
+      <c r="H67" s="109"/>
+      <c r="I67" s="109"/>
+      <c r="J67" s="157"/>
+      <c r="K67" s="157"/>
+      <c r="L67" s="148"/>
+      <c r="M67" s="109"/>
+    </row>
+    <row r="68" spans="1:13" s="29" customFormat="1" ht="30.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="197">
         <v>18</v>
       </c>
-      <c r="B68" s="138" t="s">
+      <c r="B68" s="203" t="s">
         <v>89</v>
       </c>
-      <c r="C68" s="141" t="s">
+      <c r="C68" s="206" t="s">
         <v>90</v>
       </c>
-      <c r="D68" s="150" t="s">
+      <c r="D68" s="164" t="s">
         <v>91</v>
       </c>
-      <c r="E68" s="135" t="s">
+      <c r="E68" s="175" t="s">
         <v>0</v>
       </c>
-      <c r="F68" s="201" t="s">
+      <c r="F68" s="172" t="s">
         <v>286</v>
       </c>
-      <c r="G68" s="207" t="s">
+      <c r="G68" s="155" t="s">
         <v>301</v>
       </c>
-      <c r="H68" s="86" t="s">
+      <c r="H68" s="107" t="s">
         <v>356</v>
       </c>
-      <c r="I68" s="86" t="s">
+      <c r="I68" s="107" t="s">
         <v>354</v>
       </c>
-      <c r="J68" s="207" t="s">
+      <c r="J68" s="155" t="s">
         <v>391</v>
       </c>
-      <c r="K68" s="207" t="s">
+      <c r="K68" s="155" t="s">
         <v>398</v>
       </c>
-      <c r="L68" s="222"/>
-      <c r="M68" s="86" t="s">
+      <c r="L68" s="158"/>
+      <c r="M68" s="107" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="69" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="145"/>
-      <c r="B69" s="139"/>
-      <c r="C69" s="142"/>
-      <c r="D69" s="151"/>
-      <c r="E69" s="136"/>
-      <c r="F69" s="202"/>
-      <c r="G69" s="208"/>
-      <c r="H69" s="87"/>
-      <c r="I69" s="87"/>
-      <c r="J69" s="208"/>
-      <c r="K69" s="208"/>
-      <c r="L69" s="223"/>
-      <c r="M69" s="87"/>
-    </row>
-    <row r="70" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="146"/>
-      <c r="B70" s="140"/>
-      <c r="C70" s="143"/>
+    <row r="69" spans="1:13" s="29" customFormat="1" ht="30.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="198"/>
+      <c r="B69" s="204"/>
+      <c r="C69" s="207"/>
+      <c r="D69" s="165"/>
+      <c r="E69" s="176"/>
+      <c r="F69" s="173"/>
+      <c r="G69" s="156"/>
+      <c r="H69" s="108"/>
+      <c r="I69" s="108"/>
+      <c r="J69" s="156"/>
+      <c r="K69" s="156"/>
+      <c r="L69" s="159"/>
+      <c r="M69" s="108"/>
+    </row>
+    <row r="70" spans="1:13" s="29" customFormat="1" ht="30.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="199"/>
+      <c r="B70" s="205"/>
+      <c r="C70" s="208"/>
       <c r="D70" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="E70" s="137"/>
-      <c r="F70" s="203"/>
-      <c r="G70" s="209"/>
-      <c r="H70" s="88"/>
-      <c r="I70" s="88"/>
-      <c r="J70" s="209"/>
-      <c r="K70" s="209"/>
-      <c r="L70" s="224"/>
-      <c r="M70" s="88"/>
-    </row>
-    <row r="71" spans="1:13" s="29" customFormat="1" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E70" s="177"/>
+      <c r="F70" s="174"/>
+      <c r="G70" s="157"/>
+      <c r="H70" s="109"/>
+      <c r="I70" s="109"/>
+      <c r="J70" s="157"/>
+      <c r="K70" s="157"/>
+      <c r="L70" s="160"/>
+      <c r="M70" s="109"/>
+    </row>
+    <row r="71" spans="1:13" s="29" customFormat="1" ht="66.849999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="32">
         <v>19</v>
       </c>
@@ -4962,12 +4968,12 @@
       <c r="K71" s="64" t="s">
         <v>398</v>
       </c>
-      <c r="L71" s="221"/>
+      <c r="L71" s="88"/>
       <c r="M71" s="61" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="72" spans="1:13" s="29" customFormat="1" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" s="29" customFormat="1" ht="80.099999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="32">
         <v>20</v>
       </c>
@@ -5001,85 +5007,85 @@
       <c r="K72" s="64" t="s">
         <v>400</v>
       </c>
-      <c r="L72" s="225"/>
+      <c r="L72" s="89"/>
       <c r="M72" s="61" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="73" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="144">
+    <row r="73" spans="1:13" s="29" customFormat="1" ht="30.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="197">
         <v>21</v>
       </c>
-      <c r="B73" s="138" t="s">
+      <c r="B73" s="203" t="s">
         <v>99</v>
       </c>
-      <c r="C73" s="150" t="s">
+      <c r="C73" s="164" t="s">
         <v>100</v>
       </c>
-      <c r="D73" s="150" t="s">
+      <c r="D73" s="164" t="s">
         <v>102</v>
       </c>
-      <c r="E73" s="135" t="s">
+      <c r="E73" s="175" t="s">
         <v>0</v>
       </c>
-      <c r="F73" s="201" t="s">
+      <c r="F73" s="172" t="s">
         <v>304</v>
       </c>
-      <c r="G73" s="207" t="s">
+      <c r="G73" s="155" t="s">
         <v>295</v>
       </c>
-      <c r="H73" s="86" t="s">
+      <c r="H73" s="107" t="s">
         <v>361</v>
       </c>
-      <c r="I73" s="86" t="s">
+      <c r="I73" s="107" t="s">
         <v>354</v>
       </c>
-      <c r="J73" s="207" t="s">
+      <c r="J73" s="155" t="s">
         <v>391</v>
       </c>
-      <c r="K73" s="207" t="s">
+      <c r="K73" s="155" t="s">
         <v>401</v>
       </c>
-      <c r="L73" s="226"/>
-      <c r="M73" s="86" t="s">
+      <c r="L73" s="152"/>
+      <c r="M73" s="107" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="74" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="145"/>
-      <c r="B74" s="139"/>
-      <c r="C74" s="151"/>
-      <c r="D74" s="151"/>
-      <c r="E74" s="136"/>
-      <c r="F74" s="202"/>
-      <c r="G74" s="208"/>
-      <c r="H74" s="87"/>
-      <c r="I74" s="87"/>
-      <c r="J74" s="208"/>
-      <c r="K74" s="208"/>
-      <c r="L74" s="227"/>
-      <c r="M74" s="87"/>
-    </row>
-    <row r="75" spans="1:13" s="29" customFormat="1" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="146"/>
-      <c r="B75" s="140"/>
+    <row r="74" spans="1:13" s="29" customFormat="1" ht="30.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="198"/>
+      <c r="B74" s="204"/>
+      <c r="C74" s="165"/>
+      <c r="D74" s="165"/>
+      <c r="E74" s="176"/>
+      <c r="F74" s="173"/>
+      <c r="G74" s="156"/>
+      <c r="H74" s="108"/>
+      <c r="I74" s="108"/>
+      <c r="J74" s="156"/>
+      <c r="K74" s="156"/>
+      <c r="L74" s="153"/>
+      <c r="M74" s="108"/>
+    </row>
+    <row r="75" spans="1:13" s="29" customFormat="1" ht="40.35" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="199"/>
+      <c r="B75" s="205"/>
       <c r="C75" s="30" t="s">
         <v>101</v>
       </c>
       <c r="D75" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="E75" s="137"/>
-      <c r="F75" s="203"/>
-      <c r="G75" s="209"/>
-      <c r="H75" s="88"/>
-      <c r="I75" s="88"/>
-      <c r="J75" s="209"/>
-      <c r="K75" s="209"/>
-      <c r="L75" s="228"/>
-      <c r="M75" s="88"/>
-    </row>
-    <row r="76" spans="1:13" s="29" customFormat="1" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E75" s="177"/>
+      <c r="F75" s="174"/>
+      <c r="G75" s="157"/>
+      <c r="H75" s="109"/>
+      <c r="I75" s="109"/>
+      <c r="J75" s="157"/>
+      <c r="K75" s="157"/>
+      <c r="L75" s="154"/>
+      <c r="M75" s="109"/>
+    </row>
+    <row r="76" spans="1:13" s="29" customFormat="1" ht="53.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="35">
         <v>22</v>
       </c>
@@ -5116,26 +5122,26 @@
         <v>467</v>
       </c>
     </row>
-    <row r="77" spans="1:13" s="162" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="162" t="s">
+    <row r="77" spans="1:13" s="242" customFormat="1" ht="30.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="242" t="s">
         <v>107</v>
       </c>
-      <c r="B77" s="163"/>
-      <c r="C77" s="163"/>
-      <c r="D77" s="163"/>
-      <c r="E77" s="163"/>
-      <c r="F77" s="163"/>
-      <c r="G77" s="163"/>
-    </row>
-    <row r="78" spans="1:13" s="164" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="165"/>
-      <c r="C78" s="165"/>
-      <c r="D78" s="165"/>
-      <c r="E78" s="165"/>
-      <c r="F78" s="165"/>
-      <c r="G78" s="165"/>
-    </row>
-    <row r="79" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="243"/>
+      <c r="C77" s="243"/>
+      <c r="D77" s="243"/>
+      <c r="E77" s="243"/>
+      <c r="F77" s="243"/>
+      <c r="G77" s="243"/>
+    </row>
+    <row r="78" spans="1:13" s="244" customFormat="1" ht="30.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B78" s="245"/>
+      <c r="C78" s="245"/>
+      <c r="D78" s="245"/>
+      <c r="E78" s="245"/>
+      <c r="F78" s="245"/>
+      <c r="G78" s="245"/>
+    </row>
+    <row r="79" spans="1:13" s="29" customFormat="1" ht="30.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="38" t="s">
         <v>1</v>
       </c>
@@ -5169,18 +5175,18 @@
       <c r="K79" s="66" t="s">
         <v>383</v>
       </c>
-      <c r="L79" s="229" t="s">
+      <c r="L79" s="90" t="s">
         <v>384</v>
       </c>
-      <c r="M79" s="229" t="s">
+      <c r="M79" s="90" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="80" spans="1:13" s="29" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A80" s="153">
+    <row r="80" spans="1:13" s="29" customFormat="1" ht="39.75" x14ac:dyDescent="0.3">
+      <c r="A80" s="230">
         <v>23</v>
       </c>
-      <c r="B80" s="156" t="s">
+      <c r="B80" s="233" t="s">
         <v>108</v>
       </c>
       <c r="C80" s="41" t="s">
@@ -5189,71 +5195,71 @@
       <c r="D80" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="E80" s="159" t="s">
+      <c r="E80" s="236" t="s">
         <v>0</v>
       </c>
-      <c r="F80" s="210" t="s">
+      <c r="F80" s="167" t="s">
         <v>367</v>
       </c>
-      <c r="G80" s="213" t="s">
+      <c r="G80" s="143" t="s">
         <v>308</v>
       </c>
-      <c r="H80" s="86" t="s">
+      <c r="H80" s="107" t="s">
         <v>361</v>
       </c>
-      <c r="I80" s="86" t="s">
+      <c r="I80" s="107" t="s">
         <v>354</v>
       </c>
-      <c r="J80" s="213" t="s">
+      <c r="J80" s="143" t="s">
         <v>403</v>
       </c>
-      <c r="K80" s="213" t="s">
+      <c r="K80" s="143" t="s">
         <v>404</v>
       </c>
-      <c r="L80" s="114"/>
-      <c r="M80" s="86" t="s">
+      <c r="L80" s="146"/>
+      <c r="M80" s="107" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="81" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="154"/>
-      <c r="B81" s="157"/>
+    <row r="81" spans="1:13" s="29" customFormat="1" ht="30.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="231"/>
+      <c r="B81" s="234"/>
       <c r="C81" s="41"/>
       <c r="D81" s="41"/>
-      <c r="E81" s="160"/>
-      <c r="F81" s="211"/>
-      <c r="G81" s="214"/>
-      <c r="H81" s="87"/>
-      <c r="I81" s="87"/>
-      <c r="J81" s="214"/>
-      <c r="K81" s="214"/>
-      <c r="L81" s="115"/>
-      <c r="M81" s="87"/>
-    </row>
-    <row r="82" spans="1:13" s="29" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="155"/>
-      <c r="B82" s="158"/>
+      <c r="E81" s="237"/>
+      <c r="F81" s="168"/>
+      <c r="G81" s="144"/>
+      <c r="H81" s="108"/>
+      <c r="I81" s="108"/>
+      <c r="J81" s="144"/>
+      <c r="K81" s="144"/>
+      <c r="L81" s="147"/>
+      <c r="M81" s="108"/>
+    </row>
+    <row r="82" spans="1:13" s="29" customFormat="1" ht="40.35" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="232"/>
+      <c r="B82" s="235"/>
       <c r="C82" s="42" t="s">
         <v>110</v>
       </c>
       <c r="D82" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="E82" s="161"/>
-      <c r="F82" s="212"/>
-      <c r="G82" s="215"/>
-      <c r="H82" s="88"/>
-      <c r="I82" s="88"/>
-      <c r="J82" s="215"/>
-      <c r="K82" s="215"/>
-      <c r="L82" s="116"/>
-      <c r="M82" s="88"/>
-    </row>
-    <row r="83" spans="1:13" s="29" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="153">
+      <c r="E82" s="238"/>
+      <c r="F82" s="169"/>
+      <c r="G82" s="145"/>
+      <c r="H82" s="109"/>
+      <c r="I82" s="109"/>
+      <c r="J82" s="145"/>
+      <c r="K82" s="145"/>
+      <c r="L82" s="148"/>
+      <c r="M82" s="109"/>
+    </row>
+    <row r="83" spans="1:13" s="29" customFormat="1" ht="53" x14ac:dyDescent="0.3">
+      <c r="A83" s="230">
         <v>24</v>
       </c>
-      <c r="B83" s="156" t="s">
+      <c r="B83" s="233" t="s">
         <v>113</v>
       </c>
       <c r="C83" s="41" t="s">
@@ -5262,66 +5268,66 @@
       <c r="D83" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="E83" s="159" t="s">
+      <c r="E83" s="236" t="s">
         <v>0</v>
       </c>
-      <c r="F83" s="210" t="s">
+      <c r="F83" s="167" t="s">
         <v>368</v>
       </c>
-      <c r="G83" s="213" t="s">
+      <c r="G83" s="143" t="s">
         <v>286</v>
       </c>
-      <c r="H83" s="86" t="s">
+      <c r="H83" s="107" t="s">
         <v>356</v>
       </c>
-      <c r="I83" s="86" t="s">
+      <c r="I83" s="107" t="s">
         <v>362</v>
       </c>
-      <c r="J83" s="213" t="s">
+      <c r="J83" s="143" t="s">
         <v>403</v>
       </c>
-      <c r="K83" s="213"/>
-      <c r="L83" s="213"/>
-      <c r="M83" s="86" t="s">
+      <c r="K83" s="143"/>
+      <c r="L83" s="143"/>
+      <c r="M83" s="107" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="84" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="154"/>
-      <c r="B84" s="157"/>
+    <row r="84" spans="1:13" s="29" customFormat="1" ht="30.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="231"/>
+      <c r="B84" s="234"/>
       <c r="C84" s="41"/>
       <c r="D84" s="41"/>
-      <c r="E84" s="160"/>
-      <c r="F84" s="211"/>
-      <c r="G84" s="214"/>
-      <c r="H84" s="87"/>
-      <c r="I84" s="87"/>
-      <c r="J84" s="214"/>
-      <c r="K84" s="214"/>
-      <c r="L84" s="214"/>
-      <c r="M84" s="87"/>
-    </row>
-    <row r="85" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="155"/>
-      <c r="B85" s="158"/>
+      <c r="E84" s="237"/>
+      <c r="F84" s="168"/>
+      <c r="G84" s="144"/>
+      <c r="H84" s="108"/>
+      <c r="I84" s="108"/>
+      <c r="J84" s="144"/>
+      <c r="K84" s="144"/>
+      <c r="L84" s="144"/>
+      <c r="M84" s="108"/>
+    </row>
+    <row r="85" spans="1:13" s="29" customFormat="1" ht="30.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="232"/>
+      <c r="B85" s="235"/>
       <c r="C85" s="42" t="s">
         <v>115</v>
       </c>
       <c r="D85" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="E85" s="161"/>
-      <c r="F85" s="212"/>
-      <c r="G85" s="215"/>
-      <c r="H85" s="88"/>
-      <c r="I85" s="88"/>
-      <c r="J85" s="215"/>
-      <c r="K85" s="215"/>
-      <c r="L85" s="215"/>
-      <c r="M85" s="88"/>
-    </row>
-    <row r="86" spans="1:13" s="29" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="153">
+      <c r="E85" s="238"/>
+      <c r="F85" s="169"/>
+      <c r="G85" s="145"/>
+      <c r="H85" s="109"/>
+      <c r="I85" s="109"/>
+      <c r="J85" s="145"/>
+      <c r="K85" s="145"/>
+      <c r="L85" s="145"/>
+      <c r="M85" s="109"/>
+    </row>
+    <row r="86" spans="1:13" s="29" customFormat="1" ht="66.25" x14ac:dyDescent="0.3">
+      <c r="A86" s="230">
         <v>25</v>
       </c>
       <c r="B86" s="41" t="s">
@@ -5333,49 +5339,49 @@
       <c r="D86" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="E86" s="159" t="s">
+      <c r="E86" s="236" t="s">
         <v>36</v>
       </c>
-      <c r="F86" s="210" t="s">
+      <c r="F86" s="167" t="s">
         <v>309</v>
       </c>
-      <c r="G86" s="213" t="s">
+      <c r="G86" s="143" t="s">
         <v>286</v>
       </c>
-      <c r="H86" s="86" t="s">
+      <c r="H86" s="107" t="s">
         <v>356</v>
       </c>
-      <c r="I86" s="86" t="s">
+      <c r="I86" s="107" t="s">
         <v>362</v>
       </c>
-      <c r="J86" s="213" t="s">
+      <c r="J86" s="143" t="s">
         <v>405</v>
       </c>
-      <c r="K86" s="213" t="s">
+      <c r="K86" s="143" t="s">
         <v>406</v>
       </c>
-      <c r="L86" s="230"/>
-      <c r="M86" s="257" t="s">
+      <c r="L86" s="149"/>
+      <c r="M86" s="258" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="87" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="154"/>
+    <row r="87" spans="1:13" s="29" customFormat="1" ht="30.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="231"/>
       <c r="B87" s="41"/>
       <c r="C87" s="41"/>
       <c r="D87" s="41"/>
-      <c r="E87" s="160"/>
-      <c r="F87" s="211"/>
-      <c r="G87" s="214"/>
-      <c r="H87" s="87"/>
-      <c r="I87" s="87"/>
-      <c r="J87" s="214"/>
-      <c r="K87" s="214"/>
-      <c r="L87" s="231"/>
-      <c r="M87" s="258"/>
-    </row>
-    <row r="88" spans="1:13" s="29" customFormat="1" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="155"/>
+      <c r="E87" s="237"/>
+      <c r="F87" s="168"/>
+      <c r="G87" s="144"/>
+      <c r="H87" s="108"/>
+      <c r="I87" s="108"/>
+      <c r="J87" s="144"/>
+      <c r="K87" s="144"/>
+      <c r="L87" s="150"/>
+      <c r="M87" s="259"/>
+    </row>
+    <row r="88" spans="1:13" s="29" customFormat="1" ht="53.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="232"/>
       <c r="B88" s="42" t="s">
         <v>119</v>
       </c>
@@ -5385,17 +5391,17 @@
       <c r="D88" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="E88" s="161"/>
-      <c r="F88" s="212"/>
-      <c r="G88" s="215"/>
-      <c r="H88" s="88"/>
-      <c r="I88" s="88"/>
-      <c r="J88" s="215"/>
-      <c r="K88" s="215"/>
-      <c r="L88" s="232"/>
-      <c r="M88" s="259"/>
-    </row>
-    <row r="89" spans="1:13" s="29" customFormat="1" ht="90" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E88" s="238"/>
+      <c r="F88" s="169"/>
+      <c r="G88" s="145"/>
+      <c r="H88" s="109"/>
+      <c r="I88" s="109"/>
+      <c r="J88" s="145"/>
+      <c r="K88" s="145"/>
+      <c r="L88" s="151"/>
+      <c r="M88" s="264"/>
+    </row>
+    <row r="89" spans="1:13" s="29" customFormat="1" ht="80.099999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="43">
         <v>26</v>
       </c>
@@ -5434,11 +5440,11 @@
         <v>447</v>
       </c>
     </row>
-    <row r="90" spans="1:13" s="29" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A90" s="153">
+    <row r="90" spans="1:13" s="29" customFormat="1" ht="53" x14ac:dyDescent="0.3">
+      <c r="A90" s="230">
         <v>27</v>
       </c>
-      <c r="B90" s="156" t="s">
+      <c r="B90" s="233" t="s">
         <v>127</v>
       </c>
       <c r="C90" s="41" t="s">
@@ -5447,114 +5453,114 @@
       <c r="D90" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E90" s="166" t="s">
+      <c r="E90" s="239" t="s">
         <v>36</v>
       </c>
-      <c r="F90" s="210" t="s">
+      <c r="F90" s="167" t="s">
         <v>369</v>
       </c>
-      <c r="G90" s="213" t="s">
+      <c r="G90" s="143" t="s">
         <v>312</v>
       </c>
-      <c r="H90" s="86" t="s">
+      <c r="H90" s="107" t="s">
         <v>361</v>
       </c>
-      <c r="I90" s="86" t="s">
+      <c r="I90" s="107" t="s">
         <v>354</v>
       </c>
-      <c r="J90" s="213" t="s">
+      <c r="J90" s="143" t="s">
         <v>403</v>
       </c>
-      <c r="K90" s="213" t="s">
+      <c r="K90" s="143" t="s">
         <v>408</v>
       </c>
-      <c r="L90" s="233"/>
+      <c r="L90" s="91"/>
       <c r="M90" s="79"/>
     </row>
-    <row r="91" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="154"/>
-      <c r="B91" s="157"/>
+    <row r="91" spans="1:13" s="29" customFormat="1" ht="30.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="231"/>
+      <c r="B91" s="234"/>
       <c r="C91" s="41"/>
       <c r="D91" s="41"/>
-      <c r="E91" s="167"/>
-      <c r="F91" s="211"/>
-      <c r="G91" s="214"/>
-      <c r="H91" s="87"/>
-      <c r="I91" s="87"/>
-      <c r="J91" s="214"/>
-      <c r="K91" s="214"/>
-      <c r="L91" s="234"/>
+      <c r="E91" s="240"/>
+      <c r="F91" s="168"/>
+      <c r="G91" s="144"/>
+      <c r="H91" s="108"/>
+      <c r="I91" s="108"/>
+      <c r="J91" s="144"/>
+      <c r="K91" s="144"/>
+      <c r="L91" s="92"/>
       <c r="M91" s="80"/>
     </row>
-    <row r="92" spans="1:13" s="29" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A92" s="154"/>
-      <c r="B92" s="157"/>
+    <row r="92" spans="1:13" s="29" customFormat="1" ht="39.75" x14ac:dyDescent="0.3">
+      <c r="A92" s="231"/>
+      <c r="B92" s="234"/>
       <c r="C92" s="41" t="s">
         <v>129</v>
       </c>
       <c r="D92" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E92" s="167"/>
-      <c r="F92" s="211"/>
-      <c r="G92" s="214"/>
-      <c r="H92" s="87"/>
-      <c r="I92" s="87"/>
-      <c r="J92" s="214"/>
-      <c r="K92" s="214"/>
-      <c r="L92" s="234"/>
+      <c r="E92" s="240"/>
+      <c r="F92" s="168"/>
+      <c r="G92" s="144"/>
+      <c r="H92" s="108"/>
+      <c r="I92" s="108"/>
+      <c r="J92" s="144"/>
+      <c r="K92" s="144"/>
+      <c r="L92" s="92"/>
       <c r="M92" s="80"/>
     </row>
-    <row r="93" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="154"/>
-      <c r="B93" s="157"/>
+    <row r="93" spans="1:13" s="29" customFormat="1" ht="30.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="231"/>
+      <c r="B93" s="234"/>
       <c r="C93" s="41"/>
       <c r="D93" s="41"/>
-      <c r="E93" s="167"/>
-      <c r="F93" s="211"/>
-      <c r="G93" s="214"/>
-      <c r="H93" s="87"/>
-      <c r="I93" s="87"/>
-      <c r="J93" s="214"/>
-      <c r="K93" s="214"/>
-      <c r="L93" s="234"/>
+      <c r="E93" s="240"/>
+      <c r="F93" s="168"/>
+      <c r="G93" s="144"/>
+      <c r="H93" s="108"/>
+      <c r="I93" s="108"/>
+      <c r="J93" s="144"/>
+      <c r="K93" s="144"/>
+      <c r="L93" s="92"/>
       <c r="M93" s="80"/>
     </row>
-    <row r="94" spans="1:13" s="29" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A94" s="154"/>
-      <c r="B94" s="157"/>
+    <row r="94" spans="1:13" s="29" customFormat="1" ht="39.75" x14ac:dyDescent="0.3">
+      <c r="A94" s="231"/>
+      <c r="B94" s="234"/>
       <c r="C94" s="41" t="s">
         <v>130</v>
       </c>
       <c r="D94" s="41"/>
-      <c r="E94" s="167"/>
-      <c r="F94" s="211"/>
-      <c r="G94" s="214"/>
-      <c r="H94" s="87"/>
-      <c r="I94" s="87"/>
-      <c r="J94" s="214"/>
-      <c r="K94" s="214"/>
-      <c r="L94" s="234"/>
+      <c r="E94" s="240"/>
+      <c r="F94" s="168"/>
+      <c r="G94" s="144"/>
+      <c r="H94" s="108"/>
+      <c r="I94" s="108"/>
+      <c r="J94" s="144"/>
+      <c r="K94" s="144"/>
+      <c r="L94" s="92"/>
       <c r="M94" s="80"/>
     </row>
-    <row r="95" spans="1:13" s="29" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="155"/>
-      <c r="B95" s="158"/>
+    <row r="95" spans="1:13" s="29" customFormat="1" ht="40.35" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="232"/>
+      <c r="B95" s="235"/>
       <c r="C95" s="45"/>
       <c r="D95" s="42" t="s">
         <v>133</v>
       </c>
-      <c r="E95" s="168"/>
-      <c r="F95" s="212"/>
-      <c r="G95" s="215"/>
-      <c r="H95" s="88"/>
-      <c r="I95" s="88"/>
-      <c r="J95" s="215"/>
-      <c r="K95" s="215"/>
-      <c r="L95" s="235"/>
+      <c r="E95" s="241"/>
+      <c r="F95" s="169"/>
+      <c r="G95" s="145"/>
+      <c r="H95" s="109"/>
+      <c r="I95" s="109"/>
+      <c r="J95" s="145"/>
+      <c r="K95" s="145"/>
+      <c r="L95" s="93"/>
       <c r="M95" s="81"/>
     </row>
-    <row r="96" spans="1:13" s="29" customFormat="1" ht="90" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" s="29" customFormat="1" ht="80.099999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="46">
         <v>28</v>
       </c>
@@ -5593,80 +5599,80 @@
         <v>471</v>
       </c>
     </row>
-    <row r="97" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="153">
+    <row r="97" spans="1:13" s="29" customFormat="1" ht="30.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="230">
         <v>29</v>
       </c>
-      <c r="B97" s="156" t="s">
+      <c r="B97" s="233" t="s">
         <v>137</v>
       </c>
-      <c r="C97" s="156" t="s">
+      <c r="C97" s="233" t="s">
         <v>138</v>
       </c>
-      <c r="D97" s="156" t="s">
+      <c r="D97" s="233" t="s">
         <v>139</v>
       </c>
-      <c r="E97" s="159" t="s">
+      <c r="E97" s="236" t="s">
         <v>0</v>
       </c>
-      <c r="F97" s="210" t="s">
+      <c r="F97" s="167" t="s">
         <v>316</v>
       </c>
-      <c r="G97" s="213" t="s">
+      <c r="G97" s="143" t="s">
         <v>315</v>
       </c>
-      <c r="H97" s="86" t="s">
+      <c r="H97" s="107" t="s">
         <v>356</v>
       </c>
-      <c r="I97" s="86" t="s">
+      <c r="I97" s="107" t="s">
         <v>354</v>
       </c>
-      <c r="J97" s="213" t="s">
+      <c r="J97" s="143" t="s">
         <v>403</v>
       </c>
-      <c r="K97" s="213" t="s">
+      <c r="K97" s="143" t="s">
         <v>410</v>
       </c>
-      <c r="L97" s="226"/>
-      <c r="M97" s="86" t="s">
+      <c r="L97" s="152"/>
+      <c r="M97" s="107" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="98" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="154"/>
-      <c r="B98" s="157"/>
-      <c r="C98" s="157"/>
-      <c r="D98" s="157"/>
-      <c r="E98" s="160"/>
-      <c r="F98" s="211"/>
-      <c r="G98" s="214"/>
-      <c r="H98" s="87"/>
-      <c r="I98" s="87"/>
-      <c r="J98" s="214"/>
-      <c r="K98" s="214"/>
-      <c r="L98" s="227"/>
-      <c r="M98" s="87"/>
-    </row>
-    <row r="99" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="155"/>
-      <c r="B99" s="158"/>
-      <c r="C99" s="158"/>
-      <c r="D99" s="158"/>
-      <c r="E99" s="161"/>
-      <c r="F99" s="212"/>
-      <c r="G99" s="215"/>
-      <c r="H99" s="88"/>
-      <c r="I99" s="88"/>
-      <c r="J99" s="215"/>
-      <c r="K99" s="215"/>
-      <c r="L99" s="228"/>
-      <c r="M99" s="88"/>
-    </row>
-    <row r="100" spans="1:13" s="29" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A100" s="153">
+    <row r="98" spans="1:13" s="29" customFormat="1" ht="30.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="231"/>
+      <c r="B98" s="234"/>
+      <c r="C98" s="234"/>
+      <c r="D98" s="234"/>
+      <c r="E98" s="237"/>
+      <c r="F98" s="168"/>
+      <c r="G98" s="144"/>
+      <c r="H98" s="108"/>
+      <c r="I98" s="108"/>
+      <c r="J98" s="144"/>
+      <c r="K98" s="144"/>
+      <c r="L98" s="153"/>
+      <c r="M98" s="108"/>
+    </row>
+    <row r="99" spans="1:13" s="29" customFormat="1" ht="30.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="232"/>
+      <c r="B99" s="235"/>
+      <c r="C99" s="235"/>
+      <c r="D99" s="235"/>
+      <c r="E99" s="238"/>
+      <c r="F99" s="169"/>
+      <c r="G99" s="145"/>
+      <c r="H99" s="109"/>
+      <c r="I99" s="109"/>
+      <c r="J99" s="145"/>
+      <c r="K99" s="145"/>
+      <c r="L99" s="154"/>
+      <c r="M99" s="109"/>
+    </row>
+    <row r="100" spans="1:13" s="29" customFormat="1" ht="39.75" x14ac:dyDescent="0.3">
+      <c r="A100" s="230">
         <v>30</v>
       </c>
-      <c r="B100" s="156" t="s">
+      <c r="B100" s="233" t="s">
         <v>140</v>
       </c>
       <c r="C100" s="41" t="s">
@@ -5675,71 +5681,71 @@
       <c r="D100" s="41" t="s">
         <v>143</v>
       </c>
-      <c r="E100" s="159" t="s">
+      <c r="E100" s="236" t="s">
         <v>0</v>
       </c>
-      <c r="F100" s="210" t="s">
+      <c r="F100" s="167" t="s">
         <v>286</v>
       </c>
-      <c r="G100" s="213" t="s">
+      <c r="G100" s="143" t="s">
         <v>317</v>
       </c>
-      <c r="H100" s="86" t="s">
+      <c r="H100" s="107" t="s">
         <v>356</v>
       </c>
-      <c r="I100" s="86" t="s">
+      <c r="I100" s="107" t="s">
         <v>354</v>
       </c>
-      <c r="J100" s="213" t="s">
+      <c r="J100" s="143" t="s">
         <v>403</v>
       </c>
-      <c r="K100" s="213" t="s">
+      <c r="K100" s="143" t="s">
         <v>411</v>
       </c>
-      <c r="L100" s="114"/>
-      <c r="M100" s="86" t="s">
+      <c r="L100" s="146"/>
+      <c r="M100" s="107" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="101" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="154"/>
-      <c r="B101" s="157"/>
+    <row r="101" spans="1:13" s="29" customFormat="1" ht="30.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="231"/>
+      <c r="B101" s="234"/>
       <c r="C101" s="41"/>
       <c r="D101" s="41"/>
-      <c r="E101" s="160"/>
-      <c r="F101" s="211"/>
-      <c r="G101" s="214"/>
-      <c r="H101" s="87"/>
-      <c r="I101" s="87"/>
-      <c r="J101" s="214"/>
-      <c r="K101" s="214"/>
-      <c r="L101" s="115"/>
-      <c r="M101" s="87"/>
-    </row>
-    <row r="102" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="155"/>
-      <c r="B102" s="158"/>
+      <c r="E101" s="237"/>
+      <c r="F101" s="168"/>
+      <c r="G101" s="144"/>
+      <c r="H101" s="108"/>
+      <c r="I101" s="108"/>
+      <c r="J101" s="144"/>
+      <c r="K101" s="144"/>
+      <c r="L101" s="147"/>
+      <c r="M101" s="108"/>
+    </row>
+    <row r="102" spans="1:13" s="29" customFormat="1" ht="30.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="232"/>
+      <c r="B102" s="235"/>
       <c r="C102" s="42" t="s">
         <v>142</v>
       </c>
       <c r="D102" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="E102" s="161"/>
-      <c r="F102" s="212"/>
-      <c r="G102" s="215"/>
-      <c r="H102" s="88"/>
-      <c r="I102" s="88"/>
-      <c r="J102" s="215"/>
-      <c r="K102" s="215"/>
-      <c r="L102" s="116"/>
-      <c r="M102" s="88"/>
-    </row>
-    <row r="103" spans="1:13" s="29" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A103" s="153">
+      <c r="E102" s="238"/>
+      <c r="F102" s="169"/>
+      <c r="G102" s="145"/>
+      <c r="H102" s="109"/>
+      <c r="I102" s="109"/>
+      <c r="J102" s="145"/>
+      <c r="K102" s="145"/>
+      <c r="L102" s="148"/>
+      <c r="M102" s="109"/>
+    </row>
+    <row r="103" spans="1:13" s="29" customFormat="1" ht="53" x14ac:dyDescent="0.3">
+      <c r="A103" s="230">
         <v>31</v>
       </c>
-      <c r="B103" s="156" t="s">
+      <c r="B103" s="233" t="s">
         <v>145</v>
       </c>
       <c r="C103" s="41" t="s">
@@ -5748,67 +5754,67 @@
       <c r="D103" s="41" t="s">
         <v>148</v>
       </c>
-      <c r="E103" s="159" t="s">
+      <c r="E103" s="236" t="s">
         <v>0</v>
       </c>
-      <c r="F103" s="210" t="s">
+      <c r="F103" s="167" t="s">
         <v>318</v>
       </c>
-      <c r="G103" s="213" t="s">
+      <c r="G103" s="143" t="s">
         <v>317</v>
       </c>
-      <c r="H103" s="86" t="s">
+      <c r="H103" s="107" t="s">
         <v>356</v>
       </c>
-      <c r="I103" s="86" t="s">
+      <c r="I103" s="107" t="s">
         <v>354</v>
       </c>
-      <c r="J103" s="213" t="s">
+      <c r="J103" s="143" t="s">
         <v>403</v>
       </c>
-      <c r="K103" s="213" t="s">
+      <c r="K103" s="143" t="s">
         <v>412</v>
       </c>
-      <c r="L103" s="114"/>
-      <c r="M103" s="86" t="s">
+      <c r="L103" s="146"/>
+      <c r="M103" s="107" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="104" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="154"/>
-      <c r="B104" s="157"/>
+    <row r="104" spans="1:13" s="29" customFormat="1" ht="30.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="231"/>
+      <c r="B104" s="234"/>
       <c r="C104" s="41"/>
       <c r="D104" s="41"/>
-      <c r="E104" s="160"/>
-      <c r="F104" s="211"/>
-      <c r="G104" s="214"/>
-      <c r="H104" s="87"/>
-      <c r="I104" s="87"/>
-      <c r="J104" s="214"/>
-      <c r="K104" s="214"/>
-      <c r="L104" s="115"/>
-      <c r="M104" s="87"/>
-    </row>
-    <row r="105" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="155"/>
-      <c r="B105" s="158"/>
+      <c r="E104" s="237"/>
+      <c r="F104" s="168"/>
+      <c r="G104" s="144"/>
+      <c r="H104" s="108"/>
+      <c r="I104" s="108"/>
+      <c r="J104" s="144"/>
+      <c r="K104" s="144"/>
+      <c r="L104" s="147"/>
+      <c r="M104" s="108"/>
+    </row>
+    <row r="105" spans="1:13" s="29" customFormat="1" ht="30.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="232"/>
+      <c r="B105" s="235"/>
       <c r="C105" s="42" t="s">
         <v>147</v>
       </c>
       <c r="D105" s="42" t="s">
         <v>149</v>
       </c>
-      <c r="E105" s="161"/>
-      <c r="F105" s="212"/>
-      <c r="G105" s="215"/>
-      <c r="H105" s="88"/>
-      <c r="I105" s="88"/>
-      <c r="J105" s="215"/>
-      <c r="K105" s="215"/>
-      <c r="L105" s="116"/>
-      <c r="M105" s="88"/>
-    </row>
-    <row r="106" spans="1:13" s="29" customFormat="1" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E105" s="238"/>
+      <c r="F105" s="169"/>
+      <c r="G105" s="145"/>
+      <c r="H105" s="109"/>
+      <c r="I105" s="109"/>
+      <c r="J105" s="145"/>
+      <c r="K105" s="145"/>
+      <c r="L105" s="148"/>
+      <c r="M105" s="109"/>
+    </row>
+    <row r="106" spans="1:13" s="29" customFormat="1" ht="66.849999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="43">
         <v>32</v>
       </c>
@@ -5847,7 +5853,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="107" spans="1:13" s="29" customFormat="1" ht="90" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" s="29" customFormat="1" ht="80.099999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="43">
         <v>33</v>
       </c>
@@ -5886,97 +5892,97 @@
         <v>476</v>
       </c>
     </row>
-    <row r="108" spans="1:13" s="29" customFormat="1" ht="102" x14ac:dyDescent="0.25">
-      <c r="A108" s="153">
+    <row r="108" spans="1:13" s="29" customFormat="1" ht="92.75" x14ac:dyDescent="0.3">
+      <c r="A108" s="230">
         <v>34</v>
       </c>
-      <c r="B108" s="156" t="s">
+      <c r="B108" s="233" t="s">
         <v>156</v>
       </c>
       <c r="C108" s="41" t="s">
         <v>157</v>
       </c>
-      <c r="D108" s="156" t="s">
+      <c r="D108" s="233" t="s">
         <v>159</v>
       </c>
-      <c r="E108" s="159" t="s">
+      <c r="E108" s="236" t="s">
         <v>36</v>
       </c>
-      <c r="F108" s="210" t="s">
+      <c r="F108" s="167" t="s">
         <v>321</v>
       </c>
-      <c r="G108" s="213" t="s">
+      <c r="G108" s="143" t="s">
         <v>322</v>
       </c>
-      <c r="H108" s="109" t="s">
+      <c r="H108" s="255" t="s">
         <v>356</v>
       </c>
-      <c r="I108" s="98" t="s">
+      <c r="I108" s="258" t="s">
         <v>354</v>
       </c>
-      <c r="J108" s="213" t="s">
+      <c r="J108" s="143" t="s">
         <v>403</v>
       </c>
-      <c r="K108" s="213" t="s">
+      <c r="K108" s="143" t="s">
         <v>415</v>
       </c>
-      <c r="L108" s="230"/>
-      <c r="M108" s="257" t="s">
+      <c r="L108" s="149"/>
+      <c r="M108" s="261" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="109" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="154"/>
-      <c r="B109" s="157"/>
+    <row r="109" spans="1:13" s="29" customFormat="1" ht="30.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="231"/>
+      <c r="B109" s="234"/>
       <c r="C109" s="41"/>
-      <c r="D109" s="157"/>
-      <c r="E109" s="160"/>
-      <c r="F109" s="211"/>
-      <c r="G109" s="214"/>
-      <c r="H109" s="110"/>
-      <c r="I109" s="99"/>
-      <c r="J109" s="214"/>
-      <c r="K109" s="214"/>
-      <c r="L109" s="231"/>
-      <c r="M109" s="258"/>
-    </row>
-    <row r="110" spans="1:13" s="29" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="155"/>
-      <c r="B110" s="158"/>
+      <c r="D109" s="234"/>
+      <c r="E109" s="237"/>
+      <c r="F109" s="168"/>
+      <c r="G109" s="144"/>
+      <c r="H109" s="256"/>
+      <c r="I109" s="259"/>
+      <c r="J109" s="144"/>
+      <c r="K109" s="144"/>
+      <c r="L109" s="150"/>
+      <c r="M109" s="262"/>
+    </row>
+    <row r="110" spans="1:13" s="29" customFormat="1" ht="30.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="232"/>
+      <c r="B110" s="235"/>
       <c r="C110" s="42" t="s">
         <v>158</v>
       </c>
-      <c r="D110" s="158"/>
-      <c r="E110" s="161"/>
-      <c r="F110" s="212"/>
-      <c r="G110" s="215"/>
-      <c r="H110" s="111"/>
-      <c r="I110" s="100"/>
-      <c r="J110" s="215"/>
-      <c r="K110" s="215"/>
-      <c r="L110" s="232"/>
-      <c r="M110" s="259"/>
-    </row>
-    <row r="111" spans="1:13" s="175" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="175" t="s">
+      <c r="D110" s="235"/>
+      <c r="E110" s="238"/>
+      <c r="F110" s="169"/>
+      <c r="G110" s="145"/>
+      <c r="H110" s="257"/>
+      <c r="I110" s="260"/>
+      <c r="J110" s="145"/>
+      <c r="K110" s="145"/>
+      <c r="L110" s="151"/>
+      <c r="M110" s="263"/>
+    </row>
+    <row r="111" spans="1:13" s="178" customFormat="1" ht="30.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="178" t="s">
         <v>160</v>
       </c>
-      <c r="B111" s="176"/>
-      <c r="C111" s="176"/>
-      <c r="D111" s="176"/>
-      <c r="E111" s="176"/>
-      <c r="F111" s="176"/>
-      <c r="G111" s="176"/>
-    </row>
-    <row r="112" spans="1:13" s="177" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="178"/>
-      <c r="C112" s="178"/>
-      <c r="D112" s="178"/>
-      <c r="E112" s="178"/>
-      <c r="F112" s="178"/>
-      <c r="G112" s="178"/>
-    </row>
-    <row r="113" spans="1:13" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B111" s="179"/>
+      <c r="C111" s="179"/>
+      <c r="D111" s="179"/>
+      <c r="E111" s="179"/>
+      <c r="F111" s="179"/>
+      <c r="G111" s="179"/>
+    </row>
+    <row r="112" spans="1:13" s="180" customFormat="1" ht="30.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B112" s="181"/>
+      <c r="C112" s="181"/>
+      <c r="D112" s="181"/>
+      <c r="E112" s="181"/>
+      <c r="F112" s="181"/>
+      <c r="G112" s="181"/>
+    </row>
+    <row r="113" spans="1:13" ht="30.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="18" t="s">
         <v>1</v>
       </c>
@@ -6017,149 +6023,149 @@
         <v>446</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A114" s="169">
+    <row r="114" spans="1:13" ht="26.5" x14ac:dyDescent="0.3">
+      <c r="A114" s="227">
         <v>35</v>
       </c>
-      <c r="B114" s="117" t="s">
+      <c r="B114" s="185" t="s">
         <v>161</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="D114" s="117" t="s">
+      <c r="D114" s="185" t="s">
         <v>164</v>
       </c>
-      <c r="E114" s="120" t="s">
+      <c r="E114" s="189" t="s">
         <v>0</v>
       </c>
-      <c r="F114" s="216" t="s">
+      <c r="F114" s="170" t="s">
         <v>323</v>
       </c>
-      <c r="G114" s="107" t="s">
+      <c r="G114" s="138" t="s">
         <v>324</v>
       </c>
-      <c r="H114" s="112" t="s">
+      <c r="H114" s="114" t="s">
         <v>381</v>
       </c>
-      <c r="I114" s="90" t="s">
+      <c r="I114" s="103" t="s">
         <v>362</v>
       </c>
-      <c r="J114" s="107" t="s">
+      <c r="J114" s="138" t="s">
         <v>416</v>
       </c>
-      <c r="K114" s="107" t="s">
+      <c r="K114" s="138" t="s">
         <v>417</v>
       </c>
-      <c r="L114" s="112"/>
-      <c r="M114" s="90" t="s">
+      <c r="L114" s="114"/>
+      <c r="M114" s="103" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="170"/>
-      <c r="B115" s="118"/>
+    <row r="115" spans="1:13" ht="30.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="228"/>
+      <c r="B115" s="194"/>
       <c r="C115" s="3"/>
-      <c r="D115" s="118"/>
-      <c r="E115" s="121"/>
-      <c r="F115" s="216"/>
-      <c r="G115" s="107"/>
-      <c r="H115" s="112"/>
-      <c r="I115" s="90"/>
-      <c r="J115" s="107"/>
-      <c r="K115" s="107"/>
-      <c r="L115" s="112"/>
-      <c r="M115" s="90"/>
-    </row>
-    <row r="116" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="171"/>
-      <c r="B116" s="119"/>
+      <c r="D115" s="194"/>
+      <c r="E115" s="195"/>
+      <c r="F115" s="170"/>
+      <c r="G115" s="138"/>
+      <c r="H115" s="114"/>
+      <c r="I115" s="103"/>
+      <c r="J115" s="138"/>
+      <c r="K115" s="138"/>
+      <c r="L115" s="114"/>
+      <c r="M115" s="103"/>
+    </row>
+    <row r="116" spans="1:13" ht="40.35" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="229"/>
+      <c r="B116" s="186"/>
       <c r="C116" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="D116" s="119"/>
-      <c r="E116" s="122"/>
-      <c r="F116" s="217"/>
-      <c r="G116" s="108"/>
-      <c r="H116" s="113"/>
-      <c r="I116" s="91"/>
-      <c r="J116" s="108"/>
-      <c r="K116" s="108"/>
-      <c r="L116" s="113"/>
-      <c r="M116" s="91"/>
-    </row>
-    <row r="117" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="169">
+      <c r="D116" s="186"/>
+      <c r="E116" s="190"/>
+      <c r="F116" s="171"/>
+      <c r="G116" s="139"/>
+      <c r="H116" s="115"/>
+      <c r="I116" s="102"/>
+      <c r="J116" s="139"/>
+      <c r="K116" s="139"/>
+      <c r="L116" s="115"/>
+      <c r="M116" s="102"/>
+    </row>
+    <row r="117" spans="1:13" ht="30.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="227">
         <v>36</v>
       </c>
-      <c r="B117" s="117" t="s">
+      <c r="B117" s="185" t="s">
         <v>165</v>
       </c>
-      <c r="C117" s="117" t="s">
+      <c r="C117" s="185" t="s">
         <v>166</v>
       </c>
       <c r="D117" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="E117" s="120" t="s">
+      <c r="E117" s="189" t="s">
         <v>0</v>
       </c>
-      <c r="F117" s="150" t="s">
+      <c r="F117" s="164" t="s">
         <v>370</v>
       </c>
-      <c r="G117" s="200" t="s">
+      <c r="G117" s="137" t="s">
         <v>325</v>
       </c>
-      <c r="H117" s="112" t="s">
+      <c r="H117" s="114" t="s">
         <v>380</v>
       </c>
-      <c r="I117" s="89" t="s">
+      <c r="I117" s="101" t="s">
         <v>354</v>
       </c>
-      <c r="J117" s="200" t="s">
+      <c r="J117" s="137" t="s">
         <v>416</v>
       </c>
-      <c r="K117" s="200" t="s">
+      <c r="K117" s="137" t="s">
         <v>418</v>
       </c>
-      <c r="L117" s="236"/>
-      <c r="M117" s="89" t="s">
+      <c r="L117" s="122"/>
+      <c r="M117" s="101" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="170"/>
-      <c r="B118" s="118"/>
-      <c r="C118" s="118"/>
+    <row r="118" spans="1:13" ht="30.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="228"/>
+      <c r="B118" s="194"/>
+      <c r="C118" s="194"/>
       <c r="D118" s="3"/>
-      <c r="E118" s="121"/>
-      <c r="F118" s="151"/>
-      <c r="G118" s="107"/>
-      <c r="H118" s="112"/>
-      <c r="I118" s="90"/>
-      <c r="J118" s="107"/>
-      <c r="K118" s="107"/>
-      <c r="L118" s="237"/>
-      <c r="M118" s="90"/>
-    </row>
-    <row r="119" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="171"/>
-      <c r="B119" s="119"/>
-      <c r="C119" s="119"/>
+      <c r="E118" s="195"/>
+      <c r="F118" s="165"/>
+      <c r="G118" s="138"/>
+      <c r="H118" s="114"/>
+      <c r="I118" s="103"/>
+      <c r="J118" s="138"/>
+      <c r="K118" s="138"/>
+      <c r="L118" s="136"/>
+      <c r="M118" s="103"/>
+    </row>
+    <row r="119" spans="1:13" ht="27.1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="229"/>
+      <c r="B119" s="186"/>
+      <c r="C119" s="186"/>
       <c r="D119" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="E119" s="122"/>
-      <c r="F119" s="152"/>
-      <c r="G119" s="108"/>
-      <c r="H119" s="113"/>
-      <c r="I119" s="91"/>
-      <c r="J119" s="108"/>
-      <c r="K119" s="108"/>
-      <c r="L119" s="238"/>
-      <c r="M119" s="91"/>
-    </row>
-    <row r="120" spans="1:13" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E119" s="190"/>
+      <c r="F119" s="166"/>
+      <c r="G119" s="139"/>
+      <c r="H119" s="115"/>
+      <c r="I119" s="102"/>
+      <c r="J119" s="139"/>
+      <c r="K119" s="139"/>
+      <c r="L119" s="123"/>
+      <c r="M119" s="102"/>
+    </row>
+    <row r="120" spans="1:13" ht="66.849999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="17">
         <v>37</v>
       </c>
@@ -6193,12 +6199,12 @@
       <c r="K120" s="74" t="s">
         <v>419</v>
       </c>
-      <c r="L120" s="218"/>
+      <c r="L120" s="86"/>
       <c r="M120" s="78" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="121" spans="1:13" ht="102.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13" ht="93.35" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="17">
         <v>38</v>
       </c>
@@ -6232,16 +6238,16 @@
       <c r="K121" s="74" t="s">
         <v>420</v>
       </c>
-      <c r="L121" s="218"/>
+      <c r="L121" s="86"/>
       <c r="M121" s="78" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A122" s="172">
+    <row r="122" spans="1:13" ht="39.75" x14ac:dyDescent="0.3">
+      <c r="A122" s="183">
         <v>39</v>
       </c>
-      <c r="B122" s="117" t="s">
+      <c r="B122" s="185" t="s">
         <v>175</v>
       </c>
       <c r="C122" s="3" t="s">
@@ -6250,69 +6256,69 @@
       <c r="D122" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="E122" s="120" t="s">
+      <c r="E122" s="189" t="s">
         <v>0</v>
       </c>
-      <c r="F122" s="150" t="s">
+      <c r="F122" s="164" t="s">
         <v>286</v>
       </c>
-      <c r="G122" s="200" t="s">
+      <c r="G122" s="137" t="s">
         <v>328</v>
       </c>
-      <c r="H122" s="89" t="s">
+      <c r="H122" s="101" t="s">
         <v>356</v>
       </c>
-      <c r="I122" s="89" t="s">
+      <c r="I122" s="101" t="s">
         <v>354</v>
       </c>
-      <c r="J122" s="200" t="s">
+      <c r="J122" s="137" t="s">
         <v>385</v>
       </c>
-      <c r="K122" s="200"/>
-      <c r="L122" s="200"/>
-      <c r="M122" s="89" t="s">
+      <c r="K122" s="137"/>
+      <c r="L122" s="137"/>
+      <c r="M122" s="101" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="123" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="173"/>
-      <c r="B123" s="118"/>
+    <row r="123" spans="1:13" ht="30.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="196"/>
+      <c r="B123" s="194"/>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
-      <c r="E123" s="121"/>
-      <c r="F123" s="151"/>
-      <c r="G123" s="107"/>
-      <c r="H123" s="90"/>
-      <c r="I123" s="90"/>
-      <c r="J123" s="107"/>
-      <c r="K123" s="107"/>
-      <c r="L123" s="107"/>
-      <c r="M123" s="90"/>
-    </row>
-    <row r="124" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="174"/>
-      <c r="B124" s="119"/>
+      <c r="E123" s="195"/>
+      <c r="F123" s="165"/>
+      <c r="G123" s="138"/>
+      <c r="H123" s="103"/>
+      <c r="I123" s="103"/>
+      <c r="J123" s="138"/>
+      <c r="K123" s="138"/>
+      <c r="L123" s="138"/>
+      <c r="M123" s="103"/>
+    </row>
+    <row r="124" spans="1:13" ht="40.35" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="184"/>
+      <c r="B124" s="186"/>
       <c r="C124" s="6" t="s">
         <v>177</v>
       </c>
       <c r="D124" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="E124" s="122"/>
-      <c r="F124" s="152"/>
-      <c r="G124" s="108"/>
-      <c r="H124" s="91"/>
-      <c r="I124" s="91"/>
-      <c r="J124" s="108"/>
-      <c r="K124" s="108"/>
-      <c r="L124" s="108"/>
-      <c r="M124" s="91"/>
-    </row>
-    <row r="125" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A125" s="172">
+      <c r="E124" s="190"/>
+      <c r="F124" s="166"/>
+      <c r="G124" s="139"/>
+      <c r="H124" s="102"/>
+      <c r="I124" s="102"/>
+      <c r="J124" s="139"/>
+      <c r="K124" s="139"/>
+      <c r="L124" s="139"/>
+      <c r="M124" s="102"/>
+    </row>
+    <row r="125" spans="1:13" ht="39.75" x14ac:dyDescent="0.3">
+      <c r="A125" s="183">
         <v>40</v>
       </c>
-      <c r="B125" s="117" t="s">
+      <c r="B125" s="185" t="s">
         <v>180</v>
       </c>
       <c r="C125" s="3" t="s">
@@ -6321,107 +6327,107 @@
       <c r="D125" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="E125" s="120" t="s">
+      <c r="E125" s="189" t="s">
         <v>0</v>
       </c>
-      <c r="F125" s="150" t="s">
+      <c r="F125" s="164" t="s">
         <v>329</v>
       </c>
-      <c r="G125" s="200" t="s">
+      <c r="G125" s="137" t="s">
         <v>330</v>
       </c>
-      <c r="H125" s="89" t="s">
+      <c r="H125" s="101" t="s">
         <v>361</v>
       </c>
-      <c r="I125" s="89" t="s">
+      <c r="I125" s="101" t="s">
         <v>354</v>
       </c>
-      <c r="J125" s="200" t="s">
+      <c r="J125" s="137" t="s">
         <v>416</v>
       </c>
-      <c r="K125" s="200" t="s">
+      <c r="K125" s="137" t="s">
         <v>421</v>
       </c>
-      <c r="L125" s="220"/>
-      <c r="M125" s="89" t="s">
+      <c r="L125" s="113"/>
+      <c r="M125" s="101" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="126" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A126" s="173"/>
-      <c r="B126" s="118"/>
+    <row r="126" spans="1:13" ht="26.5" x14ac:dyDescent="0.3">
+      <c r="A126" s="196"/>
+      <c r="B126" s="194"/>
       <c r="C126" s="3" t="s">
         <v>182</v>
       </c>
       <c r="D126" s="3"/>
-      <c r="E126" s="121"/>
-      <c r="F126" s="151"/>
-      <c r="G126" s="107"/>
-      <c r="H126" s="90"/>
-      <c r="I126" s="90"/>
-      <c r="J126" s="107"/>
-      <c r="K126" s="107"/>
-      <c r="L126" s="112"/>
-      <c r="M126" s="90"/>
-    </row>
-    <row r="127" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A127" s="173"/>
-      <c r="B127" s="118"/>
+      <c r="E126" s="195"/>
+      <c r="F126" s="165"/>
+      <c r="G126" s="138"/>
+      <c r="H126" s="103"/>
+      <c r="I126" s="103"/>
+      <c r="J126" s="138"/>
+      <c r="K126" s="138"/>
+      <c r="L126" s="114"/>
+      <c r="M126" s="103"/>
+    </row>
+    <row r="127" spans="1:13" ht="39.75" x14ac:dyDescent="0.3">
+      <c r="A127" s="196"/>
+      <c r="B127" s="194"/>
       <c r="C127" s="3" t="s">
         <v>183</v>
       </c>
       <c r="D127" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="E127" s="121"/>
-      <c r="F127" s="151"/>
-      <c r="G127" s="107"/>
-      <c r="H127" s="90"/>
-      <c r="I127" s="90"/>
-      <c r="J127" s="107"/>
-      <c r="K127" s="107"/>
-      <c r="L127" s="112"/>
-      <c r="M127" s="90"/>
-    </row>
-    <row r="128" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A128" s="173"/>
-      <c r="B128" s="118"/>
+      <c r="E127" s="195"/>
+      <c r="F127" s="165"/>
+      <c r="G127" s="138"/>
+      <c r="H127" s="103"/>
+      <c r="I127" s="103"/>
+      <c r="J127" s="138"/>
+      <c r="K127" s="138"/>
+      <c r="L127" s="114"/>
+      <c r="M127" s="103"/>
+    </row>
+    <row r="128" spans="1:13" ht="26.5" x14ac:dyDescent="0.3">
+      <c r="A128" s="196"/>
+      <c r="B128" s="194"/>
       <c r="C128" s="3" t="s">
         <v>184</v>
       </c>
       <c r="D128" s="3"/>
-      <c r="E128" s="121"/>
-      <c r="F128" s="151"/>
-      <c r="G128" s="107"/>
-      <c r="H128" s="90"/>
-      <c r="I128" s="90"/>
-      <c r="J128" s="107"/>
-      <c r="K128" s="107"/>
-      <c r="L128" s="112"/>
-      <c r="M128" s="90"/>
-    </row>
-    <row r="129" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="174"/>
-      <c r="B129" s="119"/>
+      <c r="E128" s="195"/>
+      <c r="F128" s="165"/>
+      <c r="G128" s="138"/>
+      <c r="H128" s="103"/>
+      <c r="I128" s="103"/>
+      <c r="J128" s="138"/>
+      <c r="K128" s="138"/>
+      <c r="L128" s="114"/>
+      <c r="M128" s="103"/>
+    </row>
+    <row r="129" spans="1:13" ht="40.35" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A129" s="184"/>
+      <c r="B129" s="186"/>
       <c r="C129" s="7"/>
       <c r="D129" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E129" s="122"/>
-      <c r="F129" s="152"/>
-      <c r="G129" s="108"/>
-      <c r="H129" s="91"/>
-      <c r="I129" s="91"/>
-      <c r="J129" s="108"/>
-      <c r="K129" s="108"/>
-      <c r="L129" s="113"/>
-      <c r="M129" s="91"/>
-    </row>
-    <row r="130" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="172">
+      <c r="E129" s="190"/>
+      <c r="F129" s="166"/>
+      <c r="G129" s="139"/>
+      <c r="H129" s="102"/>
+      <c r="I129" s="102"/>
+      <c r="J129" s="139"/>
+      <c r="K129" s="139"/>
+      <c r="L129" s="115"/>
+      <c r="M129" s="102"/>
+    </row>
+    <row r="130" spans="1:13" ht="47.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="183">
         <v>41</v>
       </c>
-      <c r="B130" s="117" t="s">
+      <c r="B130" s="185" t="s">
         <v>188</v>
       </c>
       <c r="C130" s="3" t="s">
@@ -6430,71 +6436,71 @@
       <c r="D130" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="E130" s="120" t="s">
+      <c r="E130" s="189" t="s">
         <v>0</v>
       </c>
-      <c r="F130" s="150" t="s">
+      <c r="F130" s="164" t="s">
         <v>331</v>
       </c>
-      <c r="G130" s="200" t="s">
+      <c r="G130" s="137" t="s">
         <v>324</v>
       </c>
-      <c r="H130" s="89" t="s">
+      <c r="H130" s="101" t="s">
         <v>361</v>
       </c>
-      <c r="I130" s="89" t="s">
+      <c r="I130" s="101" t="s">
         <v>354</v>
       </c>
-      <c r="J130" s="200" t="s">
+      <c r="J130" s="137" t="s">
         <v>416</v>
       </c>
-      <c r="K130" s="200" t="s">
+      <c r="K130" s="137" t="s">
         <v>422</v>
       </c>
-      <c r="L130" s="236"/>
-      <c r="M130" s="89" t="s">
+      <c r="L130" s="122"/>
+      <c r="M130" s="101" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="131" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="173"/>
-      <c r="B131" s="118"/>
+    <row r="131" spans="1:13" ht="30.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="196"/>
+      <c r="B131" s="194"/>
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
-      <c r="E131" s="121"/>
-      <c r="F131" s="151"/>
-      <c r="G131" s="107"/>
-      <c r="H131" s="90"/>
-      <c r="I131" s="90"/>
-      <c r="J131" s="107"/>
-      <c r="K131" s="107"/>
-      <c r="L131" s="237"/>
-      <c r="M131" s="90"/>
-    </row>
-    <row r="132" spans="1:13" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="174"/>
-      <c r="B132" s="119"/>
+      <c r="E131" s="195"/>
+      <c r="F131" s="165"/>
+      <c r="G131" s="138"/>
+      <c r="H131" s="103"/>
+      <c r="I131" s="103"/>
+      <c r="J131" s="138"/>
+      <c r="K131" s="138"/>
+      <c r="L131" s="136"/>
+      <c r="M131" s="103"/>
+    </row>
+    <row r="132" spans="1:13" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="184"/>
+      <c r="B132" s="186"/>
       <c r="C132" s="6" t="s">
         <v>190</v>
       </c>
       <c r="D132" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="E132" s="122"/>
-      <c r="F132" s="152"/>
-      <c r="G132" s="108"/>
-      <c r="H132" s="91"/>
-      <c r="I132" s="91"/>
-      <c r="J132" s="108"/>
-      <c r="K132" s="108"/>
-      <c r="L132" s="238"/>
-      <c r="M132" s="91"/>
-    </row>
-    <row r="133" spans="1:13" ht="51" x14ac:dyDescent="0.25">
-      <c r="A133" s="179">
+      <c r="E132" s="190"/>
+      <c r="F132" s="166"/>
+      <c r="G132" s="139"/>
+      <c r="H132" s="102"/>
+      <c r="I132" s="102"/>
+      <c r="J132" s="139"/>
+      <c r="K132" s="139"/>
+      <c r="L132" s="123"/>
+      <c r="M132" s="102"/>
+    </row>
+    <row r="133" spans="1:13" ht="53" x14ac:dyDescent="0.3">
+      <c r="A133" s="224">
         <v>42</v>
       </c>
-      <c r="B133" s="117" t="s">
+      <c r="B133" s="185" t="s">
         <v>193</v>
       </c>
       <c r="C133" s="3" t="s">
@@ -6503,142 +6509,142 @@
       <c r="D133" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="E133" s="120" t="s">
+      <c r="E133" s="189" t="s">
         <v>36</v>
       </c>
-      <c r="F133" s="150" t="s">
+      <c r="F133" s="164" t="s">
         <v>332</v>
       </c>
-      <c r="G133" s="101" t="s">
+      <c r="G133" s="110" t="s">
         <v>333</v>
       </c>
-      <c r="H133" s="89" t="s">
+      <c r="H133" s="101" t="s">
         <v>361</v>
       </c>
-      <c r="I133" s="89" t="s">
+      <c r="I133" s="101" t="s">
         <v>354</v>
       </c>
-      <c r="J133" s="101" t="s">
+      <c r="J133" s="110" t="s">
         <v>416</v>
       </c>
-      <c r="K133" s="101" t="s">
+      <c r="K133" s="110" t="s">
         <v>423</v>
       </c>
-      <c r="L133" s="239"/>
-      <c r="M133" s="89" t="s">
+      <c r="L133" s="140"/>
+      <c r="M133" s="101" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="134" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="180"/>
-      <c r="B134" s="118"/>
+    <row r="134" spans="1:13" ht="30.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="225"/>
+      <c r="B134" s="194"/>
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
-      <c r="E134" s="121"/>
-      <c r="F134" s="151"/>
-      <c r="G134" s="102"/>
-      <c r="H134" s="90"/>
-      <c r="I134" s="90"/>
-      <c r="J134" s="102"/>
-      <c r="K134" s="102"/>
-      <c r="L134" s="240"/>
-      <c r="M134" s="90"/>
-    </row>
-    <row r="135" spans="1:13" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="181"/>
-      <c r="B135" s="119"/>
+      <c r="E134" s="195"/>
+      <c r="F134" s="165"/>
+      <c r="G134" s="111"/>
+      <c r="H134" s="103"/>
+      <c r="I134" s="103"/>
+      <c r="J134" s="111"/>
+      <c r="K134" s="111"/>
+      <c r="L134" s="141"/>
+      <c r="M134" s="103"/>
+    </row>
+    <row r="135" spans="1:13" ht="53.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A135" s="226"/>
+      <c r="B135" s="186"/>
       <c r="C135" s="6" t="s">
         <v>195</v>
       </c>
       <c r="D135" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="E135" s="122"/>
-      <c r="F135" s="152"/>
-      <c r="G135" s="103"/>
-      <c r="H135" s="91"/>
-      <c r="I135" s="91"/>
-      <c r="J135" s="103"/>
-      <c r="K135" s="103"/>
-      <c r="L135" s="241"/>
-      <c r="M135" s="91"/>
-    </row>
-    <row r="136" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="179">
+      <c r="E135" s="190"/>
+      <c r="F135" s="166"/>
+      <c r="G135" s="112"/>
+      <c r="H135" s="102"/>
+      <c r="I135" s="102"/>
+      <c r="J135" s="112"/>
+      <c r="K135" s="112"/>
+      <c r="L135" s="142"/>
+      <c r="M135" s="102"/>
+    </row>
+    <row r="136" spans="1:13" ht="30.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="224">
         <v>43</v>
       </c>
-      <c r="B136" s="117" t="s">
+      <c r="B136" s="185" t="s">
         <v>198</v>
       </c>
-      <c r="C136" s="117" t="s">
+      <c r="C136" s="185" t="s">
         <v>199</v>
       </c>
       <c r="D136" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="E136" s="120" t="s">
+      <c r="E136" s="189" t="s">
         <v>0</v>
       </c>
-      <c r="F136" s="194" t="s">
+      <c r="F136" s="161" t="s">
         <v>286</v>
       </c>
-      <c r="G136" s="101" t="s">
+      <c r="G136" s="110" t="s">
         <v>326</v>
       </c>
-      <c r="H136" s="89" t="s">
+      <c r="H136" s="101" t="s">
         <v>361</v>
       </c>
-      <c r="I136" s="89" t="s">
+      <c r="I136" s="101" t="s">
         <v>354</v>
       </c>
-      <c r="J136" s="101" t="s">
+      <c r="J136" s="110" t="s">
         <v>416</v>
       </c>
-      <c r="K136" s="101" t="s">
+      <c r="K136" s="110" t="s">
         <v>424</v>
       </c>
-      <c r="L136" s="236"/>
-      <c r="M136" s="89" t="s">
+      <c r="L136" s="122"/>
+      <c r="M136" s="101" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="137" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="180"/>
-      <c r="B137" s="118"/>
-      <c r="C137" s="118"/>
+    <row r="137" spans="1:13" ht="30.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="225"/>
+      <c r="B137" s="194"/>
+      <c r="C137" s="194"/>
       <c r="D137" s="3"/>
-      <c r="E137" s="121"/>
-      <c r="F137" s="195"/>
-      <c r="G137" s="102"/>
-      <c r="H137" s="90"/>
-      <c r="I137" s="90"/>
-      <c r="J137" s="102"/>
-      <c r="K137" s="102"/>
-      <c r="L137" s="237"/>
-      <c r="M137" s="90"/>
-    </row>
-    <row r="138" spans="1:13" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="181"/>
-      <c r="B138" s="119"/>
-      <c r="C138" s="119"/>
+      <c r="E137" s="195"/>
+      <c r="F137" s="162"/>
+      <c r="G137" s="111"/>
+      <c r="H137" s="103"/>
+      <c r="I137" s="103"/>
+      <c r="J137" s="111"/>
+      <c r="K137" s="111"/>
+      <c r="L137" s="136"/>
+      <c r="M137" s="103"/>
+    </row>
+    <row r="138" spans="1:13" ht="64.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A138" s="226"/>
+      <c r="B138" s="186"/>
+      <c r="C138" s="186"/>
       <c r="D138" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="E138" s="122"/>
-      <c r="F138" s="196"/>
-      <c r="G138" s="103"/>
-      <c r="H138" s="91"/>
-      <c r="I138" s="91"/>
-      <c r="J138" s="103"/>
-      <c r="K138" s="103"/>
-      <c r="L138" s="238"/>
-      <c r="M138" s="91"/>
-    </row>
-    <row r="139" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A139" s="179">
+      <c r="E138" s="190"/>
+      <c r="F138" s="163"/>
+      <c r="G138" s="112"/>
+      <c r="H138" s="102"/>
+      <c r="I138" s="102"/>
+      <c r="J138" s="112"/>
+      <c r="K138" s="112"/>
+      <c r="L138" s="123"/>
+      <c r="M138" s="102"/>
+    </row>
+    <row r="139" spans="1:13" ht="39.75" x14ac:dyDescent="0.3">
+      <c r="A139" s="224">
         <v>44</v>
       </c>
-      <c r="B139" s="117" t="s">
+      <c r="B139" s="185" t="s">
         <v>202</v>
       </c>
       <c r="C139" s="3" t="s">
@@ -6647,103 +6653,103 @@
       <c r="D139" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="E139" s="120" t="s">
+      <c r="E139" s="189" t="s">
         <v>0</v>
       </c>
-      <c r="F139" s="194" t="s">
+      <c r="F139" s="161" t="s">
         <v>334</v>
       </c>
-      <c r="G139" s="101" t="s">
+      <c r="G139" s="110" t="s">
         <v>286</v>
       </c>
-      <c r="H139" s="89" t="s">
+      <c r="H139" s="101" t="s">
         <v>361</v>
       </c>
-      <c r="I139" s="89" t="s">
+      <c r="I139" s="101" t="s">
         <v>354</v>
       </c>
-      <c r="J139" s="101" t="s">
+      <c r="J139" s="110" t="s">
         <v>425</v>
       </c>
-      <c r="K139" s="101" t="s">
+      <c r="K139" s="110" t="s">
         <v>426</v>
       </c>
-      <c r="L139" s="236"/>
-      <c r="M139" s="89" t="s">
+      <c r="L139" s="122"/>
+      <c r="M139" s="101" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="140" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="180"/>
-      <c r="B140" s="118"/>
+    <row r="140" spans="1:13" ht="30.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="225"/>
+      <c r="B140" s="194"/>
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
-      <c r="E140" s="121"/>
-      <c r="F140" s="195"/>
-      <c r="G140" s="102"/>
-      <c r="H140" s="90"/>
-      <c r="I140" s="90"/>
-      <c r="J140" s="102"/>
-      <c r="K140" s="102"/>
-      <c r="L140" s="237"/>
-      <c r="M140" s="90"/>
-    </row>
-    <row r="141" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A141" s="180"/>
-      <c r="B141" s="118"/>
+      <c r="E140" s="195"/>
+      <c r="F140" s="162"/>
+      <c r="G140" s="111"/>
+      <c r="H140" s="103"/>
+      <c r="I140" s="103"/>
+      <c r="J140" s="111"/>
+      <c r="K140" s="111"/>
+      <c r="L140" s="136"/>
+      <c r="M140" s="103"/>
+    </row>
+    <row r="141" spans="1:13" ht="39.75" x14ac:dyDescent="0.3">
+      <c r="A141" s="225"/>
+      <c r="B141" s="194"/>
       <c r="C141" s="3" t="s">
         <v>204</v>
       </c>
       <c r="D141" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="E141" s="121"/>
-      <c r="F141" s="195"/>
-      <c r="G141" s="102"/>
-      <c r="H141" s="90"/>
-      <c r="I141" s="90"/>
-      <c r="J141" s="102"/>
-      <c r="K141" s="102"/>
-      <c r="L141" s="237"/>
-      <c r="M141" s="90"/>
-    </row>
-    <row r="142" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="180"/>
-      <c r="B142" s="118"/>
+      <c r="E141" s="195"/>
+      <c r="F141" s="162"/>
+      <c r="G141" s="111"/>
+      <c r="H141" s="103"/>
+      <c r="I141" s="103"/>
+      <c r="J141" s="111"/>
+      <c r="K141" s="111"/>
+      <c r="L141" s="136"/>
+      <c r="M141" s="103"/>
+    </row>
+    <row r="142" spans="1:13" ht="30.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="225"/>
+      <c r="B142" s="194"/>
       <c r="C142" s="3"/>
       <c r="D142" s="9"/>
-      <c r="E142" s="121"/>
-      <c r="F142" s="195"/>
-      <c r="G142" s="102"/>
-      <c r="H142" s="90"/>
-      <c r="I142" s="90"/>
-      <c r="J142" s="102"/>
-      <c r="K142" s="102"/>
-      <c r="L142" s="237"/>
-      <c r="M142" s="90"/>
-    </row>
-    <row r="143" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="181"/>
-      <c r="B143" s="119"/>
+      <c r="E142" s="195"/>
+      <c r="F142" s="162"/>
+      <c r="G142" s="111"/>
+      <c r="H142" s="103"/>
+      <c r="I142" s="103"/>
+      <c r="J142" s="111"/>
+      <c r="K142" s="111"/>
+      <c r="L142" s="136"/>
+      <c r="M142" s="103"/>
+    </row>
+    <row r="143" spans="1:13" ht="40.35" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A143" s="226"/>
+      <c r="B143" s="186"/>
       <c r="C143" s="6" t="s">
         <v>205</v>
       </c>
       <c r="D143" s="7"/>
-      <c r="E143" s="122"/>
-      <c r="F143" s="196"/>
-      <c r="G143" s="103"/>
-      <c r="H143" s="91"/>
-      <c r="I143" s="91"/>
-      <c r="J143" s="103"/>
-      <c r="K143" s="103"/>
-      <c r="L143" s="238"/>
-      <c r="M143" s="91"/>
-    </row>
-    <row r="144" spans="1:13" ht="51" x14ac:dyDescent="0.25">
-      <c r="A144" s="179">
+      <c r="E143" s="190"/>
+      <c r="F143" s="163"/>
+      <c r="G143" s="112"/>
+      <c r="H143" s="102"/>
+      <c r="I143" s="102"/>
+      <c r="J143" s="112"/>
+      <c r="K143" s="112"/>
+      <c r="L143" s="123"/>
+      <c r="M143" s="102"/>
+    </row>
+    <row r="144" spans="1:13" ht="39.75" x14ac:dyDescent="0.3">
+      <c r="A144" s="224">
         <v>45</v>
       </c>
-      <c r="B144" s="117" t="s">
+      <c r="B144" s="185" t="s">
         <v>208</v>
       </c>
       <c r="C144" s="3" t="s">
@@ -6752,140 +6758,140 @@
       <c r="D144" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="E144" s="120" t="s">
+      <c r="E144" s="189" t="s">
         <v>0</v>
       </c>
-      <c r="F144" s="194" t="s">
+      <c r="F144" s="161" t="s">
         <v>335</v>
       </c>
-      <c r="G144" s="101" t="s">
+      <c r="G144" s="110" t="s">
         <v>326</v>
       </c>
-      <c r="H144" s="89" t="s">
+      <c r="H144" s="101" t="s">
         <v>361</v>
       </c>
-      <c r="I144" s="89" t="s">
+      <c r="I144" s="101" t="s">
         <v>354</v>
       </c>
-      <c r="J144" s="101" t="s">
+      <c r="J144" s="110" t="s">
         <v>416</v>
       </c>
-      <c r="K144" s="101" t="s">
+      <c r="K144" s="110" t="s">
         <v>427</v>
       </c>
-      <c r="L144" s="220"/>
-      <c r="M144" s="89" t="s">
+      <c r="L144" s="113"/>
+      <c r="M144" s="101" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="145" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="180"/>
-      <c r="B145" s="118"/>
+    <row r="145" spans="1:13" ht="30.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="225"/>
+      <c r="B145" s="194"/>
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
-      <c r="E145" s="121"/>
-      <c r="F145" s="195"/>
-      <c r="G145" s="102"/>
-      <c r="H145" s="90"/>
-      <c r="I145" s="90"/>
-      <c r="J145" s="102"/>
-      <c r="K145" s="102"/>
-      <c r="L145" s="112"/>
-      <c r="M145" s="90"/>
-    </row>
-    <row r="146" spans="1:13" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="181"/>
-      <c r="B146" s="119"/>
+      <c r="E145" s="195"/>
+      <c r="F145" s="162"/>
+      <c r="G145" s="111"/>
+      <c r="H145" s="103"/>
+      <c r="I145" s="103"/>
+      <c r="J145" s="111"/>
+      <c r="K145" s="111"/>
+      <c r="L145" s="114"/>
+      <c r="M145" s="103"/>
+    </row>
+    <row r="146" spans="1:13" ht="40.35" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A146" s="226"/>
+      <c r="B146" s="186"/>
       <c r="C146" s="6" t="s">
         <v>210</v>
       </c>
       <c r="D146" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="E146" s="122"/>
-      <c r="F146" s="196"/>
-      <c r="G146" s="103"/>
-      <c r="H146" s="91"/>
-      <c r="I146" s="91"/>
-      <c r="J146" s="103"/>
-      <c r="K146" s="103"/>
-      <c r="L146" s="113"/>
-      <c r="M146" s="91"/>
-    </row>
-    <row r="147" spans="1:13" ht="51" x14ac:dyDescent="0.25">
-      <c r="A147" s="179">
+      <c r="E146" s="190"/>
+      <c r="F146" s="163"/>
+      <c r="G146" s="112"/>
+      <c r="H146" s="102"/>
+      <c r="I146" s="102"/>
+      <c r="J146" s="112"/>
+      <c r="K146" s="112"/>
+      <c r="L146" s="115"/>
+      <c r="M146" s="102"/>
+    </row>
+    <row r="147" spans="1:13" ht="53" x14ac:dyDescent="0.3">
+      <c r="A147" s="224">
         <v>46</v>
       </c>
-      <c r="B147" s="117" t="s">
+      <c r="B147" s="185" t="s">
         <v>213</v>
       </c>
       <c r="C147" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="D147" s="182" t="s">
+      <c r="D147" s="218" t="s">
         <v>216</v>
       </c>
-      <c r="E147" s="185" t="s">
+      <c r="E147" s="221" t="s">
         <v>0</v>
       </c>
-      <c r="F147" s="194" t="s">
+      <c r="F147" s="161" t="s">
         <v>336</v>
       </c>
-      <c r="G147" s="101" t="s">
+      <c r="G147" s="110" t="s">
         <v>286</v>
       </c>
-      <c r="H147" s="89" t="s">
+      <c r="H147" s="101" t="s">
         <v>361</v>
       </c>
-      <c r="I147" s="89" t="s">
+      <c r="I147" s="101" t="s">
         <v>354</v>
       </c>
-      <c r="J147" s="101" t="s">
+      <c r="J147" s="110" t="s">
         <v>428</v>
       </c>
-      <c r="K147" s="101" t="s">
+      <c r="K147" s="110" t="s">
         <v>429</v>
       </c>
-      <c r="L147" s="236"/>
-      <c r="M147" s="89" t="s">
+      <c r="L147" s="122"/>
+      <c r="M147" s="101" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="148" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="180"/>
-      <c r="B148" s="118"/>
+    <row r="148" spans="1:13" ht="30.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="225"/>
+      <c r="B148" s="194"/>
       <c r="C148" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="D148" s="183"/>
-      <c r="E148" s="186"/>
-      <c r="F148" s="195"/>
-      <c r="G148" s="102"/>
-      <c r="H148" s="90"/>
-      <c r="I148" s="90"/>
-      <c r="J148" s="102"/>
-      <c r="K148" s="102"/>
-      <c r="L148" s="237"/>
-      <c r="M148" s="90"/>
-    </row>
-    <row r="149" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="181"/>
-      <c r="B149" s="119"/>
+      <c r="D148" s="219"/>
+      <c r="E148" s="222"/>
+      <c r="F148" s="162"/>
+      <c r="G148" s="111"/>
+      <c r="H148" s="103"/>
+      <c r="I148" s="103"/>
+      <c r="J148" s="111"/>
+      <c r="K148" s="111"/>
+      <c r="L148" s="136"/>
+      <c r="M148" s="103"/>
+    </row>
+    <row r="149" spans="1:13" ht="27.1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A149" s="226"/>
+      <c r="B149" s="186"/>
       <c r="C149" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="D149" s="184"/>
-      <c r="E149" s="187"/>
-      <c r="F149" s="196"/>
-      <c r="G149" s="103"/>
-      <c r="H149" s="91"/>
-      <c r="I149" s="91"/>
-      <c r="J149" s="103"/>
-      <c r="K149" s="103"/>
-      <c r="L149" s="238"/>
-      <c r="M149" s="91"/>
-    </row>
-    <row r="150" spans="1:13" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D149" s="220"/>
+      <c r="E149" s="223"/>
+      <c r="F149" s="163"/>
+      <c r="G149" s="112"/>
+      <c r="H149" s="102"/>
+      <c r="I149" s="102"/>
+      <c r="J149" s="112"/>
+      <c r="K149" s="112"/>
+      <c r="L149" s="123"/>
+      <c r="M149" s="102"/>
+    </row>
+    <row r="150" spans="1:13" ht="66.849999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="19">
         <v>47</v>
       </c>
@@ -6919,12 +6925,12 @@
       <c r="K150" s="71" t="s">
         <v>431</v>
       </c>
-      <c r="L150" s="242"/>
+      <c r="L150" s="94"/>
       <c r="M150" s="78" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="151" spans="1:13" ht="115.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13" ht="106.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" s="19">
         <v>48</v>
       </c>
@@ -6958,12 +6964,12 @@
       <c r="K151" s="71" t="s">
         <v>432</v>
       </c>
-      <c r="L151" s="242"/>
+      <c r="L151" s="94"/>
       <c r="M151" s="78" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="152" spans="1:13" ht="102.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13" ht="106.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="20">
         <v>49</v>
       </c>
@@ -6997,87 +7003,87 @@
       <c r="K152" s="73" t="s">
         <v>433</v>
       </c>
-      <c r="L152" s="243"/>
+      <c r="L152" s="95"/>
       <c r="M152" s="84" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="153" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="188">
+    <row r="153" spans="1:13" ht="30.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="215">
         <v>50</v>
       </c>
-      <c r="B153" s="117" t="s">
+      <c r="B153" s="185" t="s">
         <v>227</v>
       </c>
-      <c r="C153" s="117" t="s">
+      <c r="C153" s="185" t="s">
         <v>228</v>
       </c>
       <c r="D153" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="E153" s="185" t="s">
+      <c r="E153" s="221" t="s">
         <v>0</v>
       </c>
-      <c r="F153" s="194" t="s">
+      <c r="F153" s="161" t="s">
         <v>339</v>
       </c>
-      <c r="G153" s="95" t="s">
+      <c r="G153" s="124" t="s">
         <v>340</v>
       </c>
-      <c r="H153" s="92" t="s">
+      <c r="H153" s="98" t="s">
         <v>361</v>
       </c>
-      <c r="I153" s="92" t="s">
+      <c r="I153" s="98" t="s">
         <v>354</v>
       </c>
-      <c r="J153" s="95" t="s">
+      <c r="J153" s="124" t="s">
         <v>430</v>
       </c>
-      <c r="K153" s="95" t="s">
+      <c r="K153" s="124" t="s">
         <v>434</v>
       </c>
-      <c r="L153" s="244"/>
-      <c r="M153" s="92" t="s">
+      <c r="L153" s="127"/>
+      <c r="M153" s="98" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="154" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="189"/>
-      <c r="B154" s="118"/>
-      <c r="C154" s="118"/>
+    <row r="154" spans="1:13" ht="30.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="216"/>
+      <c r="B154" s="194"/>
+      <c r="C154" s="194"/>
       <c r="D154" s="11"/>
-      <c r="E154" s="186"/>
-      <c r="F154" s="195"/>
-      <c r="G154" s="96"/>
-      <c r="H154" s="93"/>
-      <c r="I154" s="93"/>
-      <c r="J154" s="96"/>
-      <c r="K154" s="96"/>
-      <c r="L154" s="245"/>
-      <c r="M154" s="93"/>
-    </row>
-    <row r="155" spans="1:13" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="190"/>
-      <c r="B155" s="119"/>
-      <c r="C155" s="119"/>
+      <c r="E154" s="222"/>
+      <c r="F154" s="162"/>
+      <c r="G154" s="125"/>
+      <c r="H154" s="99"/>
+      <c r="I154" s="99"/>
+      <c r="J154" s="125"/>
+      <c r="K154" s="125"/>
+      <c r="L154" s="128"/>
+      <c r="M154" s="99"/>
+    </row>
+    <row r="155" spans="1:13" ht="57.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A155" s="217"/>
+      <c r="B155" s="186"/>
+      <c r="C155" s="186"/>
       <c r="D155" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="E155" s="187"/>
-      <c r="F155" s="196"/>
-      <c r="G155" s="97"/>
-      <c r="H155" s="94"/>
-      <c r="I155" s="94"/>
-      <c r="J155" s="97"/>
-      <c r="K155" s="97"/>
-      <c r="L155" s="246"/>
-      <c r="M155" s="94"/>
-    </row>
-    <row r="156" spans="1:13" ht="51" x14ac:dyDescent="0.25">
-      <c r="A156" s="188">
+      <c r="E155" s="223"/>
+      <c r="F155" s="163"/>
+      <c r="G155" s="126"/>
+      <c r="H155" s="100"/>
+      <c r="I155" s="100"/>
+      <c r="J155" s="126"/>
+      <c r="K155" s="126"/>
+      <c r="L155" s="129"/>
+      <c r="M155" s="100"/>
+    </row>
+    <row r="156" spans="1:13" ht="53" x14ac:dyDescent="0.3">
+      <c r="A156" s="215">
         <v>51</v>
       </c>
-      <c r="B156" s="117" t="s">
+      <c r="B156" s="185" t="s">
         <v>231</v>
       </c>
       <c r="C156" s="3" t="s">
@@ -7086,136 +7092,136 @@
       <c r="D156" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="E156" s="185" t="s">
+      <c r="E156" s="221" t="s">
         <v>0</v>
       </c>
-      <c r="F156" s="194" t="s">
+      <c r="F156" s="161" t="s">
         <v>341</v>
       </c>
-      <c r="G156" s="95" t="s">
+      <c r="G156" s="124" t="s">
         <v>286</v>
       </c>
-      <c r="H156" s="95" t="s">
+      <c r="H156" s="124" t="s">
         <v>361</v>
       </c>
-      <c r="I156" s="95" t="s">
+      <c r="I156" s="124" t="s">
         <v>362</v>
       </c>
-      <c r="J156" s="95" t="s">
+      <c r="J156" s="124" t="s">
         <v>428</v>
       </c>
-      <c r="K156" s="95"/>
-      <c r="L156" s="95"/>
-      <c r="M156" s="92" t="s">
+      <c r="K156" s="124"/>
+      <c r="L156" s="124"/>
+      <c r="M156" s="98" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="157" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="189"/>
-      <c r="B157" s="118"/>
+    <row r="157" spans="1:13" ht="30.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="216"/>
+      <c r="B157" s="194"/>
       <c r="C157" s="11" t="s">
         <v>158</v>
       </c>
       <c r="D157" s="11"/>
-      <c r="E157" s="186"/>
-      <c r="F157" s="195"/>
-      <c r="G157" s="96"/>
-      <c r="H157" s="96"/>
-      <c r="I157" s="96"/>
-      <c r="J157" s="96"/>
-      <c r="K157" s="96"/>
-      <c r="L157" s="96"/>
-      <c r="M157" s="93"/>
-    </row>
-    <row r="158" spans="1:13" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="190"/>
-      <c r="B158" s="119"/>
+      <c r="E157" s="222"/>
+      <c r="F157" s="162"/>
+      <c r="G157" s="125"/>
+      <c r="H157" s="125"/>
+      <c r="I157" s="125"/>
+      <c r="J157" s="125"/>
+      <c r="K157" s="125"/>
+      <c r="L157" s="125"/>
+      <c r="M157" s="99"/>
+    </row>
+    <row r="158" spans="1:13" ht="30.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A158" s="217"/>
+      <c r="B158" s="186"/>
       <c r="C158" s="7"/>
       <c r="D158" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="E158" s="187"/>
-      <c r="F158" s="196"/>
-      <c r="G158" s="97"/>
-      <c r="H158" s="97"/>
-      <c r="I158" s="97"/>
-      <c r="J158" s="97"/>
-      <c r="K158" s="97"/>
-      <c r="L158" s="97"/>
-      <c r="M158" s="94"/>
-    </row>
-    <row r="159" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="179">
+      <c r="E158" s="223"/>
+      <c r="F158" s="163"/>
+      <c r="G158" s="126"/>
+      <c r="H158" s="126"/>
+      <c r="I158" s="126"/>
+      <c r="J158" s="126"/>
+      <c r="K158" s="126"/>
+      <c r="L158" s="126"/>
+      <c r="M158" s="100"/>
+    </row>
+    <row r="159" spans="1:13" ht="30.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="224">
         <v>52</v>
       </c>
-      <c r="B159" s="117" t="s">
+      <c r="B159" s="185" t="s">
         <v>234</v>
       </c>
-      <c r="C159" s="117" t="s">
+      <c r="C159" s="185" t="s">
         <v>235</v>
       </c>
-      <c r="D159" s="117" t="s">
+      <c r="D159" s="185" t="s">
         <v>236</v>
       </c>
-      <c r="E159" s="120" t="s">
+      <c r="E159" s="189" t="s">
         <v>0</v>
       </c>
-      <c r="F159" s="194" t="s">
+      <c r="F159" s="161" t="s">
         <v>286</v>
       </c>
-      <c r="G159" s="101" t="s">
+      <c r="G159" s="110" t="s">
         <v>342</v>
       </c>
-      <c r="H159" s="101" t="s">
+      <c r="H159" s="110" t="s">
         <v>361</v>
       </c>
-      <c r="I159" s="101" t="s">
+      <c r="I159" s="110" t="s">
         <v>354</v>
       </c>
-      <c r="J159" s="101" t="s">
+      <c r="J159" s="110" t="s">
         <v>428</v>
       </c>
-      <c r="K159" s="101"/>
-      <c r="L159" s="101"/>
-      <c r="M159" s="89" t="s">
+      <c r="K159" s="110"/>
+      <c r="L159" s="110"/>
+      <c r="M159" s="101" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="160" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="180"/>
-      <c r="B160" s="118"/>
-      <c r="C160" s="118"/>
-      <c r="D160" s="118"/>
-      <c r="E160" s="121"/>
-      <c r="F160" s="195"/>
-      <c r="G160" s="102"/>
-      <c r="H160" s="102"/>
-      <c r="I160" s="102"/>
-      <c r="J160" s="102"/>
-      <c r="K160" s="102"/>
-      <c r="L160" s="102"/>
-      <c r="M160" s="90"/>
-    </row>
-    <row r="161" spans="1:13" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="181"/>
-      <c r="B161" s="119"/>
-      <c r="C161" s="119"/>
-      <c r="D161" s="119"/>
-      <c r="E161" s="122"/>
-      <c r="F161" s="196"/>
-      <c r="G161" s="103"/>
-      <c r="H161" s="103"/>
-      <c r="I161" s="103"/>
-      <c r="J161" s="103"/>
-      <c r="K161" s="103"/>
-      <c r="L161" s="103"/>
-      <c r="M161" s="91"/>
-    </row>
-    <row r="162" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="179">
+    <row r="160" spans="1:13" ht="30.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="225"/>
+      <c r="B160" s="194"/>
+      <c r="C160" s="194"/>
+      <c r="D160" s="194"/>
+      <c r="E160" s="195"/>
+      <c r="F160" s="162"/>
+      <c r="G160" s="111"/>
+      <c r="H160" s="111"/>
+      <c r="I160" s="111"/>
+      <c r="J160" s="111"/>
+      <c r="K160" s="111"/>
+      <c r="L160" s="111"/>
+      <c r="M160" s="103"/>
+    </row>
+    <row r="161" spans="1:13" ht="30.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A161" s="226"/>
+      <c r="B161" s="186"/>
+      <c r="C161" s="186"/>
+      <c r="D161" s="186"/>
+      <c r="E161" s="190"/>
+      <c r="F161" s="163"/>
+      <c r="G161" s="112"/>
+      <c r="H161" s="112"/>
+      <c r="I161" s="112"/>
+      <c r="J161" s="112"/>
+      <c r="K161" s="112"/>
+      <c r="L161" s="112"/>
+      <c r="M161" s="102"/>
+    </row>
+    <row r="162" spans="1:13" ht="30.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="224">
         <v>53</v>
       </c>
-      <c r="B162" s="117" t="s">
+      <c r="B162" s="185" t="s">
         <v>237</v>
       </c>
       <c r="C162" s="3" t="s">
@@ -7224,69 +7230,69 @@
       <c r="D162" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="E162" s="120" t="s">
+      <c r="E162" s="189" t="s">
         <v>0</v>
       </c>
-      <c r="F162" s="194" t="s">
+      <c r="F162" s="161" t="s">
         <v>343</v>
       </c>
-      <c r="G162" s="101" t="s">
+      <c r="G162" s="110" t="s">
         <v>286</v>
       </c>
-      <c r="H162" s="89" t="s">
+      <c r="H162" s="101" t="s">
         <v>357</v>
       </c>
-      <c r="I162" s="89" t="s">
+      <c r="I162" s="101" t="s">
         <v>362</v>
       </c>
-      <c r="J162" s="101" t="s">
+      <c r="J162" s="110" t="s">
         <v>428</v>
       </c>
-      <c r="K162" s="101"/>
-      <c r="L162" s="101"/>
-      <c r="M162" s="89" t="s">
+      <c r="K162" s="110"/>
+      <c r="L162" s="110"/>
+      <c r="M162" s="101" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="163" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="180"/>
-      <c r="B163" s="118"/>
+    <row r="163" spans="1:13" ht="30.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="225"/>
+      <c r="B163" s="194"/>
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
-      <c r="E163" s="121"/>
-      <c r="F163" s="195"/>
-      <c r="G163" s="102"/>
-      <c r="H163" s="90"/>
-      <c r="I163" s="90"/>
-      <c r="J163" s="102"/>
-      <c r="K163" s="102"/>
-      <c r="L163" s="102"/>
-      <c r="M163" s="90"/>
-    </row>
-    <row r="164" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="181"/>
-      <c r="B164" s="119"/>
+      <c r="E163" s="195"/>
+      <c r="F163" s="162"/>
+      <c r="G163" s="111"/>
+      <c r="H163" s="103"/>
+      <c r="I163" s="103"/>
+      <c r="J163" s="111"/>
+      <c r="K163" s="111"/>
+      <c r="L163" s="111"/>
+      <c r="M163" s="103"/>
+    </row>
+    <row r="164" spans="1:13" ht="40.35" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A164" s="226"/>
+      <c r="B164" s="186"/>
       <c r="C164" s="6" t="s">
         <v>239</v>
       </c>
       <c r="D164" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="E164" s="122"/>
-      <c r="F164" s="196"/>
-      <c r="G164" s="103"/>
-      <c r="H164" s="91"/>
-      <c r="I164" s="91"/>
-      <c r="J164" s="103"/>
-      <c r="K164" s="103"/>
-      <c r="L164" s="103"/>
-      <c r="M164" s="91"/>
-    </row>
-    <row r="165" spans="1:13" ht="51" x14ac:dyDescent="0.25">
-      <c r="A165" s="188">
+      <c r="E164" s="190"/>
+      <c r="F164" s="163"/>
+      <c r="G164" s="112"/>
+      <c r="H164" s="102"/>
+      <c r="I164" s="102"/>
+      <c r="J164" s="112"/>
+      <c r="K164" s="112"/>
+      <c r="L164" s="112"/>
+      <c r="M164" s="102"/>
+    </row>
+    <row r="165" spans="1:13" ht="53" x14ac:dyDescent="0.3">
+      <c r="A165" s="215">
         <v>54</v>
       </c>
-      <c r="B165" s="117" t="s">
+      <c r="B165" s="185" t="s">
         <v>242</v>
       </c>
       <c r="C165" s="3" t="s">
@@ -7295,123 +7301,125 @@
       <c r="D165" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="E165" s="185" t="s">
+      <c r="E165" s="221" t="s">
         <v>0</v>
       </c>
-      <c r="F165" s="194" t="s">
+      <c r="F165" s="161" t="s">
         <v>286</v>
       </c>
-      <c r="G165" s="95" t="s">
+      <c r="G165" s="124" t="s">
         <v>344</v>
       </c>
-      <c r="H165" s="92" t="s">
+      <c r="H165" s="98" t="s">
         <v>361</v>
       </c>
-      <c r="I165" s="92" t="s">
+      <c r="I165" s="98" t="s">
         <v>354</v>
       </c>
-      <c r="J165" s="95" t="s">
+      <c r="J165" s="124" t="s">
         <v>428</v>
       </c>
-      <c r="K165" s="95" t="s">
+      <c r="K165" s="124" t="s">
         <v>435</v>
       </c>
-      <c r="L165" s="247"/>
-      <c r="M165" s="92" t="s">
+      <c r="L165" s="133"/>
+      <c r="M165" s="98" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="166" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="189"/>
-      <c r="B166" s="118"/>
+    <row r="166" spans="1:13" ht="30.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="216"/>
+      <c r="B166" s="194"/>
       <c r="C166" s="3"/>
       <c r="D166" s="11"/>
-      <c r="E166" s="186"/>
-      <c r="F166" s="195"/>
-      <c r="G166" s="96"/>
-      <c r="H166" s="93"/>
-      <c r="I166" s="93"/>
-      <c r="J166" s="96"/>
-      <c r="K166" s="96"/>
-      <c r="L166" s="248"/>
-      <c r="M166" s="93"/>
-    </row>
-    <row r="167" spans="1:13" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="190"/>
-      <c r="B167" s="119"/>
+      <c r="E166" s="222"/>
+      <c r="F166" s="162"/>
+      <c r="G166" s="125"/>
+      <c r="H166" s="99"/>
+      <c r="I166" s="99"/>
+      <c r="J166" s="125"/>
+      <c r="K166" s="125"/>
+      <c r="L166" s="134"/>
+      <c r="M166" s="99"/>
+    </row>
+    <row r="167" spans="1:13" ht="30.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A167" s="217"/>
+      <c r="B167" s="186"/>
       <c r="C167" s="6" t="s">
         <v>244</v>
       </c>
       <c r="D167" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="E167" s="187"/>
-      <c r="F167" s="196"/>
-      <c r="G167" s="97"/>
-      <c r="H167" s="94"/>
-      <c r="I167" s="94"/>
-      <c r="J167" s="97"/>
-      <c r="K167" s="97"/>
-      <c r="L167" s="249"/>
-      <c r="M167" s="94"/>
-    </row>
-    <row r="168" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="179">
+      <c r="E167" s="223"/>
+      <c r="F167" s="163"/>
+      <c r="G167" s="126"/>
+      <c r="H167" s="100"/>
+      <c r="I167" s="100"/>
+      <c r="J167" s="126"/>
+      <c r="K167" s="126"/>
+      <c r="L167" s="135"/>
+      <c r="M167" s="100"/>
+    </row>
+    <row r="168" spans="1:13" ht="30.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="224">
         <v>55</v>
       </c>
-      <c r="B168" s="117" t="s">
+      <c r="B168" s="185" t="s">
         <v>247</v>
       </c>
-      <c r="C168" s="117" t="s">
+      <c r="C168" s="185" t="s">
         <v>248</v>
       </c>
-      <c r="D168" s="117" t="s">
+      <c r="D168" s="185" t="s">
         <v>249</v>
       </c>
-      <c r="E168" s="120" t="s">
+      <c r="E168" s="189" t="s">
         <v>0</v>
       </c>
-      <c r="F168" s="194" t="s">
+      <c r="F168" s="161" t="s">
         <v>286</v>
       </c>
-      <c r="G168" s="101" t="s">
+      <c r="G168" s="110" t="s">
         <v>346</v>
       </c>
-      <c r="H168" s="89" t="s">
+      <c r="H168" s="101" t="s">
         <v>361</v>
       </c>
-      <c r="I168" s="89" t="s">
+      <c r="I168" s="101" t="s">
         <v>354</v>
       </c>
-      <c r="J168" s="101" t="s">
+      <c r="J168" s="110" t="s">
         <v>428</v>
       </c>
-      <c r="K168" s="101" t="s">
+      <c r="K168" s="110" t="s">
         <v>436</v>
       </c>
-      <c r="L168" s="236"/>
-      <c r="M168" s="89"/>
-    </row>
-    <row r="169" spans="1:13" ht="76.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="181"/>
-      <c r="B169" s="119"/>
-      <c r="C169" s="119"/>
-      <c r="D169" s="119"/>
-      <c r="E169" s="122"/>
-      <c r="F169" s="196"/>
-      <c r="G169" s="103"/>
-      <c r="H169" s="91"/>
-      <c r="I169" s="91"/>
-      <c r="J169" s="103"/>
-      <c r="K169" s="103"/>
-      <c r="L169" s="238"/>
-      <c r="M169" s="91"/>
-    </row>
-    <row r="170" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A170" s="188">
+      <c r="L168" s="122"/>
+      <c r="M168" s="101" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" ht="76.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A169" s="226"/>
+      <c r="B169" s="186"/>
+      <c r="C169" s="186"/>
+      <c r="D169" s="186"/>
+      <c r="E169" s="190"/>
+      <c r="F169" s="163"/>
+      <c r="G169" s="112"/>
+      <c r="H169" s="102"/>
+      <c r="I169" s="102"/>
+      <c r="J169" s="112"/>
+      <c r="K169" s="112"/>
+      <c r="L169" s="123"/>
+      <c r="M169" s="102"/>
+    </row>
+    <row r="170" spans="1:13" ht="39.75" x14ac:dyDescent="0.3">
+      <c r="A170" s="215">
         <v>56</v>
       </c>
-      <c r="B170" s="182" t="s">
+      <c r="B170" s="218" t="s">
         <v>250</v>
       </c>
       <c r="C170" s="11" t="s">
@@ -7420,174 +7428,174 @@
       <c r="D170" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="E170" s="185" t="s">
+      <c r="E170" s="221" t="s">
         <v>0</v>
       </c>
-      <c r="F170" s="194" t="s">
+      <c r="F170" s="161" t="s">
         <v>286</v>
       </c>
-      <c r="G170" s="95" t="s">
+      <c r="G170" s="124" t="s">
         <v>347</v>
       </c>
-      <c r="H170" s="92" t="s">
+      <c r="H170" s="98" t="s">
         <v>361</v>
       </c>
-      <c r="I170" s="92" t="s">
+      <c r="I170" s="98" t="s">
         <v>354</v>
       </c>
-      <c r="J170" s="95" t="s">
+      <c r="J170" s="124" t="s">
         <v>437</v>
       </c>
-      <c r="K170" s="95" t="s">
+      <c r="K170" s="124" t="s">
         <v>438</v>
       </c>
-      <c r="L170" s="244"/>
-      <c r="M170" s="92" t="s">
+      <c r="L170" s="127"/>
+      <c r="M170" s="98" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="171" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="189"/>
-      <c r="B171" s="183"/>
+    <row r="171" spans="1:13" ht="30.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="216"/>
+      <c r="B171" s="219"/>
       <c r="C171" s="11"/>
       <c r="D171" s="11"/>
-      <c r="E171" s="186"/>
-      <c r="F171" s="195"/>
-      <c r="G171" s="96"/>
-      <c r="H171" s="93"/>
-      <c r="I171" s="93"/>
-      <c r="J171" s="96"/>
-      <c r="K171" s="96"/>
-      <c r="L171" s="245"/>
-      <c r="M171" s="93"/>
-    </row>
-    <row r="172" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A172" s="189"/>
-      <c r="B172" s="183"/>
+      <c r="E171" s="222"/>
+      <c r="F171" s="162"/>
+      <c r="G171" s="125"/>
+      <c r="H171" s="99"/>
+      <c r="I171" s="99"/>
+      <c r="J171" s="125"/>
+      <c r="K171" s="125"/>
+      <c r="L171" s="128"/>
+      <c r="M171" s="99"/>
+    </row>
+    <row r="172" spans="1:13" ht="39.75" x14ac:dyDescent="0.3">
+      <c r="A172" s="216"/>
+      <c r="B172" s="219"/>
       <c r="C172" s="11" t="s">
         <v>252</v>
       </c>
       <c r="D172" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="E172" s="186"/>
-      <c r="F172" s="195"/>
-      <c r="G172" s="96"/>
-      <c r="H172" s="93"/>
-      <c r="I172" s="93"/>
-      <c r="J172" s="96"/>
-      <c r="K172" s="96"/>
-      <c r="L172" s="245"/>
-      <c r="M172" s="93"/>
-    </row>
-    <row r="173" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="189"/>
-      <c r="B173" s="183"/>
+      <c r="E172" s="222"/>
+      <c r="F172" s="162"/>
+      <c r="G172" s="125"/>
+      <c r="H172" s="99"/>
+      <c r="I172" s="99"/>
+      <c r="J172" s="125"/>
+      <c r="K172" s="125"/>
+      <c r="L172" s="128"/>
+      <c r="M172" s="99"/>
+    </row>
+    <row r="173" spans="1:13" ht="30.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="216"/>
+      <c r="B173" s="219"/>
       <c r="C173" s="11"/>
       <c r="D173" s="11"/>
-      <c r="E173" s="186"/>
-      <c r="F173" s="195"/>
-      <c r="G173" s="96"/>
-      <c r="H173" s="93"/>
-      <c r="I173" s="93"/>
-      <c r="J173" s="96"/>
-      <c r="K173" s="96"/>
-      <c r="L173" s="245"/>
-      <c r="M173" s="93"/>
-    </row>
-    <row r="174" spans="1:13" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="190"/>
-      <c r="B174" s="184"/>
+      <c r="E173" s="222"/>
+      <c r="F173" s="162"/>
+      <c r="G173" s="125"/>
+      <c r="H173" s="99"/>
+      <c r="I173" s="99"/>
+      <c r="J173" s="125"/>
+      <c r="K173" s="125"/>
+      <c r="L173" s="128"/>
+      <c r="M173" s="99"/>
+    </row>
+    <row r="174" spans="1:13" ht="30.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A174" s="217"/>
+      <c r="B174" s="220"/>
       <c r="C174" s="12" t="s">
         <v>253</v>
       </c>
       <c r="D174" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="E174" s="187"/>
-      <c r="F174" s="196"/>
-      <c r="G174" s="97"/>
-      <c r="H174" s="94"/>
-      <c r="I174" s="94"/>
-      <c r="J174" s="97"/>
-      <c r="K174" s="97"/>
-      <c r="L174" s="246"/>
-      <c r="M174" s="94"/>
-    </row>
-    <row r="175" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A175" s="188">
+      <c r="E174" s="223"/>
+      <c r="F174" s="163"/>
+      <c r="G174" s="126"/>
+      <c r="H174" s="100"/>
+      <c r="I174" s="100"/>
+      <c r="J174" s="126"/>
+      <c r="K174" s="126"/>
+      <c r="L174" s="129"/>
+      <c r="M174" s="100"/>
+    </row>
+    <row r="175" spans="1:13" ht="26.5" x14ac:dyDescent="0.3">
+      <c r="A175" s="215">
         <v>57</v>
       </c>
-      <c r="B175" s="182" t="s">
+      <c r="B175" s="218" t="s">
         <v>257</v>
       </c>
       <c r="C175" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="D175" s="182" t="s">
+      <c r="D175" s="218" t="s">
         <v>260</v>
       </c>
-      <c r="E175" s="185" t="s">
+      <c r="E175" s="221" t="s">
         <v>0</v>
       </c>
-      <c r="F175" s="194" t="s">
+      <c r="F175" s="161" t="s">
         <v>286</v>
       </c>
-      <c r="G175" s="95" t="s">
+      <c r="G175" s="124" t="s">
         <v>348</v>
       </c>
-      <c r="H175" s="92" t="s">
+      <c r="H175" s="98" t="s">
         <v>361</v>
       </c>
-      <c r="I175" s="92" t="s">
+      <c r="I175" s="98" t="s">
         <v>354</v>
       </c>
-      <c r="J175" s="95" t="s">
+      <c r="J175" s="124" t="s">
         <v>428</v>
       </c>
-      <c r="K175" s="95" t="s">
+      <c r="K175" s="124" t="s">
         <v>439</v>
       </c>
-      <c r="L175" s="250"/>
-      <c r="M175" s="92" t="s">
+      <c r="L175" s="130"/>
+      <c r="M175" s="98" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="176" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="189"/>
-      <c r="B176" s="183"/>
+    <row r="176" spans="1:13" ht="30.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="216"/>
+      <c r="B176" s="219"/>
       <c r="C176" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="D176" s="183"/>
-      <c r="E176" s="186"/>
-      <c r="F176" s="195"/>
-      <c r="G176" s="96"/>
-      <c r="H176" s="93"/>
-      <c r="I176" s="93"/>
-      <c r="J176" s="96"/>
-      <c r="K176" s="96"/>
-      <c r="L176" s="251"/>
-      <c r="M176" s="93"/>
-    </row>
-    <row r="177" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="190"/>
-      <c r="B177" s="184"/>
+      <c r="D176" s="219"/>
+      <c r="E176" s="222"/>
+      <c r="F176" s="162"/>
+      <c r="G176" s="125"/>
+      <c r="H176" s="99"/>
+      <c r="I176" s="99"/>
+      <c r="J176" s="125"/>
+      <c r="K176" s="125"/>
+      <c r="L176" s="131"/>
+      <c r="M176" s="99"/>
+    </row>
+    <row r="177" spans="1:13" ht="40.35" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A177" s="217"/>
+      <c r="B177" s="220"/>
       <c r="C177" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="D177" s="184"/>
-      <c r="E177" s="187"/>
-      <c r="F177" s="196"/>
-      <c r="G177" s="97"/>
-      <c r="H177" s="94"/>
-      <c r="I177" s="94"/>
-      <c r="J177" s="97"/>
-      <c r="K177" s="97"/>
-      <c r="L177" s="252"/>
-      <c r="M177" s="94"/>
-    </row>
-    <row r="178" spans="1:13" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D177" s="220"/>
+      <c r="E177" s="223"/>
+      <c r="F177" s="163"/>
+      <c r="G177" s="126"/>
+      <c r="H177" s="100"/>
+      <c r="I177" s="100"/>
+      <c r="J177" s="126"/>
+      <c r="K177" s="126"/>
+      <c r="L177" s="132"/>
+      <c r="M177" s="100"/>
+    </row>
+    <row r="178" spans="1:13" ht="80.099999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A178" s="20">
         <v>58</v>
       </c>
@@ -7621,12 +7629,12 @@
       <c r="K178" s="73" t="s">
         <v>440</v>
       </c>
-      <c r="L178" s="253"/>
+      <c r="L178" s="96"/>
       <c r="M178" s="84" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="179" spans="1:13" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:13" ht="73.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A179" s="69">
         <v>59</v>
       </c>
@@ -7665,82 +7673,82 @@
         <v>500</v>
       </c>
     </row>
-    <row r="180" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="179">
+    <row r="180" spans="1:13" ht="30.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="224">
         <v>60</v>
       </c>
-      <c r="B180" s="182" t="s">
+      <c r="B180" s="218" t="s">
         <v>267</v>
       </c>
-      <c r="C180" s="182" t="s">
+      <c r="C180" s="218" t="s">
         <v>268</v>
       </c>
       <c r="D180" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="E180" s="185" t="s">
+      <c r="E180" s="221" t="s">
         <v>0</v>
       </c>
-      <c r="F180" s="194" t="s">
+      <c r="F180" s="161" t="s">
         <v>286</v>
       </c>
-      <c r="G180" s="101" t="s">
+      <c r="G180" s="110" t="s">
         <v>351</v>
       </c>
-      <c r="H180" s="101" t="s">
+      <c r="H180" s="110" t="s">
         <v>361</v>
       </c>
-      <c r="I180" s="101" t="s">
+      <c r="I180" s="110" t="s">
         <v>354</v>
       </c>
-      <c r="J180" s="101" t="s">
+      <c r="J180" s="110" t="s">
         <v>428</v>
       </c>
-      <c r="K180" s="101" t="s">
+      <c r="K180" s="110" t="s">
         <v>442</v>
       </c>
-      <c r="L180" s="220"/>
-      <c r="M180" s="89" t="s">
+      <c r="L180" s="113"/>
+      <c r="M180" s="101" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="181" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="180"/>
-      <c r="B181" s="183"/>
-      <c r="C181" s="183"/>
+    <row r="181" spans="1:13" ht="30.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="225"/>
+      <c r="B181" s="219"/>
+      <c r="C181" s="219"/>
       <c r="D181" s="11"/>
-      <c r="E181" s="186"/>
-      <c r="F181" s="195"/>
-      <c r="G181" s="102"/>
-      <c r="H181" s="102"/>
-      <c r="I181" s="102"/>
-      <c r="J181" s="102"/>
-      <c r="K181" s="102"/>
-      <c r="L181" s="112"/>
-      <c r="M181" s="90"/>
-    </row>
-    <row r="182" spans="1:13" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="181"/>
-      <c r="B182" s="184"/>
-      <c r="C182" s="184"/>
+      <c r="E181" s="222"/>
+      <c r="F181" s="162"/>
+      <c r="G181" s="111"/>
+      <c r="H181" s="111"/>
+      <c r="I181" s="111"/>
+      <c r="J181" s="111"/>
+      <c r="K181" s="111"/>
+      <c r="L181" s="114"/>
+      <c r="M181" s="103"/>
+    </row>
+    <row r="182" spans="1:13" ht="30.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A182" s="226"/>
+      <c r="B182" s="220"/>
+      <c r="C182" s="220"/>
       <c r="D182" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="E182" s="187"/>
-      <c r="F182" s="196"/>
-      <c r="G182" s="103"/>
-      <c r="H182" s="103"/>
-      <c r="I182" s="103"/>
-      <c r="J182" s="103"/>
-      <c r="K182" s="103"/>
-      <c r="L182" s="113"/>
-      <c r="M182" s="91"/>
-    </row>
-    <row r="183" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A183" s="191">
+      <c r="E182" s="223"/>
+      <c r="F182" s="163"/>
+      <c r="G182" s="112"/>
+      <c r="H182" s="112"/>
+      <c r="I182" s="112"/>
+      <c r="J182" s="112"/>
+      <c r="K182" s="112"/>
+      <c r="L182" s="115"/>
+      <c r="M182" s="102"/>
+    </row>
+    <row r="183" spans="1:13" ht="26.5" x14ac:dyDescent="0.3">
+      <c r="A183" s="212">
         <v>61</v>
       </c>
-      <c r="B183" s="117" t="s">
+      <c r="B183" s="185" t="s">
         <v>271</v>
       </c>
       <c r="C183" s="3" t="s">
@@ -7749,157 +7757,157 @@
       <c r="D183" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="E183" s="120" t="s">
+      <c r="E183" s="189" t="s">
         <v>0</v>
       </c>
-      <c r="F183" s="194" t="s">
+      <c r="F183" s="161" t="s">
         <v>286</v>
       </c>
-      <c r="G183" s="104" t="s">
+      <c r="G183" s="116" t="s">
         <v>352</v>
       </c>
-      <c r="H183" s="104" t="s">
+      <c r="H183" s="116" t="s">
         <v>361</v>
       </c>
-      <c r="I183" s="104" t="s">
+      <c r="I183" s="116" t="s">
         <v>354</v>
       </c>
-      <c r="J183" s="104" t="s">
+      <c r="J183" s="116" t="s">
         <v>430</v>
       </c>
-      <c r="K183" s="104" t="s">
+      <c r="K183" s="116" t="s">
         <v>443</v>
       </c>
-      <c r="L183" s="254"/>
-      <c r="M183" s="260" t="s">
+      <c r="L183" s="119"/>
+      <c r="M183" s="104" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="184" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="192"/>
-      <c r="B184" s="118"/>
+    <row r="184" spans="1:13" ht="30.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="213"/>
+      <c r="B184" s="194"/>
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
-      <c r="E184" s="121"/>
-      <c r="F184" s="195"/>
-      <c r="G184" s="105"/>
-      <c r="H184" s="105"/>
-      <c r="I184" s="105"/>
-      <c r="J184" s="105"/>
-      <c r="K184" s="105"/>
-      <c r="L184" s="255"/>
-      <c r="M184" s="261"/>
-    </row>
-    <row r="185" spans="1:13" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="193"/>
-      <c r="B185" s="119"/>
+      <c r="E184" s="195"/>
+      <c r="F184" s="162"/>
+      <c r="G184" s="117"/>
+      <c r="H184" s="117"/>
+      <c r="I184" s="117"/>
+      <c r="J184" s="117"/>
+      <c r="K184" s="117"/>
+      <c r="L184" s="120"/>
+      <c r="M184" s="105"/>
+    </row>
+    <row r="185" spans="1:13" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A185" s="214"/>
+      <c r="B185" s="186"/>
       <c r="C185" s="6" t="s">
         <v>273</v>
       </c>
       <c r="D185" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="E185" s="122"/>
-      <c r="F185" s="196"/>
-      <c r="G185" s="106"/>
-      <c r="H185" s="106"/>
-      <c r="I185" s="106"/>
-      <c r="J185" s="106"/>
-      <c r="K185" s="106"/>
-      <c r="L185" s="256"/>
-      <c r="M185" s="262"/>
-    </row>
-    <row r="186" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A186" s="191">
+      <c r="E185" s="190"/>
+      <c r="F185" s="163"/>
+      <c r="G185" s="118"/>
+      <c r="H185" s="118"/>
+      <c r="I185" s="118"/>
+      <c r="J185" s="118"/>
+      <c r="K185" s="118"/>
+      <c r="L185" s="121"/>
+      <c r="M185" s="106"/>
+    </row>
+    <row r="186" spans="1:13" ht="26.5" x14ac:dyDescent="0.3">
+      <c r="A186" s="212">
         <v>62</v>
       </c>
-      <c r="B186" s="117" t="s">
+      <c r="B186" s="185" t="s">
         <v>276</v>
       </c>
-      <c r="C186" s="117" t="s">
+      <c r="C186" s="185" t="s">
         <v>277</v>
       </c>
       <c r="D186" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="E186" s="120" t="s">
+      <c r="E186" s="189" t="s">
         <v>36</v>
       </c>
-      <c r="F186" s="194" t="s">
+      <c r="F186" s="161" t="s">
         <v>286</v>
       </c>
-      <c r="G186" s="104" t="s">
+      <c r="G186" s="116" t="s">
         <v>353</v>
       </c>
-      <c r="H186" s="104" t="s">
+      <c r="H186" s="116" t="s">
         <v>361</v>
       </c>
-      <c r="I186" s="104" t="s">
+      <c r="I186" s="116" t="s">
         <v>354</v>
       </c>
-      <c r="J186" s="104" t="s">
+      <c r="J186" s="116" t="s">
         <v>428</v>
       </c>
-      <c r="K186" s="104" t="s">
+      <c r="K186" s="116" t="s">
         <v>444</v>
       </c>
-      <c r="L186" s="254"/>
-      <c r="M186" s="260" t="s">
+      <c r="L186" s="119"/>
+      <c r="M186" s="104" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="187" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="192"/>
-      <c r="B187" s="118"/>
-      <c r="C187" s="118"/>
+    <row r="187" spans="1:13" ht="30.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="213"/>
+      <c r="B187" s="194"/>
+      <c r="C187" s="194"/>
       <c r="D187" s="3"/>
-      <c r="E187" s="121"/>
-      <c r="F187" s="195"/>
-      <c r="G187" s="105"/>
-      <c r="H187" s="105"/>
-      <c r="I187" s="105"/>
-      <c r="J187" s="105"/>
-      <c r="K187" s="105"/>
-      <c r="L187" s="255"/>
-      <c r="M187" s="261"/>
-    </row>
-    <row r="188" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A188" s="193"/>
-      <c r="B188" s="119"/>
-      <c r="C188" s="119"/>
+      <c r="E187" s="195"/>
+      <c r="F187" s="162"/>
+      <c r="G187" s="117"/>
+      <c r="H187" s="117"/>
+      <c r="I187" s="117"/>
+      <c r="J187" s="117"/>
+      <c r="K187" s="117"/>
+      <c r="L187" s="120"/>
+      <c r="M187" s="105"/>
+    </row>
+    <row r="188" spans="1:13" ht="27.1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A188" s="214"/>
+      <c r="B188" s="186"/>
+      <c r="C188" s="186"/>
       <c r="D188" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="E188" s="122"/>
-      <c r="F188" s="196"/>
-      <c r="G188" s="106"/>
-      <c r="H188" s="106"/>
-      <c r="I188" s="106"/>
-      <c r="J188" s="106"/>
-      <c r="K188" s="106"/>
-      <c r="L188" s="256"/>
-      <c r="M188" s="262"/>
-    </row>
-    <row r="189" spans="1:13" s="175" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="175" t="s">
+      <c r="E188" s="190"/>
+      <c r="F188" s="163"/>
+      <c r="G188" s="118"/>
+      <c r="H188" s="118"/>
+      <c r="I188" s="118"/>
+      <c r="J188" s="118"/>
+      <c r="K188" s="118"/>
+      <c r="L188" s="121"/>
+      <c r="M188" s="106"/>
+    </row>
+    <row r="189" spans="1:13" s="178" customFormat="1" ht="30.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A189" s="178" t="s">
         <v>280</v>
       </c>
-      <c r="B189" s="176"/>
-      <c r="C189" s="176"/>
-      <c r="D189" s="176"/>
-      <c r="E189" s="176"/>
-      <c r="F189" s="176"/>
-      <c r="G189" s="176"/>
-    </row>
-    <row r="190" spans="1:13" s="177" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B190" s="178"/>
-      <c r="C190" s="178"/>
-      <c r="D190" s="178"/>
-      <c r="E190" s="178"/>
-      <c r="F190" s="178"/>
-      <c r="G190" s="178"/>
-    </row>
-    <row r="191" spans="1:13" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B189" s="179"/>
+      <c r="C189" s="179"/>
+      <c r="D189" s="179"/>
+      <c r="E189" s="179"/>
+      <c r="F189" s="179"/>
+      <c r="G189" s="179"/>
+    </row>
+    <row r="190" spans="1:13" s="180" customFormat="1" ht="30.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B190" s="181"/>
+      <c r="C190" s="181"/>
+      <c r="D190" s="181"/>
+      <c r="E190" s="181"/>
+      <c r="F190" s="181"/>
+      <c r="G190" s="181"/>
+    </row>
+    <row r="191" spans="1:13" ht="30.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A191" s="18" t="s">
         <v>1</v>
       </c>
@@ -7940,221 +7948,457 @@
         <v>446</v>
       </c>
     </row>
-    <row r="192" spans="1:13" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A192" s="172">
+    <row r="192" spans="1:13" ht="66.25" x14ac:dyDescent="0.3">
+      <c r="A192" s="183">
         <v>63</v>
       </c>
-      <c r="B192" s="117" t="s">
+      <c r="B192" s="185" t="s">
         <v>281</v>
       </c>
       <c r="C192" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="D192" s="117" t="s">
+      <c r="D192" s="185" t="s">
         <v>284</v>
       </c>
-      <c r="E192" s="120" t="s">
+      <c r="E192" s="189" t="s">
         <v>36</v>
       </c>
-      <c r="F192" s="107" t="s">
+      <c r="F192" s="138" t="s">
         <v>286</v>
       </c>
-      <c r="G192" s="107" t="s">
+      <c r="G192" s="138" t="s">
         <v>286</v>
       </c>
-      <c r="H192" s="107" t="s">
+      <c r="H192" s="138" t="s">
         <v>356</v>
       </c>
-      <c r="I192" s="107" t="s">
+      <c r="I192" s="138" t="s">
         <v>354</v>
       </c>
-      <c r="J192" s="107" t="s">
+      <c r="J192" s="138" t="s">
         <v>445</v>
       </c>
-      <c r="K192" s="107"/>
-      <c r="L192" s="107"/>
-      <c r="M192" s="90"/>
-    </row>
-    <row r="193" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="173"/>
-      <c r="B193" s="118"/>
+      <c r="K192" s="138"/>
+      <c r="L192" s="138"/>
+      <c r="M192" s="103"/>
+    </row>
+    <row r="193" spans="1:13" ht="30.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="196"/>
+      <c r="B193" s="194"/>
       <c r="C193" s="3"/>
-      <c r="D193" s="118"/>
-      <c r="E193" s="121"/>
-      <c r="F193" s="107"/>
-      <c r="G193" s="107"/>
-      <c r="H193" s="107"/>
-      <c r="I193" s="107"/>
-      <c r="J193" s="107"/>
-      <c r="K193" s="107"/>
-      <c r="L193" s="107"/>
-      <c r="M193" s="90"/>
-    </row>
-    <row r="194" spans="1:13" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="174"/>
-      <c r="B194" s="119"/>
+      <c r="D193" s="194"/>
+      <c r="E193" s="195"/>
+      <c r="F193" s="138"/>
+      <c r="G193" s="138"/>
+      <c r="H193" s="138"/>
+      <c r="I193" s="138"/>
+      <c r="J193" s="138"/>
+      <c r="K193" s="138"/>
+      <c r="L193" s="138"/>
+      <c r="M193" s="103"/>
+    </row>
+    <row r="194" spans="1:13" ht="53.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A194" s="184"/>
+      <c r="B194" s="186"/>
       <c r="C194" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="D194" s="119"/>
-      <c r="E194" s="122"/>
-      <c r="F194" s="108"/>
-      <c r="G194" s="108"/>
-      <c r="H194" s="108"/>
-      <c r="I194" s="108"/>
-      <c r="J194" s="108"/>
-      <c r="K194" s="108"/>
-      <c r="L194" s="108"/>
-      <c r="M194" s="91"/>
+      <c r="D194" s="186"/>
+      <c r="E194" s="190"/>
+      <c r="F194" s="139"/>
+      <c r="G194" s="139"/>
+      <c r="H194" s="139"/>
+      <c r="I194" s="139"/>
+      <c r="J194" s="139"/>
+      <c r="K194" s="139"/>
+      <c r="L194" s="139"/>
+      <c r="M194" s="102"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:I1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="550">
-    <mergeCell ref="M165:M167"/>
-    <mergeCell ref="M168:M169"/>
-    <mergeCell ref="M170:M174"/>
-    <mergeCell ref="M175:M177"/>
-    <mergeCell ref="M180:M182"/>
-    <mergeCell ref="M183:M185"/>
-    <mergeCell ref="M186:M188"/>
-    <mergeCell ref="M192:M194"/>
-    <mergeCell ref="M133:M135"/>
-    <mergeCell ref="M136:M138"/>
-    <mergeCell ref="M139:M143"/>
-    <mergeCell ref="M144:M146"/>
-    <mergeCell ref="M147:M149"/>
-    <mergeCell ref="M153:M155"/>
-    <mergeCell ref="M156:M158"/>
-    <mergeCell ref="M159:M161"/>
-    <mergeCell ref="M162:M164"/>
-    <mergeCell ref="M97:M99"/>
-    <mergeCell ref="M100:M102"/>
-    <mergeCell ref="M103:M105"/>
-    <mergeCell ref="M108:M110"/>
-    <mergeCell ref="M114:M116"/>
-    <mergeCell ref="M117:M119"/>
-    <mergeCell ref="M122:M124"/>
-    <mergeCell ref="M125:M129"/>
-    <mergeCell ref="M130:M132"/>
-    <mergeCell ref="M50:M56"/>
-    <mergeCell ref="M57:M59"/>
-    <mergeCell ref="M62:M64"/>
-    <mergeCell ref="M65:M67"/>
-    <mergeCell ref="M68:M70"/>
-    <mergeCell ref="M73:M75"/>
-    <mergeCell ref="M80:M82"/>
-    <mergeCell ref="M83:M85"/>
-    <mergeCell ref="M86:M88"/>
-    <mergeCell ref="M2:M6"/>
-    <mergeCell ref="M10:M12"/>
-    <mergeCell ref="M13:M17"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="M28:M32"/>
-    <mergeCell ref="M33:M37"/>
-    <mergeCell ref="M38:M44"/>
-    <mergeCell ref="M45:M49"/>
-    <mergeCell ref="J180:J182"/>
-    <mergeCell ref="K180:K182"/>
-    <mergeCell ref="L180:L182"/>
-    <mergeCell ref="J183:J185"/>
-    <mergeCell ref="K183:K185"/>
-    <mergeCell ref="L183:L185"/>
-    <mergeCell ref="J186:J188"/>
-    <mergeCell ref="K186:K188"/>
-    <mergeCell ref="L186:L188"/>
-    <mergeCell ref="J168:J169"/>
-    <mergeCell ref="K168:K169"/>
-    <mergeCell ref="L168:L169"/>
-    <mergeCell ref="J170:J174"/>
-    <mergeCell ref="K170:K174"/>
-    <mergeCell ref="L170:L174"/>
-    <mergeCell ref="J175:J177"/>
-    <mergeCell ref="K175:K177"/>
-    <mergeCell ref="L175:L177"/>
-    <mergeCell ref="J159:J161"/>
-    <mergeCell ref="K159:K161"/>
-    <mergeCell ref="L159:L161"/>
-    <mergeCell ref="J162:J164"/>
-    <mergeCell ref="K162:K164"/>
-    <mergeCell ref="L162:L164"/>
-    <mergeCell ref="J165:J167"/>
-    <mergeCell ref="K165:K167"/>
-    <mergeCell ref="L165:L167"/>
-    <mergeCell ref="J147:J149"/>
-    <mergeCell ref="K147:K149"/>
-    <mergeCell ref="L147:L149"/>
-    <mergeCell ref="J153:J155"/>
-    <mergeCell ref="K153:K155"/>
-    <mergeCell ref="L153:L155"/>
-    <mergeCell ref="J156:J158"/>
-    <mergeCell ref="K156:K158"/>
-    <mergeCell ref="L156:L158"/>
-    <mergeCell ref="J136:J138"/>
-    <mergeCell ref="K136:K138"/>
-    <mergeCell ref="L136:L138"/>
-    <mergeCell ref="J139:J143"/>
-    <mergeCell ref="K139:K143"/>
-    <mergeCell ref="L139:L143"/>
-    <mergeCell ref="J144:J146"/>
-    <mergeCell ref="K144:K146"/>
-    <mergeCell ref="L144:L146"/>
-    <mergeCell ref="J125:J129"/>
-    <mergeCell ref="K125:K129"/>
-    <mergeCell ref="L125:L129"/>
-    <mergeCell ref="J130:J132"/>
-    <mergeCell ref="K130:K132"/>
-    <mergeCell ref="L130:L132"/>
-    <mergeCell ref="J133:J135"/>
-    <mergeCell ref="K133:K135"/>
-    <mergeCell ref="L133:L135"/>
-    <mergeCell ref="J103:J105"/>
-    <mergeCell ref="K103:K105"/>
-    <mergeCell ref="L103:L105"/>
-    <mergeCell ref="J108:J110"/>
-    <mergeCell ref="K108:K110"/>
-    <mergeCell ref="L108:L110"/>
-    <mergeCell ref="J114:J116"/>
-    <mergeCell ref="K114:K116"/>
-    <mergeCell ref="L114:L116"/>
-    <mergeCell ref="J86:J88"/>
-    <mergeCell ref="K86:K88"/>
-    <mergeCell ref="L86:L88"/>
-    <mergeCell ref="J90:J95"/>
-    <mergeCell ref="K90:K95"/>
-    <mergeCell ref="J97:J99"/>
-    <mergeCell ref="K97:K99"/>
-    <mergeCell ref="L97:L99"/>
-    <mergeCell ref="J100:J102"/>
-    <mergeCell ref="K100:K102"/>
-    <mergeCell ref="L100:L102"/>
-    <mergeCell ref="J65:J67"/>
-    <mergeCell ref="K65:K67"/>
-    <mergeCell ref="L65:L67"/>
-    <mergeCell ref="J68:J70"/>
-    <mergeCell ref="K68:K70"/>
-    <mergeCell ref="L68:L70"/>
-    <mergeCell ref="J73:J75"/>
-    <mergeCell ref="K73:K75"/>
-    <mergeCell ref="L73:L75"/>
-    <mergeCell ref="J50:J56"/>
-    <mergeCell ref="K50:K56"/>
-    <mergeCell ref="L50:L56"/>
-    <mergeCell ref="J57:J59"/>
-    <mergeCell ref="K57:K59"/>
-    <mergeCell ref="L57:L59"/>
-    <mergeCell ref="J62:J64"/>
-    <mergeCell ref="K62:K64"/>
-    <mergeCell ref="L62:L64"/>
-    <mergeCell ref="J33:J37"/>
-    <mergeCell ref="K33:K37"/>
-    <mergeCell ref="L33:L37"/>
-    <mergeCell ref="J38:J44"/>
-    <mergeCell ref="K38:K44"/>
-    <mergeCell ref="L38:L44"/>
-    <mergeCell ref="J45:J49"/>
-    <mergeCell ref="K45:K49"/>
-    <mergeCell ref="L45:L49"/>
+    <mergeCell ref="H90:H95"/>
+    <mergeCell ref="I90:I95"/>
+    <mergeCell ref="I133:I135"/>
+    <mergeCell ref="I136:I138"/>
+    <mergeCell ref="I139:I143"/>
+    <mergeCell ref="I144:I146"/>
+    <mergeCell ref="I147:I149"/>
+    <mergeCell ref="I153:I155"/>
+    <mergeCell ref="I156:I158"/>
+    <mergeCell ref="I97:I99"/>
+    <mergeCell ref="I100:I102"/>
+    <mergeCell ref="I103:I105"/>
+    <mergeCell ref="I108:I110"/>
+    <mergeCell ref="I114:I116"/>
+    <mergeCell ref="H133:H135"/>
+    <mergeCell ref="H136:H138"/>
+    <mergeCell ref="H139:H143"/>
+    <mergeCell ref="H144:H146"/>
+    <mergeCell ref="H147:H149"/>
+    <mergeCell ref="H153:H155"/>
+    <mergeCell ref="H156:H158"/>
+    <mergeCell ref="I86:I88"/>
+    <mergeCell ref="I165:I167"/>
+    <mergeCell ref="I168:I169"/>
+    <mergeCell ref="I170:I174"/>
+    <mergeCell ref="I175:I177"/>
+    <mergeCell ref="I180:I182"/>
+    <mergeCell ref="I183:I185"/>
+    <mergeCell ref="I186:I188"/>
+    <mergeCell ref="I192:I194"/>
+    <mergeCell ref="I159:I161"/>
+    <mergeCell ref="I162:I164"/>
+    <mergeCell ref="H165:H167"/>
+    <mergeCell ref="H168:H169"/>
+    <mergeCell ref="H170:H174"/>
+    <mergeCell ref="H175:H177"/>
+    <mergeCell ref="H180:H182"/>
+    <mergeCell ref="H183:H185"/>
+    <mergeCell ref="I2:I6"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="I13:I17"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="I28:I32"/>
+    <mergeCell ref="I33:I37"/>
+    <mergeCell ref="I38:I44"/>
+    <mergeCell ref="I45:I49"/>
+    <mergeCell ref="I117:I119"/>
+    <mergeCell ref="I122:I124"/>
+    <mergeCell ref="I125:I129"/>
+    <mergeCell ref="I130:I132"/>
+    <mergeCell ref="I50:I56"/>
+    <mergeCell ref="I57:I59"/>
+    <mergeCell ref="I62:I64"/>
+    <mergeCell ref="I65:I67"/>
+    <mergeCell ref="I68:I70"/>
+    <mergeCell ref="H159:H161"/>
+    <mergeCell ref="H162:H164"/>
+    <mergeCell ref="H97:H99"/>
+    <mergeCell ref="H100:H102"/>
+    <mergeCell ref="H103:H105"/>
+    <mergeCell ref="H108:H110"/>
+    <mergeCell ref="H114:H116"/>
+    <mergeCell ref="H117:H119"/>
+    <mergeCell ref="H122:H124"/>
+    <mergeCell ref="H125:H129"/>
+    <mergeCell ref="H130:H132"/>
+    <mergeCell ref="H50:H56"/>
+    <mergeCell ref="H57:H59"/>
+    <mergeCell ref="H62:H64"/>
+    <mergeCell ref="H65:H67"/>
+    <mergeCell ref="H68:H70"/>
+    <mergeCell ref="H73:H75"/>
+    <mergeCell ref="H80:H82"/>
+    <mergeCell ref="H83:H85"/>
+    <mergeCell ref="H86:H88"/>
+    <mergeCell ref="H2:H6"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="H13:H17"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="H28:H32"/>
+    <mergeCell ref="H33:H37"/>
+    <mergeCell ref="H38:H44"/>
+    <mergeCell ref="H45:H49"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="E2:E6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="E45:E49"/>
+    <mergeCell ref="B50:B56"/>
+    <mergeCell ref="C50:C56"/>
+    <mergeCell ref="E50:E56"/>
+    <mergeCell ref="A38:A44"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="E28:E32"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="E33:E37"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="A50:A56"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="E68:E70"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="E62:E64"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="E65:E67"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="A80:A82"/>
+    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="E80:E82"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="E83:E85"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="E73:E75"/>
+    <mergeCell ref="A73:A75"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="A77:XFD78"/>
+    <mergeCell ref="I73:I75"/>
+    <mergeCell ref="I80:I82"/>
+    <mergeCell ref="I83:I85"/>
+    <mergeCell ref="J80:J82"/>
+    <mergeCell ref="K80:K82"/>
+    <mergeCell ref="L80:L82"/>
+    <mergeCell ref="J83:J85"/>
+    <mergeCell ref="K83:K85"/>
+    <mergeCell ref="L83:L85"/>
+    <mergeCell ref="A100:A102"/>
+    <mergeCell ref="B100:B102"/>
+    <mergeCell ref="E100:E102"/>
+    <mergeCell ref="A103:A105"/>
+    <mergeCell ref="B103:B105"/>
+    <mergeCell ref="E103:E105"/>
+    <mergeCell ref="A86:A88"/>
+    <mergeCell ref="E86:E88"/>
+    <mergeCell ref="A90:A95"/>
+    <mergeCell ref="B90:B95"/>
+    <mergeCell ref="E90:E95"/>
+    <mergeCell ref="A97:A99"/>
+    <mergeCell ref="B97:B99"/>
+    <mergeCell ref="C97:C99"/>
+    <mergeCell ref="D97:D99"/>
+    <mergeCell ref="E97:E99"/>
+    <mergeCell ref="A117:A119"/>
+    <mergeCell ref="B117:B119"/>
+    <mergeCell ref="C117:C119"/>
+    <mergeCell ref="E117:E119"/>
+    <mergeCell ref="A122:A124"/>
+    <mergeCell ref="B122:B124"/>
+    <mergeCell ref="E122:E124"/>
+    <mergeCell ref="A108:A110"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="D108:D110"/>
+    <mergeCell ref="E108:E110"/>
+    <mergeCell ref="A114:A116"/>
+    <mergeCell ref="B114:B116"/>
+    <mergeCell ref="D114:D116"/>
+    <mergeCell ref="E114:E116"/>
+    <mergeCell ref="A111:XFD112"/>
+    <mergeCell ref="G122:G124"/>
+    <mergeCell ref="J117:J119"/>
+    <mergeCell ref="K117:K119"/>
+    <mergeCell ref="L117:L119"/>
+    <mergeCell ref="J122:J124"/>
+    <mergeCell ref="K122:K124"/>
+    <mergeCell ref="L122:L124"/>
+    <mergeCell ref="A133:A135"/>
+    <mergeCell ref="B133:B135"/>
+    <mergeCell ref="E133:E135"/>
+    <mergeCell ref="A136:A138"/>
+    <mergeCell ref="B136:B138"/>
+    <mergeCell ref="C136:C138"/>
+    <mergeCell ref="E136:E138"/>
+    <mergeCell ref="A125:A129"/>
+    <mergeCell ref="B125:B129"/>
+    <mergeCell ref="E125:E129"/>
+    <mergeCell ref="A130:A132"/>
+    <mergeCell ref="B130:B132"/>
+    <mergeCell ref="E130:E132"/>
+    <mergeCell ref="A147:A149"/>
+    <mergeCell ref="B147:B149"/>
+    <mergeCell ref="D147:D149"/>
+    <mergeCell ref="E147:E149"/>
+    <mergeCell ref="A153:A155"/>
+    <mergeCell ref="B153:B155"/>
+    <mergeCell ref="C153:C155"/>
+    <mergeCell ref="E153:E155"/>
+    <mergeCell ref="A139:A143"/>
+    <mergeCell ref="B139:B143"/>
+    <mergeCell ref="E139:E143"/>
+    <mergeCell ref="A144:A146"/>
+    <mergeCell ref="B144:B146"/>
+    <mergeCell ref="E144:E146"/>
+    <mergeCell ref="A162:A164"/>
+    <mergeCell ref="B162:B164"/>
+    <mergeCell ref="E162:E164"/>
+    <mergeCell ref="A165:A167"/>
+    <mergeCell ref="B165:B167"/>
+    <mergeCell ref="E165:E167"/>
+    <mergeCell ref="A156:A158"/>
+    <mergeCell ref="B156:B158"/>
+    <mergeCell ref="E156:E158"/>
+    <mergeCell ref="A159:A161"/>
+    <mergeCell ref="B159:B161"/>
+    <mergeCell ref="C159:C161"/>
+    <mergeCell ref="D159:D161"/>
+    <mergeCell ref="E159:E161"/>
+    <mergeCell ref="A175:A177"/>
+    <mergeCell ref="B175:B177"/>
+    <mergeCell ref="D175:D177"/>
+    <mergeCell ref="E175:E177"/>
+    <mergeCell ref="A180:A182"/>
+    <mergeCell ref="B180:B182"/>
+    <mergeCell ref="C180:C182"/>
+    <mergeCell ref="E180:E182"/>
+    <mergeCell ref="A168:A169"/>
+    <mergeCell ref="B168:B169"/>
+    <mergeCell ref="C168:C169"/>
+    <mergeCell ref="D168:D169"/>
+    <mergeCell ref="E168:E169"/>
+    <mergeCell ref="A170:A174"/>
+    <mergeCell ref="B170:B174"/>
+    <mergeCell ref="E170:E174"/>
+    <mergeCell ref="A192:A194"/>
+    <mergeCell ref="B192:B194"/>
+    <mergeCell ref="D192:D194"/>
+    <mergeCell ref="E192:E194"/>
+    <mergeCell ref="A183:A185"/>
+    <mergeCell ref="B183:B185"/>
+    <mergeCell ref="E183:E185"/>
+    <mergeCell ref="A186:A188"/>
+    <mergeCell ref="B186:B188"/>
+    <mergeCell ref="C186:C188"/>
+    <mergeCell ref="E186:E188"/>
+    <mergeCell ref="A189:XFD190"/>
+    <mergeCell ref="H186:H188"/>
+    <mergeCell ref="H192:H194"/>
+    <mergeCell ref="F186:F188"/>
+    <mergeCell ref="F192:F194"/>
+    <mergeCell ref="G192:G194"/>
+    <mergeCell ref="G183:G185"/>
+    <mergeCell ref="G186:G188"/>
+    <mergeCell ref="J192:J194"/>
+    <mergeCell ref="K192:K194"/>
+    <mergeCell ref="L192:L194"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="B38:B44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="D47:D49"/>
+    <mergeCell ref="F2:F6"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="F13:F17"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="F28:F32"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E38:E44"/>
+    <mergeCell ref="F33:F37"/>
+    <mergeCell ref="F38:F44"/>
+    <mergeCell ref="A25:XFD26"/>
+    <mergeCell ref="A7:XFD8"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="E13:E17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="G2:G6"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="G13:G17"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="F156:F158"/>
+    <mergeCell ref="F159:F161"/>
+    <mergeCell ref="F162:F164"/>
+    <mergeCell ref="F165:F167"/>
+    <mergeCell ref="G28:G32"/>
+    <mergeCell ref="G33:G37"/>
+    <mergeCell ref="G38:G44"/>
+    <mergeCell ref="G45:G49"/>
+    <mergeCell ref="G50:G56"/>
+    <mergeCell ref="G57:G59"/>
+    <mergeCell ref="F45:F49"/>
+    <mergeCell ref="F50:F56"/>
+    <mergeCell ref="F57:F59"/>
+    <mergeCell ref="F62:F64"/>
+    <mergeCell ref="F65:F67"/>
+    <mergeCell ref="F68:F70"/>
+    <mergeCell ref="F73:F75"/>
+    <mergeCell ref="F80:F82"/>
+    <mergeCell ref="G80:G82"/>
+    <mergeCell ref="F180:F182"/>
+    <mergeCell ref="F183:F185"/>
+    <mergeCell ref="F130:F132"/>
+    <mergeCell ref="F83:F85"/>
+    <mergeCell ref="F86:F88"/>
+    <mergeCell ref="F90:F95"/>
+    <mergeCell ref="F97:F99"/>
+    <mergeCell ref="F100:F102"/>
+    <mergeCell ref="F103:F105"/>
+    <mergeCell ref="F168:F169"/>
+    <mergeCell ref="F170:F174"/>
+    <mergeCell ref="F133:F135"/>
+    <mergeCell ref="F136:F138"/>
+    <mergeCell ref="F139:F143"/>
+    <mergeCell ref="F144:F146"/>
+    <mergeCell ref="F147:F149"/>
+    <mergeCell ref="F153:F155"/>
+    <mergeCell ref="F108:F110"/>
+    <mergeCell ref="F114:F116"/>
+    <mergeCell ref="F117:F119"/>
+    <mergeCell ref="F122:F124"/>
+    <mergeCell ref="F125:F129"/>
+    <mergeCell ref="G125:G129"/>
+    <mergeCell ref="G130:G132"/>
+    <mergeCell ref="G62:G64"/>
+    <mergeCell ref="G65:G67"/>
+    <mergeCell ref="G68:G70"/>
+    <mergeCell ref="G73:G75"/>
+    <mergeCell ref="G83:G85"/>
+    <mergeCell ref="F175:F177"/>
+    <mergeCell ref="G180:G182"/>
+    <mergeCell ref="G133:G135"/>
+    <mergeCell ref="G86:G88"/>
+    <mergeCell ref="G90:G95"/>
+    <mergeCell ref="G97:G99"/>
+    <mergeCell ref="G100:G102"/>
+    <mergeCell ref="G103:G105"/>
+    <mergeCell ref="G108:G110"/>
+    <mergeCell ref="G168:G169"/>
+    <mergeCell ref="G170:G174"/>
+    <mergeCell ref="G175:G177"/>
+    <mergeCell ref="G136:G138"/>
+    <mergeCell ref="G139:G143"/>
+    <mergeCell ref="G144:G146"/>
+    <mergeCell ref="G147:G149"/>
+    <mergeCell ref="G153:G155"/>
     <mergeCell ref="G156:G158"/>
     <mergeCell ref="G159:G161"/>
     <mergeCell ref="G162:G164"/>
@@ -8179,387 +8423,151 @@
     <mergeCell ref="J28:J32"/>
     <mergeCell ref="K28:K32"/>
     <mergeCell ref="L28:L32"/>
-    <mergeCell ref="G125:G129"/>
-    <mergeCell ref="G130:G132"/>
-    <mergeCell ref="G62:G64"/>
-    <mergeCell ref="G65:G67"/>
-    <mergeCell ref="G68:G70"/>
-    <mergeCell ref="G73:G75"/>
-    <mergeCell ref="G83:G85"/>
-    <mergeCell ref="F175:F177"/>
-    <mergeCell ref="G180:G182"/>
-    <mergeCell ref="G133:G135"/>
-    <mergeCell ref="G86:G88"/>
-    <mergeCell ref="G90:G95"/>
-    <mergeCell ref="G97:G99"/>
-    <mergeCell ref="G100:G102"/>
-    <mergeCell ref="G103:G105"/>
-    <mergeCell ref="G108:G110"/>
-    <mergeCell ref="G168:G169"/>
-    <mergeCell ref="G170:G174"/>
-    <mergeCell ref="G175:G177"/>
-    <mergeCell ref="G136:G138"/>
-    <mergeCell ref="G139:G143"/>
-    <mergeCell ref="G144:G146"/>
-    <mergeCell ref="G147:G149"/>
-    <mergeCell ref="G153:G155"/>
-    <mergeCell ref="F180:F182"/>
-    <mergeCell ref="F183:F185"/>
-    <mergeCell ref="F130:F132"/>
-    <mergeCell ref="F83:F85"/>
-    <mergeCell ref="F86:F88"/>
-    <mergeCell ref="F90:F95"/>
-    <mergeCell ref="F97:F99"/>
-    <mergeCell ref="F100:F102"/>
-    <mergeCell ref="F103:F105"/>
-    <mergeCell ref="F168:F169"/>
-    <mergeCell ref="F170:F174"/>
-    <mergeCell ref="F133:F135"/>
-    <mergeCell ref="F136:F138"/>
-    <mergeCell ref="F139:F143"/>
-    <mergeCell ref="F144:F146"/>
-    <mergeCell ref="F147:F149"/>
-    <mergeCell ref="F153:F155"/>
-    <mergeCell ref="F108:F110"/>
-    <mergeCell ref="F114:F116"/>
-    <mergeCell ref="F117:F119"/>
-    <mergeCell ref="F122:F124"/>
-    <mergeCell ref="F125:F129"/>
-    <mergeCell ref="G2:G6"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="G13:G17"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="F156:F158"/>
-    <mergeCell ref="F159:F161"/>
-    <mergeCell ref="F162:F164"/>
-    <mergeCell ref="F165:F167"/>
-    <mergeCell ref="G28:G32"/>
-    <mergeCell ref="G33:G37"/>
-    <mergeCell ref="G38:G44"/>
-    <mergeCell ref="G45:G49"/>
-    <mergeCell ref="G50:G56"/>
-    <mergeCell ref="G57:G59"/>
-    <mergeCell ref="F45:F49"/>
-    <mergeCell ref="F50:F56"/>
-    <mergeCell ref="F57:F59"/>
-    <mergeCell ref="F62:F64"/>
-    <mergeCell ref="F65:F67"/>
-    <mergeCell ref="F68:F70"/>
-    <mergeCell ref="F73:F75"/>
-    <mergeCell ref="F80:F82"/>
-    <mergeCell ref="G80:G82"/>
-    <mergeCell ref="F2:F6"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="F13:F17"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="F28:F32"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E38:E44"/>
-    <mergeCell ref="F33:F37"/>
-    <mergeCell ref="F38:F44"/>
-    <mergeCell ref="A25:XFD26"/>
-    <mergeCell ref="A7:XFD8"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="E13:E17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="A62:A64"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="B38:B44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="D47:D49"/>
-    <mergeCell ref="A192:A194"/>
-    <mergeCell ref="B192:B194"/>
-    <mergeCell ref="D192:D194"/>
-    <mergeCell ref="E192:E194"/>
-    <mergeCell ref="A183:A185"/>
-    <mergeCell ref="B183:B185"/>
-    <mergeCell ref="E183:E185"/>
-    <mergeCell ref="A186:A188"/>
-    <mergeCell ref="B186:B188"/>
-    <mergeCell ref="C186:C188"/>
-    <mergeCell ref="E186:E188"/>
-    <mergeCell ref="A189:XFD190"/>
-    <mergeCell ref="H186:H188"/>
-    <mergeCell ref="H192:H194"/>
-    <mergeCell ref="F186:F188"/>
-    <mergeCell ref="F192:F194"/>
-    <mergeCell ref="G192:G194"/>
-    <mergeCell ref="G183:G185"/>
-    <mergeCell ref="G186:G188"/>
-    <mergeCell ref="J192:J194"/>
-    <mergeCell ref="K192:K194"/>
-    <mergeCell ref="L192:L194"/>
-    <mergeCell ref="A175:A177"/>
-    <mergeCell ref="B175:B177"/>
-    <mergeCell ref="D175:D177"/>
-    <mergeCell ref="E175:E177"/>
-    <mergeCell ref="A180:A182"/>
-    <mergeCell ref="B180:B182"/>
-    <mergeCell ref="C180:C182"/>
-    <mergeCell ref="E180:E182"/>
-    <mergeCell ref="A168:A169"/>
-    <mergeCell ref="B168:B169"/>
-    <mergeCell ref="C168:C169"/>
-    <mergeCell ref="D168:D169"/>
-    <mergeCell ref="E168:E169"/>
-    <mergeCell ref="A170:A174"/>
-    <mergeCell ref="B170:B174"/>
-    <mergeCell ref="E170:E174"/>
-    <mergeCell ref="A162:A164"/>
-    <mergeCell ref="B162:B164"/>
-    <mergeCell ref="E162:E164"/>
-    <mergeCell ref="A165:A167"/>
-    <mergeCell ref="B165:B167"/>
-    <mergeCell ref="E165:E167"/>
-    <mergeCell ref="A156:A158"/>
-    <mergeCell ref="B156:B158"/>
-    <mergeCell ref="E156:E158"/>
-    <mergeCell ref="A159:A161"/>
-    <mergeCell ref="B159:B161"/>
-    <mergeCell ref="C159:C161"/>
-    <mergeCell ref="D159:D161"/>
-    <mergeCell ref="E159:E161"/>
-    <mergeCell ref="A147:A149"/>
-    <mergeCell ref="B147:B149"/>
-    <mergeCell ref="D147:D149"/>
-    <mergeCell ref="E147:E149"/>
-    <mergeCell ref="A153:A155"/>
-    <mergeCell ref="B153:B155"/>
-    <mergeCell ref="C153:C155"/>
-    <mergeCell ref="E153:E155"/>
-    <mergeCell ref="A139:A143"/>
-    <mergeCell ref="B139:B143"/>
-    <mergeCell ref="E139:E143"/>
-    <mergeCell ref="A144:A146"/>
-    <mergeCell ref="B144:B146"/>
-    <mergeCell ref="E144:E146"/>
-    <mergeCell ref="A133:A135"/>
-    <mergeCell ref="B133:B135"/>
-    <mergeCell ref="E133:E135"/>
-    <mergeCell ref="A136:A138"/>
-    <mergeCell ref="B136:B138"/>
-    <mergeCell ref="C136:C138"/>
-    <mergeCell ref="E136:E138"/>
-    <mergeCell ref="A125:A129"/>
-    <mergeCell ref="B125:B129"/>
-    <mergeCell ref="E125:E129"/>
-    <mergeCell ref="A130:A132"/>
-    <mergeCell ref="B130:B132"/>
-    <mergeCell ref="E130:E132"/>
-    <mergeCell ref="A117:A119"/>
-    <mergeCell ref="B117:B119"/>
-    <mergeCell ref="C117:C119"/>
-    <mergeCell ref="E117:E119"/>
-    <mergeCell ref="A122:A124"/>
-    <mergeCell ref="B122:B124"/>
-    <mergeCell ref="E122:E124"/>
-    <mergeCell ref="A108:A110"/>
-    <mergeCell ref="B108:B110"/>
-    <mergeCell ref="D108:D110"/>
-    <mergeCell ref="E108:E110"/>
-    <mergeCell ref="A114:A116"/>
-    <mergeCell ref="B114:B116"/>
-    <mergeCell ref="D114:D116"/>
-    <mergeCell ref="E114:E116"/>
-    <mergeCell ref="A111:XFD112"/>
-    <mergeCell ref="G122:G124"/>
-    <mergeCell ref="J117:J119"/>
-    <mergeCell ref="K117:K119"/>
-    <mergeCell ref="L117:L119"/>
-    <mergeCell ref="J122:J124"/>
-    <mergeCell ref="K122:K124"/>
-    <mergeCell ref="L122:L124"/>
-    <mergeCell ref="A100:A102"/>
-    <mergeCell ref="B100:B102"/>
-    <mergeCell ref="E100:E102"/>
-    <mergeCell ref="A103:A105"/>
-    <mergeCell ref="B103:B105"/>
-    <mergeCell ref="E103:E105"/>
-    <mergeCell ref="A86:A88"/>
-    <mergeCell ref="E86:E88"/>
-    <mergeCell ref="A90:A95"/>
-    <mergeCell ref="B90:B95"/>
-    <mergeCell ref="E90:E95"/>
-    <mergeCell ref="A97:A99"/>
-    <mergeCell ref="B97:B99"/>
-    <mergeCell ref="C97:C99"/>
-    <mergeCell ref="D97:D99"/>
-    <mergeCell ref="E97:E99"/>
-    <mergeCell ref="A80:A82"/>
-    <mergeCell ref="B80:B82"/>
-    <mergeCell ref="E80:E82"/>
-    <mergeCell ref="A83:A85"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="E83:E85"/>
-    <mergeCell ref="B73:B75"/>
-    <mergeCell ref="E73:E75"/>
-    <mergeCell ref="A73:A75"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="A77:XFD78"/>
-    <mergeCell ref="I73:I75"/>
-    <mergeCell ref="I80:I82"/>
-    <mergeCell ref="I83:I85"/>
-    <mergeCell ref="J80:J82"/>
-    <mergeCell ref="K80:K82"/>
-    <mergeCell ref="L80:L82"/>
-    <mergeCell ref="J83:J85"/>
-    <mergeCell ref="K83:K85"/>
-    <mergeCell ref="L83:L85"/>
-    <mergeCell ref="E68:E70"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="E62:E64"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="E65:E67"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="E45:E49"/>
-    <mergeCell ref="B50:B56"/>
-    <mergeCell ref="C50:C56"/>
-    <mergeCell ref="E50:E56"/>
-    <mergeCell ref="A38:A44"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="E28:E32"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="E33:E37"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="A50:A56"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="D54:D56"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="E2:E6"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="H2:H6"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="H13:H17"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="H28:H32"/>
-    <mergeCell ref="H33:H37"/>
-    <mergeCell ref="H38:H44"/>
-    <mergeCell ref="H45:H49"/>
-    <mergeCell ref="H50:H56"/>
-    <mergeCell ref="H57:H59"/>
-    <mergeCell ref="H62:H64"/>
-    <mergeCell ref="H65:H67"/>
-    <mergeCell ref="H68:H70"/>
-    <mergeCell ref="H73:H75"/>
-    <mergeCell ref="H80:H82"/>
-    <mergeCell ref="H83:H85"/>
-    <mergeCell ref="H86:H88"/>
-    <mergeCell ref="H159:H161"/>
-    <mergeCell ref="H162:H164"/>
-    <mergeCell ref="H97:H99"/>
-    <mergeCell ref="H100:H102"/>
-    <mergeCell ref="H103:H105"/>
-    <mergeCell ref="H108:H110"/>
-    <mergeCell ref="H114:H116"/>
-    <mergeCell ref="H117:H119"/>
-    <mergeCell ref="H122:H124"/>
-    <mergeCell ref="H125:H129"/>
-    <mergeCell ref="H130:H132"/>
-    <mergeCell ref="H165:H167"/>
-    <mergeCell ref="H168:H169"/>
-    <mergeCell ref="H170:H174"/>
-    <mergeCell ref="H175:H177"/>
-    <mergeCell ref="H180:H182"/>
-    <mergeCell ref="H183:H185"/>
-    <mergeCell ref="I2:I6"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="I13:I17"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="I28:I32"/>
-    <mergeCell ref="I33:I37"/>
-    <mergeCell ref="I38:I44"/>
-    <mergeCell ref="I45:I49"/>
-    <mergeCell ref="I117:I119"/>
-    <mergeCell ref="I122:I124"/>
-    <mergeCell ref="I125:I129"/>
-    <mergeCell ref="I130:I132"/>
-    <mergeCell ref="I50:I56"/>
-    <mergeCell ref="I57:I59"/>
-    <mergeCell ref="I62:I64"/>
-    <mergeCell ref="I65:I67"/>
-    <mergeCell ref="I68:I70"/>
-    <mergeCell ref="I86:I88"/>
-    <mergeCell ref="I165:I167"/>
-    <mergeCell ref="I168:I169"/>
-    <mergeCell ref="I170:I174"/>
-    <mergeCell ref="I175:I177"/>
-    <mergeCell ref="I180:I182"/>
-    <mergeCell ref="I183:I185"/>
-    <mergeCell ref="I186:I188"/>
-    <mergeCell ref="I192:I194"/>
-    <mergeCell ref="I159:I161"/>
-    <mergeCell ref="I162:I164"/>
-    <mergeCell ref="H90:H95"/>
-    <mergeCell ref="I90:I95"/>
-    <mergeCell ref="I133:I135"/>
-    <mergeCell ref="I136:I138"/>
-    <mergeCell ref="I139:I143"/>
-    <mergeCell ref="I144:I146"/>
-    <mergeCell ref="I147:I149"/>
-    <mergeCell ref="I153:I155"/>
-    <mergeCell ref="I156:I158"/>
-    <mergeCell ref="I97:I99"/>
-    <mergeCell ref="I100:I102"/>
-    <mergeCell ref="I103:I105"/>
-    <mergeCell ref="I108:I110"/>
-    <mergeCell ref="I114:I116"/>
-    <mergeCell ref="H133:H135"/>
-    <mergeCell ref="H136:H138"/>
-    <mergeCell ref="H139:H143"/>
-    <mergeCell ref="H144:H146"/>
-    <mergeCell ref="H147:H149"/>
-    <mergeCell ref="H153:H155"/>
-    <mergeCell ref="H156:H158"/>
+    <mergeCell ref="J33:J37"/>
+    <mergeCell ref="K33:K37"/>
+    <mergeCell ref="L33:L37"/>
+    <mergeCell ref="J38:J44"/>
+    <mergeCell ref="K38:K44"/>
+    <mergeCell ref="L38:L44"/>
+    <mergeCell ref="J45:J49"/>
+    <mergeCell ref="K45:K49"/>
+    <mergeCell ref="L45:L49"/>
+    <mergeCell ref="J50:J56"/>
+    <mergeCell ref="K50:K56"/>
+    <mergeCell ref="L50:L56"/>
+    <mergeCell ref="J57:J59"/>
+    <mergeCell ref="K57:K59"/>
+    <mergeCell ref="L57:L59"/>
+    <mergeCell ref="J62:J64"/>
+    <mergeCell ref="K62:K64"/>
+    <mergeCell ref="L62:L64"/>
+    <mergeCell ref="J65:J67"/>
+    <mergeCell ref="K65:K67"/>
+    <mergeCell ref="L65:L67"/>
+    <mergeCell ref="J68:J70"/>
+    <mergeCell ref="K68:K70"/>
+    <mergeCell ref="L68:L70"/>
+    <mergeCell ref="J73:J75"/>
+    <mergeCell ref="K73:K75"/>
+    <mergeCell ref="L73:L75"/>
+    <mergeCell ref="J86:J88"/>
+    <mergeCell ref="K86:K88"/>
+    <mergeCell ref="L86:L88"/>
+    <mergeCell ref="J90:J95"/>
+    <mergeCell ref="K90:K95"/>
+    <mergeCell ref="J97:J99"/>
+    <mergeCell ref="K97:K99"/>
+    <mergeCell ref="L97:L99"/>
+    <mergeCell ref="J100:J102"/>
+    <mergeCell ref="K100:K102"/>
+    <mergeCell ref="L100:L102"/>
+    <mergeCell ref="J103:J105"/>
+    <mergeCell ref="K103:K105"/>
+    <mergeCell ref="L103:L105"/>
+    <mergeCell ref="J108:J110"/>
+    <mergeCell ref="K108:K110"/>
+    <mergeCell ref="L108:L110"/>
+    <mergeCell ref="J114:J116"/>
+    <mergeCell ref="K114:K116"/>
+    <mergeCell ref="L114:L116"/>
+    <mergeCell ref="J125:J129"/>
+    <mergeCell ref="K125:K129"/>
+    <mergeCell ref="L125:L129"/>
+    <mergeCell ref="J130:J132"/>
+    <mergeCell ref="K130:K132"/>
+    <mergeCell ref="L130:L132"/>
+    <mergeCell ref="J133:J135"/>
+    <mergeCell ref="K133:K135"/>
+    <mergeCell ref="L133:L135"/>
+    <mergeCell ref="J136:J138"/>
+    <mergeCell ref="K136:K138"/>
+    <mergeCell ref="L136:L138"/>
+    <mergeCell ref="J139:J143"/>
+    <mergeCell ref="K139:K143"/>
+    <mergeCell ref="L139:L143"/>
+    <mergeCell ref="J144:J146"/>
+    <mergeCell ref="K144:K146"/>
+    <mergeCell ref="L144:L146"/>
+    <mergeCell ref="J147:J149"/>
+    <mergeCell ref="K147:K149"/>
+    <mergeCell ref="L147:L149"/>
+    <mergeCell ref="J153:J155"/>
+    <mergeCell ref="K153:K155"/>
+    <mergeCell ref="L153:L155"/>
+    <mergeCell ref="J156:J158"/>
+    <mergeCell ref="K156:K158"/>
+    <mergeCell ref="L156:L158"/>
+    <mergeCell ref="J159:J161"/>
+    <mergeCell ref="K159:K161"/>
+    <mergeCell ref="L159:L161"/>
+    <mergeCell ref="J162:J164"/>
+    <mergeCell ref="K162:K164"/>
+    <mergeCell ref="L162:L164"/>
+    <mergeCell ref="J165:J167"/>
+    <mergeCell ref="K165:K167"/>
+    <mergeCell ref="L165:L167"/>
+    <mergeCell ref="J168:J169"/>
+    <mergeCell ref="K168:K169"/>
+    <mergeCell ref="L168:L169"/>
+    <mergeCell ref="J170:J174"/>
+    <mergeCell ref="K170:K174"/>
+    <mergeCell ref="L170:L174"/>
+    <mergeCell ref="J175:J177"/>
+    <mergeCell ref="K175:K177"/>
+    <mergeCell ref="L175:L177"/>
+    <mergeCell ref="J180:J182"/>
+    <mergeCell ref="K180:K182"/>
+    <mergeCell ref="L180:L182"/>
+    <mergeCell ref="J183:J185"/>
+    <mergeCell ref="K183:K185"/>
+    <mergeCell ref="L183:L185"/>
+    <mergeCell ref="J186:J188"/>
+    <mergeCell ref="K186:K188"/>
+    <mergeCell ref="L186:L188"/>
+    <mergeCell ref="M2:M6"/>
+    <mergeCell ref="M10:M12"/>
+    <mergeCell ref="M13:M17"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="M28:M32"/>
+    <mergeCell ref="M33:M37"/>
+    <mergeCell ref="M38:M44"/>
+    <mergeCell ref="M45:M49"/>
+    <mergeCell ref="M50:M56"/>
+    <mergeCell ref="M57:M59"/>
+    <mergeCell ref="M62:M64"/>
+    <mergeCell ref="M65:M67"/>
+    <mergeCell ref="M68:M70"/>
+    <mergeCell ref="M73:M75"/>
+    <mergeCell ref="M80:M82"/>
+    <mergeCell ref="M83:M85"/>
+    <mergeCell ref="M86:M88"/>
+    <mergeCell ref="M97:M99"/>
+    <mergeCell ref="M100:M102"/>
+    <mergeCell ref="M103:M105"/>
+    <mergeCell ref="M108:M110"/>
+    <mergeCell ref="M114:M116"/>
+    <mergeCell ref="M117:M119"/>
+    <mergeCell ref="M122:M124"/>
+    <mergeCell ref="M125:M129"/>
+    <mergeCell ref="M130:M132"/>
+    <mergeCell ref="M165:M167"/>
+    <mergeCell ref="M168:M169"/>
+    <mergeCell ref="M170:M174"/>
+    <mergeCell ref="M175:M177"/>
+    <mergeCell ref="M180:M182"/>
+    <mergeCell ref="M183:M185"/>
+    <mergeCell ref="M186:M188"/>
+    <mergeCell ref="M192:M194"/>
+    <mergeCell ref="M133:M135"/>
+    <mergeCell ref="M136:M138"/>
+    <mergeCell ref="M139:M143"/>
+    <mergeCell ref="M144:M146"/>
+    <mergeCell ref="M147:M149"/>
+    <mergeCell ref="M153:M155"/>
+    <mergeCell ref="M156:M158"/>
+    <mergeCell ref="M159:M161"/>
+    <mergeCell ref="M162:M164"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
